--- a/public/plantilla-emision-masiva_v2.xlsx
+++ b/public/plantilla-emision-masiva_v2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97412D04-0BFB-4788-9ABD-1E93F85B55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="masiva_online" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Información del destinatario (quien recibirá el envío)</t>
   </si>
@@ -3237,16 +3237,40 @@
   </si>
   <si>
     <t>ZEMITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Sucursal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.605.401-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Parisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diego.parisi.p@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ropa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3388,7 +3412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3581,7 +3605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -3830,7 +3854,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4308,7 +4332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD9"/>
@@ -4341,6 +4365,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1"/>
       <c r="O1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -4356,7 +4381,7 @@
       <c r="O5"/>
     </row>
     <row r="6" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s" s="12">
         <v>0</v>
       </c>
       <c r="E6" s="13"/>
@@ -4364,7 +4389,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" t="s" s="12">
         <v>1</v>
       </c>
       <c r="K6" s="13"/>
@@ -4372,7 +4397,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="12" t="s">
+      <c r="P6" t="s" s="12">
         <v>2</v>
       </c>
       <c r="Q6" s="13"/>
@@ -4381,65 +4406,119 @@
       <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" t="s" s="11">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F8" s="1">
+        <v>971050085</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4560,7 +4639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B7:C30"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -4574,194 +4653,194 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s" s="4">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s" s="4">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s" s="4">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s" s="4">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s" s="4">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s" s="4">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s" s="5">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s" s="5">
         <v>57</v>
       </c>
     </row>
@@ -4774,7 +4853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:D310"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
@@ -6681,7 +6760,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA31A0A-AF31-44E6-BE44-74721D8C8506}">
-  <dimension ref="A1:C778"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6709,9 +6788,8 @@
       <c r="A2" t="s">
         <v>438</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <f>VLOOKUP(A2,$C$2:$C$711,1,FALSE)</f>
-        <v>ACHAO</v>
       </c>
       <c r="C2" t="s">
         <v>438</v>
@@ -6721,9 +6799,8 @@
       <c r="A3" t="s">
         <v>439</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$C$2:$C$711,1,FALSE)</f>
-        <v>AGUA BUENA</v>
       </c>
       <c r="C3" t="s">
         <v>439</v>
@@ -6733,9 +6810,8 @@
       <c r="A4" t="s">
         <v>440</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <f t="shared" si="0"/>
-        <v>AHUI</v>
       </c>
       <c r="C4" t="s">
         <v>440</v>
@@ -6745,9 +6821,8 @@
       <c r="A5" t="s">
         <v>441</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <f t="shared" si="0"/>
-        <v>AIQUINA</v>
       </c>
       <c r="C5" t="s">
         <v>441</v>
@@ -6757,9 +6832,8 @@
       <c r="A6" t="s">
         <v>442</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <f t="shared" si="0"/>
-        <v>ALERCE</v>
       </c>
       <c r="C6" t="s">
         <v>442</v>
@@ -6769,9 +6843,8 @@
       <c r="A7" t="s">
         <v>443</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>ALGARROBAL</v>
       </c>
       <c r="C7" t="s">
         <v>443</v>
@@ -6781,9 +6854,8 @@
       <c r="A8" t="s">
         <v>444</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>ALGARROBITO</v>
       </c>
       <c r="C8" t="s">
         <v>444</v>
@@ -6793,9 +6865,8 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>ALGARROBO</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -6805,9 +6876,8 @@
       <c r="A10" t="s">
         <v>445</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <f t="shared" si="0"/>
-        <v>ALHUE</v>
       </c>
       <c r="C10" t="s">
         <v>445</v>
@@ -6817,9 +6887,8 @@
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v>ALICAHUE</v>
       </c>
       <c r="C11" t="s">
         <v>446</v>
@@ -6829,9 +6898,8 @@
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>ALTO BIO BIO</v>
       </c>
       <c r="C12" t="s">
         <v>447</v>
@@ -6841,9 +6909,8 @@
       <c r="A13" t="s">
         <v>448</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v>ALTO DEL CARMEN</v>
       </c>
       <c r="C13" t="s">
         <v>448</v>
@@ -6853,9 +6920,8 @@
       <c r="A14" t="s">
         <v>449</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>ALTO EL CANELO</v>
       </c>
       <c r="C14" t="s">
         <v>449</v>
@@ -6865,9 +6931,8 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v>ALTO HOSPICIO</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -6877,9 +6942,8 @@
       <c r="A16" t="s">
         <v>450</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <f t="shared" si="0"/>
-        <v>ALTO JAHUEL</v>
       </c>
       <c r="C16" t="s">
         <v>450</v>
@@ -6889,9 +6953,8 @@
       <c r="A17" t="s">
         <v>451</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f t="shared" si="0"/>
-        <v>ALTOVALSOL</v>
       </c>
       <c r="C17" t="s">
         <v>451</v>
@@ -6901,9 +6964,8 @@
       <c r="A18" t="s">
         <v>452</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <f t="shared" si="0"/>
-        <v>ANCUAQUE</v>
       </c>
       <c r="C18" t="s">
         <v>453</v>
@@ -6913,9 +6975,8 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="e">
+      <c r="B19">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C19" t="s">
         <v>452</v>
@@ -6925,9 +6986,8 @@
       <c r="A20" t="s">
         <v>454</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <f t="shared" si="0"/>
-        <v>ANDACOLLO</v>
       </c>
       <c r="C20" t="s">
         <v>454</v>
@@ -6937,9 +6997,8 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <f t="shared" si="0"/>
-        <v>ANGOL</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -6949,9 +7008,8 @@
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="e">
+      <c r="B22">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C22" t="s">
         <v>455</v>
@@ -6961,9 +7019,8 @@
       <c r="A23" t="s">
         <v>455</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <f t="shared" si="0"/>
-        <v>ANTIHUALA</v>
       </c>
       <c r="C23" t="s">
         <v>456</v>
@@ -6973,9 +7030,8 @@
       <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="e">
+      <c r="B24">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C24" t="s">
         <v>457</v>
@@ -6985,9 +7041,8 @@
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="e">
+      <c r="B25">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C25" t="s">
         <v>458</v>
@@ -6997,9 +7052,8 @@
       <c r="A26" t="s">
         <v>456</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <f t="shared" si="0"/>
-        <v>ANTUCO</v>
       </c>
       <c r="C26" t="s">
         <v>459</v>
@@ -7009,9 +7063,8 @@
       <c r="A27" t="s">
         <v>457</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <f t="shared" si="0"/>
-        <v>ARAUCO</v>
       </c>
       <c r="C27" t="s">
         <v>460</v>
@@ -7021,9 +7074,8 @@
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C28" t="s">
         <v>461</v>
@@ -7033,9 +7085,8 @@
       <c r="A29" t="s">
         <v>458</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29">
         <f t="shared" si="0"/>
-        <v>ARTIFICIO</v>
       </c>
       <c r="C29" t="s">
         <v>462</v>
@@ -7045,9 +7096,8 @@
       <c r="A30" t="s">
         <v>459</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30">
         <f t="shared" si="0"/>
-        <v>BAHIA INGLESA</v>
       </c>
       <c r="C30" t="s">
         <v>463</v>
@@ -7057,9 +7107,8 @@
       <c r="A31" t="s">
         <v>460</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31">
         <f t="shared" si="0"/>
-        <v>BAHIA MANSA</v>
       </c>
       <c r="C31" t="s">
         <v>464</v>
@@ -7069,9 +7118,8 @@
       <c r="A32" t="s">
         <v>461</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32">
         <f t="shared" si="0"/>
-        <v>BAHIA MURTA</v>
       </c>
       <c r="C32" t="s">
         <v>465</v>
@@ -7081,9 +7129,8 @@
       <c r="A33" t="s">
         <v>462</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33">
         <f t="shared" si="0"/>
-        <v>BALMACEDA</v>
       </c>
       <c r="C33" t="s">
         <v>466</v>
@@ -7093,9 +7140,8 @@
       <c r="A34" t="s">
         <v>463</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34">
         <f t="shared" si="0"/>
-        <v>BAQUEDANO</v>
       </c>
       <c r="C34" t="s">
         <v>467</v>
@@ -7105,9 +7151,8 @@
       <c r="A35" t="s">
         <v>464</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35">
         <f t="shared" si="0"/>
-        <v>BARROS ARANA</v>
       </c>
       <c r="C35" t="s">
         <v>468</v>
@@ -7117,9 +7162,8 @@
       <c r="A36" t="s">
         <v>465</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36">
         <f t="shared" si="0"/>
-        <v>BATUCO (RM)</v>
       </c>
       <c r="C36" t="s">
         <v>469</v>
@@ -7129,9 +7173,8 @@
       <c r="A37" t="s">
         <v>466</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37">
         <f t="shared" si="0"/>
-        <v>BATUCO (TALCA)</v>
       </c>
       <c r="C37" t="s">
         <v>470</v>
@@ -7141,9 +7184,8 @@
       <c r="A38" t="s">
         <v>467</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <f t="shared" si="0"/>
-        <v>BELEN</v>
       </c>
       <c r="C38" t="s">
         <v>471</v>
@@ -7153,9 +7195,8 @@
       <c r="A39" t="s">
         <v>468</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <f t="shared" si="0"/>
-        <v>BELLOTO</v>
       </c>
       <c r="C39" t="s">
         <v>472</v>
@@ -7165,9 +7206,8 @@
       <c r="A40" t="s">
         <v>469</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <f t="shared" si="0"/>
-        <v>BOBADILLA</v>
       </c>
       <c r="C40" t="s">
         <v>473</v>
@@ -7177,9 +7217,8 @@
       <c r="A41" t="s">
         <v>470</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <f t="shared" si="0"/>
-        <v>BOCO DE QUILLOTA</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -7189,9 +7228,8 @@
       <c r="A42" t="s">
         <v>471</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <f t="shared" si="0"/>
-        <v>BOLLENAR</v>
       </c>
       <c r="C42" t="s">
         <v>116</v>
@@ -7201,9 +7239,8 @@
       <c r="A43" t="s">
         <v>472</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <f t="shared" si="0"/>
-        <v>BUCALEMU</v>
       </c>
       <c r="C43" t="s">
         <v>120</v>
@@ -7213,9 +7250,8 @@
       <c r="A44" t="s">
         <v>473</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44">
         <f t="shared" si="0"/>
-        <v>BUCHUPUREO</v>
       </c>
       <c r="C44" t="s">
         <v>122</v>
@@ -7225,9 +7261,8 @@
       <c r="A45" t="s">
         <v>114</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <f t="shared" si="0"/>
-        <v>BUIN</v>
       </c>
       <c r="C45" t="s">
         <v>474</v>
@@ -7237,9 +7272,8 @@
       <c r="A46" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46">
         <f t="shared" si="0"/>
-        <v>BULNES</v>
       </c>
       <c r="C46" t="s">
         <v>475</v>
@@ -7249,9 +7283,8 @@
       <c r="A47" t="s">
         <v>120</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47">
         <f t="shared" si="0"/>
-        <v>CABILDO</v>
       </c>
       <c r="C47" t="s">
         <v>476</v>
@@ -7261,9 +7294,8 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48">
         <f t="shared" si="0"/>
-        <v>CABRERO</v>
       </c>
       <c r="C48" t="s">
         <v>477</v>
@@ -7273,9 +7305,8 @@
       <c r="A49" t="s">
         <v>474</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49">
         <f t="shared" si="0"/>
-        <v>CABURGA</v>
       </c>
       <c r="C49" t="s">
         <v>478</v>
@@ -7285,9 +7316,8 @@
       <c r="A50" t="s">
         <v>475</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50">
         <f t="shared" si="0"/>
-        <v>CACHAGUA</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -7297,9 +7327,8 @@
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="e">
+      <c r="B51">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C51" t="s">
         <v>480</v>
@@ -7309,9 +7338,8 @@
       <c r="A52" t="s">
         <v>477</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52">
         <f t="shared" si="0"/>
-        <v>CAHUIL</v>
       </c>
       <c r="C52" t="s">
         <v>481</v>
@@ -7321,9 +7349,8 @@
       <c r="A53" t="s">
         <v>478</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53">
         <f t="shared" si="0"/>
-        <v>CAIMANES</v>
       </c>
       <c r="C53" t="s">
         <v>128</v>
@@ -7333,9 +7360,8 @@
       <c r="A54" t="s">
         <v>479</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54">
         <f t="shared" si="0"/>
-        <v>CAJON</v>
       </c>
       <c r="C54" t="s">
         <v>482</v>
@@ -7345,9 +7371,8 @@
       <c r="A55" t="s">
         <v>480</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55">
         <f t="shared" si="0"/>
-        <v>CAJON DEL MAIPO</v>
       </c>
       <c r="C55" t="s">
         <v>483</v>
@@ -7357,9 +7382,8 @@
       <c r="A56" t="s">
         <v>481</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56">
         <f t="shared" si="0"/>
-        <v>CALAFQUEN</v>
       </c>
       <c r="C56" t="s">
         <v>484</v>
@@ -7369,9 +7393,8 @@
       <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="e">
+      <c r="B57">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
       <c r="C57" t="s">
         <v>485</v>
@@ -7381,9 +7404,8 @@
       <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58">
         <f t="shared" si="0"/>
-        <v>CALBUCO</v>
       </c>
       <c r="C58" t="s">
         <v>486</v>
@@ -7393,9 +7415,8 @@
       <c r="A59" t="s">
         <v>482</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59">
         <f t="shared" si="0"/>
-        <v>CALDERA</v>
       </c>
       <c r="C59" t="s">
         <v>487</v>
@@ -7405,9 +7426,8 @@
       <c r="A60" t="s">
         <v>483</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60">
         <f t="shared" si="0"/>
-        <v>CALERA DE TANGO</v>
       </c>
       <c r="C60" t="s">
         <v>488</v>
@@ -7417,9 +7437,8 @@
       <c r="A61" t="s">
         <v>484</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <f t="shared" si="0"/>
-        <v>CALETA ANDRADE</v>
       </c>
       <c r="C61" t="s">
         <v>489</v>
@@ -7429,9 +7448,8 @@
       <c r="A62" t="s">
         <v>485</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62">
         <f t="shared" si="0"/>
-        <v>CALETA BUENA</v>
       </c>
       <c r="C62" t="s">
         <v>490</v>
@@ -7441,9 +7459,8 @@
       <c r="A63" t="s">
         <v>486</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63">
         <f t="shared" si="0"/>
-        <v>CALETA GONZALO</v>
       </c>
       <c r="C63" t="s">
         <v>491</v>
@@ -7453,9 +7470,8 @@
       <c r="A64" t="s">
         <v>487</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64">
         <f t="shared" si="0"/>
-        <v>CALETONES</v>
       </c>
       <c r="C64" t="s">
         <v>492</v>
@@ -7465,9 +7481,8 @@
       <c r="A65" t="s">
         <v>488</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65">
         <f t="shared" si="0"/>
-        <v>CALLE LARGA</v>
       </c>
       <c r="C65" t="s">
         <v>493</v>
@@ -7477,9 +7492,8 @@
       <c r="A66" t="s">
         <v>489</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66">
         <f t="shared" si="0"/>
-        <v>CAMARICO</v>
       </c>
       <c r="C66" t="s">
         <v>494</v>
@@ -7489,9 +7503,8 @@
       <c r="A67" t="s">
         <v>490</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67">
         <f t="shared" ref="B67:B130" si="1">VLOOKUP(A67,$C$2:$C$711,1,FALSE)</f>
-        <v>CAMARONES</v>
       </c>
       <c r="C67" t="s">
         <v>495</v>
@@ -7501,9 +7514,8 @@
       <c r="A68" t="s">
         <v>491</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68">
         <f t="shared" si="1"/>
-        <v>CAMERON</v>
       </c>
       <c r="C68" t="s">
         <v>496</v>
@@ -7513,9 +7525,8 @@
       <c r="A69" t="s">
         <v>492</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69">
         <f t="shared" si="1"/>
-        <v>CAMINA</v>
       </c>
       <c r="C69" t="s">
         <v>497</v>
@@ -7525,9 +7536,8 @@
       <c r="A70" t="s">
         <v>493</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70">
         <f t="shared" si="1"/>
-        <v>CAMPANARIO</v>
       </c>
       <c r="C70" t="s">
         <v>498</v>
@@ -7537,9 +7547,8 @@
       <c r="A71" t="s">
         <v>494</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71">
         <f t="shared" si="1"/>
-        <v>CANCOSA</v>
       </c>
       <c r="C71" t="s">
         <v>136</v>
@@ -7549,9 +7558,8 @@
       <c r="A72" t="s">
         <v>495</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72">
         <f t="shared" si="1"/>
-        <v>CANELA</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
@@ -7561,9 +7569,8 @@
       <c r="A73" t="s">
         <v>83</v>
       </c>
-      <c r="B73" t="e">
+      <c r="B73">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C73" t="s">
         <v>500</v>
@@ -7573,9 +7580,8 @@
       <c r="A74" t="s">
         <v>496</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74">
         <f t="shared" si="1"/>
-        <v>CANTO DE AGUA</v>
       </c>
       <c r="C74" t="s">
         <v>501</v>
@@ -7585,9 +7591,8 @@
       <c r="A75" t="s">
         <v>497</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75">
         <f t="shared" si="1"/>
-        <v>CAPITAN PASTENE</v>
       </c>
       <c r="C75" t="s">
         <v>502</v>
@@ -7597,9 +7602,8 @@
       <c r="A76" t="s">
         <v>498</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76">
         <f t="shared" si="1"/>
-        <v>CAQUENA</v>
       </c>
       <c r="C76" t="s">
         <v>503</v>
@@ -7609,9 +7613,8 @@
       <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77">
         <f t="shared" si="1"/>
-        <v>CARAHUE</v>
       </c>
       <c r="C77" t="s">
         <v>504</v>
@@ -7621,9 +7624,8 @@
       <c r="A78" t="s">
         <v>499</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78">
         <f t="shared" si="1"/>
-        <v>CARAMPANGUE</v>
       </c>
       <c r="C78" t="s">
         <v>505</v>
@@ -7633,9 +7635,8 @@
       <c r="A79" t="s">
         <v>500</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79">
         <f t="shared" si="1"/>
-        <v>CARELMAPU</v>
       </c>
       <c r="C79" t="s">
         <v>506</v>
@@ -7645,9 +7646,8 @@
       <c r="A80" t="s">
         <v>501</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80">
         <f t="shared" si="1"/>
-        <v>CAREN</v>
       </c>
       <c r="C80" t="s">
         <v>507</v>
@@ -7657,9 +7657,8 @@
       <c r="A81" t="s">
         <v>502</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81">
         <f t="shared" si="1"/>
-        <v>CARIQUIMA</v>
       </c>
       <c r="C81" t="s">
         <v>508</v>
@@ -7669,9 +7668,8 @@
       <c r="A82" t="s">
         <v>503</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82">
         <f t="shared" si="1"/>
-        <v>CARRIZAL BAJO</v>
       </c>
       <c r="C82" t="s">
         <v>509</v>
@@ -7681,9 +7679,8 @@
       <c r="A83" t="s">
         <v>504</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83">
         <f t="shared" si="1"/>
-        <v>CARTAGENA</v>
       </c>
       <c r="C83" t="s">
         <v>510</v>
@@ -7693,9 +7690,8 @@
       <c r="A84" t="s">
         <v>505</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84">
         <f t="shared" si="1"/>
-        <v>CASABLANCA</v>
       </c>
       <c r="C84" t="s">
         <v>511</v>
@@ -7705,9 +7701,8 @@
       <c r="A85" t="s">
         <v>506</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85">
         <f t="shared" si="1"/>
-        <v>CASMA</v>
       </c>
       <c r="C85" t="s">
         <v>512</v>
@@ -7717,9 +7712,8 @@
       <c r="A86" t="s">
         <v>507</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86">
         <f t="shared" si="1"/>
-        <v>CASPANA</v>
       </c>
       <c r="C86" t="s">
         <v>513</v>
@@ -7729,9 +7723,8 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="e">
+      <c r="B87">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C87" t="s">
         <v>514</v>
@@ -7741,9 +7734,8 @@
       <c r="A88" t="s">
         <v>508</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88">
         <f t="shared" si="1"/>
-        <v>CATAPILCO</v>
       </c>
       <c r="C88" t="s">
         <v>515</v>
@@ -7753,9 +7745,8 @@
       <c r="A89" t="s">
         <v>509</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89">
         <f t="shared" si="1"/>
-        <v>CATEMU</v>
       </c>
       <c r="C89" t="s">
         <v>516</v>
@@ -7765,9 +7756,8 @@
       <c r="A90" t="s">
         <v>510</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90">
         <f t="shared" si="1"/>
-        <v>CAULIN</v>
       </c>
       <c r="C90" t="s">
         <v>517</v>
@@ -7777,9 +7767,8 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="e">
+      <c r="B91">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C91" t="s">
         <v>518</v>
@@ -7789,9 +7778,8 @@
       <c r="A92" t="s">
         <v>511</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92">
         <f t="shared" si="1"/>
-        <v>CAYUCUPIL</v>
       </c>
       <c r="C92" t="s">
         <v>519</v>
@@ -7801,9 +7789,8 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="e">
+      <c r="B93">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C93" t="s">
         <v>520</v>
@@ -7813,9 +7800,8 @@
       <c r="A94" t="s">
         <v>513</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94">
         <f t="shared" si="1"/>
-        <v>CERRILLOS DE TAMAYA</v>
       </c>
       <c r="C94" t="s">
         <v>521</v>
@@ -7825,9 +7811,8 @@
       <c r="A95" t="s">
         <v>514</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95">
         <f t="shared" si="1"/>
-        <v>CERRO ALTO</v>
       </c>
       <c r="C95" t="s">
         <v>522</v>
@@ -7837,9 +7822,8 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="e">
+      <c r="B96">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C96" t="s">
         <v>523</v>
@@ -7849,9 +7833,8 @@
       <c r="A97" t="s">
         <v>515</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97">
         <f t="shared" si="1"/>
-        <v>CERRO SOMBRERO</v>
       </c>
       <c r="C97" t="s">
         <v>524</v>
@@ -7861,9 +7844,8 @@
       <c r="A98" t="s">
         <v>516</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98">
         <f t="shared" si="1"/>
-        <v>CHACAO</v>
       </c>
       <c r="C98" t="s">
         <v>525</v>
@@ -7873,9 +7855,8 @@
       <c r="A99" t="s">
         <v>517</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99">
         <f t="shared" si="1"/>
-        <v>CHAICA</v>
       </c>
       <c r="C99" t="s">
         <v>526</v>
@@ -7885,9 +7866,8 @@
       <c r="A100" t="s">
         <v>518</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100">
         <f t="shared" si="1"/>
-        <v>CHAITEN</v>
       </c>
       <c r="C100" t="s">
         <v>527</v>
@@ -7897,9 +7877,8 @@
       <c r="A101" t="s">
         <v>519</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101">
         <f t="shared" si="1"/>
-        <v>CHAMPA</v>
       </c>
       <c r="C101" t="s">
         <v>528</v>
@@ -7909,9 +7888,8 @@
       <c r="A102" t="s">
         <v>98</v>
       </c>
-      <c r="B102" t="e">
+      <c r="B102">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C102" t="s">
         <v>155</v>
@@ -7921,9 +7899,8 @@
       <c r="A103" t="s">
         <v>520</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103">
         <f t="shared" si="1"/>
-        <v>CHANARAL ALTO</v>
       </c>
       <c r="C103" t="s">
         <v>157</v>
@@ -7933,9 +7910,8 @@
       <c r="A104" t="s">
         <v>521</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104">
         <f t="shared" si="1"/>
-        <v>CHANARAL DE CAREN</v>
       </c>
       <c r="C104" t="s">
         <v>529</v>
@@ -7945,9 +7921,8 @@
       <c r="A105" t="s">
         <v>522</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105">
         <f t="shared" si="1"/>
-        <v>CHANCO</v>
       </c>
       <c r="C105" t="s">
         <v>530</v>
@@ -7957,9 +7932,8 @@
       <c r="A106" t="s">
         <v>523</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106">
         <f t="shared" si="1"/>
-        <v>CHARRUA</v>
       </c>
       <c r="C106" t="s">
         <v>531</v>
@@ -7969,9 +7943,8 @@
       <c r="A107" t="s">
         <v>524</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107">
         <f t="shared" si="1"/>
-        <v>CHAUQUEN</v>
       </c>
       <c r="C107" t="s">
         <v>532</v>
@@ -7981,9 +7954,8 @@
       <c r="A108" t="s">
         <v>525</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108">
         <f t="shared" si="1"/>
-        <v>CHECURA</v>
       </c>
       <c r="C108" t="s">
         <v>533</v>
@@ -7993,9 +7965,8 @@
       <c r="A109" t="s">
         <v>526</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109">
         <f t="shared" si="1"/>
-        <v>CHEPICA</v>
       </c>
       <c r="C109" t="s">
         <v>534</v>
@@ -8005,9 +7976,8 @@
       <c r="A110" t="s">
         <v>527</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110">
         <f t="shared" si="1"/>
-        <v>CHEPU</v>
       </c>
       <c r="C110" t="s">
         <v>535</v>
@@ -8017,9 +7987,8 @@
       <c r="A111" t="s">
         <v>528</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111">
         <f t="shared" si="1"/>
-        <v>CHERQUENCO</v>
       </c>
       <c r="C111" t="s">
         <v>536</v>
@@ -8029,9 +7998,8 @@
       <c r="A112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112">
         <f t="shared" si="1"/>
-        <v>CHICUREO</v>
       </c>
       <c r="C112" t="s">
         <v>537</v>
@@ -8041,9 +8009,8 @@
       <c r="A113" t="s">
         <v>157</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113">
         <f t="shared" si="1"/>
-        <v>CHIGUAYANTE</v>
       </c>
       <c r="C113" t="s">
         <v>538</v>
@@ -8053,9 +8020,8 @@
       <c r="A114" t="s">
         <v>529</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114">
         <f t="shared" si="1"/>
-        <v>CHILCAS</v>
       </c>
       <c r="C114" t="s">
         <v>539</v>
@@ -8065,9 +8031,8 @@
       <c r="A115" t="s">
         <v>530</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115">
         <f t="shared" si="1"/>
-        <v>CHILE CHICO</v>
       </c>
       <c r="C115" t="s">
         <v>540</v>
@@ -8077,9 +8042,8 @@
       <c r="A116" t="s">
         <v>101</v>
       </c>
-      <c r="B116" t="e">
+      <c r="B116">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C116" t="s">
         <v>541</v>
@@ -8089,9 +8053,8 @@
       <c r="A117" t="s">
         <v>531</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B117">
         <f t="shared" si="1"/>
-        <v>CHILLEPIN</v>
       </c>
       <c r="C117" t="s">
         <v>542</v>
@@ -8101,9 +8064,8 @@
       <c r="A118" t="s">
         <v>532</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B118">
         <f t="shared" si="1"/>
-        <v>CHIMBARONGO</v>
       </c>
       <c r="C118" t="s">
         <v>543</v>
@@ -8113,9 +8075,8 @@
       <c r="A119" t="s">
         <v>533</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B119">
         <f t="shared" si="1"/>
-        <v>CHOCALAN</v>
       </c>
       <c r="C119" t="s">
         <v>544</v>
@@ -8125,9 +8086,8 @@
       <c r="A120" t="s">
         <v>534</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120">
         <f t="shared" si="1"/>
-        <v>CHOLCHOL</v>
       </c>
       <c r="C120" t="s">
         <v>545</v>
@@ -8137,9 +8097,8 @@
       <c r="A121" t="s">
         <v>535</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B121">
         <f t="shared" si="1"/>
-        <v>CHOLGUAN</v>
       </c>
       <c r="C121" t="s">
         <v>546</v>
@@ -8149,9 +8108,8 @@
       <c r="A122" t="s">
         <v>536</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B122">
         <f t="shared" si="1"/>
-        <v>CHONCHI</v>
       </c>
       <c r="C122" t="s">
         <v>547</v>
@@ -8161,9 +8119,8 @@
       <c r="A123" t="s">
         <v>537</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B123">
         <f t="shared" si="1"/>
-        <v>CHOROICO</v>
       </c>
       <c r="C123" t="s">
         <v>169</v>
@@ -8173,9 +8130,8 @@
       <c r="A124" t="s">
         <v>538</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B124">
         <f t="shared" si="1"/>
-        <v>CHOSHUENCO</v>
       </c>
       <c r="C124" t="s">
         <v>548</v>
@@ -8185,9 +8141,8 @@
       <c r="A125" t="s">
         <v>539</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B125">
         <f t="shared" si="1"/>
-        <v>CIRUELOS</v>
       </c>
       <c r="C125" t="s">
         <v>549</v>
@@ -8197,9 +8152,8 @@
       <c r="A126" t="s">
         <v>104</v>
       </c>
-      <c r="B126" t="e">
+      <c r="B126">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="C126" t="s">
         <v>550</v>
@@ -8209,9 +8163,8 @@
       <c r="A127" t="s">
         <v>540</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127">
         <f t="shared" si="1"/>
-        <v>CIUDAD DE LOS VALLES</v>
       </c>
       <c r="C127" t="s">
         <v>551</v>
@@ -8221,9 +8174,8 @@
       <c r="A128" t="s">
         <v>541</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128">
         <f t="shared" si="1"/>
-        <v>COBIJA</v>
       </c>
       <c r="C128" t="s">
         <v>552</v>
@@ -8233,9 +8185,8 @@
       <c r="A129" t="s">
         <v>542</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129">
         <f t="shared" si="1"/>
-        <v>COBQUECURA</v>
       </c>
       <c r="C129" t="s">
         <v>553</v>
@@ -8245,9 +8196,8 @@
       <c r="A130" t="s">
         <v>543</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B130">
         <f t="shared" si="1"/>
-        <v>COCHAMO</v>
       </c>
       <c r="C130" t="s">
         <v>554</v>
@@ -8257,9 +8207,8 @@
       <c r="A131" t="s">
         <v>544</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B131">
         <f t="shared" ref="B131:B194" si="2">VLOOKUP(A131,$C$2:$C$711,1,FALSE)</f>
-        <v>COCHRANE</v>
       </c>
       <c r="C131" t="s">
         <v>171</v>
@@ -8269,9 +8218,8 @@
       <c r="A132" t="s">
         <v>545</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B132">
         <f t="shared" si="2"/>
-        <v>CODEGUA</v>
       </c>
       <c r="C132" t="s">
         <v>555</v>
@@ -8281,9 +8229,8 @@
       <c r="A133" t="s">
         <v>546</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B133">
         <f t="shared" si="2"/>
-        <v>CODIGUA</v>
       </c>
       <c r="C133" t="s">
         <v>556</v>
@@ -8293,9 +8240,8 @@
       <c r="A134" t="s">
         <v>547</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B134">
         <f t="shared" si="2"/>
-        <v>CODPA</v>
       </c>
       <c r="C134" t="s">
         <v>557</v>
@@ -8305,9 +8251,8 @@
       <c r="A135" t="s">
         <v>169</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B135">
         <f t="shared" si="2"/>
-        <v>COELEMU</v>
       </c>
       <c r="C135" t="s">
         <v>558</v>
@@ -8317,9 +8262,8 @@
       <c r="A136" t="s">
         <v>548</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B136">
         <f t="shared" si="2"/>
-        <v>COIHUE</v>
       </c>
       <c r="C136" t="s">
         <v>559</v>
@@ -8329,9 +8273,8 @@
       <c r="A137" t="s">
         <v>549</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B137">
         <f t="shared" si="2"/>
-        <v>COIHUECO</v>
       </c>
       <c r="C137" t="s">
         <v>560</v>
@@ -8341,9 +8284,8 @@
       <c r="A138" t="s">
         <v>550</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B138">
         <f t="shared" si="2"/>
-        <v>COINCO</v>
       </c>
       <c r="C138" t="s">
         <v>176</v>
@@ -8353,9 +8295,8 @@
       <c r="A139" t="s">
         <v>551</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B139">
         <f t="shared" si="2"/>
-        <v>COLBUN</v>
       </c>
       <c r="C139" t="s">
         <v>561</v>
@@ -8365,9 +8306,8 @@
       <c r="A140" t="s">
         <v>552</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B140">
         <f t="shared" si="2"/>
-        <v>COLCHANE</v>
       </c>
       <c r="C140" t="s">
         <v>562</v>
@@ -8377,9 +8317,8 @@
       <c r="A141" t="s">
         <v>553</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B141">
         <f t="shared" si="2"/>
-        <v>COLCURA</v>
       </c>
       <c r="C141" t="s">
         <v>186</v>
@@ -8389,9 +8328,8 @@
       <c r="A142" t="s">
         <v>554</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B142">
         <f t="shared" si="2"/>
-        <v>COLICO</v>
       </c>
       <c r="C142" t="s">
         <v>563</v>
@@ -8401,9 +8339,8 @@
       <c r="A143" t="s">
         <v>171</v>
       </c>
-      <c r="B143" t="str">
+      <c r="B143">
         <f t="shared" si="2"/>
-        <v>COLINA</v>
       </c>
       <c r="C143" t="s">
         <v>564</v>
@@ -8413,9 +8350,8 @@
       <c r="A144" t="s">
         <v>555</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B144">
         <f t="shared" si="2"/>
-        <v>COLIUMO</v>
       </c>
       <c r="C144" t="s">
         <v>198</v>
@@ -8425,9 +8361,8 @@
       <c r="A145" t="s">
         <v>556</v>
       </c>
-      <c r="B145" t="str">
+      <c r="B145">
         <f t="shared" si="2"/>
-        <v>COLLACAGUA</v>
       </c>
       <c r="C145" t="s">
         <v>565</v>
@@ -8437,9 +8372,8 @@
       <c r="A146" t="s">
         <v>557</v>
       </c>
-      <c r="B146" t="str">
+      <c r="B146">
         <f t="shared" si="2"/>
-        <v>COLLIGUAY</v>
       </c>
       <c r="C146" t="s">
         <v>566</v>
@@ -8449,9 +8383,8 @@
       <c r="A147" t="s">
         <v>107</v>
       </c>
-      <c r="B147" t="e">
+      <c r="B147">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C147" t="s">
         <v>567</v>
@@ -8461,9 +8394,8 @@
       <c r="A148" t="s">
         <v>558</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B148">
         <f t="shared" si="2"/>
-        <v>COLONIA MENDOZA</v>
       </c>
       <c r="C148" t="s">
         <v>568</v>
@@ -8473,9 +8405,8 @@
       <c r="A149" t="s">
         <v>559</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B149">
         <f t="shared" si="2"/>
-        <v>COLTAUCO</v>
       </c>
       <c r="C149" t="s">
         <v>569</v>
@@ -8485,9 +8416,8 @@
       <c r="A150" t="s">
         <v>560</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B150">
         <f t="shared" si="2"/>
-        <v>COMBARBALA</v>
       </c>
       <c r="C150" t="s">
         <v>570</v>
@@ -8497,9 +8427,8 @@
       <c r="A151" t="s">
         <v>176</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B151">
         <f t="shared" si="2"/>
-        <v>CONARIPE</v>
       </c>
       <c r="C151" t="s">
         <v>571</v>
@@ -8509,9 +8438,8 @@
       <c r="A152" t="s">
         <v>561</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B152">
         <f t="shared" si="2"/>
-        <v>CONAY</v>
       </c>
       <c r="C152" t="s">
         <v>572</v>
@@ -8521,9 +8449,8 @@
       <c r="A153" t="s">
         <v>109</v>
       </c>
-      <c r="B153" t="e">
+      <c r="B153">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C153" t="s">
         <v>201</v>
@@ -8533,9 +8460,8 @@
       <c r="A154" t="s">
         <v>111</v>
       </c>
-      <c r="B154" t="e">
+      <c r="B154">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C154" t="s">
         <v>573</v>
@@ -8545,9 +8471,8 @@
       <c r="A155" t="s">
         <v>562</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B155">
         <f t="shared" si="2"/>
-        <v>CONCON</v>
       </c>
       <c r="C155" t="s">
         <v>574</v>
@@ -8557,9 +8482,8 @@
       <c r="A156" t="s">
         <v>186</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B156">
         <f t="shared" si="2"/>
-        <v>CONSTITUCION</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -8569,9 +8493,8 @@
       <c r="A157" t="s">
         <v>563</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B157">
         <f t="shared" si="2"/>
-        <v>CONTULMO</v>
       </c>
       <c r="C157" t="s">
         <v>205</v>
@@ -8581,9 +8504,8 @@
       <c r="A158" t="s">
         <v>113</v>
       </c>
-      <c r="B158" t="e">
+      <c r="B158">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C158" t="s">
         <v>575</v>
@@ -8593,9 +8515,8 @@
       <c r="A159" t="s">
         <v>564</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B159">
         <f t="shared" si="2"/>
-        <v>COPIULEMU</v>
       </c>
       <c r="C159" t="s">
         <v>207</v>
@@ -8605,9 +8526,8 @@
       <c r="A160" t="s">
         <v>115</v>
       </c>
-      <c r="B160" t="e">
+      <c r="B160">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C160" t="s">
         <v>576</v>
@@ -8617,9 +8537,8 @@
       <c r="A161" t="s">
         <v>198</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B161">
         <f t="shared" si="2"/>
-        <v>CORONEL</v>
       </c>
       <c r="C161" t="s">
         <v>577</v>
@@ -8629,9 +8548,8 @@
       <c r="A162" t="s">
         <v>565</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B162">
         <f t="shared" si="2"/>
-        <v>CORRAL</v>
       </c>
       <c r="C162" t="s">
         <v>209</v>
@@ -8641,9 +8559,8 @@
       <c r="A163" t="s">
         <v>566</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B163">
         <f t="shared" si="2"/>
-        <v>COSAPILLA</v>
       </c>
       <c r="C163" t="s">
         <v>578</v>
@@ -8653,9 +8570,8 @@
       <c r="A164" t="s">
         <v>567</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B164">
         <f t="shared" si="2"/>
-        <v>COYA</v>
       </c>
       <c r="C164" t="s">
         <v>579</v>
@@ -8665,9 +8581,8 @@
       <c r="A165" t="s">
         <v>117</v>
       </c>
-      <c r="B165" t="e">
+      <c r="B165">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C165" t="s">
         <v>580</v>
@@ -8677,9 +8592,8 @@
       <c r="A166" t="s">
         <v>568</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B166">
         <f t="shared" si="2"/>
-        <v>COZ COZ</v>
       </c>
       <c r="C166" t="s">
         <v>581</v>
@@ -8689,9 +8603,8 @@
       <c r="A167" t="s">
         <v>569</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B167">
         <f t="shared" si="2"/>
-        <v>CULENAR</v>
       </c>
       <c r="C167" t="s">
         <v>582</v>
@@ -8701,9 +8614,8 @@
       <c r="A168" t="s">
         <v>570</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B168">
         <f t="shared" si="2"/>
-        <v>CULIPRAN</v>
       </c>
       <c r="C168" t="s">
         <v>583</v>
@@ -8713,9 +8625,8 @@
       <c r="A169" t="s">
         <v>571</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B169">
         <f t="shared" si="2"/>
-        <v>CUMPEO</v>
       </c>
       <c r="C169" t="s">
         <v>584</v>
@@ -8725,9 +8636,8 @@
       <c r="A170" t="s">
         <v>572</v>
       </c>
-      <c r="B170" t="str">
+      <c r="B170">
         <f t="shared" si="2"/>
-        <v>CUNACO</v>
       </c>
       <c r="C170" t="s">
         <v>585</v>
@@ -8737,9 +8647,8 @@
       <c r="A171" t="s">
         <v>201</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B171">
         <f t="shared" si="2"/>
-        <v>CUNCO</v>
       </c>
       <c r="C171" t="s">
         <v>586</v>
@@ -8749,9 +8658,8 @@
       <c r="A172" t="s">
         <v>573</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B172">
         <f t="shared" si="2"/>
-        <v>CUNCUMEN</v>
       </c>
       <c r="C172" t="s">
         <v>587</v>
@@ -8761,9 +8669,8 @@
       <c r="A173" t="s">
         <v>574</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B173">
         <f t="shared" si="2"/>
-        <v>CURACALCO</v>
       </c>
       <c r="C173" t="s">
         <v>588</v>
@@ -8773,9 +8680,8 @@
       <c r="A174" t="s">
         <v>203</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B174">
         <f t="shared" si="2"/>
-        <v>CURACAUTIN</v>
       </c>
       <c r="C174" t="s">
         <v>589</v>
@@ -8785,9 +8691,8 @@
       <c r="A175" t="s">
         <v>205</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B175">
         <f t="shared" si="2"/>
-        <v>CURACAVI</v>
       </c>
       <c r="C175" t="s">
         <v>590</v>
@@ -8797,9 +8702,8 @@
       <c r="A176" t="s">
         <v>575</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B176">
         <f t="shared" si="2"/>
-        <v>CURACO DE VELEZ</v>
       </c>
       <c r="C176" t="s">
         <v>591</v>
@@ -8809,9 +8713,8 @@
       <c r="A177" t="s">
         <v>207</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B177">
         <f t="shared" si="2"/>
-        <v>CURANILAHUE</v>
       </c>
       <c r="C177" t="s">
         <v>592</v>
@@ -8821,9 +8724,8 @@
       <c r="A178" t="s">
         <v>576</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B178">
         <f t="shared" si="2"/>
-        <v>CURANIPE</v>
       </c>
       <c r="C178" t="s">
         <v>593</v>
@@ -8833,9 +8735,8 @@
       <c r="A179" t="s">
         <v>577</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B179">
         <f t="shared" si="2"/>
-        <v>CURARREHUE</v>
       </c>
       <c r="C179" t="s">
         <v>594</v>
@@ -8845,9 +8746,8 @@
       <c r="A180" t="s">
         <v>209</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B180">
         <f t="shared" si="2"/>
-        <v>CURAUMA</v>
       </c>
       <c r="C180" t="s">
         <v>595</v>
@@ -8857,9 +8757,8 @@
       <c r="A181" t="s">
         <v>578</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B181">
         <f t="shared" si="2"/>
-        <v>CUREPTO</v>
       </c>
       <c r="C181" t="s">
         <v>596</v>
@@ -8869,9 +8768,8 @@
       <c r="A182" t="s">
         <v>119</v>
       </c>
-      <c r="B182" t="e">
+      <c r="B182">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C182" t="s">
         <v>597</v>
@@ -8881,9 +8779,8 @@
       <c r="A183" t="s">
         <v>579</v>
       </c>
-      <c r="B183" t="str">
+      <c r="B183">
         <f t="shared" si="2"/>
-        <v>CURIMON</v>
       </c>
       <c r="C183" t="s">
         <v>598</v>
@@ -8893,9 +8790,8 @@
       <c r="A184" t="s">
         <v>580</v>
       </c>
-      <c r="B184" t="str">
+      <c r="B184">
         <f t="shared" si="2"/>
-        <v>CURINANCO</v>
       </c>
       <c r="C184" t="s">
         <v>599</v>
@@ -8905,9 +8801,8 @@
       <c r="A185" t="s">
         <v>581</v>
       </c>
-      <c r="B185" t="str">
+      <c r="B185">
         <f t="shared" si="2"/>
-        <v>CUYA</v>
       </c>
       <c r="C185" t="s">
         <v>600</v>
@@ -8917,9 +8812,8 @@
       <c r="A186" t="s">
         <v>582</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B186">
         <f t="shared" si="2"/>
-        <v>DALCAHUE</v>
       </c>
       <c r="C186" t="s">
         <v>601</v>
@@ -8929,9 +8823,8 @@
       <c r="A187" t="s">
         <v>583</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B187">
         <f t="shared" si="2"/>
-        <v>DEGAN</v>
       </c>
       <c r="C187" t="s">
         <v>602</v>
@@ -8941,9 +8834,8 @@
       <c r="A188" t="s">
         <v>584</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B188">
         <f t="shared" si="2"/>
-        <v>DICHATO</v>
       </c>
       <c r="C188" t="s">
         <v>603</v>
@@ -8953,9 +8845,8 @@
       <c r="A189" t="s">
         <v>121</v>
       </c>
-      <c r="B189" t="e">
+      <c r="B189">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C189" t="s">
         <v>226</v>
@@ -8965,9 +8856,8 @@
       <c r="A190" t="s">
         <v>585</v>
       </c>
-      <c r="B190" t="str">
+      <c r="B190">
         <f t="shared" si="2"/>
-        <v>DOMEYKO</v>
       </c>
       <c r="C190" t="s">
         <v>232</v>
@@ -8977,9 +8867,8 @@
       <c r="A191" t="s">
         <v>586</v>
       </c>
-      <c r="B191" t="str">
+      <c r="B191">
         <f t="shared" si="2"/>
-        <v>DONIHUE</v>
       </c>
       <c r="C191" t="s">
         <v>604</v>
@@ -8989,9 +8878,8 @@
       <c r="A192" t="s">
         <v>587</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B192">
         <f t="shared" si="2"/>
-        <v>DUAO</v>
       </c>
       <c r="C192" t="s">
         <v>605</v>
@@ -9001,9 +8889,8 @@
       <c r="A193" t="s">
         <v>123</v>
       </c>
-      <c r="B193" t="e">
+      <c r="B193">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="C193" t="s">
         <v>606</v>
@@ -9013,9 +8900,8 @@
       <c r="A194" t="s">
         <v>589</v>
       </c>
-      <c r="B194" t="str">
+      <c r="B194">
         <f t="shared" si="2"/>
-        <v>EL CANELO</v>
       </c>
       <c r="C194" t="s">
         <v>607</v>
@@ -9025,9 +8911,8 @@
       <c r="A195" t="s">
         <v>590</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B195">
         <f t="shared" ref="B195:B258" si="3">VLOOKUP(A195,$C$2:$C$711,1,FALSE)</f>
-        <v>EL CARMEN CHILLAN</v>
       </c>
       <c r="C195" t="s">
         <v>608</v>
@@ -9037,9 +8922,8 @@
       <c r="A196" t="s">
         <v>591</v>
       </c>
-      <c r="B196" t="str">
+      <c r="B196">
         <f t="shared" si="3"/>
-        <v>EL CARMEN RENGO</v>
       </c>
       <c r="C196" t="s">
         <v>609</v>
@@ -9049,9 +8933,8 @@
       <c r="A197" t="s">
         <v>592</v>
       </c>
-      <c r="B197" t="str">
+      <c r="B197">
         <f t="shared" si="3"/>
-        <v>EL COLORADO</v>
       </c>
       <c r="C197" t="s">
         <v>610</v>
@@ -9061,9 +8944,8 @@
       <c r="A198" t="s">
         <v>593</v>
       </c>
-      <c r="B198" t="str">
+      <c r="B198">
         <f t="shared" si="3"/>
-        <v>EL HINOJAL</v>
       </c>
       <c r="C198" t="s">
         <v>611</v>
@@ -9073,9 +8955,8 @@
       <c r="A199" t="s">
         <v>594</v>
       </c>
-      <c r="B199" t="str">
+      <c r="B199">
         <f t="shared" si="3"/>
-        <v>EL INGENIO</v>
       </c>
       <c r="C199" t="s">
         <v>612</v>
@@ -9085,9 +8966,8 @@
       <c r="A200" t="s">
         <v>595</v>
       </c>
-      <c r="B200" t="str">
+      <c r="B200">
         <f t="shared" si="3"/>
-        <v>EL MANZANAR</v>
       </c>
       <c r="C200" t="s">
         <v>613</v>
@@ -9097,9 +8977,8 @@
       <c r="A201" t="s">
         <v>596</v>
       </c>
-      <c r="B201" t="str">
+      <c r="B201">
         <f t="shared" si="3"/>
-        <v>EL MANZANO</v>
       </c>
       <c r="C201" t="s">
         <v>614</v>
@@ -9109,9 +8988,8 @@
       <c r="A202" t="s">
         <v>597</v>
       </c>
-      <c r="B202" t="str">
+      <c r="B202">
         <f t="shared" si="3"/>
-        <v>EL MELOCOTON</v>
       </c>
       <c r="C202" t="s">
         <v>243</v>
@@ -9121,9 +8999,8 @@
       <c r="A203" t="s">
         <v>598</v>
       </c>
-      <c r="B203" t="str">
+      <c r="B203">
         <f t="shared" si="3"/>
-        <v>EL MELON</v>
       </c>
       <c r="C203" t="s">
         <v>615</v>
@@ -9133,9 +9010,8 @@
       <c r="A204" t="s">
         <v>599</v>
       </c>
-      <c r="B204" t="str">
+      <c r="B204">
         <f t="shared" si="3"/>
-        <v>EL MEMBRILLO</v>
       </c>
       <c r="C204" t="s">
         <v>245</v>
@@ -9145,9 +9021,8 @@
       <c r="A205" t="s">
         <v>600</v>
       </c>
-      <c r="B205" t="str">
+      <c r="B205">
         <f t="shared" si="3"/>
-        <v>EL MOLLE</v>
       </c>
       <c r="C205" t="s">
         <v>247</v>
@@ -9157,9 +9032,8 @@
       <c r="A206" t="s">
         <v>601</v>
       </c>
-      <c r="B206" t="str">
+      <c r="B206">
         <f t="shared" si="3"/>
-        <v>EL MONTE</v>
       </c>
       <c r="C206" t="s">
         <v>616</v>
@@ -9169,9 +9043,8 @@
       <c r="A207" t="s">
         <v>602</v>
       </c>
-      <c r="B207" t="str">
+      <c r="B207">
         <f t="shared" si="3"/>
-        <v>EL PALQUI</v>
       </c>
       <c r="C207" t="s">
         <v>249</v>
@@ -9181,9 +9054,8 @@
       <c r="A208" t="s">
         <v>603</v>
       </c>
-      <c r="B208" t="str">
+      <c r="B208">
         <f t="shared" si="3"/>
-        <v>EL PENON</v>
       </c>
       <c r="C208" t="s">
         <v>617</v>
@@ -9193,9 +9065,8 @@
       <c r="A209" t="s">
         <v>226</v>
       </c>
-      <c r="B209" t="str">
+      <c r="B209">
         <f t="shared" si="3"/>
-        <v>EL QUISCO</v>
       </c>
       <c r="C209" t="s">
         <v>251</v>
@@ -9205,9 +9076,8 @@
       <c r="A210" t="s">
         <v>232</v>
       </c>
-      <c r="B210" t="str">
+      <c r="B210">
         <f t="shared" si="3"/>
-        <v>EL SALVADOR</v>
       </c>
       <c r="C210" t="s">
         <v>618</v>
@@ -9217,9 +9087,8 @@
       <c r="A211" t="s">
         <v>604</v>
       </c>
-      <c r="B211" t="str">
+      <c r="B211">
         <f t="shared" si="3"/>
-        <v>EL SAUCE</v>
       </c>
       <c r="C211" t="s">
         <v>252</v>
@@ -9229,9 +9098,8 @@
       <c r="A212" t="s">
         <v>605</v>
       </c>
-      <c r="B212" t="str">
+      <c r="B212">
         <f t="shared" si="3"/>
-        <v>EL TABO</v>
       </c>
       <c r="C212" t="s">
         <v>254</v>
@@ -9241,9 +9109,8 @@
       <c r="A213" t="s">
         <v>606</v>
       </c>
-      <c r="B213" t="str">
+      <c r="B213">
         <f t="shared" si="3"/>
-        <v>EL TAMBO</v>
       </c>
       <c r="C213" t="s">
         <v>619</v>
@@ -9253,9 +9120,8 @@
       <c r="A214" t="s">
         <v>607</v>
       </c>
-      <c r="B214" t="str">
+      <c r="B214">
         <f t="shared" si="3"/>
-        <v>EL TANGUE</v>
       </c>
       <c r="C214" t="s">
         <v>620</v>
@@ -9265,9 +9131,8 @@
       <c r="A215" t="s">
         <v>608</v>
       </c>
-      <c r="B215" t="str">
+      <c r="B215">
         <f t="shared" si="3"/>
-        <v>EMPEDRADO</v>
       </c>
       <c r="C215" t="s">
         <v>621</v>
@@ -9277,9 +9142,8 @@
       <c r="A216" t="s">
         <v>609</v>
       </c>
-      <c r="B216" t="str">
+      <c r="B216">
         <f t="shared" si="3"/>
-        <v>ENSENADA</v>
       </c>
       <c r="C216" t="s">
         <v>622</v>
@@ -9289,9 +9153,8 @@
       <c r="A217" t="s">
         <v>610</v>
       </c>
-      <c r="B217" t="str">
+      <c r="B217">
         <f t="shared" si="3"/>
-        <v>ENTRE LAGOS</v>
       </c>
       <c r="C217" t="s">
         <v>623</v>
@@ -9301,9 +9164,8 @@
       <c r="A218" t="s">
         <v>125</v>
       </c>
-      <c r="B218" t="e">
+      <c r="B218">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
       </c>
       <c r="C218" t="s">
         <v>624</v>
@@ -9313,9 +9175,8 @@
       <c r="A219" t="s">
         <v>127</v>
       </c>
-      <c r="B219" t="e">
+      <c r="B219">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
       </c>
       <c r="C219" t="s">
         <v>625</v>
@@ -9325,9 +9186,8 @@
       <c r="A220" t="s">
         <v>611</v>
       </c>
-      <c r="B220" t="str">
+      <c r="B220">
         <f t="shared" si="3"/>
-        <v>ESQUINA</v>
       </c>
       <c r="C220" t="s">
         <v>626</v>
@@ -9337,9 +9197,8 @@
       <c r="A221" t="s">
         <v>129</v>
       </c>
-      <c r="B221" t="e">
+      <c r="B221">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
       </c>
       <c r="C221" t="s">
         <v>627</v>
@@ -9349,9 +9208,8 @@
       <c r="A222" t="s">
         <v>612</v>
       </c>
-      <c r="B222" t="str">
+      <c r="B222">
         <f t="shared" si="3"/>
-        <v>FARELLONES</v>
       </c>
       <c r="C222" t="s">
         <v>628</v>
@@ -9361,9 +9219,8 @@
       <c r="A223" t="s">
         <v>613</v>
       </c>
-      <c r="B223" t="str">
+      <c r="B223">
         <f t="shared" si="3"/>
-        <v>FILOMENA</v>
       </c>
       <c r="C223" t="s">
         <v>629</v>
@@ -9373,9 +9230,8 @@
       <c r="A224" t="s">
         <v>614</v>
       </c>
-      <c r="B224" t="str">
+      <c r="B224">
         <f t="shared" si="3"/>
-        <v>FLORIDA</v>
       </c>
       <c r="C224" t="s">
         <v>630</v>
@@ -9385,9 +9241,8 @@
       <c r="A225" t="s">
         <v>243</v>
       </c>
-      <c r="B225" t="str">
+      <c r="B225">
         <f t="shared" si="3"/>
-        <v>FREIRE</v>
       </c>
       <c r="C225" t="s">
         <v>631</v>
@@ -9397,9 +9252,8 @@
       <c r="A226" t="s">
         <v>615</v>
       </c>
-      <c r="B226" t="str">
+      <c r="B226">
         <f t="shared" si="3"/>
-        <v>FREIRINA</v>
       </c>
       <c r="C226" t="s">
         <v>632</v>
@@ -9409,9 +9263,8 @@
       <c r="A227" t="s">
         <v>245</v>
       </c>
-      <c r="B227" t="str">
+      <c r="B227">
         <f t="shared" si="3"/>
-        <v>FRESIA</v>
       </c>
       <c r="C227" t="s">
         <v>633</v>
@@ -9421,9 +9274,8 @@
       <c r="A228" t="s">
         <v>247</v>
       </c>
-      <c r="B228" t="str">
+      <c r="B228">
         <f t="shared" si="3"/>
-        <v>FRUTILLAR</v>
       </c>
       <c r="C228" t="s">
         <v>634</v>
@@ -9433,9 +9285,8 @@
       <c r="A229" t="s">
         <v>616</v>
       </c>
-      <c r="B229" t="str">
+      <c r="B229">
         <f t="shared" si="3"/>
-        <v>FUTALEUFU</v>
       </c>
       <c r="C229" t="s">
         <v>635</v>
@@ -9445,9 +9296,8 @@
       <c r="A230" t="s">
         <v>249</v>
       </c>
-      <c r="B230" t="str">
+      <c r="B230">
         <f t="shared" si="3"/>
-        <v>FUTRONO</v>
       </c>
       <c r="C230" t="s">
         <v>636</v>
@@ -9457,9 +9307,8 @@
       <c r="A231" t="s">
         <v>617</v>
       </c>
-      <c r="B231" t="str">
+      <c r="B231">
         <f t="shared" si="3"/>
-        <v>GABRIELA MISTRAL</v>
       </c>
       <c r="C231" t="s">
         <v>637</v>
@@ -9469,9 +9318,8 @@
       <c r="A232" t="s">
         <v>251</v>
       </c>
-      <c r="B232" t="str">
+      <c r="B232">
         <f t="shared" si="3"/>
-        <v>GALVARINO</v>
       </c>
       <c r="C232" t="s">
         <v>638</v>
@@ -9481,9 +9329,8 @@
       <c r="A233" t="s">
         <v>618</v>
       </c>
-      <c r="B233" t="str">
+      <c r="B233">
         <f t="shared" si="3"/>
-        <v>GENERAL LAGOS</v>
       </c>
       <c r="C233" t="s">
         <v>639</v>
@@ -9493,9 +9340,8 @@
       <c r="A234" t="s">
         <v>252</v>
       </c>
-      <c r="B234" t="str">
+      <c r="B234">
         <f t="shared" si="3"/>
-        <v>GORBEA</v>
       </c>
       <c r="C234" t="s">
         <v>640</v>
@@ -9505,9 +9351,8 @@
       <c r="A235" t="s">
         <v>254</v>
       </c>
-      <c r="B235" t="str">
+      <c r="B235">
         <f t="shared" si="3"/>
-        <v>GRANEROS</v>
       </c>
       <c r="C235" t="s">
         <v>641</v>
@@ -9517,9 +9362,8 @@
       <c r="A236" t="s">
         <v>619</v>
       </c>
-      <c r="B236" t="str">
+      <c r="B236">
         <f t="shared" si="3"/>
-        <v>GUADAL</v>
       </c>
       <c r="C236" t="s">
         <v>255</v>
@@ -9529,9 +9373,8 @@
       <c r="A237" t="s">
         <v>620</v>
       </c>
-      <c r="B237" t="str">
+      <c r="B237">
         <f t="shared" si="3"/>
-        <v>GUAITECAS</v>
       </c>
       <c r="C237" t="s">
         <v>642</v>
@@ -9541,9 +9384,8 @@
       <c r="A238" t="s">
         <v>621</v>
       </c>
-      <c r="B238" t="str">
+      <c r="B238">
         <f t="shared" si="3"/>
-        <v>GUALLECO</v>
       </c>
       <c r="C238" t="s">
         <v>643</v>
@@ -9553,9 +9395,8 @@
       <c r="A239" t="s">
         <v>622</v>
       </c>
-      <c r="B239" t="str">
+      <c r="B239">
         <f t="shared" si="3"/>
-        <v>GUANAQUEROS</v>
       </c>
       <c r="C239" t="s">
         <v>644</v>
@@ -9565,9 +9406,8 @@
       <c r="A240" t="s">
         <v>623</v>
       </c>
-      <c r="B240" t="str">
+      <c r="B240">
         <f t="shared" si="3"/>
-        <v>GUANGUALI</v>
       </c>
       <c r="C240" t="s">
         <v>645</v>
@@ -9577,9 +9417,8 @@
       <c r="A241" t="s">
         <v>624</v>
       </c>
-      <c r="B241" t="str">
+      <c r="B241">
         <f t="shared" si="3"/>
-        <v>GUAPILACUY</v>
       </c>
       <c r="C241" t="s">
         <v>646</v>
@@ -9589,9 +9428,8 @@
       <c r="A242" t="s">
         <v>625</v>
       </c>
-      <c r="B242" t="str">
+      <c r="B242">
         <f t="shared" si="3"/>
-        <v>GUARDIA VIEJA</v>
       </c>
       <c r="C242" t="s">
         <v>647</v>
@@ -9601,9 +9439,8 @@
       <c r="A243" t="s">
         <v>626</v>
       </c>
-      <c r="B243" t="str">
+      <c r="B243">
         <f t="shared" si="3"/>
-        <v>GUARILIHUE</v>
       </c>
       <c r="C243" t="s">
         <v>648</v>
@@ -9613,9 +9450,8 @@
       <c r="A244" t="s">
         <v>627</v>
       </c>
-      <c r="B244" t="str">
+      <c r="B244">
         <f t="shared" si="3"/>
-        <v>GUAYACAN</v>
       </c>
       <c r="C244" t="s">
         <v>649</v>
@@ -9625,9 +9461,8 @@
       <c r="A245" t="s">
         <v>628</v>
       </c>
-      <c r="B245" t="str">
+      <c r="B245">
         <f t="shared" si="3"/>
-        <v>HACIENDA LOS ANDES</v>
       </c>
       <c r="C245" t="s">
         <v>258</v>
@@ -9637,9 +9472,8 @@
       <c r="A246" t="s">
         <v>629</v>
       </c>
-      <c r="B246" t="str">
+      <c r="B246">
         <f t="shared" si="3"/>
-        <v>HIJUELAS</v>
       </c>
       <c r="C246" t="s">
         <v>650</v>
@@ -9649,9 +9483,8 @@
       <c r="A247" t="s">
         <v>630</v>
       </c>
-      <c r="B247" t="str">
+      <c r="B247">
         <f t="shared" si="3"/>
-        <v>HORCON</v>
       </c>
       <c r="C247" t="s">
         <v>651</v>
@@ -9661,9 +9494,8 @@
       <c r="A248" t="s">
         <v>631</v>
       </c>
-      <c r="B248" t="str">
+      <c r="B248">
         <f t="shared" si="3"/>
-        <v>HORCON IV</v>
       </c>
       <c r="C248" t="s">
         <v>652</v>
@@ -9673,9 +9505,8 @@
       <c r="A249" t="s">
         <v>632</v>
       </c>
-      <c r="B249" t="str">
+      <c r="B249">
         <f t="shared" si="3"/>
-        <v>HORNITOS</v>
       </c>
       <c r="C249" t="s">
         <v>653</v>
@@ -9685,9 +9516,8 @@
       <c r="A250" t="s">
         <v>633</v>
       </c>
-      <c r="B250" t="str">
+      <c r="B250">
         <f t="shared" si="3"/>
-        <v>HORNOPIREN</v>
       </c>
       <c r="C250" t="s">
         <v>654</v>
@@ -9697,9 +9527,8 @@
       <c r="A251" t="s">
         <v>634</v>
       </c>
-      <c r="B251" t="str">
+      <c r="B251">
         <f t="shared" si="3"/>
-        <v>HOSPITAL</v>
       </c>
       <c r="C251" t="s">
         <v>655</v>
@@ -9709,9 +9538,8 @@
       <c r="A252" t="s">
         <v>635</v>
       </c>
-      <c r="B252" t="str">
+      <c r="B252">
         <f t="shared" si="3"/>
-        <v>HUALAIHUE</v>
       </c>
       <c r="C252" t="s">
         <v>656</v>
@@ -9721,9 +9549,8 @@
       <c r="A253" t="s">
         <v>636</v>
       </c>
-      <c r="B253" t="str">
+      <c r="B253">
         <f t="shared" si="3"/>
-        <v>HUALANE</v>
       </c>
       <c r="C253" t="s">
         <v>657</v>
@@ -9733,9 +9560,8 @@
       <c r="A254" t="s">
         <v>131</v>
       </c>
-      <c r="B254" t="e">
+      <c r="B254">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
       </c>
       <c r="C254" t="s">
         <v>658</v>
@@ -9745,9 +9571,8 @@
       <c r="A255" t="s">
         <v>637</v>
       </c>
-      <c r="B255" t="str">
+      <c r="B255">
         <f t="shared" si="3"/>
-        <v>HUALPENCILLO</v>
       </c>
       <c r="C255" t="s">
         <v>659</v>
@@ -9757,9 +9582,8 @@
       <c r="A256" t="s">
         <v>638</v>
       </c>
-      <c r="B256" t="str">
+      <c r="B256">
         <f t="shared" si="3"/>
-        <v>HUALPIN</v>
       </c>
       <c r="C256" t="s">
         <v>660</v>
@@ -9769,9 +9593,8 @@
       <c r="A257" t="s">
         <v>639</v>
       </c>
-      <c r="B257" t="str">
+      <c r="B257">
         <f t="shared" si="3"/>
-        <v>HUALQUI</v>
       </c>
       <c r="C257" t="s">
         <v>661</v>
@@ -9781,9 +9604,8 @@
       <c r="A258" t="s">
         <v>640</v>
       </c>
-      <c r="B258" t="str">
+      <c r="B258">
         <f t="shared" si="3"/>
-        <v>HUAMALATA</v>
       </c>
       <c r="C258" t="s">
         <v>662</v>
@@ -9793,9 +9615,8 @@
       <c r="A259" t="s">
         <v>641</v>
       </c>
-      <c r="B259" t="str">
+      <c r="B259">
         <f t="shared" ref="B259:B322" si="4">VLOOKUP(A259,$C$2:$C$711,1,FALSE)</f>
-        <v>HUARA</v>
       </c>
       <c r="C259" t="s">
         <v>663</v>
@@ -9805,9 +9626,8 @@
       <c r="A260" t="s">
         <v>255</v>
       </c>
-      <c r="B260" t="str">
+      <c r="B260">
         <f t="shared" si="4"/>
-        <v>HUASCO</v>
       </c>
       <c r="C260" t="s">
         <v>664</v>
@@ -9817,9 +9637,8 @@
       <c r="A261" t="s">
         <v>133</v>
       </c>
-      <c r="B261" t="e">
+      <c r="B261">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C261" t="s">
         <v>665</v>
@@ -9829,9 +9648,8 @@
       <c r="A262" t="s">
         <v>642</v>
       </c>
-      <c r="B262" t="str">
+      <c r="B262">
         <f t="shared" si="4"/>
-        <v>HUELDEN</v>
       </c>
       <c r="C262" t="s">
         <v>666</v>
@@ -9841,9 +9659,8 @@
       <c r="A263" t="s">
         <v>643</v>
       </c>
-      <c r="B263" t="str">
+      <c r="B263">
         <f t="shared" si="4"/>
-        <v>HUELLAHUE</v>
       </c>
       <c r="C263" t="s">
         <v>667</v>
@@ -9853,9 +9670,8 @@
       <c r="A264" t="s">
         <v>644</v>
       </c>
-      <c r="B264" t="str">
+      <c r="B264">
         <f t="shared" si="4"/>
-        <v>HUELQUEN</v>
       </c>
       <c r="C264" t="s">
         <v>668</v>
@@ -9865,9 +9681,8 @@
       <c r="A265" t="s">
         <v>645</v>
       </c>
-      <c r="B265" t="str">
+      <c r="B265">
         <f t="shared" si="4"/>
-        <v>HUENTELAUQUEN</v>
       </c>
       <c r="C265" t="s">
         <v>669</v>
@@ -9877,9 +9692,8 @@
       <c r="A266" t="s">
         <v>646</v>
       </c>
-      <c r="B266" t="str">
+      <c r="B266">
         <f t="shared" si="4"/>
-        <v>HUEPIL</v>
       </c>
       <c r="C266" t="s">
         <v>670</v>
@@ -9889,9 +9703,8 @@
       <c r="A267" t="s">
         <v>648</v>
       </c>
-      <c r="B267" t="str">
+      <c r="B267">
         <f t="shared" si="4"/>
-        <v>HUILLINCO</v>
       </c>
       <c r="C267" t="s">
         <v>671</v>
@@ -9901,9 +9714,8 @@
       <c r="A268" t="s">
         <v>649</v>
       </c>
-      <c r="B268" t="str">
+      <c r="B268">
         <f t="shared" si="4"/>
-        <v>HUINTIL</v>
       </c>
       <c r="C268" t="s">
         <v>672</v>
@@ -9913,9 +9725,8 @@
       <c r="A269" t="s">
         <v>135</v>
       </c>
-      <c r="B269" t="e">
+      <c r="B269">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C269" t="s">
         <v>673</v>
@@ -9925,9 +9736,8 @@
       <c r="A270" t="s">
         <v>258</v>
       </c>
-      <c r="B270" t="str">
+      <c r="B270">
         <f t="shared" si="4"/>
-        <v>ILLAPEL</v>
       </c>
       <c r="C270" t="s">
         <v>674</v>
@@ -9937,9 +9747,8 @@
       <c r="A271" t="s">
         <v>650</v>
       </c>
-      <c r="B271" t="str">
+      <c r="B271">
         <f t="shared" si="4"/>
-        <v>ILOCA</v>
       </c>
       <c r="C271" t="s">
         <v>675</v>
@@ -9949,9 +9758,8 @@
       <c r="A272" t="s">
         <v>137</v>
       </c>
-      <c r="B272" t="e">
+      <c r="B272">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C272" t="s">
         <v>676</v>
@@ -9961,9 +9769,8 @@
       <c r="A273" t="s">
         <v>139</v>
       </c>
-      <c r="B273" t="e">
+      <c r="B273">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C273" t="s">
         <v>677</v>
@@ -9973,9 +9780,8 @@
       <c r="A274" t="s">
         <v>651</v>
       </c>
-      <c r="B274" t="str">
+      <c r="B274">
         <f t="shared" si="4"/>
-        <v>ISLA DE MAIPO</v>
       </c>
       <c r="C274" t="s">
         <v>678</v>
@@ -9985,9 +9791,8 @@
       <c r="A275" t="s">
         <v>140</v>
       </c>
-      <c r="B275" t="e">
+      <c r="B275">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C275" t="s">
         <v>679</v>
@@ -9997,9 +9802,8 @@
       <c r="A276" t="s">
         <v>652</v>
       </c>
-      <c r="B276" t="str">
+      <c r="B276">
         <f t="shared" si="4"/>
-        <v>ISLA JUAN FERNANDEZ</v>
       </c>
       <c r="C276" t="s">
         <v>271</v>
@@ -10009,9 +9813,8 @@
       <c r="A277" t="s">
         <v>653</v>
       </c>
-      <c r="B277" t="str">
+      <c r="B277">
         <f t="shared" si="4"/>
-        <v>ISLA NEGRA</v>
       </c>
       <c r="C277" t="s">
         <v>272</v>
@@ -10021,9 +9824,8 @@
       <c r="A278" t="s">
         <v>654</v>
       </c>
-      <c r="B278" t="str">
+      <c r="B278">
         <f t="shared" si="4"/>
-        <v>ISLA SANTA MARIA</v>
       </c>
       <c r="C278" t="s">
         <v>273</v>
@@ -10033,9 +9835,8 @@
       <c r="A279" t="s">
         <v>655</v>
       </c>
-      <c r="B279" t="str">
+      <c r="B279">
         <f t="shared" si="4"/>
-        <v>ISLUGA</v>
       </c>
       <c r="C279" t="s">
         <v>680</v>
@@ -10045,9 +9846,8 @@
       <c r="A280" t="s">
         <v>656</v>
       </c>
-      <c r="B280" t="str">
+      <c r="B280">
         <f t="shared" si="4"/>
-        <v>JUNCAL</v>
       </c>
       <c r="C280" t="s">
         <v>681</v>
@@ -10057,9 +9857,8 @@
       <c r="A281" t="s">
         <v>657</v>
       </c>
-      <c r="B281" t="str">
+      <c r="B281">
         <f t="shared" si="4"/>
-        <v>LA ARAUCANA</v>
       </c>
       <c r="C281" t="s">
         <v>682</v>
@@ -10069,9 +9868,8 @@
       <c r="A282" t="s">
         <v>658</v>
       </c>
-      <c r="B282" t="str">
+      <c r="B282">
         <f t="shared" si="4"/>
-        <v>LA ARENA</v>
       </c>
       <c r="C282" t="s">
         <v>683</v>
@@ -10081,9 +9879,8 @@
       <c r="A283" t="s">
         <v>659</v>
       </c>
-      <c r="B283" t="str">
+      <c r="B283">
         <f t="shared" si="4"/>
-        <v>LA ARENA PTO MONTT</v>
       </c>
       <c r="C283" t="s">
         <v>684</v>
@@ -10093,9 +9890,8 @@
       <c r="A284" t="s">
         <v>141</v>
       </c>
-      <c r="B284" t="e">
+      <c r="B284">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C284" t="s">
         <v>274</v>
@@ -10105,9 +9901,8 @@
       <c r="A285" t="s">
         <v>660</v>
       </c>
-      <c r="B285" t="str">
+      <c r="B285">
         <f t="shared" si="4"/>
-        <v>LA CEBADA</v>
       </c>
       <c r="C285" t="s">
         <v>685</v>
@@ -10117,9 +9912,8 @@
       <c r="A286" t="s">
         <v>661</v>
       </c>
-      <c r="B286" t="str">
+      <c r="B286">
         <f t="shared" si="4"/>
-        <v>LA CHIMBA</v>
       </c>
       <c r="C286" t="s">
         <v>686</v>
@@ -10129,9 +9923,8 @@
       <c r="A287" t="s">
         <v>143</v>
       </c>
-      <c r="B287" t="e">
+      <c r="B287">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C287" t="s">
         <v>687</v>
@@ -10141,9 +9934,8 @@
       <c r="A288" t="s">
         <v>662</v>
       </c>
-      <c r="B288" t="str">
+      <c r="B288">
         <f t="shared" si="4"/>
-        <v>LA CRUZ</v>
       </c>
       <c r="C288" t="s">
         <v>688</v>
@@ -10153,9 +9945,8 @@
       <c r="A289" t="s">
         <v>663</v>
       </c>
-      <c r="B289" t="str">
+      <c r="B289">
         <f t="shared" si="4"/>
-        <v>LA DORMIDA</v>
       </c>
       <c r="C289" t="s">
         <v>689</v>
@@ -10165,9 +9956,8 @@
       <c r="A290" t="s">
         <v>664</v>
       </c>
-      <c r="B290" t="str">
+      <c r="B290">
         <f t="shared" si="4"/>
-        <v>LA ESTRELLA</v>
       </c>
       <c r="C290" t="s">
         <v>690</v>
@@ -10177,9 +9967,8 @@
       <c r="A291" t="s">
         <v>145</v>
       </c>
-      <c r="B291" t="e">
+      <c r="B291">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C291" t="s">
         <v>691</v>
@@ -10189,9 +9978,8 @@
       <c r="A292" t="s">
         <v>25</v>
       </c>
-      <c r="B292" t="e">
+      <c r="B292">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C292" t="s">
         <v>692</v>
@@ -10201,9 +9989,8 @@
       <c r="A293" t="s">
         <v>665</v>
       </c>
-      <c r="B293" t="str">
+      <c r="B293">
         <f t="shared" si="4"/>
-        <v>LA HAUYCA</v>
       </c>
       <c r="C293" t="s">
         <v>693</v>
@@ -10213,9 +10000,8 @@
       <c r="A294" t="s">
         <v>666</v>
       </c>
-      <c r="B294" t="str">
+      <c r="B294">
         <f t="shared" si="4"/>
-        <v>LA HIGUERA</v>
       </c>
       <c r="C294" t="s">
         <v>694</v>
@@ -10225,9 +10011,8 @@
       <c r="A295" t="s">
         <v>667</v>
       </c>
-      <c r="B295" t="str">
+      <c r="B295">
         <f t="shared" si="4"/>
-        <v>LA JARILLA</v>
       </c>
       <c r="C295" t="s">
         <v>695</v>
@@ -10237,9 +10022,8 @@
       <c r="A296" t="s">
         <v>668</v>
       </c>
-      <c r="B296" t="str">
+      <c r="B296">
         <f t="shared" si="4"/>
-        <v>LA JUNTA</v>
       </c>
       <c r="C296" t="s">
         <v>696</v>
@@ -10249,9 +10033,8 @@
       <c r="A297" t="s">
         <v>148</v>
       </c>
-      <c r="B297" t="e">
+      <c r="B297">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C297" t="s">
         <v>697</v>
@@ -10261,9 +10044,8 @@
       <c r="A298" t="s">
         <v>669</v>
       </c>
-      <c r="B298" t="str">
+      <c r="B298">
         <f t="shared" si="4"/>
-        <v>LA MARQUESA</v>
       </c>
       <c r="C298" t="s">
         <v>698</v>
@@ -10273,9 +10055,8 @@
       <c r="A299" t="s">
         <v>670</v>
       </c>
-      <c r="B299" t="str">
+      <c r="B299">
         <f t="shared" si="4"/>
-        <v>LA NEGRA</v>
       </c>
       <c r="C299" t="s">
         <v>699</v>
@@ -10285,9 +10066,8 @@
       <c r="A300" t="s">
         <v>671</v>
       </c>
-      <c r="B300" t="str">
+      <c r="B300">
         <f t="shared" si="4"/>
-        <v>LA OBRA</v>
       </c>
       <c r="C300" t="s">
         <v>700</v>
@@ -10297,9 +10077,8 @@
       <c r="A301" t="s">
         <v>672</v>
       </c>
-      <c r="B301" t="str">
+      <c r="B301">
         <f t="shared" si="4"/>
-        <v>LA PALMA DE QUILLOTA</v>
       </c>
       <c r="C301" t="s">
         <v>701</v>
@@ -10309,9 +10088,8 @@
       <c r="A302" t="s">
         <v>673</v>
       </c>
-      <c r="B302" t="str">
+      <c r="B302">
         <f t="shared" si="4"/>
-        <v>LA PARVA</v>
       </c>
       <c r="C302" t="s">
         <v>702</v>
@@ -10321,9 +10099,8 @@
       <c r="A303" t="s">
         <v>149</v>
       </c>
-      <c r="B303" t="e">
+      <c r="B303">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C303" t="s">
         <v>703</v>
@@ -10333,9 +10110,8 @@
       <c r="A304" t="s">
         <v>674</v>
       </c>
-      <c r="B304" t="str">
+      <c r="B304">
         <f t="shared" si="4"/>
-        <v>LA PLACILLA (PUNITAQUI)</v>
       </c>
       <c r="C304" t="s">
         <v>704</v>
@@ -10345,9 +10121,8 @@
       <c r="A305" t="s">
         <v>151</v>
       </c>
-      <c r="B305" t="e">
+      <c r="B305">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
       <c r="C305" t="s">
         <v>276</v>
@@ -10357,9 +10132,8 @@
       <c r="A306" t="s">
         <v>675</v>
       </c>
-      <c r="B306" t="str">
+      <c r="B306">
         <f t="shared" si="4"/>
-        <v>LA RETUCA</v>
       </c>
       <c r="C306" t="s">
         <v>705</v>
@@ -10369,9 +10143,8 @@
       <c r="A307" t="s">
         <v>676</v>
       </c>
-      <c r="B307" t="str">
+      <c r="B307">
         <f t="shared" si="4"/>
-        <v>LA RUFINA</v>
       </c>
       <c r="C307" t="s">
         <v>706</v>
@@ -10381,9 +10154,8 @@
       <c r="A308" t="s">
         <v>677</v>
       </c>
-      <c r="B308" t="str">
+      <c r="B308">
         <f t="shared" si="4"/>
-        <v>LA SERENA</v>
       </c>
       <c r="C308" t="s">
         <v>707</v>
@@ -10393,9 +10165,8 @@
       <c r="A309" t="s">
         <v>678</v>
       </c>
-      <c r="B309" t="str">
+      <c r="B309">
         <f t="shared" si="4"/>
-        <v>LA TAPERA</v>
       </c>
       <c r="C309" t="s">
         <v>708</v>
@@ -10405,9 +10176,8 @@
       <c r="A310" t="s">
         <v>679</v>
       </c>
-      <c r="B310" t="str">
+      <c r="B310">
         <f t="shared" si="4"/>
-        <v>LA TIRANA</v>
       </c>
       <c r="C310" t="s">
         <v>709</v>
@@ -10417,9 +10187,8 @@
       <c r="A311" t="s">
         <v>271</v>
       </c>
-      <c r="B311" t="str">
+      <c r="B311">
         <f t="shared" si="4"/>
-        <v>LA UNION</v>
       </c>
       <c r="C311" t="s">
         <v>710</v>
@@ -10429,9 +10198,8 @@
       <c r="A312" t="s">
         <v>272</v>
       </c>
-      <c r="B312" t="str">
+      <c r="B312">
         <f t="shared" si="4"/>
-        <v>LABRANZA</v>
       </c>
       <c r="C312" t="s">
         <v>711</v>
@@ -10441,9 +10209,8 @@
       <c r="A313" t="s">
         <v>273</v>
       </c>
-      <c r="B313" t="str">
+      <c r="B313">
         <f t="shared" si="4"/>
-        <v>LAGO RANCO</v>
       </c>
       <c r="C313" t="s">
         <v>712</v>
@@ -10453,9 +10220,8 @@
       <c r="A314" t="s">
         <v>680</v>
       </c>
-      <c r="B314" t="str">
+      <c r="B314">
         <f t="shared" si="4"/>
-        <v>LAGO VERDE</v>
       </c>
       <c r="C314" t="s">
         <v>713</v>
@@ -10465,9 +10231,8 @@
       <c r="A315" t="s">
         <v>681</v>
       </c>
-      <c r="B315" t="str">
+      <c r="B315">
         <f t="shared" si="4"/>
-        <v>LAGUNA ACULEO</v>
       </c>
       <c r="C315" t="s">
         <v>714</v>
@@ -10477,9 +10242,8 @@
       <c r="A316" t="s">
         <v>682</v>
       </c>
-      <c r="B316" t="str">
+      <c r="B316">
         <f t="shared" si="4"/>
-        <v>LAGUNA BLANCA</v>
       </c>
       <c r="C316" t="s">
         <v>279</v>
@@ -10489,9 +10253,8 @@
       <c r="A317" t="s">
         <v>683</v>
       </c>
-      <c r="B317" t="str">
+      <c r="B317">
         <f t="shared" si="4"/>
-        <v>LAGUNA VERDE</v>
       </c>
       <c r="C317" t="s">
         <v>715</v>
@@ -10501,9 +10264,8 @@
       <c r="A318" t="s">
         <v>684</v>
       </c>
-      <c r="B318" t="str">
+      <c r="B318">
         <f t="shared" si="4"/>
-        <v>LAGUNILLAS</v>
       </c>
       <c r="C318" t="s">
         <v>716</v>
@@ -10513,9 +10275,8 @@
       <c r="A319" t="s">
         <v>274</v>
       </c>
-      <c r="B319" t="str">
+      <c r="B319">
         <f t="shared" si="4"/>
-        <v>LAJA</v>
       </c>
       <c r="C319" t="s">
         <v>717</v>
@@ -10525,9 +10286,8 @@
       <c r="A320" t="s">
         <v>685</v>
       </c>
-      <c r="B320" t="str">
+      <c r="B320">
         <f t="shared" si="4"/>
-        <v>LAJAS BLANCAS</v>
       </c>
       <c r="C320" t="s">
         <v>718</v>
@@ -10537,9 +10297,8 @@
       <c r="A321" t="s">
         <v>686</v>
       </c>
-      <c r="B321" t="str">
+      <c r="B321">
         <f t="shared" si="4"/>
-        <v>LAMPA</v>
       </c>
       <c r="C321" t="s">
         <v>280</v>
@@ -10549,9 +10308,8 @@
       <c r="A322" t="s">
         <v>687</v>
       </c>
-      <c r="B322" t="str">
+      <c r="B322">
         <f t="shared" si="4"/>
-        <v>LANCO</v>
       </c>
       <c r="C322" t="s">
         <v>719</v>
@@ -10561,9 +10319,8 @@
       <c r="A323" t="s">
         <v>688</v>
       </c>
-      <c r="B323" t="str">
+      <c r="B323">
         <f t="shared" ref="B323:B386" si="5">VLOOKUP(A323,$C$2:$C$711,1,FALSE)</f>
-        <v>LARAQUETE</v>
       </c>
       <c r="C323" t="s">
         <v>720</v>
@@ -10573,9 +10330,8 @@
       <c r="A324" t="s">
         <v>689</v>
       </c>
-      <c r="B324" t="str">
+      <c r="B324">
         <f t="shared" si="5"/>
-        <v>LARMAHUE</v>
       </c>
       <c r="C324" t="s">
         <v>721</v>
@@ -10585,9 +10341,8 @@
       <c r="A325" t="s">
         <v>690</v>
       </c>
-      <c r="B325" t="str">
+      <c r="B325">
         <f t="shared" si="5"/>
-        <v>LAS BREAS</v>
       </c>
       <c r="C325" t="s">
         <v>722</v>
@@ -10597,9 +10352,8 @@
       <c r="A326" t="s">
         <v>691</v>
       </c>
-      <c r="B326" t="str">
+      <c r="B326">
         <f t="shared" si="5"/>
-        <v>LAS CABRAS</v>
       </c>
       <c r="C326" t="s">
         <v>723</v>
@@ -10609,9 +10363,8 @@
       <c r="A327" t="s">
         <v>692</v>
       </c>
-      <c r="B327" t="str">
+      <c r="B327">
         <f t="shared" si="5"/>
-        <v>LAS CARDAS</v>
       </c>
       <c r="C327" t="s">
         <v>724</v>
@@ -10621,9 +10374,8 @@
       <c r="A328" t="s">
         <v>693</v>
       </c>
-      <c r="B328" t="str">
+      <c r="B328">
         <f t="shared" si="5"/>
-        <v>LAS CARDAS SUR</v>
       </c>
       <c r="C328" t="s">
         <v>725</v>
@@ -10633,9 +10385,8 @@
       <c r="A329" t="s">
         <v>152</v>
       </c>
-      <c r="B329" t="e">
+      <c r="B329">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C329" t="s">
         <v>726</v>
@@ -10645,9 +10396,8 @@
       <c r="A330" t="s">
         <v>694</v>
       </c>
-      <c r="B330" t="str">
+      <c r="B330">
         <f t="shared" si="5"/>
-        <v>LAS CRUCES</v>
       </c>
       <c r="C330" t="s">
         <v>727</v>
@@ -10657,9 +10407,8 @@
       <c r="A331" t="s">
         <v>695</v>
       </c>
-      <c r="B331" t="str">
+      <c r="B331">
         <f t="shared" si="5"/>
-        <v>LAS DICHAS</v>
       </c>
       <c r="C331" t="s">
         <v>728</v>
@@ -10669,9 +10418,8 @@
       <c r="A332" t="s">
         <v>696</v>
       </c>
-      <c r="B332" t="str">
+      <c r="B332">
         <f t="shared" si="5"/>
-        <v>LAS DUNAS</v>
       </c>
       <c r="C332" t="s">
         <v>729</v>
@@ -10681,9 +10429,8 @@
       <c r="A333" t="s">
         <v>697</v>
       </c>
-      <c r="B333" t="str">
+      <c r="B333">
         <f t="shared" si="5"/>
-        <v>LAS HORTENCIAS</v>
       </c>
       <c r="C333" t="s">
         <v>730</v>
@@ -10693,9 +10440,8 @@
       <c r="A334" t="s">
         <v>698</v>
       </c>
-      <c r="B334" t="str">
+      <c r="B334">
         <f t="shared" si="5"/>
-        <v>LAS NIEVES</v>
       </c>
       <c r="C334" t="s">
         <v>731</v>
@@ -10705,9 +10451,8 @@
       <c r="A335" t="s">
         <v>699</v>
       </c>
-      <c r="B335" t="str">
+      <c r="B335">
         <f t="shared" si="5"/>
-        <v>LAS RAMADAS DE TULAHUEN</v>
       </c>
       <c r="C335" t="s">
         <v>732</v>
@@ -10717,9 +10462,8 @@
       <c r="A336" t="s">
         <v>700</v>
       </c>
-      <c r="B336" t="str">
+      <c r="B336">
         <f t="shared" si="5"/>
-        <v>LAS TACAS</v>
       </c>
       <c r="C336" t="s">
         <v>286</v>
@@ -10729,9 +10473,8 @@
       <c r="A337" t="s">
         <v>701</v>
       </c>
-      <c r="B337" t="str">
+      <c r="B337">
         <f t="shared" si="5"/>
-        <v>LAS TRANCAS</v>
       </c>
       <c r="C337" t="s">
         <v>733</v>
@@ -10741,9 +10484,8 @@
       <c r="A338" t="s">
         <v>702</v>
       </c>
-      <c r="B338" t="str">
+      <c r="B338">
         <f t="shared" si="5"/>
-        <v>LAS VENTANAS</v>
       </c>
       <c r="C338" t="s">
         <v>734</v>
@@ -10753,9 +10495,8 @@
       <c r="A339" t="s">
         <v>703</v>
       </c>
-      <c r="B339" t="str">
+      <c r="B339">
         <f t="shared" si="5"/>
-        <v>LAS VERTIENTES</v>
       </c>
       <c r="C339" t="s">
         <v>735</v>
@@ -10765,9 +10506,8 @@
       <c r="A340" t="s">
         <v>704</v>
       </c>
-      <c r="B340" t="str">
+      <c r="B340">
         <f t="shared" si="5"/>
-        <v>LASANA</v>
       </c>
       <c r="C340" t="s">
         <v>736</v>
@@ -10777,9 +10517,8 @@
       <c r="A341" t="s">
         <v>276</v>
       </c>
-      <c r="B341" t="str">
+      <c r="B341">
         <f t="shared" si="5"/>
-        <v>LAUTARO</v>
       </c>
       <c r="C341" t="s">
         <v>288</v>
@@ -10789,9 +10528,8 @@
       <c r="A342" t="s">
         <v>705</v>
       </c>
-      <c r="B342" t="str">
+      <c r="B342">
         <f t="shared" si="5"/>
-        <v>LEBU</v>
       </c>
       <c r="C342" t="s">
         <v>289</v>
@@ -10801,9 +10539,8 @@
       <c r="A343" t="s">
         <v>706</v>
       </c>
-      <c r="B343" t="str">
+      <c r="B343">
         <f t="shared" si="5"/>
-        <v>LECHAGUA</v>
       </c>
       <c r="C343" t="s">
         <v>737</v>
@@ -10813,9 +10550,8 @@
       <c r="A344" t="s">
         <v>707</v>
       </c>
-      <c r="B344" t="str">
+      <c r="B344">
         <f t="shared" si="5"/>
-        <v>LENCA</v>
       </c>
       <c r="C344" t="s">
         <v>738</v>
@@ -10825,9 +10561,8 @@
       <c r="A345" t="s">
         <v>708</v>
       </c>
-      <c r="B345" t="str">
+      <c r="B345">
         <f t="shared" si="5"/>
-        <v>LEONERA</v>
       </c>
       <c r="C345" t="s">
         <v>739</v>
@@ -10837,9 +10572,8 @@
       <c r="A346" t="s">
         <v>709</v>
       </c>
-      <c r="B346" t="str">
+      <c r="B346">
         <f t="shared" si="5"/>
-        <v>LEYDA</v>
       </c>
       <c r="C346" t="s">
         <v>740</v>
@@ -10849,9 +10583,8 @@
       <c r="A347" t="s">
         <v>154</v>
       </c>
-      <c r="B347" t="e">
+      <c r="B347">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C347" t="s">
         <v>741</v>
@@ -10861,9 +10594,8 @@
       <c r="A348" t="s">
         <v>711</v>
       </c>
-      <c r="B348" t="str">
+      <c r="B348">
         <f t="shared" si="5"/>
-        <v>LICANTEN</v>
       </c>
       <c r="C348" t="s">
         <v>742</v>
@@ -10873,9 +10605,8 @@
       <c r="A349" t="s">
         <v>712</v>
       </c>
-      <c r="B349" t="str">
+      <c r="B349">
         <f t="shared" si="5"/>
-        <v>LIMACHE</v>
       </c>
       <c r="C349" t="s">
         <v>294</v>
@@ -10885,9 +10616,8 @@
       <c r="A350" t="s">
         <v>713</v>
       </c>
-      <c r="B350" t="str">
+      <c r="B350">
         <f t="shared" si="5"/>
-        <v>LIMARI</v>
       </c>
       <c r="C350" t="s">
         <v>743</v>
@@ -10897,9 +10627,8 @@
       <c r="A351" t="s">
         <v>714</v>
       </c>
-      <c r="B351" t="str">
+      <c r="B351">
         <f t="shared" si="5"/>
-        <v>LINAO</v>
       </c>
       <c r="C351" t="s">
         <v>744</v>
@@ -10909,9 +10638,8 @@
       <c r="A352" t="s">
         <v>279</v>
       </c>
-      <c r="B352" t="str">
+      <c r="B352">
         <f t="shared" si="5"/>
-        <v>LINARES</v>
       </c>
       <c r="C352" t="s">
         <v>745</v>
@@ -10921,9 +10649,8 @@
       <c r="A353" t="s">
         <v>715</v>
       </c>
-      <c r="B353" t="str">
+      <c r="B353">
         <f t="shared" si="5"/>
-        <v>LINDEROS</v>
       </c>
       <c r="C353" t="s">
         <v>746</v>
@@ -10933,9 +10660,8 @@
       <c r="A354" t="s">
         <v>716</v>
       </c>
-      <c r="B354" t="str">
+      <c r="B354">
         <f t="shared" si="5"/>
-        <v>LIQUINE</v>
       </c>
       <c r="C354" t="s">
         <v>747</v>
@@ -10945,9 +10671,8 @@
       <c r="A355" t="s">
         <v>717</v>
       </c>
-      <c r="B355" t="str">
+      <c r="B355">
         <f t="shared" si="5"/>
-        <v>LIRIMA</v>
       </c>
       <c r="C355" t="s">
         <v>748</v>
@@ -10957,9 +10682,8 @@
       <c r="A356" t="s">
         <v>718</v>
       </c>
-      <c r="B356" t="str">
+      <c r="B356">
         <f t="shared" si="5"/>
-        <v>LIRQUEN</v>
       </c>
       <c r="C356" t="s">
         <v>749</v>
@@ -10969,9 +10693,8 @@
       <c r="A357" t="s">
         <v>280</v>
       </c>
-      <c r="B357" t="str">
+      <c r="B357">
         <f t="shared" si="5"/>
-        <v>LITUECHE</v>
       </c>
       <c r="C357" t="s">
         <v>750</v>
@@ -10981,9 +10704,8 @@
       <c r="A358" t="s">
         <v>719</v>
       </c>
-      <c r="B358" t="str">
+      <c r="B358">
         <f t="shared" si="5"/>
-        <v>LLAILLAY</v>
       </c>
       <c r="C358" t="s">
         <v>751</v>
@@ -10993,9 +10715,8 @@
       <c r="A359" t="s">
         <v>720</v>
       </c>
-      <c r="B359" t="str">
+      <c r="B359">
         <f t="shared" si="5"/>
-        <v>LLANOS DE GUANTA</v>
       </c>
       <c r="C359" t="s">
         <v>752</v>
@@ -11005,9 +10726,8 @@
       <c r="A360" t="s">
         <v>721</v>
       </c>
-      <c r="B360" t="str">
+      <c r="B360">
         <f t="shared" si="5"/>
-        <v>LLANQUIHUE</v>
       </c>
       <c r="C360" t="s">
         <v>296</v>
@@ -11017,9 +10737,8 @@
       <c r="A361" t="s">
         <v>722</v>
       </c>
-      <c r="B361" t="str">
+      <c r="B361">
         <f t="shared" si="5"/>
-        <v>LLICO</v>
       </c>
       <c r="C361" t="s">
         <v>753</v>
@@ -11029,9 +10748,8 @@
       <c r="A362" t="s">
         <v>723</v>
       </c>
-      <c r="B362" t="str">
+      <c r="B362">
         <f t="shared" si="5"/>
-        <v>LLIFEN</v>
       </c>
       <c r="C362" t="s">
         <v>297</v>
@@ -11041,9 +10759,8 @@
       <c r="A363" t="s">
         <v>724</v>
       </c>
-      <c r="B363" t="str">
+      <c r="B363">
         <f t="shared" si="5"/>
-        <v>LLOLLEO</v>
       </c>
       <c r="C363" t="s">
         <v>754</v>
@@ -11053,9 +10770,8 @@
       <c r="A364" t="s">
         <v>156</v>
       </c>
-      <c r="B364" t="e">
+      <c r="B364">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C364" t="s">
         <v>755</v>
@@ -11065,9 +10781,8 @@
       <c r="A365" t="s">
         <v>727</v>
       </c>
-      <c r="B365" t="str">
+      <c r="B365">
         <f t="shared" si="5"/>
-        <v>LO CHACON</v>
       </c>
       <c r="C365" t="s">
         <v>756</v>
@@ -11077,9 +10792,8 @@
       <c r="A366" t="s">
         <v>158</v>
       </c>
-      <c r="B366" t="e">
+      <c r="B366">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C366" t="s">
         <v>757</v>
@@ -11089,9 +10803,8 @@
       <c r="A367" t="s">
         <v>728</v>
       </c>
-      <c r="B367" t="str">
+      <c r="B367">
         <f t="shared" si="5"/>
-        <v>LO MIRANDA</v>
       </c>
       <c r="C367" t="s">
         <v>758</v>
@@ -11101,9 +10814,8 @@
       <c r="A368" t="s">
         <v>160</v>
       </c>
-      <c r="B368" t="e">
+      <c r="B368">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C368" t="s">
         <v>759</v>
@@ -11113,9 +10825,8 @@
       <c r="A369" t="s">
         <v>729</v>
       </c>
-      <c r="B369" t="str">
+      <c r="B369">
         <f t="shared" si="5"/>
-        <v>LO VALDES</v>
       </c>
       <c r="C369" t="s">
         <v>760</v>
@@ -11125,9 +10836,8 @@
       <c r="A370" t="s">
         <v>730</v>
       </c>
-      <c r="B370" t="str">
+      <c r="B370">
         <f t="shared" si="5"/>
-        <v>LO VALDIVIA</v>
       </c>
       <c r="C370" t="s">
         <v>761</v>
@@ -11137,9 +10847,8 @@
       <c r="A371" t="s">
         <v>162</v>
       </c>
-      <c r="B371" t="e">
+      <c r="B371">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C371" t="s">
         <v>762</v>
@@ -11149,9 +10858,8 @@
       <c r="A372" t="s">
         <v>731</v>
       </c>
-      <c r="B372" t="str">
+      <c r="B372">
         <f t="shared" si="5"/>
-        <v>LOLOL</v>
       </c>
       <c r="C372" t="s">
         <v>763</v>
@@ -11161,9 +10869,8 @@
       <c r="A373" t="s">
         <v>732</v>
       </c>
-      <c r="B373" t="str">
+      <c r="B373">
         <f t="shared" si="5"/>
-        <v>LOMAS DE LO AGUIRRE</v>
       </c>
       <c r="C373" t="s">
         <v>764</v>
@@ -11173,9 +10880,8 @@
       <c r="A374" t="s">
         <v>286</v>
       </c>
-      <c r="B374" t="str">
+      <c r="B374">
         <f t="shared" si="5"/>
-        <v>LONCOCHE</v>
       </c>
       <c r="C374" t="s">
         <v>765</v>
@@ -11185,9 +10891,8 @@
       <c r="A375" t="s">
         <v>733</v>
       </c>
-      <c r="B375" t="str">
+      <c r="B375">
         <f t="shared" si="5"/>
-        <v>LONGAVI</v>
       </c>
       <c r="C375" t="s">
         <v>766</v>
@@ -11197,9 +10902,8 @@
       <c r="A376" t="s">
         <v>735</v>
       </c>
-      <c r="B376" t="str">
+      <c r="B376">
         <f t="shared" si="5"/>
-        <v>LONQUEN</v>
       </c>
       <c r="C376" t="s">
         <v>767</v>
@@ -11209,9 +10913,8 @@
       <c r="A377" t="s">
         <v>164</v>
       </c>
-      <c r="B377" t="e">
+      <c r="B377">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C377" t="s">
         <v>302</v>
@@ -11221,9 +10924,8 @@
       <c r="A378" t="s">
         <v>736</v>
       </c>
-      <c r="B378" t="str">
+      <c r="B378">
         <f t="shared" si="5"/>
-        <v>LONTUE</v>
       </c>
       <c r="C378" t="s">
         <v>768</v>
@@ -11233,9 +10935,8 @@
       <c r="A379" t="s">
         <v>288</v>
       </c>
-      <c r="B379" t="str">
+      <c r="B379">
         <f t="shared" si="5"/>
-        <v>LOS ALAMOS</v>
       </c>
       <c r="C379" t="s">
         <v>769</v>
@@ -11245,9 +10946,8 @@
       <c r="A380" t="s">
         <v>289</v>
       </c>
-      <c r="B380" t="str">
+      <c r="B380">
         <f t="shared" si="5"/>
-        <v>LOS ANDES</v>
       </c>
       <c r="C380" t="s">
         <v>770</v>
@@ -11257,9 +10957,8 @@
       <c r="A381" t="s">
         <v>166</v>
       </c>
-      <c r="B381" t="e">
+      <c r="B381">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
       </c>
       <c r="C381" t="s">
         <v>771</v>
@@ -11269,9 +10968,8 @@
       <c r="A382" t="s">
         <v>737</v>
       </c>
-      <c r="B382" t="str">
+      <c r="B382">
         <f t="shared" si="5"/>
-        <v>LOS BOLDOS</v>
       </c>
       <c r="C382" t="s">
         <v>772</v>
@@ -11281,9 +10979,8 @@
       <c r="A383" t="s">
         <v>741</v>
       </c>
-      <c r="B383" t="str">
+      <c r="B383">
         <f t="shared" si="5"/>
-        <v>LOS HORCONES</v>
       </c>
       <c r="C383" t="s">
         <v>773</v>
@@ -11293,9 +10990,8 @@
       <c r="A384" t="s">
         <v>742</v>
       </c>
-      <c r="B384" t="str">
+      <c r="B384">
         <f t="shared" si="5"/>
-        <v>LOS HORNOS</v>
       </c>
       <c r="C384" t="s">
         <v>774</v>
@@ -11305,9 +11001,8 @@
       <c r="A385" t="s">
         <v>294</v>
       </c>
-      <c r="B385" t="str">
+      <c r="B385">
         <f t="shared" si="5"/>
-        <v>LOS LAGOS</v>
       </c>
       <c r="C385" t="s">
         <v>775</v>
@@ -11317,9 +11012,8 @@
       <c r="A386" t="s">
         <v>743</v>
       </c>
-      <c r="B386" t="str">
+      <c r="B386">
         <f t="shared" si="5"/>
-        <v>LOS LAURELES</v>
       </c>
       <c r="C386" t="s">
         <v>304</v>
@@ -11329,9 +11023,8 @@
       <c r="A387" t="s">
         <v>744</v>
       </c>
-      <c r="B387" t="str">
+      <c r="B387">
         <f t="shared" ref="B387:B450" si="6">VLOOKUP(A387,$C$2:$C$711,1,FALSE)</f>
-        <v>LOS LINGUES</v>
       </c>
       <c r="C387" t="s">
         <v>776</v>
@@ -11341,9 +11034,8 @@
       <c r="A388" t="s">
         <v>745</v>
       </c>
-      <c r="B388" t="str">
+      <c r="B388">
         <f t="shared" si="6"/>
-        <v>LOS MAITENES</v>
       </c>
       <c r="C388" t="s">
         <v>777</v>
@@ -11353,9 +11045,8 @@
       <c r="A389" t="s">
         <v>746</v>
       </c>
-      <c r="B389" t="str">
+      <c r="B389">
         <f t="shared" si="6"/>
-        <v>LOS MOLLES</v>
       </c>
       <c r="C389" t="s">
         <v>778</v>
@@ -11365,9 +11056,8 @@
       <c r="A390" t="s">
         <v>747</v>
       </c>
-      <c r="B390" t="str">
+      <c r="B390">
         <f t="shared" si="6"/>
-        <v>LOS MUERMOS</v>
       </c>
       <c r="C390" t="s">
         <v>779</v>
@@ -11377,9 +11067,8 @@
       <c r="A391" t="s">
         <v>748</v>
       </c>
-      <c r="B391" t="str">
+      <c r="B391">
         <f t="shared" si="6"/>
-        <v>LOS NICHES</v>
       </c>
       <c r="C391" t="s">
         <v>780</v>
@@ -11389,9 +11078,8 @@
       <c r="A392" t="s">
         <v>749</v>
       </c>
-      <c r="B392" t="str">
+      <c r="B392">
         <f t="shared" si="6"/>
-        <v>LOS OLIVOS</v>
       </c>
       <c r="C392" t="s">
         <v>781</v>
@@ -11401,9 +11089,8 @@
       <c r="A393" t="s">
         <v>750</v>
       </c>
-      <c r="B393" t="str">
+      <c r="B393">
         <f t="shared" si="6"/>
-        <v>LOS SAUCES</v>
       </c>
       <c r="C393" t="s">
         <v>782</v>
@@ -11413,9 +11100,8 @@
       <c r="A394" t="s">
         <v>752</v>
       </c>
-      <c r="B394" t="str">
+      <c r="B394">
         <f t="shared" si="6"/>
-        <v>LOS TILOS</v>
       </c>
       <c r="C394" t="s">
         <v>783</v>
@@ -11425,9 +11111,8 @@
       <c r="A395" t="s">
         <v>168</v>
       </c>
-      <c r="B395" t="e">
+      <c r="B395">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
       </c>
       <c r="C395" t="s">
         <v>784</v>
@@ -11437,9 +11122,8 @@
       <c r="A396" t="s">
         <v>296</v>
       </c>
-      <c r="B396" t="str">
+      <c r="B396">
         <f t="shared" si="6"/>
-        <v>LOTA</v>
       </c>
       <c r="C396" t="s">
         <v>308</v>
@@ -11449,9 +11133,8 @@
       <c r="A397" t="s">
         <v>753</v>
       </c>
-      <c r="B397" t="str">
+      <c r="B397">
         <f t="shared" si="6"/>
-        <v>LUMACO</v>
       </c>
       <c r="C397" t="s">
         <v>785</v>
@@ -11461,9 +11144,8 @@
       <c r="A398" t="s">
         <v>297</v>
       </c>
-      <c r="B398" t="str">
+      <c r="B398">
         <f t="shared" si="6"/>
-        <v>MACHALI</v>
       </c>
       <c r="C398" t="s">
         <v>786</v>
@@ -11473,9 +11155,8 @@
       <c r="A399" t="s">
         <v>170</v>
       </c>
-      <c r="B399" t="e">
+      <c r="B399">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
       </c>
       <c r="C399" t="s">
         <v>787</v>
@@ -11485,9 +11166,8 @@
       <c r="A400" t="s">
         <v>754</v>
       </c>
-      <c r="B400" t="str">
+      <c r="B400">
         <f t="shared" si="6"/>
-        <v>MAFIL</v>
       </c>
       <c r="C400" t="s">
         <v>788</v>
@@ -11497,9 +11177,8 @@
       <c r="A401" t="s">
         <v>755</v>
       </c>
-      <c r="B401" t="str">
+      <c r="B401">
         <f t="shared" si="6"/>
-        <v>MAICOLPUE</v>
       </c>
       <c r="C401" t="s">
         <v>789</v>
@@ -11509,9 +11188,8 @@
       <c r="A402" t="s">
         <v>756</v>
       </c>
-      <c r="B402" t="str">
+      <c r="B402">
         <f t="shared" si="6"/>
-        <v>MAIHUE</v>
       </c>
       <c r="C402" t="s">
         <v>790</v>
@@ -11521,9 +11199,8 @@
       <c r="A403" t="s">
         <v>757</v>
       </c>
-      <c r="B403" t="str">
+      <c r="B403">
         <f t="shared" si="6"/>
-        <v>MAIPO</v>
       </c>
       <c r="C403" t="s">
         <v>791</v>
@@ -11533,9 +11210,8 @@
       <c r="A404" t="s">
         <v>172</v>
       </c>
-      <c r="B404" t="e">
+      <c r="B404">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
       </c>
       <c r="C404" t="s">
         <v>311</v>
@@ -11545,9 +11221,8 @@
       <c r="A405" t="s">
         <v>758</v>
       </c>
-      <c r="B405" t="str">
+      <c r="B405">
         <f t="shared" si="6"/>
-        <v>MAITENCILLO</v>
       </c>
       <c r="C405" t="s">
         <v>792</v>
@@ -11557,9 +11232,8 @@
       <c r="A406" t="s">
         <v>759</v>
       </c>
-      <c r="B406" t="str">
+      <c r="B406">
         <f t="shared" si="6"/>
-        <v>MALALCAHUELLO</v>
       </c>
       <c r="C406" t="s">
         <v>793</v>
@@ -11569,9 +11243,8 @@
       <c r="A407" t="s">
         <v>761</v>
       </c>
-      <c r="B407" t="str">
+      <c r="B407">
         <f t="shared" si="6"/>
-        <v>MALLOA</v>
       </c>
       <c r="C407" t="s">
         <v>794</v>
@@ -11581,9 +11254,8 @@
       <c r="A408" t="s">
         <v>762</v>
       </c>
-      <c r="B408" t="str">
+      <c r="B408">
         <f t="shared" si="6"/>
-        <v>MALLOCO</v>
       </c>
       <c r="C408" t="s">
         <v>795</v>
@@ -11593,9 +11265,8 @@
       <c r="A409" t="s">
         <v>763</v>
       </c>
-      <c r="B409" t="str">
+      <c r="B409">
         <f t="shared" si="6"/>
-        <v>MAMINA</v>
       </c>
       <c r="C409" t="s">
         <v>796</v>
@@ -11605,9 +11276,8 @@
       <c r="A410" t="s">
         <v>764</v>
       </c>
-      <c r="B410" t="str">
+      <c r="B410">
         <f t="shared" si="6"/>
-        <v>MANAO</v>
       </c>
       <c r="C410" t="s">
         <v>797</v>
@@ -11617,9 +11287,8 @@
       <c r="A411" t="s">
         <v>765</v>
       </c>
-      <c r="B411" t="str">
+      <c r="B411">
         <f t="shared" si="6"/>
-        <v>MANDINGA</v>
       </c>
       <c r="C411" t="s">
         <v>798</v>
@@ -11629,9 +11298,8 @@
       <c r="A412" t="s">
         <v>766</v>
       </c>
-      <c r="B412" t="str">
+      <c r="B412">
         <f t="shared" si="6"/>
-        <v>MARBELLA</v>
       </c>
       <c r="C412" t="s">
         <v>799</v>
@@ -11641,9 +11309,8 @@
       <c r="A413" t="s">
         <v>767</v>
       </c>
-      <c r="B413" t="str">
+      <c r="B413">
         <f t="shared" si="6"/>
-        <v>MARCHIHUE</v>
       </c>
       <c r="C413" t="s">
         <v>800</v>
@@ -11653,9 +11320,8 @@
       <c r="A414" t="s">
         <v>302</v>
       </c>
-      <c r="B414" t="str">
+      <c r="B414">
         <f t="shared" si="6"/>
-        <v>MARIA ELENA</v>
       </c>
       <c r="C414" t="s">
         <v>801</v>
@@ -11665,9 +11331,8 @@
       <c r="A415" t="s">
         <v>768</v>
       </c>
-      <c r="B415" t="str">
+      <c r="B415">
         <f t="shared" si="6"/>
-        <v>MARIA PINTO</v>
       </c>
       <c r="C415" t="s">
         <v>802</v>
@@ -11677,9 +11342,8 @@
       <c r="A416" t="s">
         <v>769</v>
       </c>
-      <c r="B416" t="str">
+      <c r="B416">
         <f t="shared" si="6"/>
-        <v>MATANZAS</v>
       </c>
       <c r="C416" t="s">
         <v>803</v>
@@ -11689,9 +11353,8 @@
       <c r="A417" t="s">
         <v>770</v>
       </c>
-      <c r="B417" t="str">
+      <c r="B417">
         <f t="shared" si="6"/>
-        <v>MAULE</v>
       </c>
       <c r="C417" t="s">
         <v>804</v>
@@ -11701,9 +11364,8 @@
       <c r="A418" t="s">
         <v>771</v>
       </c>
-      <c r="B418" t="str">
+      <c r="B418">
         <f t="shared" si="6"/>
-        <v>MAULLIN</v>
       </c>
       <c r="C418" t="s">
         <v>805</v>
@@ -11713,9 +11375,8 @@
       <c r="A419" t="s">
         <v>772</v>
       </c>
-      <c r="B419" t="str">
+      <c r="B419">
         <f t="shared" si="6"/>
-        <v>MECHAICO</v>
       </c>
       <c r="C419" t="s">
         <v>806</v>
@@ -11725,9 +11386,8 @@
       <c r="A420" t="s">
         <v>773</v>
       </c>
-      <c r="B420" t="str">
+      <c r="B420">
         <f t="shared" si="6"/>
-        <v>MECHUQUE</v>
       </c>
       <c r="C420" t="s">
         <v>807</v>
@@ -11737,9 +11397,8 @@
       <c r="A421" t="s">
         <v>774</v>
       </c>
-      <c r="B421" t="str">
+      <c r="B421">
         <f t="shared" si="6"/>
-        <v>MEHUIN</v>
       </c>
       <c r="C421" t="s">
         <v>808</v>
@@ -11749,9 +11408,8 @@
       <c r="A422" t="s">
         <v>775</v>
       </c>
-      <c r="B422" t="str">
+      <c r="B422">
         <f t="shared" si="6"/>
-        <v>MEIPO</v>
       </c>
       <c r="C422" t="s">
         <v>809</v>
@@ -11761,9 +11419,8 @@
       <c r="A423" t="s">
         <v>304</v>
       </c>
-      <c r="B423" t="str">
+      <c r="B423">
         <f t="shared" si="6"/>
-        <v>MEJILLONES</v>
       </c>
       <c r="C423" t="s">
         <v>810</v>
@@ -11773,9 +11430,8 @@
       <c r="A424" t="s">
         <v>777</v>
       </c>
-      <c r="B424" t="str">
+      <c r="B424">
         <f t="shared" si="6"/>
-        <v>MELINKA</v>
       </c>
       <c r="C424" t="s">
         <v>811</v>
@@ -11785,9 +11441,8 @@
       <c r="A425" t="s">
         <v>778</v>
       </c>
-      <c r="B425" t="str">
+      <c r="B425">
         <f t="shared" si="6"/>
-        <v>MELIPEUCO</v>
       </c>
       <c r="C425" t="s">
         <v>812</v>
@@ -11797,9 +11452,8 @@
       <c r="A426" t="s">
         <v>779</v>
       </c>
-      <c r="B426" t="str">
+      <c r="B426">
         <f t="shared" si="6"/>
-        <v>MELIPILLA</v>
       </c>
       <c r="C426" t="s">
         <v>813</v>
@@ -11809,9 +11463,8 @@
       <c r="A427" t="s">
         <v>780</v>
       </c>
-      <c r="B427" t="str">
+      <c r="B427">
         <f t="shared" si="6"/>
-        <v>METRI</v>
       </c>
       <c r="C427" t="s">
         <v>320</v>
@@ -11821,9 +11474,8 @@
       <c r="A428" t="s">
         <v>781</v>
       </c>
-      <c r="B428" t="str">
+      <c r="B428">
         <f t="shared" si="6"/>
-        <v>MINAS DEL PRADO</v>
       </c>
       <c r="C428" t="s">
         <v>321</v>
@@ -11833,9 +11485,8 @@
       <c r="A429" t="s">
         <v>782</v>
       </c>
-      <c r="B429" t="str">
+      <c r="B429">
         <f t="shared" si="6"/>
-        <v>MINCHA</v>
       </c>
       <c r="C429" t="s">
         <v>814</v>
@@ -11845,9 +11496,8 @@
       <c r="A430" t="s">
         <v>783</v>
       </c>
-      <c r="B430" t="str">
+      <c r="B430">
         <f t="shared" si="6"/>
-        <v>MININCO</v>
       </c>
       <c r="C430" t="s">
         <v>322</v>
@@ -11857,9 +11507,8 @@
       <c r="A431" t="s">
         <v>784</v>
       </c>
-      <c r="B431" t="str">
+      <c r="B431">
         <f t="shared" si="6"/>
-        <v>MOCHA</v>
       </c>
       <c r="C431" t="s">
         <v>815</v>
@@ -11869,9 +11518,8 @@
       <c r="A432" t="s">
         <v>308</v>
       </c>
-      <c r="B432" t="str">
+      <c r="B432">
         <f t="shared" si="6"/>
-        <v>MOLINA</v>
       </c>
       <c r="C432" t="s">
         <v>816</v>
@@ -11881,9 +11529,8 @@
       <c r="A433" t="s">
         <v>785</v>
       </c>
-      <c r="B433" t="str">
+      <c r="B433">
         <f t="shared" si="6"/>
-        <v>MOLINOS</v>
       </c>
       <c r="C433" t="s">
         <v>817</v>
@@ -11893,9 +11540,8 @@
       <c r="A434" t="s">
         <v>786</v>
       </c>
-      <c r="B434" t="str">
+      <c r="B434">
         <f t="shared" si="6"/>
-        <v>MONTE AGUILA</v>
       </c>
       <c r="C434" t="s">
         <v>818</v>
@@ -11905,9 +11551,8 @@
       <c r="A435" t="s">
         <v>787</v>
       </c>
-      <c r="B435" t="str">
+      <c r="B435">
         <f t="shared" si="6"/>
-        <v>MONTE AYMOND</v>
       </c>
       <c r="C435" t="s">
         <v>819</v>
@@ -11917,9 +11562,8 @@
       <c r="A436" t="s">
         <v>788</v>
       </c>
-      <c r="B436" t="str">
+      <c r="B436">
         <f t="shared" si="6"/>
-        <v>MONTE GRANDE</v>
       </c>
       <c r="C436" t="s">
         <v>820</v>
@@ -11929,9 +11573,8 @@
       <c r="A437" t="s">
         <v>789</v>
       </c>
-      <c r="B437" t="str">
+      <c r="B437">
         <f t="shared" si="6"/>
-        <v>MONTE PATRIA</v>
       </c>
       <c r="C437" t="s">
         <v>821</v>
@@ -11941,9 +11584,8 @@
       <c r="A438" t="s">
         <v>790</v>
       </c>
-      <c r="B438" t="str">
+      <c r="B438">
         <f t="shared" si="6"/>
-        <v>MONTENEGRO</v>
       </c>
       <c r="C438" t="s">
         <v>822</v>
@@ -11953,9 +11595,8 @@
       <c r="A439" t="s">
         <v>791</v>
       </c>
-      <c r="B439" t="str">
+      <c r="B439">
         <f t="shared" si="6"/>
-        <v>MORRILLOS</v>
       </c>
       <c r="C439" t="s">
         <v>823</v>
@@ -11965,9 +11606,8 @@
       <c r="A440" t="s">
         <v>311</v>
       </c>
-      <c r="B440" t="str">
+      <c r="B440">
         <f t="shared" si="6"/>
-        <v>MULCHEN</v>
       </c>
       <c r="C440" t="s">
         <v>324</v>
@@ -11977,9 +11617,8 @@
       <c r="A441" t="s">
         <v>792</v>
       </c>
-      <c r="B441" t="str">
+      <c r="B441">
         <f t="shared" si="6"/>
-        <v>NACIMIENTO</v>
       </c>
       <c r="C441" t="s">
         <v>824</v>
@@ -11989,9 +11628,8 @@
       <c r="A442" t="s">
         <v>793</v>
       </c>
-      <c r="B442" t="str">
+      <c r="B442">
         <f t="shared" si="6"/>
-        <v>NAHUELTORO</v>
       </c>
       <c r="C442" t="s">
         <v>825</v>
@@ -12001,9 +11639,8 @@
       <c r="A443" t="s">
         <v>794</v>
       </c>
-      <c r="B443" t="str">
+      <c r="B443">
         <f t="shared" si="6"/>
-        <v>NAL</v>
       </c>
       <c r="C443" t="s">
         <v>826</v>
@@ -12013,9 +11650,8 @@
       <c r="A444" t="s">
         <v>795</v>
       </c>
-      <c r="B444" t="str">
+      <c r="B444">
         <f t="shared" si="6"/>
-        <v>NANCAGUA</v>
       </c>
       <c r="C444" t="s">
         <v>325</v>
@@ -12025,9 +11661,8 @@
       <c r="A445" t="s">
         <v>796</v>
       </c>
-      <c r="B445" t="str">
+      <c r="B445">
         <f t="shared" si="6"/>
-        <v>NAVIDAD</v>
       </c>
       <c r="C445" t="s">
         <v>827</v>
@@ -12037,9 +11672,8 @@
       <c r="A446" t="s">
         <v>797</v>
       </c>
-      <c r="B446" t="str">
+      <c r="B446">
         <f t="shared" si="6"/>
-        <v>NEGRETE</v>
       </c>
       <c r="C446" t="s">
         <v>828</v>
@@ -12049,9 +11683,8 @@
       <c r="A447" t="s">
         <v>798</v>
       </c>
-      <c r="B447" t="str">
+      <c r="B447">
         <f t="shared" si="6"/>
-        <v>NELTUME</v>
       </c>
       <c r="C447" t="s">
         <v>829</v>
@@ -12061,9 +11694,8 @@
       <c r="A448" t="s">
         <v>799</v>
       </c>
-      <c r="B448" t="str">
+      <c r="B448">
         <f t="shared" si="6"/>
-        <v>NIEBLA</v>
       </c>
       <c r="C448" t="s">
         <v>830</v>
@@ -12073,9 +11705,8 @@
       <c r="A449" t="s">
         <v>800</v>
       </c>
-      <c r="B449" t="str">
+      <c r="B449">
         <f t="shared" si="6"/>
-        <v>NINHUE</v>
       </c>
       <c r="C449" t="s">
         <v>831</v>
@@ -12085,9 +11716,8 @@
       <c r="A450" t="s">
         <v>801</v>
       </c>
-      <c r="B450" t="str">
+      <c r="B450">
         <f t="shared" si="6"/>
-        <v>NIPAS</v>
       </c>
       <c r="C450" t="s">
         <v>832</v>
@@ -12097,9 +11727,8 @@
       <c r="A451" t="s">
         <v>802</v>
       </c>
-      <c r="B451" t="str">
+      <c r="B451">
         <f t="shared" ref="B451:B514" si="7">VLOOKUP(A451,$C$2:$C$711,1,FALSE)</f>
-        <v>NIQUEN</v>
       </c>
       <c r="C451" t="s">
         <v>833</v>
@@ -12109,9 +11738,8 @@
       <c r="A452" t="s">
         <v>803</v>
       </c>
-      <c r="B452" t="str">
+      <c r="B452">
         <f t="shared" si="7"/>
-        <v>NIREHUAO</v>
       </c>
       <c r="C452" t="s">
         <v>834</v>
@@ -12121,9 +11749,8 @@
       <c r="A453" t="s">
         <v>804</v>
       </c>
-      <c r="B453" t="str">
+      <c r="B453">
         <f t="shared" si="7"/>
-        <v>NIRIVILO</v>
       </c>
       <c r="C453" t="s">
         <v>835</v>
@@ -12133,9 +11760,8 @@
       <c r="A454" t="s">
         <v>805</v>
       </c>
-      <c r="B454" t="str">
+      <c r="B454">
         <f t="shared" si="7"/>
-        <v>NOGALES</v>
       </c>
       <c r="C454" t="s">
         <v>836</v>
@@ -12145,9 +11771,8 @@
       <c r="A455" t="s">
         <v>806</v>
       </c>
-      <c r="B455" t="str">
+      <c r="B455">
         <f t="shared" si="7"/>
-        <v>NOS</v>
       </c>
       <c r="C455" t="s">
         <v>837</v>
@@ -12157,9 +11782,8 @@
       <c r="A456" t="s">
         <v>807</v>
       </c>
-      <c r="B456" t="str">
+      <c r="B456">
         <f t="shared" si="7"/>
-        <v>NOVICIADO</v>
       </c>
       <c r="C456" t="s">
         <v>838</v>
@@ -12169,9 +11793,8 @@
       <c r="A457" t="s">
         <v>808</v>
       </c>
-      <c r="B457" t="str">
+      <c r="B457">
         <f t="shared" si="7"/>
-        <v>NUEVA BRAUNAU</v>
       </c>
       <c r="C457" t="s">
         <v>839</v>
@@ -12181,9 +11804,8 @@
       <c r="A458" t="s">
         <v>173</v>
       </c>
-      <c r="B458" t="e">
+      <c r="B458">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C458" t="s">
         <v>331</v>
@@ -12193,9 +11815,8 @@
       <c r="A459" t="s">
         <v>175</v>
       </c>
-      <c r="B459" t="e">
+      <c r="B459">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C459" t="s">
         <v>840</v>
@@ -12205,9 +11826,8 @@
       <c r="A460" t="s">
         <v>809</v>
       </c>
-      <c r="B460" t="str">
+      <c r="B460">
         <f t="shared" si="7"/>
-        <v>OCOA</v>
       </c>
       <c r="C460" t="s">
         <v>841</v>
@@ -12217,9 +11837,8 @@
       <c r="A461" t="s">
         <v>810</v>
       </c>
-      <c r="B461" t="str">
+      <c r="B461">
         <f t="shared" si="7"/>
-        <v>OLIVAR ALTO</v>
       </c>
       <c r="C461" t="s">
         <v>842</v>
@@ -12229,9 +11848,8 @@
       <c r="A462" t="s">
         <v>811</v>
       </c>
-      <c r="B462" t="str">
+      <c r="B462">
         <f t="shared" si="7"/>
-        <v>OLIVAR BAJO</v>
       </c>
       <c r="C462" t="s">
         <v>334</v>
@@ -12241,9 +11859,8 @@
       <c r="A463" t="s">
         <v>812</v>
       </c>
-      <c r="B463" t="str">
+      <c r="B463">
         <f t="shared" si="7"/>
-        <v>OLMUE</v>
       </c>
       <c r="C463" t="s">
         <v>843</v>
@@ -12253,9 +11870,8 @@
       <c r="A464" t="s">
         <v>177</v>
       </c>
-      <c r="B464" t="e">
+      <c r="B464">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C464" t="s">
         <v>844</v>
@@ -12265,9 +11881,8 @@
       <c r="A465" t="s">
         <v>179</v>
       </c>
-      <c r="B465" t="e">
+      <c r="B465">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C465" t="s">
         <v>845</v>
@@ -12277,9 +11892,8 @@
       <c r="A466" t="s">
         <v>813</v>
       </c>
-      <c r="B466" t="str">
+      <c r="B466">
         <f t="shared" si="7"/>
-        <v>PACHAMA</v>
       </c>
       <c r="C466" t="s">
         <v>846</v>
@@ -12289,9 +11903,8 @@
       <c r="A467" t="s">
         <v>320</v>
       </c>
-      <c r="B467" t="str">
+      <c r="B467">
         <f t="shared" si="7"/>
-        <v>PADRE HURTADO</v>
       </c>
       <c r="C467" t="s">
         <v>847</v>
@@ -12301,9 +11914,8 @@
       <c r="A468" t="s">
         <v>321</v>
       </c>
-      <c r="B468" t="str">
+      <c r="B468">
         <f t="shared" si="7"/>
-        <v>PADRE LAS CASAS</v>
       </c>
       <c r="C468" t="s">
         <v>848</v>
@@ -12313,9 +11925,8 @@
       <c r="A469" t="s">
         <v>814</v>
       </c>
-      <c r="B469" t="str">
+      <c r="B469">
         <f t="shared" si="7"/>
-        <v>PAIHUANO</v>
       </c>
       <c r="C469" t="s">
         <v>849</v>
@@ -12325,9 +11936,8 @@
       <c r="A470" t="s">
         <v>322</v>
       </c>
-      <c r="B470" t="str">
+      <c r="B470">
         <f t="shared" si="7"/>
-        <v>PAILLACO</v>
       </c>
       <c r="C470" t="s">
         <v>850</v>
@@ -12337,9 +11947,8 @@
       <c r="A471" t="s">
         <v>815</v>
       </c>
-      <c r="B471" t="str">
+      <c r="B471">
         <f t="shared" si="7"/>
-        <v>PAINE</v>
       </c>
       <c r="C471" t="s">
         <v>851</v>
@@ -12349,9 +11958,8 @@
       <c r="A472" t="s">
         <v>816</v>
       </c>
-      <c r="B472" t="str">
+      <c r="B472">
         <f t="shared" si="7"/>
-        <v>PAIPOTE</v>
       </c>
       <c r="C472" t="s">
         <v>852</v>
@@ -12361,9 +11969,8 @@
       <c r="A473" t="s">
         <v>817</v>
       </c>
-      <c r="B473" t="str">
+      <c r="B473">
         <f t="shared" si="7"/>
-        <v>PALENA</v>
       </c>
       <c r="C473" t="s">
         <v>853</v>
@@ -12373,9 +11980,8 @@
       <c r="A474" t="s">
         <v>818</v>
       </c>
-      <c r="B474" t="str">
+      <c r="B474">
         <f t="shared" si="7"/>
-        <v>PALMILLA SAN FERNANDO</v>
       </c>
       <c r="C474" t="s">
         <v>854</v>
@@ -12385,9 +11991,8 @@
       <c r="A475" t="s">
         <v>819</v>
       </c>
-      <c r="B475" t="str">
+      <c r="B475">
         <f t="shared" si="7"/>
-        <v>PALOMAR</v>
       </c>
       <c r="C475" t="s">
         <v>855</v>
@@ -12397,9 +12002,8 @@
       <c r="A476" t="s">
         <v>820</v>
       </c>
-      <c r="B476" t="str">
+      <c r="B476">
         <f t="shared" si="7"/>
-        <v>PALQUIAL</v>
       </c>
       <c r="C476" t="s">
         <v>856</v>
@@ -12409,9 +12013,8 @@
       <c r="A477" t="s">
         <v>821</v>
       </c>
-      <c r="B477" t="str">
+      <c r="B477">
         <f t="shared" si="7"/>
-        <v>PAN DE AZUCAR</v>
       </c>
       <c r="C477" t="s">
         <v>857</v>
@@ -12421,9 +12024,8 @@
       <c r="A478" t="s">
         <v>822</v>
       </c>
-      <c r="B478" t="str">
+      <c r="B478">
         <f t="shared" si="7"/>
-        <v>PANGAL</v>
       </c>
       <c r="C478" t="s">
         <v>858</v>
@@ -12433,9 +12035,8 @@
       <c r="A479" t="s">
         <v>324</v>
       </c>
-      <c r="B479" t="str">
+      <c r="B479">
         <f t="shared" si="7"/>
-        <v>PANGUIPULLI</v>
       </c>
       <c r="C479" t="s">
         <v>859</v>
@@ -12445,9 +12046,8 @@
       <c r="A480" t="s">
         <v>824</v>
       </c>
-      <c r="B480" t="str">
+      <c r="B480">
         <f t="shared" si="7"/>
-        <v>PANIMAVIDA</v>
       </c>
       <c r="C480" t="s">
         <v>336</v>
@@ -12457,9 +12057,8 @@
       <c r="A481" t="s">
         <v>825</v>
       </c>
-      <c r="B481" t="str">
+      <c r="B481">
         <f t="shared" si="7"/>
-        <v>PANQUEHUE</v>
       </c>
       <c r="C481" t="s">
         <v>860</v>
@@ -12469,9 +12068,8 @@
       <c r="A482" t="s">
         <v>826</v>
       </c>
-      <c r="B482" t="str">
+      <c r="B482">
         <f t="shared" si="7"/>
-        <v>PAPOSO</v>
       </c>
       <c r="C482" t="s">
         <v>861</v>
@@ -12481,9 +12079,8 @@
       <c r="A483" t="s">
         <v>325</v>
       </c>
-      <c r="B483" t="str">
+      <c r="B483">
         <f t="shared" si="7"/>
-        <v>PAPUDO</v>
       </c>
       <c r="C483" t="s">
         <v>862</v>
@@ -12493,9 +12090,8 @@
       <c r="A484" t="s">
         <v>827</v>
       </c>
-      <c r="B484" t="str">
+      <c r="B484">
         <f t="shared" si="7"/>
-        <v>PARCELA EL CARMEN</v>
       </c>
       <c r="C484" t="s">
         <v>863</v>
@@ -12505,9 +12101,8 @@
       <c r="A485" t="s">
         <v>828</v>
       </c>
-      <c r="B485" t="str">
+      <c r="B485">
         <f t="shared" si="7"/>
-        <v>PAREDONES</v>
       </c>
       <c r="C485" t="s">
         <v>864</v>
@@ -12517,9 +12112,8 @@
       <c r="A486" t="s">
         <v>829</v>
       </c>
-      <c r="B486" t="str">
+      <c r="B486">
         <f t="shared" si="7"/>
-        <v>PARGUA</v>
       </c>
       <c r="C486" t="s">
         <v>865</v>
@@ -12529,9 +12123,8 @@
       <c r="A487" t="s">
         <v>830</v>
       </c>
-      <c r="B487" t="str">
+      <c r="B487">
         <f t="shared" si="7"/>
-        <v>PARRAL</v>
       </c>
       <c r="C487" t="s">
         <v>866</v>
@@ -12541,9 +12134,8 @@
       <c r="A488" t="s">
         <v>831</v>
       </c>
-      <c r="B488" t="str">
+      <c r="B488">
         <f t="shared" si="7"/>
-        <v>PAULDEO</v>
       </c>
       <c r="C488" t="s">
         <v>867</v>
@@ -12553,9 +12145,8 @@
       <c r="A489" t="s">
         <v>832</v>
       </c>
-      <c r="B489" t="str">
+      <c r="B489">
         <f t="shared" si="7"/>
-        <v>PEDREGAL</v>
       </c>
       <c r="C489" t="s">
         <v>868</v>
@@ -12565,9 +12156,8 @@
       <c r="A490" t="s">
         <v>181</v>
       </c>
-      <c r="B490" t="e">
+      <c r="B490">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C490" t="s">
         <v>869</v>
@@ -12577,9 +12167,8 @@
       <c r="A491" t="s">
         <v>833</v>
       </c>
-      <c r="B491" t="str">
+      <c r="B491">
         <f t="shared" si="7"/>
-        <v>PELARCO</v>
       </c>
       <c r="C491" t="s">
         <v>870</v>
@@ -12589,9 +12178,8 @@
       <c r="A492" t="s">
         <v>834</v>
       </c>
-      <c r="B492" t="str">
+      <c r="B492">
         <f t="shared" si="7"/>
-        <v>PELEQUEN</v>
       </c>
       <c r="C492" t="s">
         <v>871</v>
@@ -12601,9 +12189,8 @@
       <c r="A493" t="s">
         <v>835</v>
       </c>
-      <c r="B493" t="str">
+      <c r="B493">
         <f t="shared" si="7"/>
-        <v>PELLUHUE</v>
       </c>
       <c r="C493" t="s">
         <v>339</v>
@@ -12613,9 +12200,8 @@
       <c r="A494" t="s">
         <v>836</v>
       </c>
-      <c r="B494" t="str">
+      <c r="B494">
         <f t="shared" si="7"/>
-        <v>PEMUCO</v>
       </c>
       <c r="C494" t="s">
         <v>872</v>
@@ -12625,9 +12211,8 @@
       <c r="A495" t="s">
         <v>837</v>
       </c>
-      <c r="B495" t="str">
+      <c r="B495">
         <f t="shared" si="7"/>
-        <v>PENABLANCA</v>
       </c>
       <c r="C495" t="s">
         <v>873</v>
@@ -12637,9 +12222,8 @@
       <c r="A496" t="s">
         <v>838</v>
       </c>
-      <c r="B496" t="str">
+      <c r="B496">
         <f t="shared" si="7"/>
-        <v>PENAFLOR</v>
       </c>
       <c r="C496" t="s">
         <v>874</v>
@@ -12649,9 +12233,8 @@
       <c r="A497" t="s">
         <v>183</v>
       </c>
-      <c r="B497" t="e">
+      <c r="B497">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="C497" t="s">
         <v>875</v>
@@ -12661,9 +12244,8 @@
       <c r="A498" t="s">
         <v>839</v>
       </c>
-      <c r="B498" t="str">
+      <c r="B498">
         <f t="shared" si="7"/>
-        <v>PENCAHUE</v>
       </c>
       <c r="C498" t="s">
         <v>876</v>
@@ -12673,9 +12255,8 @@
       <c r="A499" t="s">
         <v>331</v>
       </c>
-      <c r="B499" t="str">
+      <c r="B499">
         <f t="shared" si="7"/>
-        <v>PENCO</v>
       </c>
       <c r="C499" t="s">
         <v>877</v>
@@ -12685,9 +12266,8 @@
       <c r="A500" t="s">
         <v>840</v>
       </c>
-      <c r="B500" t="str">
+      <c r="B500">
         <f t="shared" si="7"/>
-        <v>PERALES</v>
       </c>
       <c r="C500" t="s">
         <v>878</v>
@@ -12697,9 +12277,8 @@
       <c r="A501" t="s">
         <v>841</v>
       </c>
-      <c r="B501" t="str">
+      <c r="B501">
         <f t="shared" si="7"/>
-        <v>PERALILLO</v>
       </c>
       <c r="C501" t="s">
         <v>879</v>
@@ -12709,9 +12288,8 @@
       <c r="A502" t="s">
         <v>842</v>
       </c>
-      <c r="B502" t="str">
+      <c r="B502">
         <f t="shared" si="7"/>
-        <v>PERQUENCO</v>
       </c>
       <c r="C502" t="s">
         <v>880</v>
@@ -12721,9 +12299,8 @@
       <c r="A503" t="s">
         <v>334</v>
       </c>
-      <c r="B503" t="str">
+      <c r="B503">
         <f t="shared" si="7"/>
-        <v>PETORCA</v>
       </c>
       <c r="C503" t="s">
         <v>881</v>
@@ -12733,9 +12310,8 @@
       <c r="A504" t="s">
         <v>843</v>
       </c>
-      <c r="B504" t="str">
+      <c r="B504">
         <f t="shared" si="7"/>
-        <v>PETROHUE</v>
       </c>
       <c r="C504" t="s">
         <v>882</v>
@@ -12745,9 +12321,8 @@
       <c r="A505" t="s">
         <v>844</v>
       </c>
-      <c r="B505" t="str">
+      <c r="B505">
         <f t="shared" si="7"/>
-        <v>PEULLA</v>
       </c>
       <c r="C505" t="s">
         <v>883</v>
@@ -12757,9 +12332,8 @@
       <c r="A506" t="s">
         <v>845</v>
       </c>
-      <c r="B506" t="str">
+      <c r="B506">
         <f t="shared" si="7"/>
-        <v>PEUMO</v>
       </c>
       <c r="C506" t="s">
         <v>344</v>
@@ -12769,9 +12343,8 @@
       <c r="A507" t="s">
         <v>846</v>
       </c>
-      <c r="B507" t="str">
+      <c r="B507">
         <f t="shared" si="7"/>
-        <v>PICA</v>
       </c>
       <c r="C507" t="s">
         <v>884</v>
@@ -12781,9 +12354,8 @@
       <c r="A508" t="s">
         <v>847</v>
       </c>
-      <c r="B508" t="str">
+      <c r="B508">
         <f t="shared" si="7"/>
-        <v>PICHASCA</v>
       </c>
       <c r="C508" t="s">
         <v>885</v>
@@ -12793,9 +12365,8 @@
       <c r="A509" t="s">
         <v>848</v>
       </c>
-      <c r="B509" t="str">
+      <c r="B509">
         <f t="shared" si="7"/>
-        <v>PICHI PELLUCO</v>
       </c>
       <c r="C509" t="s">
         <v>886</v>
@@ -12805,9 +12376,8 @@
       <c r="A510" t="s">
         <v>849</v>
       </c>
-      <c r="B510" t="str">
+      <c r="B510">
         <f t="shared" si="7"/>
-        <v>PICHICUY</v>
       </c>
       <c r="C510" t="s">
         <v>887</v>
@@ -12817,9 +12387,8 @@
       <c r="A511" t="s">
         <v>850</v>
       </c>
-      <c r="B511" t="str">
+      <c r="B511">
         <f t="shared" si="7"/>
-        <v>PICHIDANGUI</v>
       </c>
       <c r="C511" t="s">
         <v>888</v>
@@ -12829,9 +12398,8 @@
       <c r="A512" t="s">
         <v>851</v>
       </c>
-      <c r="B512" t="str">
+      <c r="B512">
         <f t="shared" si="7"/>
-        <v>PICHIDEGUA</v>
       </c>
       <c r="C512" t="s">
         <v>889</v>
@@ -12841,9 +12409,8 @@
       <c r="A513" t="s">
         <v>852</v>
       </c>
-      <c r="B513" t="str">
+      <c r="B513">
         <f t="shared" si="7"/>
-        <v>PICHILEMU</v>
       </c>
       <c r="C513" t="s">
         <v>890</v>
@@ -12853,9 +12420,8 @@
       <c r="A514" t="s">
         <v>853</v>
       </c>
-      <c r="B514" t="str">
+      <c r="B514">
         <f t="shared" si="7"/>
-        <v>PIEDRA AZUL</v>
       </c>
       <c r="C514" t="s">
         <v>890</v>
@@ -12865,9 +12431,8 @@
       <c r="A515" t="s">
         <v>854</v>
       </c>
-      <c r="B515" t="str">
+      <c r="B515">
         <f t="shared" ref="B515:B578" si="8">VLOOKUP(A515,$C$2:$C$711,1,FALSE)</f>
-        <v>PILLANLELBUN</v>
       </c>
       <c r="C515" t="s">
         <v>891</v>
@@ -12877,9 +12442,8 @@
       <c r="A516" t="s">
         <v>855</v>
       </c>
-      <c r="B516" t="str">
+      <c r="B516">
         <f t="shared" si="8"/>
-        <v>PINGUERAL</v>
       </c>
       <c r="C516" t="s">
         <v>349</v>
@@ -12889,9 +12453,8 @@
       <c r="A517" t="s">
         <v>856</v>
       </c>
-      <c r="B517" t="str">
+      <c r="B517">
         <f t="shared" si="8"/>
-        <v>PINTO</v>
       </c>
       <c r="C517" t="s">
         <v>892</v>
@@ -12901,9 +12464,8 @@
       <c r="A518" t="s">
         <v>857</v>
       </c>
-      <c r="B518" t="str">
+      <c r="B518">
         <f t="shared" si="8"/>
-        <v>PIRQUE</v>
       </c>
       <c r="C518" t="s">
         <v>893</v>
@@ -12913,9 +12475,8 @@
       <c r="A519" t="s">
         <v>858</v>
       </c>
-      <c r="B519" t="str">
+      <c r="B519">
         <f t="shared" si="8"/>
-        <v>PISAGUA</v>
       </c>
       <c r="C519" t="s">
         <v>894</v>
@@ -12925,9 +12486,8 @@
       <c r="A520" t="s">
         <v>859</v>
       </c>
-      <c r="B520" t="str">
+      <c r="B520">
         <f t="shared" si="8"/>
-        <v>PISCO ELQUI</v>
       </c>
       <c r="C520" t="s">
         <v>895</v>
@@ -12937,9 +12497,8 @@
       <c r="A521" t="s">
         <v>336</v>
       </c>
-      <c r="B521" t="str">
+      <c r="B521">
         <f t="shared" si="8"/>
-        <v>PITRUFQUEN</v>
       </c>
       <c r="C521" t="s">
         <v>896</v>
@@ -12949,9 +12508,8 @@
       <c r="A522" t="s">
         <v>860</v>
       </c>
-      <c r="B522" t="str">
+      <c r="B522">
         <f t="shared" si="8"/>
-        <v>PLACILLA (SAN FERNANDO)</v>
       </c>
       <c r="C522" t="s">
         <v>897</v>
@@ -12961,9 +12519,8 @@
       <c r="A523" t="s">
         <v>861</v>
       </c>
-      <c r="B523" t="str">
+      <c r="B523">
         <f t="shared" si="8"/>
-        <v>PLACILLA (VINA DEL MAR)</v>
       </c>
       <c r="C523" t="s">
         <v>898</v>
@@ -12973,9 +12530,8 @@
       <c r="A524" t="s">
         <v>862</v>
       </c>
-      <c r="B524" t="str">
+      <c r="B524">
         <f t="shared" si="8"/>
-        <v>PLAYA ANCHA</v>
       </c>
       <c r="C524" t="s">
         <v>899</v>
@@ -12985,9 +12541,8 @@
       <c r="A525" t="s">
         <v>864</v>
       </c>
-      <c r="B525" t="str">
+      <c r="B525">
         <f t="shared" si="8"/>
-        <v>POCONCHILE</v>
       </c>
       <c r="C525" t="s">
         <v>900</v>
@@ -12997,9 +12552,8 @@
       <c r="A526" t="s">
         <v>865</v>
       </c>
-      <c r="B526" t="str">
+      <c r="B526">
         <f t="shared" si="8"/>
-        <v>POLCURA</v>
       </c>
       <c r="C526" t="s">
         <v>901</v>
@@ -13009,9 +12563,8 @@
       <c r="A527" t="s">
         <v>866</v>
       </c>
-      <c r="B527" t="str">
+      <c r="B527">
         <f t="shared" si="8"/>
-        <v>POLPAICO</v>
       </c>
       <c r="C527" t="s">
         <v>902</v>
@@ -13021,9 +12574,8 @@
       <c r="A528" t="s">
         <v>867</v>
       </c>
-      <c r="B528" t="str">
+      <c r="B528">
         <f t="shared" si="8"/>
-        <v>POMAIRE</v>
       </c>
       <c r="C528" t="s">
         <v>903</v>
@@ -13033,9 +12585,8 @@
       <c r="A529" t="s">
         <v>868</v>
       </c>
-      <c r="B529" t="str">
+      <c r="B529">
         <f t="shared" si="8"/>
-        <v>POPETA</v>
       </c>
       <c r="C529" t="s">
         <v>904</v>
@@ -13045,9 +12596,8 @@
       <c r="A530" t="s">
         <v>869</v>
       </c>
-      <c r="B530" t="str">
+      <c r="B530">
         <f t="shared" si="8"/>
-        <v>PORMA</v>
       </c>
       <c r="C530" t="s">
         <v>905</v>
@@ -13057,9 +12607,8 @@
       <c r="A531" t="s">
         <v>870</v>
       </c>
-      <c r="B531" t="str">
+      <c r="B531">
         <f t="shared" si="8"/>
-        <v>PORTEZUELO</v>
       </c>
       <c r="C531" t="s">
         <v>906</v>
@@ -13069,9 +12618,8 @@
       <c r="A532" t="s">
         <v>871</v>
       </c>
-      <c r="B532" t="str">
+      <c r="B532">
         <f t="shared" si="8"/>
-        <v>PORTILLO</v>
       </c>
       <c r="C532" t="s">
         <v>907</v>
@@ -13081,9 +12629,8 @@
       <c r="A533" t="s">
         <v>339</v>
       </c>
-      <c r="B533" t="str">
+      <c r="B533">
         <f t="shared" si="8"/>
-        <v>PORVENIR</v>
       </c>
       <c r="C533" t="s">
         <v>352</v>
@@ -13093,9 +12640,8 @@
       <c r="A534" t="s">
         <v>872</v>
       </c>
-      <c r="B534" t="str">
+      <c r="B534">
         <f t="shared" si="8"/>
-        <v>POZO ALMONTE</v>
       </c>
       <c r="C534" t="s">
         <v>353</v>
@@ -13105,9 +12651,8 @@
       <c r="A535" t="s">
         <v>873</v>
       </c>
-      <c r="B535" t="str">
+      <c r="B535">
         <f t="shared" si="8"/>
-        <v>PRIMAVERA</v>
       </c>
       <c r="C535" t="s">
         <v>908</v>
@@ -13117,9 +12662,8 @@
       <c r="A536" t="s">
         <v>185</v>
       </c>
-      <c r="B536" t="e">
+      <c r="B536">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C536" t="s">
         <v>909</v>
@@ -13129,9 +12673,8 @@
       <c r="A537" t="s">
         <v>874</v>
       </c>
-      <c r="B537" t="str">
+      <c r="B537">
         <f t="shared" si="8"/>
-        <v>PUAUCHO</v>
       </c>
       <c r="C537" t="s">
         <v>910</v>
@@ -13141,9 +12684,8 @@
       <c r="A538" t="s">
         <v>875</v>
       </c>
-      <c r="B538" t="str">
+      <c r="B538">
         <f t="shared" si="8"/>
-        <v>PUCATRIHUE</v>
       </c>
       <c r="C538" t="s">
         <v>911</v>
@@ -13153,9 +12695,8 @@
       <c r="A539" t="s">
         <v>876</v>
       </c>
-      <c r="B539" t="str">
+      <c r="B539">
         <f t="shared" si="8"/>
-        <v>PUCHUNCAVI</v>
       </c>
       <c r="C539" t="s">
         <v>912</v>
@@ -13165,9 +12706,8 @@
       <c r="A540" t="s">
         <v>187</v>
       </c>
-      <c r="B540" t="e">
+      <c r="B540">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C540" t="s">
         <v>913</v>
@@ -13177,9 +12717,8 @@
       <c r="A541" t="s">
         <v>189</v>
       </c>
-      <c r="B541" t="e">
+      <c r="B541">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C541" t="s">
         <v>914</v>
@@ -13189,9 +12728,8 @@
       <c r="A542" t="s">
         <v>877</v>
       </c>
-      <c r="B542" t="str">
+      <c r="B542">
         <f t="shared" si="8"/>
-        <v>PUEBLO SECO</v>
       </c>
       <c r="C542" t="s">
         <v>354</v>
@@ -13201,9 +12739,8 @@
       <c r="A543" t="s">
         <v>878</v>
       </c>
-      <c r="B543" t="str">
+      <c r="B543">
         <f t="shared" si="8"/>
-        <v>PUELO</v>
       </c>
       <c r="C543" t="s">
         <v>915</v>
@@ -13213,9 +12750,8 @@
       <c r="A544" t="s">
         <v>191</v>
       </c>
-      <c r="B544" t="e">
+      <c r="B544">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C544" t="s">
         <v>916</v>
@@ -13225,9 +12761,8 @@
       <c r="A545" t="s">
         <v>879</v>
       </c>
-      <c r="B545" t="str">
+      <c r="B545">
         <f t="shared" si="8"/>
-        <v>PUENTE NEGRO</v>
       </c>
       <c r="C545" t="s">
         <v>917</v>
@@ -13237,9 +12772,8 @@
       <c r="A546" t="s">
         <v>880</v>
       </c>
-      <c r="B546" t="str">
+      <c r="B546">
         <f t="shared" si="8"/>
-        <v>PUENTE QUILO</v>
       </c>
       <c r="C546" t="s">
         <v>918</v>
@@ -13249,9 +12783,8 @@
       <c r="A547" t="s">
         <v>881</v>
       </c>
-      <c r="B547" t="str">
+      <c r="B547">
         <f t="shared" si="8"/>
-        <v>PUERTECILLO</v>
       </c>
       <c r="C547" t="s">
         <v>919</v>
@@ -13261,9 +12794,8 @@
       <c r="A548" t="s">
         <v>882</v>
       </c>
-      <c r="B548" t="str">
+      <c r="B548">
         <f t="shared" si="8"/>
-        <v>PUERTO AGUIRRE</v>
       </c>
       <c r="C548" t="s">
         <v>920</v>
@@ -13273,9 +12805,8 @@
       <c r="A549" t="s">
         <v>883</v>
       </c>
-      <c r="B549" t="str">
+      <c r="B549">
         <f t="shared" si="8"/>
-        <v>PUERTO ALDEA</v>
       </c>
       <c r="C549" t="s">
         <v>921</v>
@@ -13285,9 +12816,8 @@
       <c r="A550" t="s">
         <v>344</v>
       </c>
-      <c r="B550" t="str">
+      <c r="B550">
         <f t="shared" si="8"/>
-        <v>PUERTO AYSEN</v>
       </c>
       <c r="C550" t="s">
         <v>922</v>
@@ -13297,9 +12827,8 @@
       <c r="A551" t="s">
         <v>884</v>
       </c>
-      <c r="B551" t="str">
+      <c r="B551">
         <f t="shared" si="8"/>
-        <v>PUERTO BERTRAND</v>
       </c>
       <c r="C551" t="s">
         <v>923</v>
@@ -13309,9 +12838,8 @@
       <c r="A552" t="s">
         <v>885</v>
       </c>
-      <c r="B552" t="str">
+      <c r="B552">
         <f t="shared" si="8"/>
-        <v>PUERTO BORIES</v>
       </c>
       <c r="C552" t="s">
         <v>924</v>
@@ -13321,9 +12849,8 @@
       <c r="A553" t="s">
         <v>886</v>
       </c>
-      <c r="B553" t="str">
+      <c r="B553">
         <f t="shared" si="8"/>
-        <v>PUERTO CHACABUCO</v>
       </c>
       <c r="C553" t="s">
         <v>925</v>
@@ -13333,9 +12860,8 @@
       <c r="A554" t="s">
         <v>887</v>
       </c>
-      <c r="B554" t="str">
+      <c r="B554">
         <f t="shared" si="8"/>
-        <v>PUERTO CISNES</v>
       </c>
       <c r="C554" t="s">
         <v>926</v>
@@ -13345,9 +12871,8 @@
       <c r="A555" t="s">
         <v>888</v>
       </c>
-      <c r="B555" t="str">
+      <c r="B555">
         <f t="shared" si="8"/>
-        <v>PUERTO DOMINGUEZ</v>
       </c>
       <c r="C555" t="s">
         <v>356</v>
@@ -13357,9 +12882,8 @@
       <c r="A556" t="s">
         <v>193</v>
       </c>
-      <c r="B556" t="e">
+      <c r="B556">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C556" t="s">
         <v>357</v>
@@ -13369,9 +12893,8 @@
       <c r="A557" t="s">
         <v>195</v>
       </c>
-      <c r="B557" t="e">
+      <c r="B557">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C557" t="s">
         <v>927</v>
@@ -13381,9 +12904,8 @@
       <c r="A558" t="s">
         <v>891</v>
       </c>
-      <c r="B558" t="str">
+      <c r="B558">
         <f t="shared" si="8"/>
-        <v>PUERTO OCTAY</v>
       </c>
       <c r="C558" t="s">
         <v>928</v>
@@ -13393,9 +12915,8 @@
       <c r="A559" t="s">
         <v>349</v>
       </c>
-      <c r="B559" t="str">
+      <c r="B559">
         <f t="shared" si="8"/>
-        <v>PUERTO SAAVEDRA</v>
       </c>
       <c r="C559" t="s">
         <v>929</v>
@@ -13405,9 +12926,8 @@
       <c r="A560" t="s">
         <v>892</v>
       </c>
-      <c r="B560" t="str">
+      <c r="B560">
         <f t="shared" si="8"/>
-        <v>PUERTO TORO</v>
       </c>
       <c r="C560" t="s">
         <v>930</v>
@@ -13417,9 +12937,8 @@
       <c r="A561" t="s">
         <v>893</v>
       </c>
-      <c r="B561" t="str">
+      <c r="B561">
         <f t="shared" si="8"/>
-        <v>PUERTO TRANQUILO</v>
       </c>
       <c r="C561" t="s">
         <v>931</v>
@@ -13429,9 +12948,8 @@
       <c r="A562" t="s">
         <v>197</v>
       </c>
-      <c r="B562" t="e">
+      <c r="B562">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C562" t="s">
         <v>932</v>
@@ -13441,9 +12959,8 @@
       <c r="A563" t="s">
         <v>894</v>
       </c>
-      <c r="B563" t="str">
+      <c r="B563">
         <f t="shared" si="8"/>
-        <v>PUERTO VELERO</v>
       </c>
       <c r="C563" t="s">
         <v>363</v>
@@ -13453,9 +12970,8 @@
       <c r="A564" t="s">
         <v>895</v>
       </c>
-      <c r="B564" t="str">
+      <c r="B564">
         <f t="shared" si="8"/>
-        <v>PUERTO WILLIAMS</v>
       </c>
       <c r="C564" t="s">
         <v>933</v>
@@ -13465,9 +12981,8 @@
       <c r="A565" t="s">
         <v>897</v>
       </c>
-      <c r="B565" t="str">
+      <c r="B565">
         <f t="shared" si="8"/>
-        <v>PUMANQUE</v>
       </c>
       <c r="C565" t="s">
         <v>934</v>
@@ -13477,9 +12992,8 @@
       <c r="A566" t="s">
         <v>899</v>
       </c>
-      <c r="B566" t="str">
+      <c r="B566">
         <f t="shared" si="8"/>
-        <v>PUNITAQUI</v>
       </c>
       <c r="C566" t="s">
         <v>935</v>
@@ -13489,9 +13003,8 @@
       <c r="A567" t="s">
         <v>199</v>
       </c>
-      <c r="B567" t="e">
+      <c r="B567">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="C567" t="s">
         <v>936</v>
@@ -13501,9 +13014,8 @@
       <c r="A568" t="s">
         <v>900</v>
       </c>
-      <c r="B568" t="str">
+      <c r="B568">
         <f t="shared" si="8"/>
-        <v>PUNTA COLORADA</v>
       </c>
       <c r="C568" t="s">
         <v>937</v>
@@ -13513,9 +13025,8 @@
       <c r="A569" t="s">
         <v>901</v>
       </c>
-      <c r="B569" t="str">
+      <c r="B569">
         <f t="shared" si="8"/>
-        <v>PUNTA CORONA</v>
       </c>
       <c r="C569" t="s">
         <v>938</v>
@@ -13525,9 +13036,8 @@
       <c r="A570" t="s">
         <v>902</v>
       </c>
-      <c r="B570" t="str">
+      <c r="B570">
         <f t="shared" si="8"/>
-        <v>PUNTA DE PARRA</v>
       </c>
       <c r="C570" t="s">
         <v>939</v>
@@ -13537,9 +13047,8 @@
       <c r="A571" t="s">
         <v>903</v>
       </c>
-      <c r="B571" t="str">
+      <c r="B571">
         <f t="shared" si="8"/>
-        <v>PUNTA DE TRALCA</v>
       </c>
       <c r="C571" t="s">
         <v>940</v>
@@ -13549,9 +13058,8 @@
       <c r="A572" t="s">
         <v>904</v>
       </c>
-      <c r="B572" t="str">
+      <c r="B572">
         <f t="shared" si="8"/>
-        <v>PUNTA DELGADA</v>
       </c>
       <c r="C572" t="s">
         <v>941</v>
@@ -13561,9 +13069,8 @@
       <c r="A573" t="s">
         <v>905</v>
       </c>
-      <c r="B573" t="str">
+      <c r="B573">
         <f t="shared" si="8"/>
-        <v>PUNTA LAVAPIE</v>
       </c>
       <c r="C573" t="s">
         <v>942</v>
@@ -13573,9 +13080,8 @@
       <c r="A574" t="s">
         <v>906</v>
       </c>
-      <c r="B574" t="str">
+      <c r="B574">
         <f t="shared" si="8"/>
-        <v>PUNUCAPA</v>
       </c>
       <c r="C574" t="s">
         <v>943</v>
@@ -13585,9 +13091,8 @@
       <c r="A575" t="s">
         <v>907</v>
       </c>
-      <c r="B575" t="str">
+      <c r="B575">
         <f t="shared" si="8"/>
-        <v>PUQUELDON</v>
       </c>
       <c r="C575" t="s">
         <v>944</v>
@@ -13597,9 +13102,8 @@
       <c r="A576" t="s">
         <v>352</v>
       </c>
-      <c r="B576" t="str">
+      <c r="B576">
         <f t="shared" si="8"/>
-        <v>PUREN</v>
       </c>
       <c r="C576" t="s">
         <v>945</v>
@@ -13609,9 +13113,8 @@
       <c r="A577" t="s">
         <v>353</v>
       </c>
-      <c r="B577" t="str">
+      <c r="B577">
         <f t="shared" si="8"/>
-        <v>PURRANQUE</v>
       </c>
       <c r="C577" t="s">
         <v>946</v>
@@ -13621,9 +13124,8 @@
       <c r="A578" t="s">
         <v>908</v>
       </c>
-      <c r="B578" t="str">
+      <c r="B578">
         <f t="shared" si="8"/>
-        <v>PUTAENDO</v>
       </c>
       <c r="C578" t="s">
         <v>368</v>
@@ -13633,9 +13135,8 @@
       <c r="A579" t="s">
         <v>909</v>
       </c>
-      <c r="B579" t="str">
+      <c r="B579">
         <f t="shared" ref="B579:B642" si="9">VLOOKUP(A579,$C$2:$C$711,1,FALSE)</f>
-        <v>PUTRE</v>
       </c>
       <c r="C579" t="s">
         <v>947</v>
@@ -13645,9 +13146,8 @@
       <c r="A580" t="s">
         <v>910</v>
       </c>
-      <c r="B580" t="str">
+      <c r="B580">
         <f t="shared" si="9"/>
-        <v>PUYEHUE</v>
       </c>
       <c r="C580" t="s">
         <v>948</v>
@@ -13657,9 +13157,8 @@
       <c r="A581" t="s">
         <v>911</v>
       </c>
-      <c r="B581" t="str">
+      <c r="B581">
         <f t="shared" si="9"/>
-        <v>PUYUHUAPI</v>
       </c>
       <c r="C581" t="s">
         <v>949</v>
@@ -13669,9 +13168,8 @@
       <c r="A582" t="s">
         <v>912</v>
       </c>
-      <c r="B582" t="str">
+      <c r="B582">
         <f t="shared" si="9"/>
-        <v>QUEBRADA DE ALVARADO</v>
       </c>
       <c r="C582" t="s">
         <v>950</v>
@@ -13681,9 +13179,8 @@
       <c r="A583" t="s">
         <v>913</v>
       </c>
-      <c r="B583" t="str">
+      <c r="B583">
         <f t="shared" si="9"/>
-        <v>QUEBRADA DE TALCA</v>
       </c>
       <c r="C583" t="s">
         <v>951</v>
@@ -13693,9 +13190,8 @@
       <c r="A584" t="s">
         <v>914</v>
       </c>
-      <c r="B584" t="str">
+      <c r="B584">
         <f t="shared" si="9"/>
-        <v>QUEILEN</v>
       </c>
       <c r="C584" t="s">
         <v>952</v>
@@ -13705,9 +13201,8 @@
       <c r="A585" t="s">
         <v>354</v>
       </c>
-      <c r="B585" t="str">
+      <c r="B585">
         <f t="shared" si="9"/>
-        <v>QUELLON</v>
       </c>
       <c r="C585" t="s">
         <v>953</v>
@@ -13717,9 +13212,8 @@
       <c r="A586" t="s">
         <v>915</v>
       </c>
-      <c r="B586" t="str">
+      <c r="B586">
         <f t="shared" si="9"/>
-        <v>QUELON</v>
       </c>
       <c r="C586" t="s">
         <v>954</v>
@@ -13729,9 +13223,8 @@
       <c r="A587" t="s">
         <v>916</v>
       </c>
-      <c r="B587" t="str">
+      <c r="B587">
         <f t="shared" si="9"/>
-        <v>QUEMCHI</v>
       </c>
       <c r="C587" t="s">
         <v>371</v>
@@ -13741,9 +13234,8 @@
       <c r="A588" t="s">
         <v>917</v>
       </c>
-      <c r="B588" t="str">
+      <c r="B588">
         <f t="shared" si="9"/>
-        <v>QUEPE</v>
       </c>
       <c r="C588" t="s">
         <v>955</v>
@@ -13753,9 +13245,8 @@
       <c r="A589" t="s">
         <v>918</v>
       </c>
-      <c r="B589" t="str">
+      <c r="B589">
         <f t="shared" si="9"/>
-        <v>QUETALMAHUE</v>
       </c>
       <c r="C589" t="s">
         <v>956</v>
@@ -13765,9 +13256,8 @@
       <c r="A590" t="s">
         <v>919</v>
       </c>
-      <c r="B590" t="str">
+      <c r="B590">
         <f t="shared" si="9"/>
-        <v>QUEULE</v>
       </c>
       <c r="C590" t="s">
         <v>957</v>
@@ -13777,9 +13267,8 @@
       <c r="A591" t="s">
         <v>200</v>
       </c>
-      <c r="B591" t="e">
+      <c r="B591">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C591" t="s">
         <v>958</v>
@@ -13789,9 +13278,8 @@
       <c r="A592" t="s">
         <v>920</v>
       </c>
-      <c r="B592" t="str">
+      <c r="B592">
         <f t="shared" si="9"/>
-        <v>QUILACO</v>
       </c>
       <c r="C592" t="s">
         <v>959</v>
@@ -13801,9 +13289,8 @@
       <c r="A593" t="s">
         <v>921</v>
       </c>
-      <c r="B593" t="str">
+      <c r="B593">
         <f t="shared" si="9"/>
-        <v>QUILCHE</v>
       </c>
       <c r="C593" t="s">
         <v>960</v>
@@ -13813,9 +13300,8 @@
       <c r="A594" t="s">
         <v>202</v>
       </c>
-      <c r="B594" t="e">
+      <c r="B594">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C594" t="s">
         <v>961</v>
@@ -13825,9 +13311,8 @@
       <c r="A595" t="s">
         <v>922</v>
       </c>
-      <c r="B595" t="str">
+      <c r="B595">
         <f t="shared" si="9"/>
-        <v>QUILIMARI</v>
       </c>
       <c r="C595" t="s">
         <v>962</v>
@@ -13837,9 +13322,8 @@
       <c r="A596" t="s">
         <v>923</v>
       </c>
-      <c r="B596" t="str">
+      <c r="B596">
         <f t="shared" si="9"/>
-        <v>QUILLAGUA</v>
       </c>
       <c r="C596" t="s">
         <v>963</v>
@@ -13849,9 +13333,8 @@
       <c r="A597" t="s">
         <v>924</v>
       </c>
-      <c r="B597" t="str">
+      <c r="B597">
         <f t="shared" si="9"/>
-        <v>QUILLAIPE</v>
       </c>
       <c r="C597" t="s">
         <v>964</v>
@@ -13861,9 +13344,8 @@
       <c r="A598" t="s">
         <v>925</v>
       </c>
-      <c r="B598" t="str">
+      <c r="B598">
         <f t="shared" si="9"/>
-        <v>QUILLAITUN</v>
       </c>
       <c r="C598" t="s">
         <v>965</v>
@@ -13873,9 +13355,8 @@
       <c r="A599" t="s">
         <v>926</v>
       </c>
-      <c r="B599" t="str">
+      <c r="B599">
         <f t="shared" si="9"/>
-        <v>QUILLECO</v>
       </c>
       <c r="C599" t="s">
         <v>966</v>
@@ -13885,9 +13366,8 @@
       <c r="A600" t="s">
         <v>356</v>
       </c>
-      <c r="B600" t="str">
+      <c r="B600">
         <f t="shared" si="9"/>
-        <v>QUILLON</v>
       </c>
       <c r="C600" t="s">
         <v>967</v>
@@ -13897,9 +13377,8 @@
       <c r="A601" t="s">
         <v>357</v>
       </c>
-      <c r="B601" t="str">
+      <c r="B601">
         <f t="shared" si="9"/>
-        <v>QUILLOTA</v>
       </c>
       <c r="C601" t="s">
         <v>968</v>
@@ -13909,9 +13388,8 @@
       <c r="A602" t="s">
         <v>927</v>
       </c>
-      <c r="B602" t="str">
+      <c r="B602">
         <f t="shared" si="9"/>
-        <v>QUILPUE</v>
       </c>
       <c r="C602" t="s">
         <v>969</v>
@@ -13921,9 +13399,8 @@
       <c r="A603" t="s">
         <v>928</v>
       </c>
-      <c r="B603" t="str">
+      <c r="B603">
         <f t="shared" si="9"/>
-        <v>QUINCHAMALI</v>
       </c>
       <c r="C603" t="s">
         <v>376</v>
@@ -13933,9 +13410,8 @@
       <c r="A604" t="s">
         <v>929</v>
       </c>
-      <c r="B604" t="str">
+      <c r="B604">
         <f t="shared" si="9"/>
-        <v>QUINCHAO</v>
       </c>
       <c r="C604" t="s">
         <v>970</v>
@@ -13945,9 +13421,8 @@
       <c r="A605" t="s">
         <v>930</v>
       </c>
-      <c r="B605" t="str">
+      <c r="B605">
         <f t="shared" si="9"/>
-        <v>QUINTA DE TILCOCO</v>
       </c>
       <c r="C605" t="s">
         <v>378</v>
@@ -13957,9 +13432,8 @@
       <c r="A606" t="s">
         <v>204</v>
       </c>
-      <c r="B606" t="e">
+      <c r="B606">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C606" t="s">
         <v>971</v>
@@ -13969,9 +13443,8 @@
       <c r="A607" t="s">
         <v>931</v>
       </c>
-      <c r="B607" t="str">
+      <c r="B607">
         <f t="shared" si="9"/>
-        <v>QUINTAY</v>
       </c>
       <c r="C607" t="s">
         <v>972</v>
@@ -13981,9 +13454,8 @@
       <c r="A608" t="s">
         <v>932</v>
       </c>
-      <c r="B608" t="str">
+      <c r="B608">
         <f t="shared" si="9"/>
-        <v>QUINTERO</v>
       </c>
       <c r="C608" t="s">
         <v>973</v>
@@ -13993,9 +13465,8 @@
       <c r="A609" t="s">
         <v>363</v>
       </c>
-      <c r="B609" t="str">
+      <c r="B609">
         <f t="shared" si="9"/>
-        <v>QUIRIHUE</v>
       </c>
       <c r="C609" t="s">
         <v>974</v>
@@ -14005,9 +13476,8 @@
       <c r="A610" t="s">
         <v>933</v>
       </c>
-      <c r="B610" t="str">
+      <c r="B610">
         <f t="shared" si="9"/>
-        <v>QUIRIQUINA</v>
       </c>
       <c r="C610" t="s">
         <v>975</v>
@@ -14017,9 +13487,8 @@
       <c r="A611" t="s">
         <v>934</v>
       </c>
-      <c r="B611" t="str">
+      <c r="B611">
         <f t="shared" si="9"/>
-        <v>RADAL</v>
       </c>
       <c r="C611" t="s">
         <v>976</v>
@@ -14029,9 +13498,8 @@
       <c r="A612" t="s">
         <v>935</v>
       </c>
-      <c r="B612" t="str">
+      <c r="B612">
         <f t="shared" si="9"/>
-        <v>RAFAEL</v>
       </c>
       <c r="C612" t="s">
         <v>977</v>
@@ -14041,9 +13509,8 @@
       <c r="A613" t="s">
         <v>936</v>
       </c>
-      <c r="B613" t="str">
+      <c r="B613">
         <f t="shared" si="9"/>
-        <v>RAMADILLAS</v>
       </c>
       <c r="C613" t="s">
         <v>978</v>
@@ -14053,9 +13520,8 @@
       <c r="A614" t="s">
         <v>206</v>
       </c>
-      <c r="B614" t="e">
+      <c r="B614">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C614" t="s">
         <v>979</v>
@@ -14065,9 +13531,8 @@
       <c r="A615" t="s">
         <v>937</v>
       </c>
-      <c r="B615" t="str">
+      <c r="B615">
         <f t="shared" si="9"/>
-        <v>RANGUELMO</v>
       </c>
       <c r="C615" t="s">
         <v>980</v>
@@ -14077,9 +13542,8 @@
       <c r="A616" t="s">
         <v>938</v>
       </c>
-      <c r="B616" t="str">
+      <c r="B616">
         <f t="shared" si="9"/>
-        <v>RANQUIL</v>
       </c>
       <c r="C616" t="s">
         <v>981</v>
@@ -14089,9 +13553,8 @@
       <c r="A617" t="s">
         <v>939</v>
       </c>
-      <c r="B617" t="str">
+      <c r="B617">
         <f t="shared" si="9"/>
-        <v>RAPEL</v>
       </c>
       <c r="C617" t="s">
         <v>982</v>
@@ -14101,9 +13564,8 @@
       <c r="A618" t="s">
         <v>940</v>
       </c>
-      <c r="B618" t="str">
+      <c r="B618">
         <f t="shared" si="9"/>
-        <v>RAUCO</v>
       </c>
       <c r="C618" t="s">
         <v>983</v>
@@ -14113,9 +13575,8 @@
       <c r="A619" t="s">
         <v>941</v>
       </c>
-      <c r="B619" t="str">
+      <c r="B619">
         <f t="shared" si="9"/>
-        <v>RAUQUEN</v>
       </c>
       <c r="C619" t="s">
         <v>984</v>
@@ -14125,9 +13586,8 @@
       <c r="A620" t="s">
         <v>942</v>
       </c>
-      <c r="B620" t="str">
+      <c r="B620">
         <f t="shared" si="9"/>
-        <v>RAYENCURA</v>
       </c>
       <c r="C620" t="s">
         <v>985</v>
@@ -14137,9 +13597,8 @@
       <c r="A621" t="s">
         <v>208</v>
       </c>
-      <c r="B621" t="e">
+      <c r="B621">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C621" t="s">
         <v>986</v>
@@ -14149,9 +13608,8 @@
       <c r="A622" t="s">
         <v>943</v>
       </c>
-      <c r="B622" t="str">
+      <c r="B622">
         <f t="shared" si="9"/>
-        <v>RECOLETA IV</v>
       </c>
       <c r="C622" t="s">
         <v>987</v>
@@ -14161,9 +13619,8 @@
       <c r="A623" t="s">
         <v>945</v>
       </c>
-      <c r="B623" t="str">
+      <c r="B623">
         <f t="shared" si="9"/>
-        <v>RENACA</v>
       </c>
       <c r="C623" t="s">
         <v>386</v>
@@ -14173,9 +13630,8 @@
       <c r="A624" t="s">
         <v>946</v>
       </c>
-      <c r="B624" t="str">
+      <c r="B624">
         <f t="shared" si="9"/>
-        <v>RENAICO</v>
       </c>
       <c r="C624" t="s">
         <v>988</v>
@@ -14185,9 +13641,8 @@
       <c r="A625" t="s">
         <v>210</v>
       </c>
-      <c r="B625" t="e">
+      <c r="B625">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C625" t="s">
         <v>989</v>
@@ -14197,9 +13652,8 @@
       <c r="A626" t="s">
         <v>368</v>
       </c>
-      <c r="B626" t="str">
+      <c r="B626">
         <f t="shared" si="9"/>
-        <v>RENGO</v>
       </c>
       <c r="C626" t="s">
         <v>990</v>
@@ -14209,9 +13663,8 @@
       <c r="A627" t="s">
         <v>947</v>
       </c>
-      <c r="B627" t="str">
+      <c r="B627">
         <f t="shared" si="9"/>
-        <v>REQUINOA</v>
       </c>
       <c r="C627" t="s">
         <v>991</v>
@@ -14221,9 +13674,8 @@
       <c r="A628" t="s">
         <v>948</v>
       </c>
-      <c r="B628" t="str">
+      <c r="B628">
         <f t="shared" si="9"/>
-        <v>RETIRO</v>
       </c>
       <c r="C628" t="s">
         <v>992</v>
@@ -14233,9 +13685,8 @@
       <c r="A629" t="s">
         <v>212</v>
       </c>
-      <c r="B629" t="e">
+      <c r="B629">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="C629" t="s">
         <v>993</v>
@@ -14245,9 +13696,8 @@
       <c r="A630" t="s">
         <v>949</v>
       </c>
-      <c r="B630" t="str">
+      <c r="B630">
         <f t="shared" si="9"/>
-        <v>RIHUE</v>
       </c>
       <c r="C630" t="s">
         <v>994</v>
@@ -14257,9 +13707,8 @@
       <c r="A631" t="s">
         <v>950</v>
       </c>
-      <c r="B631" t="str">
+      <c r="B631">
         <f t="shared" si="9"/>
-        <v>RINCONADA</v>
       </c>
       <c r="C631" t="s">
         <v>995</v>
@@ -14269,9 +13718,8 @@
       <c r="A632" t="s">
         <v>951</v>
       </c>
-      <c r="B632" t="str">
+      <c r="B632">
         <f t="shared" si="9"/>
-        <v>RINCONADA DE GUZMAN</v>
       </c>
       <c r="C632" t="s">
         <v>389</v>
@@ -14281,9 +13729,8 @@
       <c r="A633" t="s">
         <v>952</v>
       </c>
-      <c r="B633" t="str">
+      <c r="B633">
         <f t="shared" si="9"/>
-        <v>RINCONADA DE SILVA</v>
       </c>
       <c r="C633" t="s">
         <v>996</v>
@@ -14293,9 +13740,8 @@
       <c r="A634" t="s">
         <v>953</v>
       </c>
-      <c r="B634" t="str">
+      <c r="B634">
         <f t="shared" si="9"/>
-        <v>RINIHUE</v>
       </c>
       <c r="C634" t="s">
         <v>390</v>
@@ -14305,9 +13751,8 @@
       <c r="A635" t="s">
         <v>954</v>
       </c>
-      <c r="B635" t="str">
+      <c r="B635">
         <f t="shared" si="9"/>
-        <v>RININAHUE</v>
       </c>
       <c r="C635" t="s">
         <v>997</v>
@@ -14317,9 +13762,8 @@
       <c r="A636" t="s">
         <v>371</v>
       </c>
-      <c r="B636" t="str">
+      <c r="B636">
         <f t="shared" si="9"/>
-        <v>RIO BUENO</v>
       </c>
       <c r="C636" t="s">
         <v>998</v>
@@ -14329,9 +13773,8 @@
       <c r="A637" t="s">
         <v>955</v>
       </c>
-      <c r="B637" t="str">
+      <c r="B637">
         <f t="shared" si="9"/>
-        <v>RIO CLARO</v>
       </c>
       <c r="C637" t="s">
         <v>999</v>
@@ -14341,9 +13784,8 @@
       <c r="A638" t="s">
         <v>956</v>
       </c>
-      <c r="B638" t="str">
+      <c r="B638">
         <f t="shared" si="9"/>
-        <v>RIO HURTADO</v>
       </c>
       <c r="C638" t="s">
         <v>1000</v>
@@ -14353,9 +13795,8 @@
       <c r="A639" t="s">
         <v>957</v>
       </c>
-      <c r="B639" t="str">
+      <c r="B639">
         <f t="shared" si="9"/>
-        <v>RIO IBANEZ</v>
       </c>
       <c r="C639" t="s">
         <v>1001</v>
@@ -14365,9 +13806,8 @@
       <c r="A640" t="s">
         <v>958</v>
       </c>
-      <c r="B640" t="str">
+      <c r="B640">
         <f t="shared" si="9"/>
-        <v>RIO NEGRO</v>
       </c>
       <c r="C640" t="s">
         <v>393</v>
@@ -14377,9 +13817,8 @@
       <c r="A641" t="s">
         <v>960</v>
       </c>
-      <c r="B641" t="str">
+      <c r="B641">
         <f t="shared" si="9"/>
-        <v>RIO VERDE</v>
       </c>
       <c r="C641" t="s">
         <v>1002</v>
@@ -14389,9 +13828,8 @@
       <c r="A642" t="s">
         <v>961</v>
       </c>
-      <c r="B642" t="str">
+      <c r="B642">
         <f t="shared" si="9"/>
-        <v>ROBLE HUACHO</v>
       </c>
       <c r="C642" t="s">
         <v>1003</v>
@@ -14401,9 +13839,8 @@
       <c r="A643" t="s">
         <v>962</v>
       </c>
-      <c r="B643" t="str">
+      <c r="B643">
         <f t="shared" ref="B643:B706" si="10">VLOOKUP(A643,$C$2:$C$711,1,FALSE)</f>
-        <v>ROCAS DE SANTO DOMINGO</v>
       </c>
       <c r="C643" t="s">
         <v>1004</v>
@@ -14413,9 +13850,8 @@
       <c r="A644" t="s">
         <v>963</v>
       </c>
-      <c r="B644" t="str">
+      <c r="B644">
         <f t="shared" si="10"/>
-        <v>ROMERAL</v>
       </c>
       <c r="C644" t="s">
         <v>1005</v>
@@ -14425,9 +13861,8 @@
       <c r="A645" t="s">
         <v>964</v>
       </c>
-      <c r="B645" t="str">
+      <c r="B645">
         <f t="shared" si="10"/>
-        <v>ROSARIO</v>
       </c>
       <c r="C645" t="s">
         <v>1006</v>
@@ -14437,9 +13872,8 @@
       <c r="A646" t="s">
         <v>965</v>
       </c>
-      <c r="B646" t="str">
+      <c r="B646">
         <f t="shared" si="10"/>
-        <v>RUCA RAQUI</v>
       </c>
       <c r="C646" t="s">
         <v>1007</v>
@@ -14449,9 +13883,8 @@
       <c r="A647" t="s">
         <v>966</v>
       </c>
-      <c r="B647" t="str">
+      <c r="B647">
         <f t="shared" si="10"/>
-        <v>RUCAPEQUEN</v>
       </c>
       <c r="C647" t="s">
         <v>1008</v>
@@ -14461,9 +13894,8 @@
       <c r="A648" t="s">
         <v>967</v>
       </c>
-      <c r="B648" t="str">
+      <c r="B648">
         <f t="shared" si="10"/>
-        <v>RUNGUE</v>
       </c>
       <c r="C648" t="s">
         <v>395</v>
@@ -14473,9 +13905,8 @@
       <c r="A649" t="s">
         <v>968</v>
       </c>
-      <c r="B649" t="str">
+      <c r="B649">
         <f t="shared" si="10"/>
-        <v>SAGRADA FAMILIA</v>
       </c>
       <c r="C649" t="s">
         <v>1009</v>
@@ -14485,9 +13916,8 @@
       <c r="A650" t="s">
         <v>969</v>
       </c>
-      <c r="B650" t="str">
+      <c r="B650">
         <f t="shared" si="10"/>
-        <v>SALADILLO</v>
       </c>
       <c r="C650" t="s">
         <v>1010</v>
@@ -14497,9 +13927,8 @@
       <c r="A651" t="s">
         <v>376</v>
       </c>
-      <c r="B651" t="str">
+      <c r="B651">
         <f t="shared" si="10"/>
-        <v>SALAMANCA</v>
       </c>
       <c r="C651" t="s">
         <v>1011</v>
@@ -14509,9 +13938,8 @@
       <c r="A652" t="s">
         <v>970</v>
       </c>
-      <c r="B652" t="str">
+      <c r="B652">
         <f t="shared" si="10"/>
-        <v>SAN ALFONSO</v>
       </c>
       <c r="C652" t="s">
         <v>1012</v>
@@ -14521,9 +13949,8 @@
       <c r="A653" t="s">
         <v>214</v>
       </c>
-      <c r="B653" t="e">
+      <c r="B653">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C653" t="s">
         <v>1013</v>
@@ -14533,9 +13960,8 @@
       <c r="A654" t="s">
         <v>216</v>
       </c>
-      <c r="B654" t="e">
+      <c r="B654">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C654" t="s">
         <v>1014</v>
@@ -14545,9 +13971,8 @@
       <c r="A655" t="s">
         <v>378</v>
       </c>
-      <c r="B655" t="str">
+      <c r="B655">
         <f t="shared" si="10"/>
-        <v>SAN CARLOS</v>
       </c>
       <c r="C655" t="s">
         <v>1015</v>
@@ -14557,9 +13982,8 @@
       <c r="A656" t="s">
         <v>971</v>
       </c>
-      <c r="B656" t="str">
+      <c r="B656">
         <f t="shared" si="10"/>
-        <v>SAN CLEMENTE</v>
       </c>
       <c r="C656" t="s">
         <v>1016</v>
@@ -14569,9 +13993,8 @@
       <c r="A657" t="s">
         <v>972</v>
       </c>
-      <c r="B657" t="str">
+      <c r="B657">
         <f t="shared" si="10"/>
-        <v>SAN ESTEBAN</v>
       </c>
       <c r="C657" t="s">
         <v>1017</v>
@@ -14581,9 +14004,8 @@
       <c r="A658" t="s">
         <v>973</v>
       </c>
-      <c r="B658" t="str">
+      <c r="B658">
         <f t="shared" si="10"/>
-        <v>SAN FABIAN DE ALICO</v>
       </c>
       <c r="C658" t="s">
         <v>1018</v>
@@ -14593,9 +14015,8 @@
       <c r="A659" t="s">
         <v>217</v>
       </c>
-      <c r="B659" t="e">
+      <c r="B659">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C659" t="s">
         <v>1019</v>
@@ -14605,9 +14026,8 @@
       <c r="A660" t="s">
         <v>219</v>
       </c>
-      <c r="B660" t="e">
+      <c r="B660">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C660" t="s">
         <v>411</v>
@@ -14617,9 +14037,8 @@
       <c r="A661" t="s">
         <v>974</v>
       </c>
-      <c r="B661" t="str">
+      <c r="B661">
         <f t="shared" si="10"/>
-        <v>SAN FRANCISCO DE MOSTAZAL</v>
       </c>
       <c r="C661" t="s">
         <v>412</v>
@@ -14629,9 +14048,8 @@
       <c r="A662" t="s">
         <v>975</v>
       </c>
-      <c r="B662" t="str">
+      <c r="B662">
         <f t="shared" si="10"/>
-        <v>SAN GABRIEL</v>
       </c>
       <c r="C662" t="s">
         <v>1020</v>
@@ -14641,9 +14059,8 @@
       <c r="A663" t="s">
         <v>976</v>
       </c>
-      <c r="B663" t="str">
+      <c r="B663">
         <f t="shared" si="10"/>
-        <v>SAN GREGORIO</v>
       </c>
       <c r="C663" t="s">
         <v>1021</v>
@@ -14653,9 +14070,8 @@
       <c r="A664" t="s">
         <v>977</v>
       </c>
-      <c r="B664" t="str">
+      <c r="B664">
         <f t="shared" si="10"/>
-        <v>SAN IGNACIO</v>
       </c>
       <c r="C664" t="s">
         <v>1022</v>
@@ -14665,9 +14081,8 @@
       <c r="A665" t="s">
         <v>978</v>
       </c>
-      <c r="B665" t="str">
+      <c r="B665">
         <f t="shared" si="10"/>
-        <v>SAN ISIDRO DE QUILLOTA</v>
       </c>
       <c r="C665" t="s">
         <v>1023</v>
@@ -14677,9 +14092,8 @@
       <c r="A666" t="s">
         <v>979</v>
       </c>
-      <c r="B666" t="str">
+      <c r="B666">
         <f t="shared" si="10"/>
-        <v>SAN JAVIER</v>
       </c>
       <c r="C666" t="s">
         <v>1024</v>
@@ -14689,9 +14103,8 @@
       <c r="A667" t="s">
         <v>220</v>
       </c>
-      <c r="B667" t="e">
+      <c r="B667">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C667" t="s">
         <v>1025</v>
@@ -14701,9 +14114,8 @@
       <c r="A668" t="s">
         <v>980</v>
       </c>
-      <c r="B668" t="str">
+      <c r="B668">
         <f t="shared" si="10"/>
-        <v>SAN JOSE DE LA MARIQUINA</v>
       </c>
       <c r="C668" t="s">
         <v>413</v>
@@ -14713,9 +14125,8 @@
       <c r="A669" t="s">
         <v>981</v>
       </c>
-      <c r="B669" t="str">
+      <c r="B669">
         <f t="shared" si="10"/>
-        <v>SAN JOSE DE MAIPO</v>
       </c>
       <c r="C669" t="s">
         <v>1026</v>
@@ -14725,9 +14136,8 @@
       <c r="A670" t="s">
         <v>982</v>
       </c>
-      <c r="B670" t="str">
+      <c r="B670">
         <f t="shared" si="10"/>
-        <v>SAN JUAN</v>
       </c>
       <c r="C670" t="s">
         <v>1027</v>
@@ -14737,9 +14147,8 @@
       <c r="A671" t="s">
         <v>983</v>
       </c>
-      <c r="B671" t="str">
+      <c r="B671">
         <f t="shared" si="10"/>
-        <v>SAN JUAN DE LA COSTA</v>
       </c>
       <c r="C671" t="s">
         <v>1028</v>
@@ -14749,9 +14158,8 @@
       <c r="A672" t="s">
         <v>984</v>
       </c>
-      <c r="B672" t="str">
+      <c r="B672">
         <f t="shared" si="10"/>
-        <v>SAN JULIAN</v>
       </c>
       <c r="C672" t="s">
         <v>1029</v>
@@ -14761,9 +14169,8 @@
       <c r="A673" t="s">
         <v>985</v>
       </c>
-      <c r="B673" t="str">
+      <c r="B673">
         <f t="shared" si="10"/>
-        <v>SAN MANUEL</v>
       </c>
       <c r="C673" t="s">
         <v>1030</v>
@@ -14773,9 +14180,8 @@
       <c r="A674" t="s">
         <v>986</v>
       </c>
-      <c r="B674" t="str">
+      <c r="B674">
         <f t="shared" si="10"/>
-        <v>SAN MARCOS</v>
       </c>
       <c r="C674" t="s">
         <v>1031</v>
@@ -14785,9 +14191,8 @@
       <c r="A675" t="s">
         <v>222</v>
       </c>
-      <c r="B675" t="e">
+      <c r="B675">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C675" t="s">
         <v>1032</v>
@@ -14797,9 +14202,8 @@
       <c r="A676" t="s">
         <v>987</v>
       </c>
-      <c r="B676" t="str">
+      <c r="B676">
         <f t="shared" si="10"/>
-        <v>SAN NICOLAS</v>
       </c>
       <c r="C676" t="s">
         <v>1033</v>
@@ -14809,9 +14213,8 @@
       <c r="A677" t="s">
         <v>386</v>
       </c>
-      <c r="B677" t="str">
+      <c r="B677">
         <f t="shared" si="10"/>
-        <v>SAN PABLO</v>
       </c>
       <c r="C677" t="s">
         <v>1034</v>
@@ -14821,9 +14224,8 @@
       <c r="A678" t="s">
         <v>988</v>
       </c>
-      <c r="B678" t="str">
+      <c r="B678">
         <f t="shared" si="10"/>
-        <v>SAN PATRICIO</v>
       </c>
       <c r="C678" t="s">
         <v>1035</v>
@@ -14833,9 +14235,8 @@
       <c r="A679" t="s">
         <v>223</v>
       </c>
-      <c r="B679" t="e">
+      <c r="B679">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C679" t="s">
         <v>1036</v>
@@ -14845,9 +14246,8 @@
       <c r="A680" t="s">
         <v>989</v>
       </c>
-      <c r="B680" t="str">
+      <c r="B680">
         <f t="shared" si="10"/>
-        <v>SAN PEDRO DE ALCANTARA</v>
       </c>
       <c r="C680" t="s">
         <v>1037</v>
@@ -14857,9 +14257,8 @@
       <c r="A681" t="s">
         <v>225</v>
       </c>
-      <c r="B681" t="e">
+      <c r="B681">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C681" t="s">
         <v>1038</v>
@@ -14869,9 +14268,8 @@
       <c r="A682" t="s">
         <v>227</v>
       </c>
-      <c r="B682" t="e">
+      <c r="B682">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C682" t="s">
         <v>1039</v>
@@ -14881,9 +14279,8 @@
       <c r="A683" t="s">
         <v>990</v>
       </c>
-      <c r="B683" t="str">
+      <c r="B683">
         <f t="shared" si="10"/>
-        <v>SAN PEDRO DE MELIPILLA</v>
       </c>
       <c r="C683" t="s">
         <v>1040</v>
@@ -14893,9 +14290,8 @@
       <c r="A684" t="s">
         <v>991</v>
       </c>
-      <c r="B684" t="str">
+      <c r="B684">
         <f t="shared" si="10"/>
-        <v>SAN PEDRO DE QUILLOTA</v>
       </c>
       <c r="C684" t="s">
         <v>1041</v>
@@ -14905,9 +14301,8 @@
       <c r="A685" t="s">
         <v>992</v>
       </c>
-      <c r="B685" t="str">
+      <c r="B685">
         <f t="shared" si="10"/>
-        <v>SAN RAFAEL</v>
       </c>
       <c r="C685" t="s">
         <v>1042</v>
@@ -14917,9 +14312,8 @@
       <c r="A686" t="s">
         <v>229</v>
       </c>
-      <c r="B686" t="e">
+      <c r="B686">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C686" t="s">
         <v>422</v>
@@ -14929,9 +14323,8 @@
       <c r="A687" t="s">
         <v>993</v>
       </c>
-      <c r="B687" t="str">
+      <c r="B687">
         <f t="shared" si="10"/>
-        <v>SAN ROSENDO</v>
       </c>
       <c r="C687" t="s">
         <v>1043</v>
@@ -14941,9 +14334,8 @@
       <c r="A688" t="s">
         <v>994</v>
       </c>
-      <c r="B688" t="str">
+      <c r="B688">
         <f t="shared" si="10"/>
-        <v>SAN SEBASTIAN</v>
       </c>
       <c r="C688" t="s">
         <v>1044</v>
@@ -14953,9 +14345,8 @@
       <c r="A689" t="s">
         <v>995</v>
       </c>
-      <c r="B689" t="str">
+      <c r="B689">
         <f t="shared" si="10"/>
-        <v>SAN VICENTE DE TAGUATAGUA</v>
       </c>
       <c r="C689" t="s">
         <v>1045</v>
@@ -14965,9 +14356,8 @@
       <c r="A690" t="s">
         <v>389</v>
       </c>
-      <c r="B690" t="str">
+      <c r="B690">
         <f t="shared" si="10"/>
-        <v>SANTA BARBARA</v>
       </c>
       <c r="C690" t="s">
         <v>1046</v>
@@ -14977,9 +14367,8 @@
       <c r="A691" t="s">
         <v>996</v>
       </c>
-      <c r="B691" t="str">
+      <c r="B691">
         <f t="shared" si="10"/>
-        <v>SANTA CLARA</v>
       </c>
       <c r="C691" t="s">
         <v>1047</v>
@@ -14989,9 +14378,8 @@
       <c r="A692" t="s">
         <v>390</v>
       </c>
-      <c r="B692" t="str">
+      <c r="B692">
         <f t="shared" si="10"/>
-        <v>SANTA CRUZ</v>
       </c>
       <c r="C692" t="s">
         <v>1048</v>
@@ -15001,9 +14389,8 @@
       <c r="A693" t="s">
         <v>997</v>
       </c>
-      <c r="B693" t="str">
+      <c r="B693">
         <f t="shared" si="10"/>
-        <v>SANTA JUANA</v>
       </c>
       <c r="C693" t="s">
         <v>1049</v>
@@ -15013,9 +14400,8 @@
       <c r="A694" t="s">
         <v>998</v>
       </c>
-      <c r="B694" t="str">
+      <c r="B694">
         <f t="shared" si="10"/>
-        <v>SANTA MARIA</v>
       </c>
       <c r="C694" t="s">
         <v>1050</v>
@@ -15025,9 +14411,8 @@
       <c r="A695" t="s">
         <v>999</v>
       </c>
-      <c r="B695" t="str">
+      <c r="B695">
         <f t="shared" si="10"/>
-        <v>SANTA ROSA DE CHENA</v>
       </c>
       <c r="C695" t="s">
         <v>1051</v>
@@ -15037,9 +14422,8 @@
       <c r="A696" t="s">
         <v>231</v>
       </c>
-      <c r="B696" t="e">
+      <c r="B696">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="C696" t="s">
         <v>1052</v>
@@ -15049,9 +14433,8 @@
       <c r="A697" t="s">
         <v>1000</v>
       </c>
-      <c r="B697" t="str">
+      <c r="B697">
         <f t="shared" si="10"/>
-        <v>SECTOR LA PEÑA</v>
       </c>
       <c r="C697" t="s">
         <v>1053</v>
@@ -15061,9 +14444,8 @@
       <c r="A698" t="s">
         <v>1001</v>
       </c>
-      <c r="B698" t="str">
+      <c r="B698">
         <f t="shared" si="10"/>
-        <v>SEWELL</v>
       </c>
       <c r="C698" t="s">
         <v>1054</v>
@@ -15073,9 +14455,8 @@
       <c r="A699" t="s">
         <v>393</v>
       </c>
-      <c r="B699" t="str">
+      <c r="B699">
         <f t="shared" si="10"/>
-        <v>SIERRA GORDA</v>
       </c>
       <c r="C699" t="s">
         <v>1055</v>
@@ -15085,9 +14466,8 @@
       <c r="A700" t="s">
         <v>1002</v>
       </c>
-      <c r="B700" t="str">
+      <c r="B700">
         <f t="shared" si="10"/>
-        <v>SOCAIRE</v>
       </c>
       <c r="C700" t="s">
         <v>1056</v>
@@ -15097,9 +14477,8 @@
       <c r="A701" t="s">
         <v>1003</v>
       </c>
-      <c r="B701" t="str">
+      <c r="B701">
         <f t="shared" si="10"/>
-        <v>SOCOROMA</v>
       </c>
       <c r="C701" t="s">
         <v>1057</v>
@@ -15109,9 +14488,8 @@
       <c r="A702" t="s">
         <v>1004</v>
       </c>
-      <c r="B702" t="str">
+      <c r="B702">
         <f t="shared" si="10"/>
-        <v>SOCOS</v>
       </c>
       <c r="C702" t="s">
         <v>1058</v>
@@ -15121,9 +14499,8 @@
       <c r="A703" t="s">
         <v>1005</v>
       </c>
-      <c r="B703" t="str">
+      <c r="B703">
         <f t="shared" si="10"/>
-        <v>SORA</v>
       </c>
       <c r="C703" t="s">
         <v>1059</v>
@@ -15133,9 +14510,8 @@
       <c r="A704" t="s">
         <v>1006</v>
       </c>
-      <c r="B704" t="str">
+      <c r="B704">
         <f t="shared" si="10"/>
-        <v>SOTAQUI</v>
       </c>
       <c r="C704" t="s">
         <v>1060</v>
@@ -15145,9 +14521,8 @@
       <c r="A705" t="s">
         <v>1007</v>
       </c>
-      <c r="B705" t="str">
+      <c r="B705">
         <f t="shared" si="10"/>
-        <v>SOTOCA</v>
       </c>
       <c r="C705" t="s">
         <v>1061</v>
@@ -15157,9 +14532,8 @@
       <c r="A706" t="s">
         <v>1008</v>
       </c>
-      <c r="B706" t="str">
+      <c r="B706">
         <f t="shared" si="10"/>
-        <v>TABOLANGO</v>
       </c>
       <c r="C706" t="s">
         <v>1062</v>
@@ -15169,9 +14543,8 @@
       <c r="A707" t="s">
         <v>395</v>
       </c>
-      <c r="B707" t="str">
+      <c r="B707">
         <f t="shared" ref="B707:B770" si="11">VLOOKUP(A707,$C$2:$C$711,1,FALSE)</f>
-        <v>TALAGANTE</v>
       </c>
       <c r="C707" t="s">
         <v>432</v>
@@ -15181,9 +14554,8 @@
       <c r="A708" t="s">
         <v>233</v>
       </c>
-      <c r="B708" t="e">
+      <c r="B708">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
       <c r="C708" t="s">
         <v>433</v>
@@ -15193,9 +14565,8 @@
       <c r="A709" t="s">
         <v>1009</v>
       </c>
-      <c r="B709" t="str">
+      <c r="B709">
         <f t="shared" si="11"/>
-        <v>TALCAHUANO</v>
       </c>
       <c r="C709" t="s">
         <v>1063</v>
@@ -15205,9 +14576,8 @@
       <c r="A710" t="s">
         <v>235</v>
       </c>
-      <c r="B710" t="e">
+      <c r="B710">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
       <c r="C710" t="s">
         <v>434</v>
@@ -15217,9 +14587,8 @@
       <c r="A711" t="s">
         <v>1010</v>
       </c>
-      <c r="B711" t="str">
+      <c r="B711">
         <f t="shared" si="11"/>
-        <v>TAMBILLO</v>
       </c>
       <c r="C711" t="s">
         <v>1064</v>
@@ -15229,603 +14598,536 @@
       <c r="A712" t="s">
         <v>1011</v>
       </c>
-      <c r="B712" t="str">
+      <c r="B712">
         <f t="shared" si="11"/>
-        <v>TANILVORO</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>236</v>
       </c>
-      <c r="B713" t="e">
+      <c r="B713">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1012</v>
       </c>
-      <c r="B714" t="str">
+      <c r="B714">
         <f t="shared" si="11"/>
-        <v>TENO</v>
       </c>
     </row>
     <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1013</v>
       </c>
-      <c r="B715" t="str">
+      <c r="B715">
         <f t="shared" si="11"/>
-        <v>TEODORO SCHMIDT</v>
       </c>
     </row>
     <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1014</v>
       </c>
-      <c r="B716" t="str">
+      <c r="B716">
         <f t="shared" si="11"/>
-        <v>TIERRA AMARILLA</v>
       </c>
     </row>
     <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1015</v>
       </c>
-      <c r="B717" t="str">
+      <c r="B717">
         <f t="shared" si="11"/>
-        <v>TIERRAS BLANCAS</v>
       </c>
     </row>
     <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1016</v>
       </c>
-      <c r="B718" t="str">
+      <c r="B718">
         <f t="shared" si="11"/>
-        <v>TIGNAMAR</v>
       </c>
     </row>
     <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1017</v>
       </c>
-      <c r="B719" t="str">
+      <c r="B719">
         <f t="shared" si="11"/>
-        <v>TILTIL</v>
       </c>
     </row>
     <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1018</v>
       </c>
-      <c r="B720" t="str">
+      <c r="B720">
         <f t="shared" si="11"/>
-        <v>TIMAUKEL</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>238</v>
       </c>
-      <c r="B721" t="e">
+      <c r="B721">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1019</v>
       </c>
-      <c r="B722" t="str">
+      <c r="B722">
         <f t="shared" si="11"/>
-        <v>TOCONAO</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>240</v>
       </c>
-      <c r="B723" t="e">
+      <c r="B723">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>411</v>
       </c>
-      <c r="B724" t="str">
+      <c r="B724">
         <f t="shared" si="11"/>
-        <v>TOLTEN</v>
       </c>
     </row>
     <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>412</v>
       </c>
-      <c r="B725" t="str">
+      <c r="B725">
         <f t="shared" si="11"/>
-        <v>TOME</v>
       </c>
     </row>
     <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1020</v>
       </c>
-      <c r="B726" t="str">
+      <c r="B726">
         <f t="shared" si="11"/>
-        <v>TONGOY</v>
       </c>
     </row>
     <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1021</v>
       </c>
-      <c r="B727" t="str">
+      <c r="B727">
         <f t="shared" si="11"/>
-        <v>TOPOCALMA</v>
       </c>
     </row>
     <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1022</v>
       </c>
-      <c r="B728" t="str">
+      <c r="B728">
         <f t="shared" si="11"/>
-        <v>TOROICO</v>
       </c>
     </row>
     <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1023</v>
       </c>
-      <c r="B729" t="str">
+      <c r="B729">
         <f t="shared" si="11"/>
-        <v>TORRES DEL PAINE</v>
       </c>
     </row>
     <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1024</v>
       </c>
-      <c r="B730" t="str">
+      <c r="B730">
         <f t="shared" si="11"/>
-        <v>TORTEL</v>
       </c>
     </row>
     <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1025</v>
       </c>
-      <c r="B731" t="str">
+      <c r="B731">
         <f t="shared" si="11"/>
-        <v>TOTORALILLO</v>
       </c>
     </row>
     <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>413</v>
       </c>
-      <c r="B732" t="str">
+      <c r="B732">
         <f t="shared" si="11"/>
-        <v>TRAIGUEN</v>
       </c>
     </row>
     <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1027</v>
       </c>
-      <c r="B733" t="str">
+      <c r="B733">
         <f t="shared" si="11"/>
-        <v>TREGUALEMU</v>
       </c>
     </row>
     <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1028</v>
       </c>
-      <c r="B734" t="str">
+      <c r="B734">
         <f t="shared" si="11"/>
-        <v>TREHUACO</v>
       </c>
     </row>
     <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1029</v>
       </c>
-      <c r="B735" t="str">
+      <c r="B735">
         <f t="shared" si="11"/>
-        <v>TRES PINOS</v>
       </c>
     </row>
     <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1030</v>
       </c>
-      <c r="B736" t="str">
+      <c r="B736">
         <f t="shared" si="11"/>
-        <v>TROVOLHUE</v>
       </c>
     </row>
     <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1031</v>
       </c>
-      <c r="B737" t="str">
+      <c r="B737">
         <f t="shared" si="11"/>
-        <v>TRUMAO</v>
       </c>
     </row>
     <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1032</v>
       </c>
-      <c r="B738" t="str">
+      <c r="B738">
         <f t="shared" si="11"/>
-        <v>TRUPAN</v>
       </c>
     </row>
     <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1033</v>
       </c>
-      <c r="B739" t="str">
+      <c r="B739">
         <f t="shared" si="11"/>
-        <v>TUBUL</v>
       </c>
     </row>
     <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1034</v>
       </c>
-      <c r="B740" t="str">
+      <c r="B740">
         <f t="shared" si="11"/>
-        <v>TUCAPEL</v>
       </c>
     </row>
     <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1035</v>
       </c>
-      <c r="B741" t="str">
+      <c r="B741">
         <f t="shared" si="11"/>
-        <v>TULAHUEN</v>
       </c>
     </row>
     <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1036</v>
       </c>
-      <c r="B742" t="str">
+      <c r="B742">
         <f t="shared" si="11"/>
-        <v>TUNQUEN</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>242</v>
       </c>
-      <c r="B743" t="e">
+      <c r="B743">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1037</v>
       </c>
-      <c r="B744" t="str">
+      <c r="B744">
         <f t="shared" si="11"/>
-        <v>VALDIVIA DE PAINE</v>
       </c>
     </row>
     <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1038</v>
       </c>
-      <c r="B745" t="str">
+      <c r="B745">
         <f t="shared" si="11"/>
-        <v>VALLE NEVADO</v>
       </c>
     </row>
     <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1039</v>
       </c>
-      <c r="B746" t="str">
+      <c r="B746">
         <f t="shared" si="11"/>
-        <v>VALLE SIMPSON</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>244</v>
       </c>
-      <c r="B747" t="e">
+      <c r="B747">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1040</v>
       </c>
-      <c r="B748" t="str">
+      <c r="B748">
         <f t="shared" si="11"/>
-        <v>VALPARAISO</v>
       </c>
     </row>
     <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1041</v>
       </c>
-      <c r="B749" t="str">
+      <c r="B749">
         <f t="shared" si="11"/>
-        <v>VEGAS DE ITATA</v>
       </c>
     </row>
     <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1042</v>
       </c>
-      <c r="B750" t="str">
+      <c r="B750">
         <f t="shared" si="11"/>
-        <v>VICHUQUEN</v>
       </c>
     </row>
     <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>422</v>
       </c>
-      <c r="B751" t="str">
+      <c r="B751">
         <f t="shared" si="11"/>
-        <v>VICTORIA</v>
       </c>
     </row>
     <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1043</v>
       </c>
-      <c r="B752" t="str">
+      <c r="B752">
         <f t="shared" si="11"/>
-        <v>VICUNA</v>
       </c>
     </row>
     <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1044</v>
       </c>
-      <c r="B753" t="str">
+      <c r="B753">
         <f t="shared" si="11"/>
-        <v>VILCUN</v>
       </c>
     </row>
     <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1045</v>
       </c>
-      <c r="B754" t="str">
+      <c r="B754">
         <f t="shared" si="11"/>
-        <v>VILLA ALEGRE</v>
       </c>
     </row>
     <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1046</v>
       </c>
-      <c r="B755" t="str">
+      <c r="B755">
         <f t="shared" si="11"/>
-        <v>VILLA ALEMANA</v>
       </c>
     </row>
     <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1047</v>
       </c>
-      <c r="B756" t="str">
+      <c r="B756">
         <f t="shared" si="11"/>
-        <v>VILLA ALHUE</v>
       </c>
     </row>
     <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1048</v>
       </c>
-      <c r="B757" t="str">
+      <c r="B757">
         <f t="shared" si="11"/>
-        <v>VILLA AMENGUAL</v>
       </c>
     </row>
     <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1049</v>
       </c>
-      <c r="B758" t="str">
+      <c r="B758">
         <f t="shared" si="11"/>
-        <v>VILLA BOLDO</v>
       </c>
     </row>
     <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1050</v>
       </c>
-      <c r="B759" t="str">
+      <c r="B759">
         <f t="shared" si="11"/>
-        <v>VILLA CERRO CASTILLO</v>
       </c>
     </row>
     <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1051</v>
       </c>
-      <c r="B760" t="str">
+      <c r="B760">
         <f t="shared" si="11"/>
-        <v>VILLA LOS RIOS</v>
       </c>
     </row>
     <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1052</v>
       </c>
-      <c r="B761" t="str">
+      <c r="B761">
         <f t="shared" si="11"/>
-        <v>VILLA MANIHUALES</v>
       </c>
     </row>
     <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1053</v>
       </c>
-      <c r="B762" t="str">
+      <c r="B762">
         <f t="shared" si="11"/>
-        <v>VILLA MERCEDES</v>
       </c>
     </row>
     <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1054</v>
       </c>
-      <c r="B763" t="str">
+      <c r="B763">
         <f t="shared" si="11"/>
-        <v>VILLA OHIGGINS</v>
       </c>
     </row>
     <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1055</v>
       </c>
-      <c r="B764" t="str">
+      <c r="B764">
         <f t="shared" si="11"/>
-        <v>VILLA ORTEGA</v>
       </c>
     </row>
     <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1056</v>
       </c>
-      <c r="B765" t="str">
+      <c r="B765">
         <f t="shared" si="11"/>
-        <v>VILLA PRAT</v>
       </c>
     </row>
     <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1057</v>
       </c>
-      <c r="B766" t="str">
+      <c r="B766">
         <f>VLOOKUP(A766,$C$2:$C$711,1,FALSE)</f>
-        <v>VILLA SANTA LUCIA</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>246</v>
       </c>
-      <c r="B767" t="e">
+      <c r="B767">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1058</v>
       </c>
-      <c r="B768" t="str">
+      <c r="B768">
         <f t="shared" si="11"/>
-        <v>VILLUCO</v>
       </c>
     </row>
     <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1059</v>
       </c>
-      <c r="B769" t="str">
+      <c r="B769">
         <f t="shared" si="11"/>
-        <v>VINA DEL MAR</v>
       </c>
     </row>
     <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1060</v>
       </c>
-      <c r="B770" t="str">
+      <c r="B770">
         <f t="shared" si="11"/>
-        <v>VISVIRI</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>248</v>
       </c>
-      <c r="B771" t="e">
+      <c r="B771">
         <f t="shared" ref="B771:B778" si="12">VLOOKUP(A771,$C$2:$C$711,1,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1061</v>
       </c>
-      <c r="B772" t="str">
+      <c r="B772">
         <f t="shared" si="12"/>
-        <v>YAPE</v>
       </c>
     </row>
     <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1062</v>
       </c>
-      <c r="B773" t="str">
+      <c r="B773">
         <f t="shared" si="12"/>
-        <v>YERBAS BUENAS</v>
       </c>
     </row>
     <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>432</v>
       </c>
-      <c r="B774" t="str">
+      <c r="B774">
         <f t="shared" si="12"/>
-        <v>YUMBEL</v>
       </c>
     </row>
     <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>433</v>
       </c>
-      <c r="B775" t="str">
+      <c r="B775">
         <f t="shared" si="12"/>
-        <v>YUNGAY</v>
       </c>
     </row>
     <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1063</v>
       </c>
-      <c r="B776" t="str">
+      <c r="B776">
         <f t="shared" si="12"/>
-        <v>YUSTE</v>
       </c>
     </row>
     <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>434</v>
       </c>
-      <c r="B777" t="str">
+      <c r="B777">
         <f t="shared" si="12"/>
-        <v>ZAPALLAR</v>
       </c>
     </row>
     <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1064</v>
       </c>
-      <c r="B778" t="str">
+      <c r="B778">
         <f t="shared" si="12"/>
-        <v>ZEMITA</v>
       </c>
     </row>
   </sheetData>

--- a/public/plantilla-emision-masiva_v2.xlsx
+++ b/public/plantilla-emision-masiva_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bendise\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97412D04-0BFB-4788-9ABD-1E93F85B55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD26324-3E05-40EB-85A1-A3F78F03099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="masiva_online" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1065">
   <si>
     <t>Información del destinatario (quien recibirá el envío)</t>
   </si>
@@ -3237,40 +3237,16 @@
   </si>
   <si>
     <t>ZEMITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En Sucursal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.605.401-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Parisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diego.parisi.p@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por pagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ropa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3412,7 +3388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3605,7 +3581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3854,7 +3830,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4332,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,7 +4341,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1"/>
       <c r="O1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -4381,7 +4356,7 @@
       <c r="O5"/>
     </row>
     <row r="6" spans="1:20" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="13"/>
@@ -4389,7 +4364,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" t="s" s="12">
+      <c r="J6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="13"/>
@@ -4397,7 +4372,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" t="s" s="12">
+      <c r="P6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="Q6" s="13"/>
@@ -4406,119 +4381,65 @@
       <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="9">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s" s="10">
+      <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s" s="10">
+      <c r="H7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="10">
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s" s="10">
+      <c r="J7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s" s="10">
+      <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="10">
+      <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M7" t="s" s="10">
+      <c r="M7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s" s="10">
+      <c r="N7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s" s="10">
+      <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" t="s" s="10">
+      <c r="P7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" t="s" s="10">
+      <c r="Q7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R7" t="s" s="10">
+      <c r="R7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S7" t="s" s="10">
+      <c r="S7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T7" t="s" s="11">
+      <c r="T7" s="11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F8" s="1">
-        <v>971050085</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="M8" s="2">
-        <v>50000</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q8">
-        <v>0.8</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr/>
+  <dimension ref="B7:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -4653,194 +4574,194 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s" s="4">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s" s="4">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s" s="4">
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s" s="4">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s" s="4">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s" s="4">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" t="s" s="4">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="4">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s" s="4">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s" s="4">
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" t="s" s="4">
+      <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s" s="6">
+      <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s" s="4">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" t="s" s="4">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" t="s" s="4">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" t="s" s="4">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" t="s" s="4">
+      <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4853,7 +4774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr/>
+  <dimension ref="A2:D310"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
@@ -6760,7 +6681,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA31A0A-AF31-44E6-BE44-74721D8C8506}">
-  <sheetPr/>
+  <dimension ref="A1:C778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -6788,8 +6709,9 @@
       <c r="A2" t="s">
         <v>438</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <f>VLOOKUP(A2,$C$2:$C$711,1,FALSE)</f>
+        <v>ACHAO</v>
       </c>
       <c r="C2" t="s">
         <v>438</v>
@@ -6799,8 +6721,9 @@
       <c r="A3" t="s">
         <v>439</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$C$2:$C$711,1,FALSE)</f>
+        <v>AGUA BUENA</v>
       </c>
       <c r="C3" t="s">
         <v>439</v>
@@ -6810,8 +6733,9 @@
       <c r="A4" t="s">
         <v>440</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
+        <v>AHUI</v>
       </c>
       <c r="C4" t="s">
         <v>440</v>
@@ -6821,8 +6745,9 @@
       <c r="A5" t="s">
         <v>441</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
+        <v>AIQUINA</v>
       </c>
       <c r="C5" t="s">
         <v>441</v>
@@ -6832,8 +6757,9 @@
       <c r="A6" t="s">
         <v>442</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
+        <v>ALERCE</v>
       </c>
       <c r="C6" t="s">
         <v>442</v>
@@ -6843,8 +6769,9 @@
       <c r="A7" t="s">
         <v>443</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
+        <v>ALGARROBAL</v>
       </c>
       <c r="C7" t="s">
         <v>443</v>
@@ -6854,8 +6781,9 @@
       <c r="A8" t="s">
         <v>444</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
+        <v>ALGARROBITO</v>
       </c>
       <c r="C8" t="s">
         <v>444</v>
@@ -6865,8 +6793,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
+        <v>ALGARROBO</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -6876,8 +6805,9 @@
       <c r="A10" t="s">
         <v>445</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
+        <v>ALHUE</v>
       </c>
       <c r="C10" t="s">
         <v>445</v>
@@ -6887,8 +6817,9 @@
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
+        <v>ALICAHUE</v>
       </c>
       <c r="C11" t="s">
         <v>446</v>
@@ -6898,8 +6829,9 @@
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
+        <v>ALTO BIO BIO</v>
       </c>
       <c r="C12" t="s">
         <v>447</v>
@@ -6909,8 +6841,9 @@
       <c r="A13" t="s">
         <v>448</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
+        <v>ALTO DEL CARMEN</v>
       </c>
       <c r="C13" t="s">
         <v>448</v>
@@ -6920,8 +6853,9 @@
       <c r="A14" t="s">
         <v>449</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
+        <v>ALTO EL CANELO</v>
       </c>
       <c r="C14" t="s">
         <v>449</v>
@@ -6931,8 +6865,9 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
+        <v>ALTO HOSPICIO</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -6942,8 +6877,9 @@
       <c r="A16" t="s">
         <v>450</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
+        <v>ALTO JAHUEL</v>
       </c>
       <c r="C16" t="s">
         <v>450</v>
@@ -6953,8 +6889,9 @@
       <c r="A17" t="s">
         <v>451</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
+        <v>ALTOVALSOL</v>
       </c>
       <c r="C17" t="s">
         <v>451</v>
@@ -6964,8 +6901,9 @@
       <c r="A18" t="s">
         <v>452</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
+        <v>ANCUAQUE</v>
       </c>
       <c r="C18" t="s">
         <v>453</v>
@@ -6975,8 +6913,9 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C19" t="s">
         <v>452</v>
@@ -6986,8 +6925,9 @@
       <c r="A20" t="s">
         <v>454</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
+        <v>ANDACOLLO</v>
       </c>
       <c r="C20" t="s">
         <v>454</v>
@@ -6997,8 +6937,9 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
+        <v>ANGOL</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -7008,8 +6949,9 @@
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C22" t="s">
         <v>455</v>
@@ -7019,8 +6961,9 @@
       <c r="A23" t="s">
         <v>455</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
+        <v>ANTIHUALA</v>
       </c>
       <c r="C23" t="s">
         <v>456</v>
@@ -7030,8 +6973,9 @@
       <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C24" t="s">
         <v>457</v>
@@ -7041,8 +6985,9 @@
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C25" t="s">
         <v>458</v>
@@ -7052,8 +6997,9 @@
       <c r="A26" t="s">
         <v>456</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
+        <v>ANTUCO</v>
       </c>
       <c r="C26" t="s">
         <v>459</v>
@@ -7063,8 +7009,9 @@
       <c r="A27" t="s">
         <v>457</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
+        <v>ARAUCO</v>
       </c>
       <c r="C27" t="s">
         <v>460</v>
@@ -7074,8 +7021,9 @@
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C28" t="s">
         <v>461</v>
@@ -7085,8 +7033,9 @@
       <c r="A29" t="s">
         <v>458</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
+        <v>ARTIFICIO</v>
       </c>
       <c r="C29" t="s">
         <v>462</v>
@@ -7096,8 +7045,9 @@
       <c r="A30" t="s">
         <v>459</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
+        <v>BAHIA INGLESA</v>
       </c>
       <c r="C30" t="s">
         <v>463</v>
@@ -7107,8 +7057,9 @@
       <c r="A31" t="s">
         <v>460</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
+        <v>BAHIA MANSA</v>
       </c>
       <c r="C31" t="s">
         <v>464</v>
@@ -7118,8 +7069,9 @@
       <c r="A32" t="s">
         <v>461</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
+        <v>BAHIA MURTA</v>
       </c>
       <c r="C32" t="s">
         <v>465</v>
@@ -7129,8 +7081,9 @@
       <c r="A33" t="s">
         <v>462</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
+        <v>BALMACEDA</v>
       </c>
       <c r="C33" t="s">
         <v>466</v>
@@ -7140,8 +7093,9 @@
       <c r="A34" t="s">
         <v>463</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
+        <v>BAQUEDANO</v>
       </c>
       <c r="C34" t="s">
         <v>467</v>
@@ -7151,8 +7105,9 @@
       <c r="A35" t="s">
         <v>464</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
+        <v>BARROS ARANA</v>
       </c>
       <c r="C35" t="s">
         <v>468</v>
@@ -7162,8 +7117,9 @@
       <c r="A36" t="s">
         <v>465</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
+        <v>BATUCO (RM)</v>
       </c>
       <c r="C36" t="s">
         <v>469</v>
@@ -7173,8 +7129,9 @@
       <c r="A37" t="s">
         <v>466</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
+        <v>BATUCO (TALCA)</v>
       </c>
       <c r="C37" t="s">
         <v>470</v>
@@ -7184,8 +7141,9 @@
       <c r="A38" t="s">
         <v>467</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
+        <v>BELEN</v>
       </c>
       <c r="C38" t="s">
         <v>471</v>
@@ -7195,8 +7153,9 @@
       <c r="A39" t="s">
         <v>468</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
+        <v>BELLOTO</v>
       </c>
       <c r="C39" t="s">
         <v>472</v>
@@ -7206,8 +7165,9 @@
       <c r="A40" t="s">
         <v>469</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
+        <v>BOBADILLA</v>
       </c>
       <c r="C40" t="s">
         <v>473</v>
@@ -7217,8 +7177,9 @@
       <c r="A41" t="s">
         <v>470</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="str">
         <f t="shared" si="0"/>
+        <v>BOCO DE QUILLOTA</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -7228,8 +7189,9 @@
       <c r="A42" t="s">
         <v>471</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
+        <v>BOLLENAR</v>
       </c>
       <c r="C42" t="s">
         <v>116</v>
@@ -7239,8 +7201,9 @@
       <c r="A43" t="s">
         <v>472</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="str">
         <f t="shared" si="0"/>
+        <v>BUCALEMU</v>
       </c>
       <c r="C43" t="s">
         <v>120</v>
@@ -7250,8 +7213,9 @@
       <c r="A44" t="s">
         <v>473</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="str">
         <f t="shared" si="0"/>
+        <v>BUCHUPUREO</v>
       </c>
       <c r="C44" t="s">
         <v>122</v>
@@ -7261,8 +7225,9 @@
       <c r="A45" t="s">
         <v>114</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="str">
         <f t="shared" si="0"/>
+        <v>BUIN</v>
       </c>
       <c r="C45" t="s">
         <v>474</v>
@@ -7272,8 +7237,9 @@
       <c r="A46" t="s">
         <v>116</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="str">
         <f t="shared" si="0"/>
+        <v>BULNES</v>
       </c>
       <c r="C46" t="s">
         <v>475</v>
@@ -7283,8 +7249,9 @@
       <c r="A47" t="s">
         <v>120</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
+        <v>CABILDO</v>
       </c>
       <c r="C47" t="s">
         <v>476</v>
@@ -7294,8 +7261,9 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
+        <v>CABRERO</v>
       </c>
       <c r="C48" t="s">
         <v>477</v>
@@ -7305,8 +7273,9 @@
       <c r="A49" t="s">
         <v>474</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
+        <v>CABURGA</v>
       </c>
       <c r="C49" t="s">
         <v>478</v>
@@ -7316,8 +7285,9 @@
       <c r="A50" t="s">
         <v>475</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
+        <v>CACHAGUA</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -7327,8 +7297,9 @@
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C51" t="s">
         <v>480</v>
@@ -7338,8 +7309,9 @@
       <c r="A52" t="s">
         <v>477</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="str">
         <f t="shared" si="0"/>
+        <v>CAHUIL</v>
       </c>
       <c r="C52" t="s">
         <v>481</v>
@@ -7349,8 +7321,9 @@
       <c r="A53" t="s">
         <v>478</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="str">
         <f t="shared" si="0"/>
+        <v>CAIMANES</v>
       </c>
       <c r="C53" t="s">
         <v>128</v>
@@ -7360,8 +7333,9 @@
       <c r="A54" t="s">
         <v>479</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="str">
         <f t="shared" si="0"/>
+        <v>CAJON</v>
       </c>
       <c r="C54" t="s">
         <v>482</v>
@@ -7371,8 +7345,9 @@
       <c r="A55" t="s">
         <v>480</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="str">
         <f t="shared" si="0"/>
+        <v>CAJON DEL MAIPO</v>
       </c>
       <c r="C55" t="s">
         <v>483</v>
@@ -7382,8 +7357,9 @@
       <c r="A56" t="s">
         <v>481</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="str">
         <f t="shared" si="0"/>
+        <v>CALAFQUEN</v>
       </c>
       <c r="C56" t="s">
         <v>484</v>
@@ -7393,8 +7369,9 @@
       <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="e">
         <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="C57" t="s">
         <v>485</v>
@@ -7404,8 +7381,9 @@
       <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="str">
         <f t="shared" si="0"/>
+        <v>CALBUCO</v>
       </c>
       <c r="C58" t="s">
         <v>486</v>
@@ -7415,8 +7393,9 @@
       <c r="A59" t="s">
         <v>482</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="str">
         <f t="shared" si="0"/>
+        <v>CALDERA</v>
       </c>
       <c r="C59" t="s">
         <v>487</v>
@@ -7426,8 +7405,9 @@
       <c r="A60" t="s">
         <v>483</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="str">
         <f t="shared" si="0"/>
+        <v>CALERA DE TANGO</v>
       </c>
       <c r="C60" t="s">
         <v>488</v>
@@ -7437,8 +7417,9 @@
       <c r="A61" t="s">
         <v>484</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="str">
         <f t="shared" si="0"/>
+        <v>CALETA ANDRADE</v>
       </c>
       <c r="C61" t="s">
         <v>489</v>
@@ -7448,8 +7429,9 @@
       <c r="A62" t="s">
         <v>485</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="str">
         <f t="shared" si="0"/>
+        <v>CALETA BUENA</v>
       </c>
       <c r="C62" t="s">
         <v>490</v>
@@ -7459,8 +7441,9 @@
       <c r="A63" t="s">
         <v>486</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
+        <v>CALETA GONZALO</v>
       </c>
       <c r="C63" t="s">
         <v>491</v>
@@ -7470,8 +7453,9 @@
       <c r="A64" t="s">
         <v>487</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
+        <v>CALETONES</v>
       </c>
       <c r="C64" t="s">
         <v>492</v>
@@ -7481,8 +7465,9 @@
       <c r="A65" t="s">
         <v>488</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
+        <v>CALLE LARGA</v>
       </c>
       <c r="C65" t="s">
         <v>493</v>
@@ -7492,8 +7477,9 @@
       <c r="A66" t="s">
         <v>489</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
+        <v>CAMARICO</v>
       </c>
       <c r="C66" t="s">
         <v>494</v>
@@ -7503,8 +7489,9 @@
       <c r="A67" t="s">
         <v>490</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">VLOOKUP(A67,$C$2:$C$711,1,FALSE)</f>
+        <v>CAMARONES</v>
       </c>
       <c r="C67" t="s">
         <v>495</v>
@@ -7514,8 +7501,9 @@
       <c r="A68" t="s">
         <v>491</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="str">
         <f t="shared" si="1"/>
+        <v>CAMERON</v>
       </c>
       <c r="C68" t="s">
         <v>496</v>
@@ -7525,8 +7513,9 @@
       <c r="A69" t="s">
         <v>492</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="str">
         <f t="shared" si="1"/>
+        <v>CAMINA</v>
       </c>
       <c r="C69" t="s">
         <v>497</v>
@@ -7536,8 +7525,9 @@
       <c r="A70" t="s">
         <v>493</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="str">
         <f t="shared" si="1"/>
+        <v>CAMPANARIO</v>
       </c>
       <c r="C70" t="s">
         <v>498</v>
@@ -7547,8 +7537,9 @@
       <c r="A71" t="s">
         <v>494</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="str">
         <f t="shared" si="1"/>
+        <v>CANCOSA</v>
       </c>
       <c r="C71" t="s">
         <v>136</v>
@@ -7558,8 +7549,9 @@
       <c r="A72" t="s">
         <v>495</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="str">
         <f t="shared" si="1"/>
+        <v>CANELA</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
@@ -7569,8 +7561,9 @@
       <c r="A73" t="s">
         <v>83</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C73" t="s">
         <v>500</v>
@@ -7580,8 +7573,9 @@
       <c r="A74" t="s">
         <v>496</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="str">
         <f t="shared" si="1"/>
+        <v>CANTO DE AGUA</v>
       </c>
       <c r="C74" t="s">
         <v>501</v>
@@ -7591,8 +7585,9 @@
       <c r="A75" t="s">
         <v>497</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="str">
         <f t="shared" si="1"/>
+        <v>CAPITAN PASTENE</v>
       </c>
       <c r="C75" t="s">
         <v>502</v>
@@ -7602,8 +7597,9 @@
       <c r="A76" t="s">
         <v>498</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="str">
         <f t="shared" si="1"/>
+        <v>CAQUENA</v>
       </c>
       <c r="C76" t="s">
         <v>503</v>
@@ -7613,8 +7609,9 @@
       <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="str">
         <f t="shared" si="1"/>
+        <v>CARAHUE</v>
       </c>
       <c r="C77" t="s">
         <v>504</v>
@@ -7624,8 +7621,9 @@
       <c r="A78" t="s">
         <v>499</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="str">
         <f t="shared" si="1"/>
+        <v>CARAMPANGUE</v>
       </c>
       <c r="C78" t="s">
         <v>505</v>
@@ -7635,8 +7633,9 @@
       <c r="A79" t="s">
         <v>500</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="str">
         <f t="shared" si="1"/>
+        <v>CARELMAPU</v>
       </c>
       <c r="C79" t="s">
         <v>506</v>
@@ -7646,8 +7645,9 @@
       <c r="A80" t="s">
         <v>501</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="str">
         <f t="shared" si="1"/>
+        <v>CAREN</v>
       </c>
       <c r="C80" t="s">
         <v>507</v>
@@ -7657,8 +7657,9 @@
       <c r="A81" t="s">
         <v>502</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="str">
         <f t="shared" si="1"/>
+        <v>CARIQUIMA</v>
       </c>
       <c r="C81" t="s">
         <v>508</v>
@@ -7668,8 +7669,9 @@
       <c r="A82" t="s">
         <v>503</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="str">
         <f t="shared" si="1"/>
+        <v>CARRIZAL BAJO</v>
       </c>
       <c r="C82" t="s">
         <v>509</v>
@@ -7679,8 +7681,9 @@
       <c r="A83" t="s">
         <v>504</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="str">
         <f t="shared" si="1"/>
+        <v>CARTAGENA</v>
       </c>
       <c r="C83" t="s">
         <v>510</v>
@@ -7690,8 +7693,9 @@
       <c r="A84" t="s">
         <v>505</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="str">
         <f t="shared" si="1"/>
+        <v>CASABLANCA</v>
       </c>
       <c r="C84" t="s">
         <v>511</v>
@@ -7701,8 +7705,9 @@
       <c r="A85" t="s">
         <v>506</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="str">
         <f t="shared" si="1"/>
+        <v>CASMA</v>
       </c>
       <c r="C85" t="s">
         <v>512</v>
@@ -7712,8 +7717,9 @@
       <c r="A86" t="s">
         <v>507</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="str">
         <f t="shared" si="1"/>
+        <v>CASPANA</v>
       </c>
       <c r="C86" t="s">
         <v>513</v>
@@ -7723,8 +7729,9 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C87" t="s">
         <v>514</v>
@@ -7734,8 +7741,9 @@
       <c r="A88" t="s">
         <v>508</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="str">
         <f t="shared" si="1"/>
+        <v>CATAPILCO</v>
       </c>
       <c r="C88" t="s">
         <v>515</v>
@@ -7745,8 +7753,9 @@
       <c r="A89" t="s">
         <v>509</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="str">
         <f t="shared" si="1"/>
+        <v>CATEMU</v>
       </c>
       <c r="C89" t="s">
         <v>516</v>
@@ -7756,8 +7765,9 @@
       <c r="A90" t="s">
         <v>510</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="str">
         <f t="shared" si="1"/>
+        <v>CAULIN</v>
       </c>
       <c r="C90" t="s">
         <v>517</v>
@@ -7767,8 +7777,9 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C91" t="s">
         <v>518</v>
@@ -7778,8 +7789,9 @@
       <c r="A92" t="s">
         <v>511</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="str">
         <f t="shared" si="1"/>
+        <v>CAYUCUPIL</v>
       </c>
       <c r="C92" t="s">
         <v>519</v>
@@ -7789,8 +7801,9 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C93" t="s">
         <v>520</v>
@@ -7800,8 +7813,9 @@
       <c r="A94" t="s">
         <v>513</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="str">
         <f t="shared" si="1"/>
+        <v>CERRILLOS DE TAMAYA</v>
       </c>
       <c r="C94" t="s">
         <v>521</v>
@@ -7811,8 +7825,9 @@
       <c r="A95" t="s">
         <v>514</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="str">
         <f t="shared" si="1"/>
+        <v>CERRO ALTO</v>
       </c>
       <c r="C95" t="s">
         <v>522</v>
@@ -7822,8 +7837,9 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C96" t="s">
         <v>523</v>
@@ -7833,8 +7849,9 @@
       <c r="A97" t="s">
         <v>515</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="str">
         <f t="shared" si="1"/>
+        <v>CERRO SOMBRERO</v>
       </c>
       <c r="C97" t="s">
         <v>524</v>
@@ -7844,8 +7861,9 @@
       <c r="A98" t="s">
         <v>516</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="str">
         <f t="shared" si="1"/>
+        <v>CHACAO</v>
       </c>
       <c r="C98" t="s">
         <v>525</v>
@@ -7855,8 +7873,9 @@
       <c r="A99" t="s">
         <v>517</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="str">
         <f t="shared" si="1"/>
+        <v>CHAICA</v>
       </c>
       <c r="C99" t="s">
         <v>526</v>
@@ -7866,8 +7885,9 @@
       <c r="A100" t="s">
         <v>518</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="str">
         <f t="shared" si="1"/>
+        <v>CHAITEN</v>
       </c>
       <c r="C100" t="s">
         <v>527</v>
@@ -7877,8 +7897,9 @@
       <c r="A101" t="s">
         <v>519</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="str">
         <f t="shared" si="1"/>
+        <v>CHAMPA</v>
       </c>
       <c r="C101" t="s">
         <v>528</v>
@@ -7888,8 +7909,9 @@
       <c r="A102" t="s">
         <v>98</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C102" t="s">
         <v>155</v>
@@ -7899,8 +7921,9 @@
       <c r="A103" t="s">
         <v>520</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="str">
         <f t="shared" si="1"/>
+        <v>CHANARAL ALTO</v>
       </c>
       <c r="C103" t="s">
         <v>157</v>
@@ -7910,8 +7933,9 @@
       <c r="A104" t="s">
         <v>521</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="str">
         <f t="shared" si="1"/>
+        <v>CHANARAL DE CAREN</v>
       </c>
       <c r="C104" t="s">
         <v>529</v>
@@ -7921,8 +7945,9 @@
       <c r="A105" t="s">
         <v>522</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="str">
         <f t="shared" si="1"/>
+        <v>CHANCO</v>
       </c>
       <c r="C105" t="s">
         <v>530</v>
@@ -7932,8 +7957,9 @@
       <c r="A106" t="s">
         <v>523</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="str">
         <f t="shared" si="1"/>
+        <v>CHARRUA</v>
       </c>
       <c r="C106" t="s">
         <v>531</v>
@@ -7943,8 +7969,9 @@
       <c r="A107" t="s">
         <v>524</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="str">
         <f t="shared" si="1"/>
+        <v>CHAUQUEN</v>
       </c>
       <c r="C107" t="s">
         <v>532</v>
@@ -7954,8 +7981,9 @@
       <c r="A108" t="s">
         <v>525</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="str">
         <f t="shared" si="1"/>
+        <v>CHECURA</v>
       </c>
       <c r="C108" t="s">
         <v>533</v>
@@ -7965,8 +7993,9 @@
       <c r="A109" t="s">
         <v>526</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="str">
         <f t="shared" si="1"/>
+        <v>CHEPICA</v>
       </c>
       <c r="C109" t="s">
         <v>534</v>
@@ -7976,8 +8005,9 @@
       <c r="A110" t="s">
         <v>527</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="str">
         <f t="shared" si="1"/>
+        <v>CHEPU</v>
       </c>
       <c r="C110" t="s">
         <v>535</v>
@@ -7987,8 +8017,9 @@
       <c r="A111" t="s">
         <v>528</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="str">
         <f t="shared" si="1"/>
+        <v>CHERQUENCO</v>
       </c>
       <c r="C111" t="s">
         <v>536</v>
@@ -7998,8 +8029,9 @@
       <c r="A112" t="s">
         <v>155</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="str">
         <f t="shared" si="1"/>
+        <v>CHICUREO</v>
       </c>
       <c r="C112" t="s">
         <v>537</v>
@@ -8009,8 +8041,9 @@
       <c r="A113" t="s">
         <v>157</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="str">
         <f t="shared" si="1"/>
+        <v>CHIGUAYANTE</v>
       </c>
       <c r="C113" t="s">
         <v>538</v>
@@ -8020,8 +8053,9 @@
       <c r="A114" t="s">
         <v>529</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="str">
         <f t="shared" si="1"/>
+        <v>CHILCAS</v>
       </c>
       <c r="C114" t="s">
         <v>539</v>
@@ -8031,8 +8065,9 @@
       <c r="A115" t="s">
         <v>530</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="str">
         <f t="shared" si="1"/>
+        <v>CHILE CHICO</v>
       </c>
       <c r="C115" t="s">
         <v>540</v>
@@ -8042,8 +8077,9 @@
       <c r="A116" t="s">
         <v>101</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C116" t="s">
         <v>541</v>
@@ -8053,8 +8089,9 @@
       <c r="A117" t="s">
         <v>531</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="str">
         <f t="shared" si="1"/>
+        <v>CHILLEPIN</v>
       </c>
       <c r="C117" t="s">
         <v>542</v>
@@ -8064,8 +8101,9 @@
       <c r="A118" t="s">
         <v>532</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="str">
         <f t="shared" si="1"/>
+        <v>CHIMBARONGO</v>
       </c>
       <c r="C118" t="s">
         <v>543</v>
@@ -8075,8 +8113,9 @@
       <c r="A119" t="s">
         <v>533</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="str">
         <f t="shared" si="1"/>
+        <v>CHOCALAN</v>
       </c>
       <c r="C119" t="s">
         <v>544</v>
@@ -8086,8 +8125,9 @@
       <c r="A120" t="s">
         <v>534</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="str">
         <f t="shared" si="1"/>
+        <v>CHOLCHOL</v>
       </c>
       <c r="C120" t="s">
         <v>545</v>
@@ -8097,8 +8137,9 @@
       <c r="A121" t="s">
         <v>535</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="str">
         <f t="shared" si="1"/>
+        <v>CHOLGUAN</v>
       </c>
       <c r="C121" t="s">
         <v>546</v>
@@ -8108,8 +8149,9 @@
       <c r="A122" t="s">
         <v>536</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="str">
         <f t="shared" si="1"/>
+        <v>CHONCHI</v>
       </c>
       <c r="C122" t="s">
         <v>547</v>
@@ -8119,8 +8161,9 @@
       <c r="A123" t="s">
         <v>537</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="str">
         <f t="shared" si="1"/>
+        <v>CHOROICO</v>
       </c>
       <c r="C123" t="s">
         <v>169</v>
@@ -8130,8 +8173,9 @@
       <c r="A124" t="s">
         <v>538</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="str">
         <f t="shared" si="1"/>
+        <v>CHOSHUENCO</v>
       </c>
       <c r="C124" t="s">
         <v>548</v>
@@ -8141,8 +8185,9 @@
       <c r="A125" t="s">
         <v>539</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="str">
         <f t="shared" si="1"/>
+        <v>CIRUELOS</v>
       </c>
       <c r="C125" t="s">
         <v>549</v>
@@ -8152,8 +8197,9 @@
       <c r="A126" t="s">
         <v>104</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="e">
         <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="C126" t="s">
         <v>550</v>
@@ -8163,8 +8209,9 @@
       <c r="A127" t="s">
         <v>540</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="str">
         <f t="shared" si="1"/>
+        <v>CIUDAD DE LOS VALLES</v>
       </c>
       <c r="C127" t="s">
         <v>551</v>
@@ -8174,8 +8221,9 @@
       <c r="A128" t="s">
         <v>541</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="str">
         <f t="shared" si="1"/>
+        <v>COBIJA</v>
       </c>
       <c r="C128" t="s">
         <v>552</v>
@@ -8185,8 +8233,9 @@
       <c r="A129" t="s">
         <v>542</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="str">
         <f t="shared" si="1"/>
+        <v>COBQUECURA</v>
       </c>
       <c r="C129" t="s">
         <v>553</v>
@@ -8196,8 +8245,9 @@
       <c r="A130" t="s">
         <v>543</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="str">
         <f t="shared" si="1"/>
+        <v>COCHAMO</v>
       </c>
       <c r="C130" t="s">
         <v>554</v>
@@ -8207,8 +8257,9 @@
       <c r="A131" t="s">
         <v>544</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="str">
         <f t="shared" ref="B131:B194" si="2">VLOOKUP(A131,$C$2:$C$711,1,FALSE)</f>
+        <v>COCHRANE</v>
       </c>
       <c r="C131" t="s">
         <v>171</v>
@@ -8218,8 +8269,9 @@
       <c r="A132" t="s">
         <v>545</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="str">
         <f t="shared" si="2"/>
+        <v>CODEGUA</v>
       </c>
       <c r="C132" t="s">
         <v>555</v>
@@ -8229,8 +8281,9 @@
       <c r="A133" t="s">
         <v>546</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="str">
         <f t="shared" si="2"/>
+        <v>CODIGUA</v>
       </c>
       <c r="C133" t="s">
         <v>556</v>
@@ -8240,8 +8293,9 @@
       <c r="A134" t="s">
         <v>547</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="str">
         <f t="shared" si="2"/>
+        <v>CODPA</v>
       </c>
       <c r="C134" t="s">
         <v>557</v>
@@ -8251,8 +8305,9 @@
       <c r="A135" t="s">
         <v>169</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="str">
         <f t="shared" si="2"/>
+        <v>COELEMU</v>
       </c>
       <c r="C135" t="s">
         <v>558</v>
@@ -8262,8 +8317,9 @@
       <c r="A136" t="s">
         <v>548</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="str">
         <f t="shared" si="2"/>
+        <v>COIHUE</v>
       </c>
       <c r="C136" t="s">
         <v>559</v>
@@ -8273,8 +8329,9 @@
       <c r="A137" t="s">
         <v>549</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="str">
         <f t="shared" si="2"/>
+        <v>COIHUECO</v>
       </c>
       <c r="C137" t="s">
         <v>560</v>
@@ -8284,8 +8341,9 @@
       <c r="A138" t="s">
         <v>550</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="str">
         <f t="shared" si="2"/>
+        <v>COINCO</v>
       </c>
       <c r="C138" t="s">
         <v>176</v>
@@ -8295,8 +8353,9 @@
       <c r="A139" t="s">
         <v>551</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="str">
         <f t="shared" si="2"/>
+        <v>COLBUN</v>
       </c>
       <c r="C139" t="s">
         <v>561</v>
@@ -8306,8 +8365,9 @@
       <c r="A140" t="s">
         <v>552</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="str">
         <f t="shared" si="2"/>
+        <v>COLCHANE</v>
       </c>
       <c r="C140" t="s">
         <v>562</v>
@@ -8317,8 +8377,9 @@
       <c r="A141" t="s">
         <v>553</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="str">
         <f t="shared" si="2"/>
+        <v>COLCURA</v>
       </c>
       <c r="C141" t="s">
         <v>186</v>
@@ -8328,8 +8389,9 @@
       <c r="A142" t="s">
         <v>554</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="str">
         <f t="shared" si="2"/>
+        <v>COLICO</v>
       </c>
       <c r="C142" t="s">
         <v>563</v>
@@ -8339,8 +8401,9 @@
       <c r="A143" t="s">
         <v>171</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="str">
         <f t="shared" si="2"/>
+        <v>COLINA</v>
       </c>
       <c r="C143" t="s">
         <v>564</v>
@@ -8350,8 +8413,9 @@
       <c r="A144" t="s">
         <v>555</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="str">
         <f t="shared" si="2"/>
+        <v>COLIUMO</v>
       </c>
       <c r="C144" t="s">
         <v>198</v>
@@ -8361,8 +8425,9 @@
       <c r="A145" t="s">
         <v>556</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="str">
         <f t="shared" si="2"/>
+        <v>COLLACAGUA</v>
       </c>
       <c r="C145" t="s">
         <v>565</v>
@@ -8372,8 +8437,9 @@
       <c r="A146" t="s">
         <v>557</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="str">
         <f t="shared" si="2"/>
+        <v>COLLIGUAY</v>
       </c>
       <c r="C146" t="s">
         <v>566</v>
@@ -8383,8 +8449,9 @@
       <c r="A147" t="s">
         <v>107</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C147" t="s">
         <v>567</v>
@@ -8394,8 +8461,9 @@
       <c r="A148" t="s">
         <v>558</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="str">
         <f t="shared" si="2"/>
+        <v>COLONIA MENDOZA</v>
       </c>
       <c r="C148" t="s">
         <v>568</v>
@@ -8405,8 +8473,9 @@
       <c r="A149" t="s">
         <v>559</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="str">
         <f t="shared" si="2"/>
+        <v>COLTAUCO</v>
       </c>
       <c r="C149" t="s">
         <v>569</v>
@@ -8416,8 +8485,9 @@
       <c r="A150" t="s">
         <v>560</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="str">
         <f t="shared" si="2"/>
+        <v>COMBARBALA</v>
       </c>
       <c r="C150" t="s">
         <v>570</v>
@@ -8427,8 +8497,9 @@
       <c r="A151" t="s">
         <v>176</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="str">
         <f t="shared" si="2"/>
+        <v>CONARIPE</v>
       </c>
       <c r="C151" t="s">
         <v>571</v>
@@ -8438,8 +8509,9 @@
       <c r="A152" t="s">
         <v>561</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="str">
         <f t="shared" si="2"/>
+        <v>CONAY</v>
       </c>
       <c r="C152" t="s">
         <v>572</v>
@@ -8449,8 +8521,9 @@
       <c r="A153" t="s">
         <v>109</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C153" t="s">
         <v>201</v>
@@ -8460,8 +8533,9 @@
       <c r="A154" t="s">
         <v>111</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C154" t="s">
         <v>573</v>
@@ -8471,8 +8545,9 @@
       <c r="A155" t="s">
         <v>562</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="str">
         <f t="shared" si="2"/>
+        <v>CONCON</v>
       </c>
       <c r="C155" t="s">
         <v>574</v>
@@ -8482,8 +8557,9 @@
       <c r="A156" t="s">
         <v>186</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="str">
         <f t="shared" si="2"/>
+        <v>CONSTITUCION</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -8493,8 +8569,9 @@
       <c r="A157" t="s">
         <v>563</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="str">
         <f t="shared" si="2"/>
+        <v>CONTULMO</v>
       </c>
       <c r="C157" t="s">
         <v>205</v>
@@ -8504,8 +8581,9 @@
       <c r="A158" t="s">
         <v>113</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C158" t="s">
         <v>575</v>
@@ -8515,8 +8593,9 @@
       <c r="A159" t="s">
         <v>564</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="str">
         <f t="shared" si="2"/>
+        <v>COPIULEMU</v>
       </c>
       <c r="C159" t="s">
         <v>207</v>
@@ -8526,8 +8605,9 @@
       <c r="A160" t="s">
         <v>115</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C160" t="s">
         <v>576</v>
@@ -8537,8 +8617,9 @@
       <c r="A161" t="s">
         <v>198</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="str">
         <f t="shared" si="2"/>
+        <v>CORONEL</v>
       </c>
       <c r="C161" t="s">
         <v>577</v>
@@ -8548,8 +8629,9 @@
       <c r="A162" t="s">
         <v>565</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="str">
         <f t="shared" si="2"/>
+        <v>CORRAL</v>
       </c>
       <c r="C162" t="s">
         <v>209</v>
@@ -8559,8 +8641,9 @@
       <c r="A163" t="s">
         <v>566</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="str">
         <f t="shared" si="2"/>
+        <v>COSAPILLA</v>
       </c>
       <c r="C163" t="s">
         <v>578</v>
@@ -8570,8 +8653,9 @@
       <c r="A164" t="s">
         <v>567</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="str">
         <f t="shared" si="2"/>
+        <v>COYA</v>
       </c>
       <c r="C164" t="s">
         <v>579</v>
@@ -8581,8 +8665,9 @@
       <c r="A165" t="s">
         <v>117</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C165" t="s">
         <v>580</v>
@@ -8592,8 +8677,9 @@
       <c r="A166" t="s">
         <v>568</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="str">
         <f t="shared" si="2"/>
+        <v>COZ COZ</v>
       </c>
       <c r="C166" t="s">
         <v>581</v>
@@ -8603,8 +8689,9 @@
       <c r="A167" t="s">
         <v>569</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="str">
         <f t="shared" si="2"/>
+        <v>CULENAR</v>
       </c>
       <c r="C167" t="s">
         <v>582</v>
@@ -8614,8 +8701,9 @@
       <c r="A168" t="s">
         <v>570</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="str">
         <f t="shared" si="2"/>
+        <v>CULIPRAN</v>
       </c>
       <c r="C168" t="s">
         <v>583</v>
@@ -8625,8 +8713,9 @@
       <c r="A169" t="s">
         <v>571</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="str">
         <f t="shared" si="2"/>
+        <v>CUMPEO</v>
       </c>
       <c r="C169" t="s">
         <v>584</v>
@@ -8636,8 +8725,9 @@
       <c r="A170" t="s">
         <v>572</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="str">
         <f t="shared" si="2"/>
+        <v>CUNACO</v>
       </c>
       <c r="C170" t="s">
         <v>585</v>
@@ -8647,8 +8737,9 @@
       <c r="A171" t="s">
         <v>201</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="str">
         <f t="shared" si="2"/>
+        <v>CUNCO</v>
       </c>
       <c r="C171" t="s">
         <v>586</v>
@@ -8658,8 +8749,9 @@
       <c r="A172" t="s">
         <v>573</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="str">
         <f t="shared" si="2"/>
+        <v>CUNCUMEN</v>
       </c>
       <c r="C172" t="s">
         <v>587</v>
@@ -8669,8 +8761,9 @@
       <c r="A173" t="s">
         <v>574</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="str">
         <f t="shared" si="2"/>
+        <v>CURACALCO</v>
       </c>
       <c r="C173" t="s">
         <v>588</v>
@@ -8680,8 +8773,9 @@
       <c r="A174" t="s">
         <v>203</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="str">
         <f t="shared" si="2"/>
+        <v>CURACAUTIN</v>
       </c>
       <c r="C174" t="s">
         <v>589</v>
@@ -8691,8 +8785,9 @@
       <c r="A175" t="s">
         <v>205</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="str">
         <f t="shared" si="2"/>
+        <v>CURACAVI</v>
       </c>
       <c r="C175" t="s">
         <v>590</v>
@@ -8702,8 +8797,9 @@
       <c r="A176" t="s">
         <v>575</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="str">
         <f t="shared" si="2"/>
+        <v>CURACO DE VELEZ</v>
       </c>
       <c r="C176" t="s">
         <v>591</v>
@@ -8713,8 +8809,9 @@
       <c r="A177" t="s">
         <v>207</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="str">
         <f t="shared" si="2"/>
+        <v>CURANILAHUE</v>
       </c>
       <c r="C177" t="s">
         <v>592</v>
@@ -8724,8 +8821,9 @@
       <c r="A178" t="s">
         <v>576</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="str">
         <f t="shared" si="2"/>
+        <v>CURANIPE</v>
       </c>
       <c r="C178" t="s">
         <v>593</v>
@@ -8735,8 +8833,9 @@
       <c r="A179" t="s">
         <v>577</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="str">
         <f t="shared" si="2"/>
+        <v>CURARREHUE</v>
       </c>
       <c r="C179" t="s">
         <v>594</v>
@@ -8746,8 +8845,9 @@
       <c r="A180" t="s">
         <v>209</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="str">
         <f t="shared" si="2"/>
+        <v>CURAUMA</v>
       </c>
       <c r="C180" t="s">
         <v>595</v>
@@ -8757,8 +8857,9 @@
       <c r="A181" t="s">
         <v>578</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="str">
         <f t="shared" si="2"/>
+        <v>CUREPTO</v>
       </c>
       <c r="C181" t="s">
         <v>596</v>
@@ -8768,8 +8869,9 @@
       <c r="A182" t="s">
         <v>119</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C182" t="s">
         <v>597</v>
@@ -8779,8 +8881,9 @@
       <c r="A183" t="s">
         <v>579</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="str">
         <f t="shared" si="2"/>
+        <v>CURIMON</v>
       </c>
       <c r="C183" t="s">
         <v>598</v>
@@ -8790,8 +8893,9 @@
       <c r="A184" t="s">
         <v>580</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="str">
         <f t="shared" si="2"/>
+        <v>CURINANCO</v>
       </c>
       <c r="C184" t="s">
         <v>599</v>
@@ -8801,8 +8905,9 @@
       <c r="A185" t="s">
         <v>581</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="str">
         <f t="shared" si="2"/>
+        <v>CUYA</v>
       </c>
       <c r="C185" t="s">
         <v>600</v>
@@ -8812,8 +8917,9 @@
       <c r="A186" t="s">
         <v>582</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="str">
         <f t="shared" si="2"/>
+        <v>DALCAHUE</v>
       </c>
       <c r="C186" t="s">
         <v>601</v>
@@ -8823,8 +8929,9 @@
       <c r="A187" t="s">
         <v>583</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="str">
         <f t="shared" si="2"/>
+        <v>DEGAN</v>
       </c>
       <c r="C187" t="s">
         <v>602</v>
@@ -8834,8 +8941,9 @@
       <c r="A188" t="s">
         <v>584</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="str">
         <f t="shared" si="2"/>
+        <v>DICHATO</v>
       </c>
       <c r="C188" t="s">
         <v>603</v>
@@ -8845,8 +8953,9 @@
       <c r="A189" t="s">
         <v>121</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C189" t="s">
         <v>226</v>
@@ -8856,8 +8965,9 @@
       <c r="A190" t="s">
         <v>585</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="str">
         <f t="shared" si="2"/>
+        <v>DOMEYKO</v>
       </c>
       <c r="C190" t="s">
         <v>232</v>
@@ -8867,8 +8977,9 @@
       <c r="A191" t="s">
         <v>586</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="str">
         <f t="shared" si="2"/>
+        <v>DONIHUE</v>
       </c>
       <c r="C191" t="s">
         <v>604</v>
@@ -8878,8 +8989,9 @@
       <c r="A192" t="s">
         <v>587</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="str">
         <f t="shared" si="2"/>
+        <v>DUAO</v>
       </c>
       <c r="C192" t="s">
         <v>605</v>
@@ -8889,8 +9001,9 @@
       <c r="A193" t="s">
         <v>123</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="e">
         <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="C193" t="s">
         <v>606</v>
@@ -8900,8 +9013,9 @@
       <c r="A194" t="s">
         <v>589</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="str">
         <f t="shared" si="2"/>
+        <v>EL CANELO</v>
       </c>
       <c r="C194" t="s">
         <v>607</v>
@@ -8911,8 +9025,9 @@
       <c r="A195" t="s">
         <v>590</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="str">
         <f t="shared" ref="B195:B258" si="3">VLOOKUP(A195,$C$2:$C$711,1,FALSE)</f>
+        <v>EL CARMEN CHILLAN</v>
       </c>
       <c r="C195" t="s">
         <v>608</v>
@@ -8922,8 +9037,9 @@
       <c r="A196" t="s">
         <v>591</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="str">
         <f t="shared" si="3"/>
+        <v>EL CARMEN RENGO</v>
       </c>
       <c r="C196" t="s">
         <v>609</v>
@@ -8933,8 +9049,9 @@
       <c r="A197" t="s">
         <v>592</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="str">
         <f t="shared" si="3"/>
+        <v>EL COLORADO</v>
       </c>
       <c r="C197" t="s">
         <v>610</v>
@@ -8944,8 +9061,9 @@
       <c r="A198" t="s">
         <v>593</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="str">
         <f t="shared" si="3"/>
+        <v>EL HINOJAL</v>
       </c>
       <c r="C198" t="s">
         <v>611</v>
@@ -8955,8 +9073,9 @@
       <c r="A199" t="s">
         <v>594</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="str">
         <f t="shared" si="3"/>
+        <v>EL INGENIO</v>
       </c>
       <c r="C199" t="s">
         <v>612</v>
@@ -8966,8 +9085,9 @@
       <c r="A200" t="s">
         <v>595</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="str">
         <f t="shared" si="3"/>
+        <v>EL MANZANAR</v>
       </c>
       <c r="C200" t="s">
         <v>613</v>
@@ -8977,8 +9097,9 @@
       <c r="A201" t="s">
         <v>596</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="str">
         <f t="shared" si="3"/>
+        <v>EL MANZANO</v>
       </c>
       <c r="C201" t="s">
         <v>614</v>
@@ -8988,8 +9109,9 @@
       <c r="A202" t="s">
         <v>597</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="str">
         <f t="shared" si="3"/>
+        <v>EL MELOCOTON</v>
       </c>
       <c r="C202" t="s">
         <v>243</v>
@@ -8999,8 +9121,9 @@
       <c r="A203" t="s">
         <v>598</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="str">
         <f t="shared" si="3"/>
+        <v>EL MELON</v>
       </c>
       <c r="C203" t="s">
         <v>615</v>
@@ -9010,8 +9133,9 @@
       <c r="A204" t="s">
         <v>599</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="str">
         <f t="shared" si="3"/>
+        <v>EL MEMBRILLO</v>
       </c>
       <c r="C204" t="s">
         <v>245</v>
@@ -9021,8 +9145,9 @@
       <c r="A205" t="s">
         <v>600</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="str">
         <f t="shared" si="3"/>
+        <v>EL MOLLE</v>
       </c>
       <c r="C205" t="s">
         <v>247</v>
@@ -9032,8 +9157,9 @@
       <c r="A206" t="s">
         <v>601</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="str">
         <f t="shared" si="3"/>
+        <v>EL MONTE</v>
       </c>
       <c r="C206" t="s">
         <v>616</v>
@@ -9043,8 +9169,9 @@
       <c r="A207" t="s">
         <v>602</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="str">
         <f t="shared" si="3"/>
+        <v>EL PALQUI</v>
       </c>
       <c r="C207" t="s">
         <v>249</v>
@@ -9054,8 +9181,9 @@
       <c r="A208" t="s">
         <v>603</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="str">
         <f t="shared" si="3"/>
+        <v>EL PENON</v>
       </c>
       <c r="C208" t="s">
         <v>617</v>
@@ -9065,8 +9193,9 @@
       <c r="A209" t="s">
         <v>226</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="str">
         <f t="shared" si="3"/>
+        <v>EL QUISCO</v>
       </c>
       <c r="C209" t="s">
         <v>251</v>
@@ -9076,8 +9205,9 @@
       <c r="A210" t="s">
         <v>232</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="str">
         <f t="shared" si="3"/>
+        <v>EL SALVADOR</v>
       </c>
       <c r="C210" t="s">
         <v>618</v>
@@ -9087,8 +9217,9 @@
       <c r="A211" t="s">
         <v>604</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="str">
         <f t="shared" si="3"/>
+        <v>EL SAUCE</v>
       </c>
       <c r="C211" t="s">
         <v>252</v>
@@ -9098,8 +9229,9 @@
       <c r="A212" t="s">
         <v>605</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="str">
         <f t="shared" si="3"/>
+        <v>EL TABO</v>
       </c>
       <c r="C212" t="s">
         <v>254</v>
@@ -9109,8 +9241,9 @@
       <c r="A213" t="s">
         <v>606</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="str">
         <f t="shared" si="3"/>
+        <v>EL TAMBO</v>
       </c>
       <c r="C213" t="s">
         <v>619</v>
@@ -9120,8 +9253,9 @@
       <c r="A214" t="s">
         <v>607</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="str">
         <f t="shared" si="3"/>
+        <v>EL TANGUE</v>
       </c>
       <c r="C214" t="s">
         <v>620</v>
@@ -9131,8 +9265,9 @@
       <c r="A215" t="s">
         <v>608</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="str">
         <f t="shared" si="3"/>
+        <v>EMPEDRADO</v>
       </c>
       <c r="C215" t="s">
         <v>621</v>
@@ -9142,8 +9277,9 @@
       <c r="A216" t="s">
         <v>609</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="str">
         <f t="shared" si="3"/>
+        <v>ENSENADA</v>
       </c>
       <c r="C216" t="s">
         <v>622</v>
@@ -9153,8 +9289,9 @@
       <c r="A217" t="s">
         <v>610</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="str">
         <f t="shared" si="3"/>
+        <v>ENTRE LAGOS</v>
       </c>
       <c r="C217" t="s">
         <v>623</v>
@@ -9164,8 +9301,9 @@
       <c r="A218" t="s">
         <v>125</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="e">
         <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="C218" t="s">
         <v>624</v>
@@ -9175,8 +9313,9 @@
       <c r="A219" t="s">
         <v>127</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="e">
         <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="C219" t="s">
         <v>625</v>
@@ -9186,8 +9325,9 @@
       <c r="A220" t="s">
         <v>611</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="str">
         <f t="shared" si="3"/>
+        <v>ESQUINA</v>
       </c>
       <c r="C220" t="s">
         <v>626</v>
@@ -9197,8 +9337,9 @@
       <c r="A221" t="s">
         <v>129</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="e">
         <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="C221" t="s">
         <v>627</v>
@@ -9208,8 +9349,9 @@
       <c r="A222" t="s">
         <v>612</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="str">
         <f t="shared" si="3"/>
+        <v>FARELLONES</v>
       </c>
       <c r="C222" t="s">
         <v>628</v>
@@ -9219,8 +9361,9 @@
       <c r="A223" t="s">
         <v>613</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="str">
         <f t="shared" si="3"/>
+        <v>FILOMENA</v>
       </c>
       <c r="C223" t="s">
         <v>629</v>
@@ -9230,8 +9373,9 @@
       <c r="A224" t="s">
         <v>614</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="str">
         <f t="shared" si="3"/>
+        <v>FLORIDA</v>
       </c>
       <c r="C224" t="s">
         <v>630</v>
@@ -9241,8 +9385,9 @@
       <c r="A225" t="s">
         <v>243</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="str">
         <f t="shared" si="3"/>
+        <v>FREIRE</v>
       </c>
       <c r="C225" t="s">
         <v>631</v>
@@ -9252,8 +9397,9 @@
       <c r="A226" t="s">
         <v>615</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="str">
         <f t="shared" si="3"/>
+        <v>FREIRINA</v>
       </c>
       <c r="C226" t="s">
         <v>632</v>
@@ -9263,8 +9409,9 @@
       <c r="A227" t="s">
         <v>245</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="str">
         <f t="shared" si="3"/>
+        <v>FRESIA</v>
       </c>
       <c r="C227" t="s">
         <v>633</v>
@@ -9274,8 +9421,9 @@
       <c r="A228" t="s">
         <v>247</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="str">
         <f t="shared" si="3"/>
+        <v>FRUTILLAR</v>
       </c>
       <c r="C228" t="s">
         <v>634</v>
@@ -9285,8 +9433,9 @@
       <c r="A229" t="s">
         <v>616</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="str">
         <f t="shared" si="3"/>
+        <v>FUTALEUFU</v>
       </c>
       <c r="C229" t="s">
         <v>635</v>
@@ -9296,8 +9445,9 @@
       <c r="A230" t="s">
         <v>249</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="str">
         <f t="shared" si="3"/>
+        <v>FUTRONO</v>
       </c>
       <c r="C230" t="s">
         <v>636</v>
@@ -9307,8 +9457,9 @@
       <c r="A231" t="s">
         <v>617</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="str">
         <f t="shared" si="3"/>
+        <v>GABRIELA MISTRAL</v>
       </c>
       <c r="C231" t="s">
         <v>637</v>
@@ -9318,8 +9469,9 @@
       <c r="A232" t="s">
         <v>251</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="str">
         <f t="shared" si="3"/>
+        <v>GALVARINO</v>
       </c>
       <c r="C232" t="s">
         <v>638</v>
@@ -9329,8 +9481,9 @@
       <c r="A233" t="s">
         <v>618</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="str">
         <f t="shared" si="3"/>
+        <v>GENERAL LAGOS</v>
       </c>
       <c r="C233" t="s">
         <v>639</v>
@@ -9340,8 +9493,9 @@
       <c r="A234" t="s">
         <v>252</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="str">
         <f t="shared" si="3"/>
+        <v>GORBEA</v>
       </c>
       <c r="C234" t="s">
         <v>640</v>
@@ -9351,8 +9505,9 @@
       <c r="A235" t="s">
         <v>254</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="str">
         <f t="shared" si="3"/>
+        <v>GRANEROS</v>
       </c>
       <c r="C235" t="s">
         <v>641</v>
@@ -9362,8 +9517,9 @@
       <c r="A236" t="s">
         <v>619</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="str">
         <f t="shared" si="3"/>
+        <v>GUADAL</v>
       </c>
       <c r="C236" t="s">
         <v>255</v>
@@ -9373,8 +9529,9 @@
       <c r="A237" t="s">
         <v>620</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="str">
         <f t="shared" si="3"/>
+        <v>GUAITECAS</v>
       </c>
       <c r="C237" t="s">
         <v>642</v>
@@ -9384,8 +9541,9 @@
       <c r="A238" t="s">
         <v>621</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="str">
         <f t="shared" si="3"/>
+        <v>GUALLECO</v>
       </c>
       <c r="C238" t="s">
         <v>643</v>
@@ -9395,8 +9553,9 @@
       <c r="A239" t="s">
         <v>622</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="str">
         <f t="shared" si="3"/>
+        <v>GUANAQUEROS</v>
       </c>
       <c r="C239" t="s">
         <v>644</v>
@@ -9406,8 +9565,9 @@
       <c r="A240" t="s">
         <v>623</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="str">
         <f t="shared" si="3"/>
+        <v>GUANGUALI</v>
       </c>
       <c r="C240" t="s">
         <v>645</v>
@@ -9417,8 +9577,9 @@
       <c r="A241" t="s">
         <v>624</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="str">
         <f t="shared" si="3"/>
+        <v>GUAPILACUY</v>
       </c>
       <c r="C241" t="s">
         <v>646</v>
@@ -9428,8 +9589,9 @@
       <c r="A242" t="s">
         <v>625</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="str">
         <f t="shared" si="3"/>
+        <v>GUARDIA VIEJA</v>
       </c>
       <c r="C242" t="s">
         <v>647</v>
@@ -9439,8 +9601,9 @@
       <c r="A243" t="s">
         <v>626</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="str">
         <f t="shared" si="3"/>
+        <v>GUARILIHUE</v>
       </c>
       <c r="C243" t="s">
         <v>648</v>
@@ -9450,8 +9613,9 @@
       <c r="A244" t="s">
         <v>627</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="str">
         <f t="shared" si="3"/>
+        <v>GUAYACAN</v>
       </c>
       <c r="C244" t="s">
         <v>649</v>
@@ -9461,8 +9625,9 @@
       <c r="A245" t="s">
         <v>628</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="str">
         <f t="shared" si="3"/>
+        <v>HACIENDA LOS ANDES</v>
       </c>
       <c r="C245" t="s">
         <v>258</v>
@@ -9472,8 +9637,9 @@
       <c r="A246" t="s">
         <v>629</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="str">
         <f t="shared" si="3"/>
+        <v>HIJUELAS</v>
       </c>
       <c r="C246" t="s">
         <v>650</v>
@@ -9483,8 +9649,9 @@
       <c r="A247" t="s">
         <v>630</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="str">
         <f t="shared" si="3"/>
+        <v>HORCON</v>
       </c>
       <c r="C247" t="s">
         <v>651</v>
@@ -9494,8 +9661,9 @@
       <c r="A248" t="s">
         <v>631</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="str">
         <f t="shared" si="3"/>
+        <v>HORCON IV</v>
       </c>
       <c r="C248" t="s">
         <v>652</v>
@@ -9505,8 +9673,9 @@
       <c r="A249" t="s">
         <v>632</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="str">
         <f t="shared" si="3"/>
+        <v>HORNITOS</v>
       </c>
       <c r="C249" t="s">
         <v>653</v>
@@ -9516,8 +9685,9 @@
       <c r="A250" t="s">
         <v>633</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="str">
         <f t="shared" si="3"/>
+        <v>HORNOPIREN</v>
       </c>
       <c r="C250" t="s">
         <v>654</v>
@@ -9527,8 +9697,9 @@
       <c r="A251" t="s">
         <v>634</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="str">
         <f t="shared" si="3"/>
+        <v>HOSPITAL</v>
       </c>
       <c r="C251" t="s">
         <v>655</v>
@@ -9538,8 +9709,9 @@
       <c r="A252" t="s">
         <v>635</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="str">
         <f t="shared" si="3"/>
+        <v>HUALAIHUE</v>
       </c>
       <c r="C252" t="s">
         <v>656</v>
@@ -9549,8 +9721,9 @@
       <c r="A253" t="s">
         <v>636</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="str">
         <f t="shared" si="3"/>
+        <v>HUALANE</v>
       </c>
       <c r="C253" t="s">
         <v>657</v>
@@ -9560,8 +9733,9 @@
       <c r="A254" t="s">
         <v>131</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="e">
         <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="C254" t="s">
         <v>658</v>
@@ -9571,8 +9745,9 @@
       <c r="A255" t="s">
         <v>637</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="str">
         <f t="shared" si="3"/>
+        <v>HUALPENCILLO</v>
       </c>
       <c r="C255" t="s">
         <v>659</v>
@@ -9582,8 +9757,9 @@
       <c r="A256" t="s">
         <v>638</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="str">
         <f t="shared" si="3"/>
+        <v>HUALPIN</v>
       </c>
       <c r="C256" t="s">
         <v>660</v>
@@ -9593,8 +9769,9 @@
       <c r="A257" t="s">
         <v>639</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="str">
         <f t="shared" si="3"/>
+        <v>HUALQUI</v>
       </c>
       <c r="C257" t="s">
         <v>661</v>
@@ -9604,8 +9781,9 @@
       <c r="A258" t="s">
         <v>640</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="str">
         <f t="shared" si="3"/>
+        <v>HUAMALATA</v>
       </c>
       <c r="C258" t="s">
         <v>662</v>
@@ -9615,8 +9793,9 @@
       <c r="A259" t="s">
         <v>641</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="str">
         <f t="shared" ref="B259:B322" si="4">VLOOKUP(A259,$C$2:$C$711,1,FALSE)</f>
+        <v>HUARA</v>
       </c>
       <c r="C259" t="s">
         <v>663</v>
@@ -9626,8 +9805,9 @@
       <c r="A260" t="s">
         <v>255</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="str">
         <f t="shared" si="4"/>
+        <v>HUASCO</v>
       </c>
       <c r="C260" t="s">
         <v>664</v>
@@ -9637,8 +9817,9 @@
       <c r="A261" t="s">
         <v>133</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C261" t="s">
         <v>665</v>
@@ -9648,8 +9829,9 @@
       <c r="A262" t="s">
         <v>642</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="str">
         <f t="shared" si="4"/>
+        <v>HUELDEN</v>
       </c>
       <c r="C262" t="s">
         <v>666</v>
@@ -9659,8 +9841,9 @@
       <c r="A263" t="s">
         <v>643</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="str">
         <f t="shared" si="4"/>
+        <v>HUELLAHUE</v>
       </c>
       <c r="C263" t="s">
         <v>667</v>
@@ -9670,8 +9853,9 @@
       <c r="A264" t="s">
         <v>644</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="str">
         <f t="shared" si="4"/>
+        <v>HUELQUEN</v>
       </c>
       <c r="C264" t="s">
         <v>668</v>
@@ -9681,8 +9865,9 @@
       <c r="A265" t="s">
         <v>645</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="str">
         <f t="shared" si="4"/>
+        <v>HUENTELAUQUEN</v>
       </c>
       <c r="C265" t="s">
         <v>669</v>
@@ -9692,8 +9877,9 @@
       <c r="A266" t="s">
         <v>646</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="str">
         <f t="shared" si="4"/>
+        <v>HUEPIL</v>
       </c>
       <c r="C266" t="s">
         <v>670</v>
@@ -9703,8 +9889,9 @@
       <c r="A267" t="s">
         <v>648</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="str">
         <f t="shared" si="4"/>
+        <v>HUILLINCO</v>
       </c>
       <c r="C267" t="s">
         <v>671</v>
@@ -9714,8 +9901,9 @@
       <c r="A268" t="s">
         <v>649</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="str">
         <f t="shared" si="4"/>
+        <v>HUINTIL</v>
       </c>
       <c r="C268" t="s">
         <v>672</v>
@@ -9725,8 +9913,9 @@
       <c r="A269" t="s">
         <v>135</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C269" t="s">
         <v>673</v>
@@ -9736,8 +9925,9 @@
       <c r="A270" t="s">
         <v>258</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="str">
         <f t="shared" si="4"/>
+        <v>ILLAPEL</v>
       </c>
       <c r="C270" t="s">
         <v>674</v>
@@ -9747,8 +9937,9 @@
       <c r="A271" t="s">
         <v>650</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="str">
         <f t="shared" si="4"/>
+        <v>ILOCA</v>
       </c>
       <c r="C271" t="s">
         <v>675</v>
@@ -9758,8 +9949,9 @@
       <c r="A272" t="s">
         <v>137</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C272" t="s">
         <v>676</v>
@@ -9769,8 +9961,9 @@
       <c r="A273" t="s">
         <v>139</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C273" t="s">
         <v>677</v>
@@ -9780,8 +9973,9 @@
       <c r="A274" t="s">
         <v>651</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="str">
         <f t="shared" si="4"/>
+        <v>ISLA DE MAIPO</v>
       </c>
       <c r="C274" t="s">
         <v>678</v>
@@ -9791,8 +9985,9 @@
       <c r="A275" t="s">
         <v>140</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C275" t="s">
         <v>679</v>
@@ -9802,8 +9997,9 @@
       <c r="A276" t="s">
         <v>652</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="str">
         <f t="shared" si="4"/>
+        <v>ISLA JUAN FERNANDEZ</v>
       </c>
       <c r="C276" t="s">
         <v>271</v>
@@ -9813,8 +10009,9 @@
       <c r="A277" t="s">
         <v>653</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="str">
         <f t="shared" si="4"/>
+        <v>ISLA NEGRA</v>
       </c>
       <c r="C277" t="s">
         <v>272</v>
@@ -9824,8 +10021,9 @@
       <c r="A278" t="s">
         <v>654</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="str">
         <f t="shared" si="4"/>
+        <v>ISLA SANTA MARIA</v>
       </c>
       <c r="C278" t="s">
         <v>273</v>
@@ -9835,8 +10033,9 @@
       <c r="A279" t="s">
         <v>655</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="str">
         <f t="shared" si="4"/>
+        <v>ISLUGA</v>
       </c>
       <c r="C279" t="s">
         <v>680</v>
@@ -9846,8 +10045,9 @@
       <c r="A280" t="s">
         <v>656</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="str">
         <f t="shared" si="4"/>
+        <v>JUNCAL</v>
       </c>
       <c r="C280" t="s">
         <v>681</v>
@@ -9857,8 +10057,9 @@
       <c r="A281" t="s">
         <v>657</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="str">
         <f t="shared" si="4"/>
+        <v>LA ARAUCANA</v>
       </c>
       <c r="C281" t="s">
         <v>682</v>
@@ -9868,8 +10069,9 @@
       <c r="A282" t="s">
         <v>658</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="str">
         <f t="shared" si="4"/>
+        <v>LA ARENA</v>
       </c>
       <c r="C282" t="s">
         <v>683</v>
@@ -9879,8 +10081,9 @@
       <c r="A283" t="s">
         <v>659</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="str">
         <f t="shared" si="4"/>
+        <v>LA ARENA PTO MONTT</v>
       </c>
       <c r="C283" t="s">
         <v>684</v>
@@ -9890,8 +10093,9 @@
       <c r="A284" t="s">
         <v>141</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C284" t="s">
         <v>274</v>
@@ -9901,8 +10105,9 @@
       <c r="A285" t="s">
         <v>660</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="str">
         <f t="shared" si="4"/>
+        <v>LA CEBADA</v>
       </c>
       <c r="C285" t="s">
         <v>685</v>
@@ -9912,8 +10117,9 @@
       <c r="A286" t="s">
         <v>661</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="str">
         <f t="shared" si="4"/>
+        <v>LA CHIMBA</v>
       </c>
       <c r="C286" t="s">
         <v>686</v>
@@ -9923,8 +10129,9 @@
       <c r="A287" t="s">
         <v>143</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C287" t="s">
         <v>687</v>
@@ -9934,8 +10141,9 @@
       <c r="A288" t="s">
         <v>662</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="str">
         <f t="shared" si="4"/>
+        <v>LA CRUZ</v>
       </c>
       <c r="C288" t="s">
         <v>688</v>
@@ -9945,8 +10153,9 @@
       <c r="A289" t="s">
         <v>663</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="str">
         <f t="shared" si="4"/>
+        <v>LA DORMIDA</v>
       </c>
       <c r="C289" t="s">
         <v>689</v>
@@ -9956,8 +10165,9 @@
       <c r="A290" t="s">
         <v>664</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="str">
         <f t="shared" si="4"/>
+        <v>LA ESTRELLA</v>
       </c>
       <c r="C290" t="s">
         <v>690</v>
@@ -9967,8 +10177,9 @@
       <c r="A291" t="s">
         <v>145</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C291" t="s">
         <v>691</v>
@@ -9978,8 +10189,9 @@
       <c r="A292" t="s">
         <v>25</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C292" t="s">
         <v>692</v>
@@ -9989,8 +10201,9 @@
       <c r="A293" t="s">
         <v>665</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="str">
         <f t="shared" si="4"/>
+        <v>LA HAUYCA</v>
       </c>
       <c r="C293" t="s">
         <v>693</v>
@@ -10000,8 +10213,9 @@
       <c r="A294" t="s">
         <v>666</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="str">
         <f t="shared" si="4"/>
+        <v>LA HIGUERA</v>
       </c>
       <c r="C294" t="s">
         <v>694</v>
@@ -10011,8 +10225,9 @@
       <c r="A295" t="s">
         <v>667</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="str">
         <f t="shared" si="4"/>
+        <v>LA JARILLA</v>
       </c>
       <c r="C295" t="s">
         <v>695</v>
@@ -10022,8 +10237,9 @@
       <c r="A296" t="s">
         <v>668</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="str">
         <f t="shared" si="4"/>
+        <v>LA JUNTA</v>
       </c>
       <c r="C296" t="s">
         <v>696</v>
@@ -10033,8 +10249,9 @@
       <c r="A297" t="s">
         <v>148</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C297" t="s">
         <v>697</v>
@@ -10044,8 +10261,9 @@
       <c r="A298" t="s">
         <v>669</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="str">
         <f t="shared" si="4"/>
+        <v>LA MARQUESA</v>
       </c>
       <c r="C298" t="s">
         <v>698</v>
@@ -10055,8 +10273,9 @@
       <c r="A299" t="s">
         <v>670</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="str">
         <f t="shared" si="4"/>
+        <v>LA NEGRA</v>
       </c>
       <c r="C299" t="s">
         <v>699</v>
@@ -10066,8 +10285,9 @@
       <c r="A300" t="s">
         <v>671</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="str">
         <f t="shared" si="4"/>
+        <v>LA OBRA</v>
       </c>
       <c r="C300" t="s">
         <v>700</v>
@@ -10077,8 +10297,9 @@
       <c r="A301" t="s">
         <v>672</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="str">
         <f t="shared" si="4"/>
+        <v>LA PALMA DE QUILLOTA</v>
       </c>
       <c r="C301" t="s">
         <v>701</v>
@@ -10088,8 +10309,9 @@
       <c r="A302" t="s">
         <v>673</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="str">
         <f t="shared" si="4"/>
+        <v>LA PARVA</v>
       </c>
       <c r="C302" t="s">
         <v>702</v>
@@ -10099,8 +10321,9 @@
       <c r="A303" t="s">
         <v>149</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C303" t="s">
         <v>703</v>
@@ -10110,8 +10333,9 @@
       <c r="A304" t="s">
         <v>674</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="str">
         <f t="shared" si="4"/>
+        <v>LA PLACILLA (PUNITAQUI)</v>
       </c>
       <c r="C304" t="s">
         <v>704</v>
@@ -10121,8 +10345,9 @@
       <c r="A305" t="s">
         <v>151</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="e">
         <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="C305" t="s">
         <v>276</v>
@@ -10132,8 +10357,9 @@
       <c r="A306" t="s">
         <v>675</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="str">
         <f t="shared" si="4"/>
+        <v>LA RETUCA</v>
       </c>
       <c r="C306" t="s">
         <v>705</v>
@@ -10143,8 +10369,9 @@
       <c r="A307" t="s">
         <v>676</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="str">
         <f t="shared" si="4"/>
+        <v>LA RUFINA</v>
       </c>
       <c r="C307" t="s">
         <v>706</v>
@@ -10154,8 +10381,9 @@
       <c r="A308" t="s">
         <v>677</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="str">
         <f t="shared" si="4"/>
+        <v>LA SERENA</v>
       </c>
       <c r="C308" t="s">
         <v>707</v>
@@ -10165,8 +10393,9 @@
       <c r="A309" t="s">
         <v>678</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="str">
         <f t="shared" si="4"/>
+        <v>LA TAPERA</v>
       </c>
       <c r="C309" t="s">
         <v>708</v>
@@ -10176,8 +10405,9 @@
       <c r="A310" t="s">
         <v>679</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="str">
         <f t="shared" si="4"/>
+        <v>LA TIRANA</v>
       </c>
       <c r="C310" t="s">
         <v>709</v>
@@ -10187,8 +10417,9 @@
       <c r="A311" t="s">
         <v>271</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="str">
         <f t="shared" si="4"/>
+        <v>LA UNION</v>
       </c>
       <c r="C311" t="s">
         <v>710</v>
@@ -10198,8 +10429,9 @@
       <c r="A312" t="s">
         <v>272</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="str">
         <f t="shared" si="4"/>
+        <v>LABRANZA</v>
       </c>
       <c r="C312" t="s">
         <v>711</v>
@@ -10209,8 +10441,9 @@
       <c r="A313" t="s">
         <v>273</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="str">
         <f t="shared" si="4"/>
+        <v>LAGO RANCO</v>
       </c>
       <c r="C313" t="s">
         <v>712</v>
@@ -10220,8 +10453,9 @@
       <c r="A314" t="s">
         <v>680</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="str">
         <f t="shared" si="4"/>
+        <v>LAGO VERDE</v>
       </c>
       <c r="C314" t="s">
         <v>713</v>
@@ -10231,8 +10465,9 @@
       <c r="A315" t="s">
         <v>681</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="str">
         <f t="shared" si="4"/>
+        <v>LAGUNA ACULEO</v>
       </c>
       <c r="C315" t="s">
         <v>714</v>
@@ -10242,8 +10477,9 @@
       <c r="A316" t="s">
         <v>682</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="str">
         <f t="shared" si="4"/>
+        <v>LAGUNA BLANCA</v>
       </c>
       <c r="C316" t="s">
         <v>279</v>
@@ -10253,8 +10489,9 @@
       <c r="A317" t="s">
         <v>683</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="str">
         <f t="shared" si="4"/>
+        <v>LAGUNA VERDE</v>
       </c>
       <c r="C317" t="s">
         <v>715</v>
@@ -10264,8 +10501,9 @@
       <c r="A318" t="s">
         <v>684</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="str">
         <f t="shared" si="4"/>
+        <v>LAGUNILLAS</v>
       </c>
       <c r="C318" t="s">
         <v>716</v>
@@ -10275,8 +10513,9 @@
       <c r="A319" t="s">
         <v>274</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="str">
         <f t="shared" si="4"/>
+        <v>LAJA</v>
       </c>
       <c r="C319" t="s">
         <v>717</v>
@@ -10286,8 +10525,9 @@
       <c r="A320" t="s">
         <v>685</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="str">
         <f t="shared" si="4"/>
+        <v>LAJAS BLANCAS</v>
       </c>
       <c r="C320" t="s">
         <v>718</v>
@@ -10297,8 +10537,9 @@
       <c r="A321" t="s">
         <v>686</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="str">
         <f t="shared" si="4"/>
+        <v>LAMPA</v>
       </c>
       <c r="C321" t="s">
         <v>280</v>
@@ -10308,8 +10549,9 @@
       <c r="A322" t="s">
         <v>687</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="str">
         <f t="shared" si="4"/>
+        <v>LANCO</v>
       </c>
       <c r="C322" t="s">
         <v>719</v>
@@ -10319,8 +10561,9 @@
       <c r="A323" t="s">
         <v>688</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="str">
         <f t="shared" ref="B323:B386" si="5">VLOOKUP(A323,$C$2:$C$711,1,FALSE)</f>
+        <v>LARAQUETE</v>
       </c>
       <c r="C323" t="s">
         <v>720</v>
@@ -10330,8 +10573,9 @@
       <c r="A324" t="s">
         <v>689</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="str">
         <f t="shared" si="5"/>
+        <v>LARMAHUE</v>
       </c>
       <c r="C324" t="s">
         <v>721</v>
@@ -10341,8 +10585,9 @@
       <c r="A325" t="s">
         <v>690</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="str">
         <f t="shared" si="5"/>
+        <v>LAS BREAS</v>
       </c>
       <c r="C325" t="s">
         <v>722</v>
@@ -10352,8 +10597,9 @@
       <c r="A326" t="s">
         <v>691</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="str">
         <f t="shared" si="5"/>
+        <v>LAS CABRAS</v>
       </c>
       <c r="C326" t="s">
         <v>723</v>
@@ -10363,8 +10609,9 @@
       <c r="A327" t="s">
         <v>692</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="str">
         <f t="shared" si="5"/>
+        <v>LAS CARDAS</v>
       </c>
       <c r="C327" t="s">
         <v>724</v>
@@ -10374,8 +10621,9 @@
       <c r="A328" t="s">
         <v>693</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="str">
         <f t="shared" si="5"/>
+        <v>LAS CARDAS SUR</v>
       </c>
       <c r="C328" t="s">
         <v>725</v>
@@ -10385,8 +10633,9 @@
       <c r="A329" t="s">
         <v>152</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C329" t="s">
         <v>726</v>
@@ -10396,8 +10645,9 @@
       <c r="A330" t="s">
         <v>694</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="str">
         <f t="shared" si="5"/>
+        <v>LAS CRUCES</v>
       </c>
       <c r="C330" t="s">
         <v>727</v>
@@ -10407,8 +10657,9 @@
       <c r="A331" t="s">
         <v>695</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="str">
         <f t="shared" si="5"/>
+        <v>LAS DICHAS</v>
       </c>
       <c r="C331" t="s">
         <v>728</v>
@@ -10418,8 +10669,9 @@
       <c r="A332" t="s">
         <v>696</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="str">
         <f t="shared" si="5"/>
+        <v>LAS DUNAS</v>
       </c>
       <c r="C332" t="s">
         <v>729</v>
@@ -10429,8 +10681,9 @@
       <c r="A333" t="s">
         <v>697</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="str">
         <f t="shared" si="5"/>
+        <v>LAS HORTENCIAS</v>
       </c>
       <c r="C333" t="s">
         <v>730</v>
@@ -10440,8 +10693,9 @@
       <c r="A334" t="s">
         <v>698</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="str">
         <f t="shared" si="5"/>
+        <v>LAS NIEVES</v>
       </c>
       <c r="C334" t="s">
         <v>731</v>
@@ -10451,8 +10705,9 @@
       <c r="A335" t="s">
         <v>699</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="str">
         <f t="shared" si="5"/>
+        <v>LAS RAMADAS DE TULAHUEN</v>
       </c>
       <c r="C335" t="s">
         <v>732</v>
@@ -10462,8 +10717,9 @@
       <c r="A336" t="s">
         <v>700</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="str">
         <f t="shared" si="5"/>
+        <v>LAS TACAS</v>
       </c>
       <c r="C336" t="s">
         <v>286</v>
@@ -10473,8 +10729,9 @@
       <c r="A337" t="s">
         <v>701</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="str">
         <f t="shared" si="5"/>
+        <v>LAS TRANCAS</v>
       </c>
       <c r="C337" t="s">
         <v>733</v>
@@ -10484,8 +10741,9 @@
       <c r="A338" t="s">
         <v>702</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="str">
         <f t="shared" si="5"/>
+        <v>LAS VENTANAS</v>
       </c>
       <c r="C338" t="s">
         <v>734</v>
@@ -10495,8 +10753,9 @@
       <c r="A339" t="s">
         <v>703</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="str">
         <f t="shared" si="5"/>
+        <v>LAS VERTIENTES</v>
       </c>
       <c r="C339" t="s">
         <v>735</v>
@@ -10506,8 +10765,9 @@
       <c r="A340" t="s">
         <v>704</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="str">
         <f t="shared" si="5"/>
+        <v>LASANA</v>
       </c>
       <c r="C340" t="s">
         <v>736</v>
@@ -10517,8 +10777,9 @@
       <c r="A341" t="s">
         <v>276</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="str">
         <f t="shared" si="5"/>
+        <v>LAUTARO</v>
       </c>
       <c r="C341" t="s">
         <v>288</v>
@@ -10528,8 +10789,9 @@
       <c r="A342" t="s">
         <v>705</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="str">
         <f t="shared" si="5"/>
+        <v>LEBU</v>
       </c>
       <c r="C342" t="s">
         <v>289</v>
@@ -10539,8 +10801,9 @@
       <c r="A343" t="s">
         <v>706</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="str">
         <f t="shared" si="5"/>
+        <v>LECHAGUA</v>
       </c>
       <c r="C343" t="s">
         <v>737</v>
@@ -10550,8 +10813,9 @@
       <c r="A344" t="s">
         <v>707</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="str">
         <f t="shared" si="5"/>
+        <v>LENCA</v>
       </c>
       <c r="C344" t="s">
         <v>738</v>
@@ -10561,8 +10825,9 @@
       <c r="A345" t="s">
         <v>708</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="str">
         <f t="shared" si="5"/>
+        <v>LEONERA</v>
       </c>
       <c r="C345" t="s">
         <v>739</v>
@@ -10572,8 +10837,9 @@
       <c r="A346" t="s">
         <v>709</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="str">
         <f t="shared" si="5"/>
+        <v>LEYDA</v>
       </c>
       <c r="C346" t="s">
         <v>740</v>
@@ -10583,8 +10849,9 @@
       <c r="A347" t="s">
         <v>154</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C347" t="s">
         <v>741</v>
@@ -10594,8 +10861,9 @@
       <c r="A348" t="s">
         <v>711</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="str">
         <f t="shared" si="5"/>
+        <v>LICANTEN</v>
       </c>
       <c r="C348" t="s">
         <v>742</v>
@@ -10605,8 +10873,9 @@
       <c r="A349" t="s">
         <v>712</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="str">
         <f t="shared" si="5"/>
+        <v>LIMACHE</v>
       </c>
       <c r="C349" t="s">
         <v>294</v>
@@ -10616,8 +10885,9 @@
       <c r="A350" t="s">
         <v>713</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="str">
         <f t="shared" si="5"/>
+        <v>LIMARI</v>
       </c>
       <c r="C350" t="s">
         <v>743</v>
@@ -10627,8 +10897,9 @@
       <c r="A351" t="s">
         <v>714</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="str">
         <f t="shared" si="5"/>
+        <v>LINAO</v>
       </c>
       <c r="C351" t="s">
         <v>744</v>
@@ -10638,8 +10909,9 @@
       <c r="A352" t="s">
         <v>279</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="str">
         <f t="shared" si="5"/>
+        <v>LINARES</v>
       </c>
       <c r="C352" t="s">
         <v>745</v>
@@ -10649,8 +10921,9 @@
       <c r="A353" t="s">
         <v>715</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="str">
         <f t="shared" si="5"/>
+        <v>LINDEROS</v>
       </c>
       <c r="C353" t="s">
         <v>746</v>
@@ -10660,8 +10933,9 @@
       <c r="A354" t="s">
         <v>716</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="str">
         <f t="shared" si="5"/>
+        <v>LIQUINE</v>
       </c>
       <c r="C354" t="s">
         <v>747</v>
@@ -10671,8 +10945,9 @@
       <c r="A355" t="s">
         <v>717</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="str">
         <f t="shared" si="5"/>
+        <v>LIRIMA</v>
       </c>
       <c r="C355" t="s">
         <v>748</v>
@@ -10682,8 +10957,9 @@
       <c r="A356" t="s">
         <v>718</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="str">
         <f t="shared" si="5"/>
+        <v>LIRQUEN</v>
       </c>
       <c r="C356" t="s">
         <v>749</v>
@@ -10693,8 +10969,9 @@
       <c r="A357" t="s">
         <v>280</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="str">
         <f t="shared" si="5"/>
+        <v>LITUECHE</v>
       </c>
       <c r="C357" t="s">
         <v>750</v>
@@ -10704,8 +10981,9 @@
       <c r="A358" t="s">
         <v>719</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="str">
         <f t="shared" si="5"/>
+        <v>LLAILLAY</v>
       </c>
       <c r="C358" t="s">
         <v>751</v>
@@ -10715,8 +10993,9 @@
       <c r="A359" t="s">
         <v>720</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="str">
         <f t="shared" si="5"/>
+        <v>LLANOS DE GUANTA</v>
       </c>
       <c r="C359" t="s">
         <v>752</v>
@@ -10726,8 +11005,9 @@
       <c r="A360" t="s">
         <v>721</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="str">
         <f t="shared" si="5"/>
+        <v>LLANQUIHUE</v>
       </c>
       <c r="C360" t="s">
         <v>296</v>
@@ -10737,8 +11017,9 @@
       <c r="A361" t="s">
         <v>722</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="str">
         <f t="shared" si="5"/>
+        <v>LLICO</v>
       </c>
       <c r="C361" t="s">
         <v>753</v>
@@ -10748,8 +11029,9 @@
       <c r="A362" t="s">
         <v>723</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="str">
         <f t="shared" si="5"/>
+        <v>LLIFEN</v>
       </c>
       <c r="C362" t="s">
         <v>297</v>
@@ -10759,8 +11041,9 @@
       <c r="A363" t="s">
         <v>724</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="str">
         <f t="shared" si="5"/>
+        <v>LLOLLEO</v>
       </c>
       <c r="C363" t="s">
         <v>754</v>
@@ -10770,8 +11053,9 @@
       <c r="A364" t="s">
         <v>156</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C364" t="s">
         <v>755</v>
@@ -10781,8 +11065,9 @@
       <c r="A365" t="s">
         <v>727</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="str">
         <f t="shared" si="5"/>
+        <v>LO CHACON</v>
       </c>
       <c r="C365" t="s">
         <v>756</v>
@@ -10792,8 +11077,9 @@
       <c r="A366" t="s">
         <v>158</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C366" t="s">
         <v>757</v>
@@ -10803,8 +11089,9 @@
       <c r="A367" t="s">
         <v>728</v>
       </c>
-      <c r="B367">
+      <c r="B367" t="str">
         <f t="shared" si="5"/>
+        <v>LO MIRANDA</v>
       </c>
       <c r="C367" t="s">
         <v>758</v>
@@ -10814,8 +11101,9 @@
       <c r="A368" t="s">
         <v>160</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C368" t="s">
         <v>759</v>
@@ -10825,8 +11113,9 @@
       <c r="A369" t="s">
         <v>729</v>
       </c>
-      <c r="B369">
+      <c r="B369" t="str">
         <f t="shared" si="5"/>
+        <v>LO VALDES</v>
       </c>
       <c r="C369" t="s">
         <v>760</v>
@@ -10836,8 +11125,9 @@
       <c r="A370" t="s">
         <v>730</v>
       </c>
-      <c r="B370">
+      <c r="B370" t="str">
         <f t="shared" si="5"/>
+        <v>LO VALDIVIA</v>
       </c>
       <c r="C370" t="s">
         <v>761</v>
@@ -10847,8 +11137,9 @@
       <c r="A371" t="s">
         <v>162</v>
       </c>
-      <c r="B371">
+      <c r="B371" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C371" t="s">
         <v>762</v>
@@ -10858,8 +11149,9 @@
       <c r="A372" t="s">
         <v>731</v>
       </c>
-      <c r="B372">
+      <c r="B372" t="str">
         <f t="shared" si="5"/>
+        <v>LOLOL</v>
       </c>
       <c r="C372" t="s">
         <v>763</v>
@@ -10869,8 +11161,9 @@
       <c r="A373" t="s">
         <v>732</v>
       </c>
-      <c r="B373">
+      <c r="B373" t="str">
         <f t="shared" si="5"/>
+        <v>LOMAS DE LO AGUIRRE</v>
       </c>
       <c r="C373" t="s">
         <v>764</v>
@@ -10880,8 +11173,9 @@
       <c r="A374" t="s">
         <v>286</v>
       </c>
-      <c r="B374">
+      <c r="B374" t="str">
         <f t="shared" si="5"/>
+        <v>LONCOCHE</v>
       </c>
       <c r="C374" t="s">
         <v>765</v>
@@ -10891,8 +11185,9 @@
       <c r="A375" t="s">
         <v>733</v>
       </c>
-      <c r="B375">
+      <c r="B375" t="str">
         <f t="shared" si="5"/>
+        <v>LONGAVI</v>
       </c>
       <c r="C375" t="s">
         <v>766</v>
@@ -10902,8 +11197,9 @@
       <c r="A376" t="s">
         <v>735</v>
       </c>
-      <c r="B376">
+      <c r="B376" t="str">
         <f t="shared" si="5"/>
+        <v>LONQUEN</v>
       </c>
       <c r="C376" t="s">
         <v>767</v>
@@ -10913,8 +11209,9 @@
       <c r="A377" t="s">
         <v>164</v>
       </c>
-      <c r="B377">
+      <c r="B377" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C377" t="s">
         <v>302</v>
@@ -10924,8 +11221,9 @@
       <c r="A378" t="s">
         <v>736</v>
       </c>
-      <c r="B378">
+      <c r="B378" t="str">
         <f t="shared" si="5"/>
+        <v>LONTUE</v>
       </c>
       <c r="C378" t="s">
         <v>768</v>
@@ -10935,8 +11233,9 @@
       <c r="A379" t="s">
         <v>288</v>
       </c>
-      <c r="B379">
+      <c r="B379" t="str">
         <f t="shared" si="5"/>
+        <v>LOS ALAMOS</v>
       </c>
       <c r="C379" t="s">
         <v>769</v>
@@ -10946,8 +11245,9 @@
       <c r="A380" t="s">
         <v>289</v>
       </c>
-      <c r="B380">
+      <c r="B380" t="str">
         <f t="shared" si="5"/>
+        <v>LOS ANDES</v>
       </c>
       <c r="C380" t="s">
         <v>770</v>
@@ -10957,8 +11257,9 @@
       <c r="A381" t="s">
         <v>166</v>
       </c>
-      <c r="B381">
+      <c r="B381" t="e">
         <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
       <c r="C381" t="s">
         <v>771</v>
@@ -10968,8 +11269,9 @@
       <c r="A382" t="s">
         <v>737</v>
       </c>
-      <c r="B382">
+      <c r="B382" t="str">
         <f t="shared" si="5"/>
+        <v>LOS BOLDOS</v>
       </c>
       <c r="C382" t="s">
         <v>772</v>
@@ -10979,8 +11281,9 @@
       <c r="A383" t="s">
         <v>741</v>
       </c>
-      <c r="B383">
+      <c r="B383" t="str">
         <f t="shared" si="5"/>
+        <v>LOS HORCONES</v>
       </c>
       <c r="C383" t="s">
         <v>773</v>
@@ -10990,8 +11293,9 @@
       <c r="A384" t="s">
         <v>742</v>
       </c>
-      <c r="B384">
+      <c r="B384" t="str">
         <f t="shared" si="5"/>
+        <v>LOS HORNOS</v>
       </c>
       <c r="C384" t="s">
         <v>774</v>
@@ -11001,8 +11305,9 @@
       <c r="A385" t="s">
         <v>294</v>
       </c>
-      <c r="B385">
+      <c r="B385" t="str">
         <f t="shared" si="5"/>
+        <v>LOS LAGOS</v>
       </c>
       <c r="C385" t="s">
         <v>775</v>
@@ -11012,8 +11317,9 @@
       <c r="A386" t="s">
         <v>743</v>
       </c>
-      <c r="B386">
+      <c r="B386" t="str">
         <f t="shared" si="5"/>
+        <v>LOS LAURELES</v>
       </c>
       <c r="C386" t="s">
         <v>304</v>
@@ -11023,8 +11329,9 @@
       <c r="A387" t="s">
         <v>744</v>
       </c>
-      <c r="B387">
+      <c r="B387" t="str">
         <f t="shared" ref="B387:B450" si="6">VLOOKUP(A387,$C$2:$C$711,1,FALSE)</f>
+        <v>LOS LINGUES</v>
       </c>
       <c r="C387" t="s">
         <v>776</v>
@@ -11034,8 +11341,9 @@
       <c r="A388" t="s">
         <v>745</v>
       </c>
-      <c r="B388">
+      <c r="B388" t="str">
         <f t="shared" si="6"/>
+        <v>LOS MAITENES</v>
       </c>
       <c r="C388" t="s">
         <v>777</v>
@@ -11045,8 +11353,9 @@
       <c r="A389" t="s">
         <v>746</v>
       </c>
-      <c r="B389">
+      <c r="B389" t="str">
         <f t="shared" si="6"/>
+        <v>LOS MOLLES</v>
       </c>
       <c r="C389" t="s">
         <v>778</v>
@@ -11056,8 +11365,9 @@
       <c r="A390" t="s">
         <v>747</v>
       </c>
-      <c r="B390">
+      <c r="B390" t="str">
         <f t="shared" si="6"/>
+        <v>LOS MUERMOS</v>
       </c>
       <c r="C390" t="s">
         <v>779</v>
@@ -11067,8 +11377,9 @@
       <c r="A391" t="s">
         <v>748</v>
       </c>
-      <c r="B391">
+      <c r="B391" t="str">
         <f t="shared" si="6"/>
+        <v>LOS NICHES</v>
       </c>
       <c r="C391" t="s">
         <v>780</v>
@@ -11078,8 +11389,9 @@
       <c r="A392" t="s">
         <v>749</v>
       </c>
-      <c r="B392">
+      <c r="B392" t="str">
         <f t="shared" si="6"/>
+        <v>LOS OLIVOS</v>
       </c>
       <c r="C392" t="s">
         <v>781</v>
@@ -11089,8 +11401,9 @@
       <c r="A393" t="s">
         <v>750</v>
       </c>
-      <c r="B393">
+      <c r="B393" t="str">
         <f t="shared" si="6"/>
+        <v>LOS SAUCES</v>
       </c>
       <c r="C393" t="s">
         <v>782</v>
@@ -11100,8 +11413,9 @@
       <c r="A394" t="s">
         <v>752</v>
       </c>
-      <c r="B394">
+      <c r="B394" t="str">
         <f t="shared" si="6"/>
+        <v>LOS TILOS</v>
       </c>
       <c r="C394" t="s">
         <v>783</v>
@@ -11111,8 +11425,9 @@
       <c r="A395" t="s">
         <v>168</v>
       </c>
-      <c r="B395">
+      <c r="B395" t="e">
         <f t="shared" si="6"/>
+        <v>#N/A</v>
       </c>
       <c r="C395" t="s">
         <v>784</v>
@@ -11122,8 +11437,9 @@
       <c r="A396" t="s">
         <v>296</v>
       </c>
-      <c r="B396">
+      <c r="B396" t="str">
         <f t="shared" si="6"/>
+        <v>LOTA</v>
       </c>
       <c r="C396" t="s">
         <v>308</v>
@@ -11133,8 +11449,9 @@
       <c r="A397" t="s">
         <v>753</v>
       </c>
-      <c r="B397">
+      <c r="B397" t="str">
         <f t="shared" si="6"/>
+        <v>LUMACO</v>
       </c>
       <c r="C397" t="s">
         <v>785</v>
@@ -11144,8 +11461,9 @@
       <c r="A398" t="s">
         <v>297</v>
       </c>
-      <c r="B398">
+      <c r="B398" t="str">
         <f t="shared" si="6"/>
+        <v>MACHALI</v>
       </c>
       <c r="C398" t="s">
         <v>786</v>
@@ -11155,8 +11473,9 @@
       <c r="A399" t="s">
         <v>170</v>
       </c>
-      <c r="B399">
+      <c r="B399" t="e">
         <f t="shared" si="6"/>
+        <v>#N/A</v>
       </c>
       <c r="C399" t="s">
         <v>787</v>
@@ -11166,8 +11485,9 @@
       <c r="A400" t="s">
         <v>754</v>
       </c>
-      <c r="B400">
+      <c r="B400" t="str">
         <f t="shared" si="6"/>
+        <v>MAFIL</v>
       </c>
       <c r="C400" t="s">
         <v>788</v>
@@ -11177,8 +11497,9 @@
       <c r="A401" t="s">
         <v>755</v>
       </c>
-      <c r="B401">
+      <c r="B401" t="str">
         <f t="shared" si="6"/>
+        <v>MAICOLPUE</v>
       </c>
       <c r="C401" t="s">
         <v>789</v>
@@ -11188,8 +11509,9 @@
       <c r="A402" t="s">
         <v>756</v>
       </c>
-      <c r="B402">
+      <c r="B402" t="str">
         <f t="shared" si="6"/>
+        <v>MAIHUE</v>
       </c>
       <c r="C402" t="s">
         <v>790</v>
@@ -11199,8 +11521,9 @@
       <c r="A403" t="s">
         <v>757</v>
       </c>
-      <c r="B403">
+      <c r="B403" t="str">
         <f t="shared" si="6"/>
+        <v>MAIPO</v>
       </c>
       <c r="C403" t="s">
         <v>791</v>
@@ -11210,8 +11533,9 @@
       <c r="A404" t="s">
         <v>172</v>
       </c>
-      <c r="B404">
+      <c r="B404" t="e">
         <f t="shared" si="6"/>
+        <v>#N/A</v>
       </c>
       <c r="C404" t="s">
         <v>311</v>
@@ -11221,8 +11545,9 @@
       <c r="A405" t="s">
         <v>758</v>
       </c>
-      <c r="B405">
+      <c r="B405" t="str">
         <f t="shared" si="6"/>
+        <v>MAITENCILLO</v>
       </c>
       <c r="C405" t="s">
         <v>792</v>
@@ -11232,8 +11557,9 @@
       <c r="A406" t="s">
         <v>759</v>
       </c>
-      <c r="B406">
+      <c r="B406" t="str">
         <f t="shared" si="6"/>
+        <v>MALALCAHUELLO</v>
       </c>
       <c r="C406" t="s">
         <v>793</v>
@@ -11243,8 +11569,9 @@
       <c r="A407" t="s">
         <v>761</v>
       </c>
-      <c r="B407">
+      <c r="B407" t="str">
         <f t="shared" si="6"/>
+        <v>MALLOA</v>
       </c>
       <c r="C407" t="s">
         <v>794</v>
@@ -11254,8 +11581,9 @@
       <c r="A408" t="s">
         <v>762</v>
       </c>
-      <c r="B408">
+      <c r="B408" t="str">
         <f t="shared" si="6"/>
+        <v>MALLOCO</v>
       </c>
       <c r="C408" t="s">
         <v>795</v>
@@ -11265,8 +11593,9 @@
       <c r="A409" t="s">
         <v>763</v>
       </c>
-      <c r="B409">
+      <c r="B409" t="str">
         <f t="shared" si="6"/>
+        <v>MAMINA</v>
       </c>
       <c r="C409" t="s">
         <v>796</v>
@@ -11276,8 +11605,9 @@
       <c r="A410" t="s">
         <v>764</v>
       </c>
-      <c r="B410">
+      <c r="B410" t="str">
         <f t="shared" si="6"/>
+        <v>MANAO</v>
       </c>
       <c r="C410" t="s">
         <v>797</v>
@@ -11287,8 +11617,9 @@
       <c r="A411" t="s">
         <v>765</v>
       </c>
-      <c r="B411">
+      <c r="B411" t="str">
         <f t="shared" si="6"/>
+        <v>MANDINGA</v>
       </c>
       <c r="C411" t="s">
         <v>798</v>
@@ -11298,8 +11629,9 @@
       <c r="A412" t="s">
         <v>766</v>
       </c>
-      <c r="B412">
+      <c r="B412" t="str">
         <f t="shared" si="6"/>
+        <v>MARBELLA</v>
       </c>
       <c r="C412" t="s">
         <v>799</v>
@@ -11309,8 +11641,9 @@
       <c r="A413" t="s">
         <v>767</v>
       </c>
-      <c r="B413">
+      <c r="B413" t="str">
         <f t="shared" si="6"/>
+        <v>MARCHIHUE</v>
       </c>
       <c r="C413" t="s">
         <v>800</v>
@@ -11320,8 +11653,9 @@
       <c r="A414" t="s">
         <v>302</v>
       </c>
-      <c r="B414">
+      <c r="B414" t="str">
         <f t="shared" si="6"/>
+        <v>MARIA ELENA</v>
       </c>
       <c r="C414" t="s">
         <v>801</v>
@@ -11331,8 +11665,9 @@
       <c r="A415" t="s">
         <v>768</v>
       </c>
-      <c r="B415">
+      <c r="B415" t="str">
         <f t="shared" si="6"/>
+        <v>MARIA PINTO</v>
       </c>
       <c r="C415" t="s">
         <v>802</v>
@@ -11342,8 +11677,9 @@
       <c r="A416" t="s">
         <v>769</v>
       </c>
-      <c r="B416">
+      <c r="B416" t="str">
         <f t="shared" si="6"/>
+        <v>MATANZAS</v>
       </c>
       <c r="C416" t="s">
         <v>803</v>
@@ -11353,8 +11689,9 @@
       <c r="A417" t="s">
         <v>770</v>
       </c>
-      <c r="B417">
+      <c r="B417" t="str">
         <f t="shared" si="6"/>
+        <v>MAULE</v>
       </c>
       <c r="C417" t="s">
         <v>804</v>
@@ -11364,8 +11701,9 @@
       <c r="A418" t="s">
         <v>771</v>
       </c>
-      <c r="B418">
+      <c r="B418" t="str">
         <f t="shared" si="6"/>
+        <v>MAULLIN</v>
       </c>
       <c r="C418" t="s">
         <v>805</v>
@@ -11375,8 +11713,9 @@
       <c r="A419" t="s">
         <v>772</v>
       </c>
-      <c r="B419">
+      <c r="B419" t="str">
         <f t="shared" si="6"/>
+        <v>MECHAICO</v>
       </c>
       <c r="C419" t="s">
         <v>806</v>
@@ -11386,8 +11725,9 @@
       <c r="A420" t="s">
         <v>773</v>
       </c>
-      <c r="B420">
+      <c r="B420" t="str">
         <f t="shared" si="6"/>
+        <v>MECHUQUE</v>
       </c>
       <c r="C420" t="s">
         <v>807</v>
@@ -11397,8 +11737,9 @@
       <c r="A421" t="s">
         <v>774</v>
       </c>
-      <c r="B421">
+      <c r="B421" t="str">
         <f t="shared" si="6"/>
+        <v>MEHUIN</v>
       </c>
       <c r="C421" t="s">
         <v>808</v>
@@ -11408,8 +11749,9 @@
       <c r="A422" t="s">
         <v>775</v>
       </c>
-      <c r="B422">
+      <c r="B422" t="str">
         <f t="shared" si="6"/>
+        <v>MEIPO</v>
       </c>
       <c r="C422" t="s">
         <v>809</v>
@@ -11419,8 +11761,9 @@
       <c r="A423" t="s">
         <v>304</v>
       </c>
-      <c r="B423">
+      <c r="B423" t="str">
         <f t="shared" si="6"/>
+        <v>MEJILLONES</v>
       </c>
       <c r="C423" t="s">
         <v>810</v>
@@ -11430,8 +11773,9 @@
       <c r="A424" t="s">
         <v>777</v>
       </c>
-      <c r="B424">
+      <c r="B424" t="str">
         <f t="shared" si="6"/>
+        <v>MELINKA</v>
       </c>
       <c r="C424" t="s">
         <v>811</v>
@@ -11441,8 +11785,9 @@
       <c r="A425" t="s">
         <v>778</v>
       </c>
-      <c r="B425">
+      <c r="B425" t="str">
         <f t="shared" si="6"/>
+        <v>MELIPEUCO</v>
       </c>
       <c r="C425" t="s">
         <v>812</v>
@@ -11452,8 +11797,9 @@
       <c r="A426" t="s">
         <v>779</v>
       </c>
-      <c r="B426">
+      <c r="B426" t="str">
         <f t="shared" si="6"/>
+        <v>MELIPILLA</v>
       </c>
       <c r="C426" t="s">
         <v>813</v>
@@ -11463,8 +11809,9 @@
       <c r="A427" t="s">
         <v>780</v>
       </c>
-      <c r="B427">
+      <c r="B427" t="str">
         <f t="shared" si="6"/>
+        <v>METRI</v>
       </c>
       <c r="C427" t="s">
         <v>320</v>
@@ -11474,8 +11821,9 @@
       <c r="A428" t="s">
         <v>781</v>
       </c>
-      <c r="B428">
+      <c r="B428" t="str">
         <f t="shared" si="6"/>
+        <v>MINAS DEL PRADO</v>
       </c>
       <c r="C428" t="s">
         <v>321</v>
@@ -11485,8 +11833,9 @@
       <c r="A429" t="s">
         <v>782</v>
       </c>
-      <c r="B429">
+      <c r="B429" t="str">
         <f t="shared" si="6"/>
+        <v>MINCHA</v>
       </c>
       <c r="C429" t="s">
         <v>814</v>
@@ -11496,8 +11845,9 @@
       <c r="A430" t="s">
         <v>783</v>
       </c>
-      <c r="B430">
+      <c r="B430" t="str">
         <f t="shared" si="6"/>
+        <v>MININCO</v>
       </c>
       <c r="C430" t="s">
         <v>322</v>
@@ -11507,8 +11857,9 @@
       <c r="A431" t="s">
         <v>784</v>
       </c>
-      <c r="B431">
+      <c r="B431" t="str">
         <f t="shared" si="6"/>
+        <v>MOCHA</v>
       </c>
       <c r="C431" t="s">
         <v>815</v>
@@ -11518,8 +11869,9 @@
       <c r="A432" t="s">
         <v>308</v>
       </c>
-      <c r="B432">
+      <c r="B432" t="str">
         <f t="shared" si="6"/>
+        <v>MOLINA</v>
       </c>
       <c r="C432" t="s">
         <v>816</v>
@@ -11529,8 +11881,9 @@
       <c r="A433" t="s">
         <v>785</v>
       </c>
-      <c r="B433">
+      <c r="B433" t="str">
         <f t="shared" si="6"/>
+        <v>MOLINOS</v>
       </c>
       <c r="C433" t="s">
         <v>817</v>
@@ -11540,8 +11893,9 @@
       <c r="A434" t="s">
         <v>786</v>
       </c>
-      <c r="B434">
+      <c r="B434" t="str">
         <f t="shared" si="6"/>
+        <v>MONTE AGUILA</v>
       </c>
       <c r="C434" t="s">
         <v>818</v>
@@ -11551,8 +11905,9 @@
       <c r="A435" t="s">
         <v>787</v>
       </c>
-      <c r="B435">
+      <c r="B435" t="str">
         <f t="shared" si="6"/>
+        <v>MONTE AYMOND</v>
       </c>
       <c r="C435" t="s">
         <v>819</v>
@@ -11562,8 +11917,9 @@
       <c r="A436" t="s">
         <v>788</v>
       </c>
-      <c r="B436">
+      <c r="B436" t="str">
         <f t="shared" si="6"/>
+        <v>MONTE GRANDE</v>
       </c>
       <c r="C436" t="s">
         <v>820</v>
@@ -11573,8 +11929,9 @@
       <c r="A437" t="s">
         <v>789</v>
       </c>
-      <c r="B437">
+      <c r="B437" t="str">
         <f t="shared" si="6"/>
+        <v>MONTE PATRIA</v>
       </c>
       <c r="C437" t="s">
         <v>821</v>
@@ -11584,8 +11941,9 @@
       <c r="A438" t="s">
         <v>790</v>
       </c>
-      <c r="B438">
+      <c r="B438" t="str">
         <f t="shared" si="6"/>
+        <v>MONTENEGRO</v>
       </c>
       <c r="C438" t="s">
         <v>822</v>
@@ -11595,8 +11953,9 @@
       <c r="A439" t="s">
         <v>791</v>
       </c>
-      <c r="B439">
+      <c r="B439" t="str">
         <f t="shared" si="6"/>
+        <v>MORRILLOS</v>
       </c>
       <c r="C439" t="s">
         <v>823</v>
@@ -11606,8 +11965,9 @@
       <c r="A440" t="s">
         <v>311</v>
       </c>
-      <c r="B440">
+      <c r="B440" t="str">
         <f t="shared" si="6"/>
+        <v>MULCHEN</v>
       </c>
       <c r="C440" t="s">
         <v>324</v>
@@ -11617,8 +11977,9 @@
       <c r="A441" t="s">
         <v>792</v>
       </c>
-      <c r="B441">
+      <c r="B441" t="str">
         <f t="shared" si="6"/>
+        <v>NACIMIENTO</v>
       </c>
       <c r="C441" t="s">
         <v>824</v>
@@ -11628,8 +11989,9 @@
       <c r="A442" t="s">
         <v>793</v>
       </c>
-      <c r="B442">
+      <c r="B442" t="str">
         <f t="shared" si="6"/>
+        <v>NAHUELTORO</v>
       </c>
       <c r="C442" t="s">
         <v>825</v>
@@ -11639,8 +12001,9 @@
       <c r="A443" t="s">
         <v>794</v>
       </c>
-      <c r="B443">
+      <c r="B443" t="str">
         <f t="shared" si="6"/>
+        <v>NAL</v>
       </c>
       <c r="C443" t="s">
         <v>826</v>
@@ -11650,8 +12013,9 @@
       <c r="A444" t="s">
         <v>795</v>
       </c>
-      <c r="B444">
+      <c r="B444" t="str">
         <f t="shared" si="6"/>
+        <v>NANCAGUA</v>
       </c>
       <c r="C444" t="s">
         <v>325</v>
@@ -11661,8 +12025,9 @@
       <c r="A445" t="s">
         <v>796</v>
       </c>
-      <c r="B445">
+      <c r="B445" t="str">
         <f t="shared" si="6"/>
+        <v>NAVIDAD</v>
       </c>
       <c r="C445" t="s">
         <v>827</v>
@@ -11672,8 +12037,9 @@
       <c r="A446" t="s">
         <v>797</v>
       </c>
-      <c r="B446">
+      <c r="B446" t="str">
         <f t="shared" si="6"/>
+        <v>NEGRETE</v>
       </c>
       <c r="C446" t="s">
         <v>828</v>
@@ -11683,8 +12049,9 @@
       <c r="A447" t="s">
         <v>798</v>
       </c>
-      <c r="B447">
+      <c r="B447" t="str">
         <f t="shared" si="6"/>
+        <v>NELTUME</v>
       </c>
       <c r="C447" t="s">
         <v>829</v>
@@ -11694,8 +12061,9 @@
       <c r="A448" t="s">
         <v>799</v>
       </c>
-      <c r="B448">
+      <c r="B448" t="str">
         <f t="shared" si="6"/>
+        <v>NIEBLA</v>
       </c>
       <c r="C448" t="s">
         <v>830</v>
@@ -11705,8 +12073,9 @@
       <c r="A449" t="s">
         <v>800</v>
       </c>
-      <c r="B449">
+      <c r="B449" t="str">
         <f t="shared" si="6"/>
+        <v>NINHUE</v>
       </c>
       <c r="C449" t="s">
         <v>831</v>
@@ -11716,8 +12085,9 @@
       <c r="A450" t="s">
         <v>801</v>
       </c>
-      <c r="B450">
+      <c r="B450" t="str">
         <f t="shared" si="6"/>
+        <v>NIPAS</v>
       </c>
       <c r="C450" t="s">
         <v>832</v>
@@ -11727,8 +12097,9 @@
       <c r="A451" t="s">
         <v>802</v>
       </c>
-      <c r="B451">
+      <c r="B451" t="str">
         <f t="shared" ref="B451:B514" si="7">VLOOKUP(A451,$C$2:$C$711,1,FALSE)</f>
+        <v>NIQUEN</v>
       </c>
       <c r="C451" t="s">
         <v>833</v>
@@ -11738,8 +12109,9 @@
       <c r="A452" t="s">
         <v>803</v>
       </c>
-      <c r="B452">
+      <c r="B452" t="str">
         <f t="shared" si="7"/>
+        <v>NIREHUAO</v>
       </c>
       <c r="C452" t="s">
         <v>834</v>
@@ -11749,8 +12121,9 @@
       <c r="A453" t="s">
         <v>804</v>
       </c>
-      <c r="B453">
+      <c r="B453" t="str">
         <f t="shared" si="7"/>
+        <v>NIRIVILO</v>
       </c>
       <c r="C453" t="s">
         <v>835</v>
@@ -11760,8 +12133,9 @@
       <c r="A454" t="s">
         <v>805</v>
       </c>
-      <c r="B454">
+      <c r="B454" t="str">
         <f t="shared" si="7"/>
+        <v>NOGALES</v>
       </c>
       <c r="C454" t="s">
         <v>836</v>
@@ -11771,8 +12145,9 @@
       <c r="A455" t="s">
         <v>806</v>
       </c>
-      <c r="B455">
+      <c r="B455" t="str">
         <f t="shared" si="7"/>
+        <v>NOS</v>
       </c>
       <c r="C455" t="s">
         <v>837</v>
@@ -11782,8 +12157,9 @@
       <c r="A456" t="s">
         <v>807</v>
       </c>
-      <c r="B456">
+      <c r="B456" t="str">
         <f t="shared" si="7"/>
+        <v>NOVICIADO</v>
       </c>
       <c r="C456" t="s">
         <v>838</v>
@@ -11793,8 +12169,9 @@
       <c r="A457" t="s">
         <v>808</v>
       </c>
-      <c r="B457">
+      <c r="B457" t="str">
         <f t="shared" si="7"/>
+        <v>NUEVA BRAUNAU</v>
       </c>
       <c r="C457" t="s">
         <v>839</v>
@@ -11804,8 +12181,9 @@
       <c r="A458" t="s">
         <v>173</v>
       </c>
-      <c r="B458">
+      <c r="B458" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C458" t="s">
         <v>331</v>
@@ -11815,8 +12193,9 @@
       <c r="A459" t="s">
         <v>175</v>
       </c>
-      <c r="B459">
+      <c r="B459" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C459" t="s">
         <v>840</v>
@@ -11826,8 +12205,9 @@
       <c r="A460" t="s">
         <v>809</v>
       </c>
-      <c r="B460">
+      <c r="B460" t="str">
         <f t="shared" si="7"/>
+        <v>OCOA</v>
       </c>
       <c r="C460" t="s">
         <v>841</v>
@@ -11837,8 +12217,9 @@
       <c r="A461" t="s">
         <v>810</v>
       </c>
-      <c r="B461">
+      <c r="B461" t="str">
         <f t="shared" si="7"/>
+        <v>OLIVAR ALTO</v>
       </c>
       <c r="C461" t="s">
         <v>842</v>
@@ -11848,8 +12229,9 @@
       <c r="A462" t="s">
         <v>811</v>
       </c>
-      <c r="B462">
+      <c r="B462" t="str">
         <f t="shared" si="7"/>
+        <v>OLIVAR BAJO</v>
       </c>
       <c r="C462" t="s">
         <v>334</v>
@@ -11859,8 +12241,9 @@
       <c r="A463" t="s">
         <v>812</v>
       </c>
-      <c r="B463">
+      <c r="B463" t="str">
         <f t="shared" si="7"/>
+        <v>OLMUE</v>
       </c>
       <c r="C463" t="s">
         <v>843</v>
@@ -11870,8 +12253,9 @@
       <c r="A464" t="s">
         <v>177</v>
       </c>
-      <c r="B464">
+      <c r="B464" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C464" t="s">
         <v>844</v>
@@ -11881,8 +12265,9 @@
       <c r="A465" t="s">
         <v>179</v>
       </c>
-      <c r="B465">
+      <c r="B465" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C465" t="s">
         <v>845</v>
@@ -11892,8 +12277,9 @@
       <c r="A466" t="s">
         <v>813</v>
       </c>
-      <c r="B466">
+      <c r="B466" t="str">
         <f t="shared" si="7"/>
+        <v>PACHAMA</v>
       </c>
       <c r="C466" t="s">
         <v>846</v>
@@ -11903,8 +12289,9 @@
       <c r="A467" t="s">
         <v>320</v>
       </c>
-      <c r="B467">
+      <c r="B467" t="str">
         <f t="shared" si="7"/>
+        <v>PADRE HURTADO</v>
       </c>
       <c r="C467" t="s">
         <v>847</v>
@@ -11914,8 +12301,9 @@
       <c r="A468" t="s">
         <v>321</v>
       </c>
-      <c r="B468">
+      <c r="B468" t="str">
         <f t="shared" si="7"/>
+        <v>PADRE LAS CASAS</v>
       </c>
       <c r="C468" t="s">
         <v>848</v>
@@ -11925,8 +12313,9 @@
       <c r="A469" t="s">
         <v>814</v>
       </c>
-      <c r="B469">
+      <c r="B469" t="str">
         <f t="shared" si="7"/>
+        <v>PAIHUANO</v>
       </c>
       <c r="C469" t="s">
         <v>849</v>
@@ -11936,8 +12325,9 @@
       <c r="A470" t="s">
         <v>322</v>
       </c>
-      <c r="B470">
+      <c r="B470" t="str">
         <f t="shared" si="7"/>
+        <v>PAILLACO</v>
       </c>
       <c r="C470" t="s">
         <v>850</v>
@@ -11947,8 +12337,9 @@
       <c r="A471" t="s">
         <v>815</v>
       </c>
-      <c r="B471">
+      <c r="B471" t="str">
         <f t="shared" si="7"/>
+        <v>PAINE</v>
       </c>
       <c r="C471" t="s">
         <v>851</v>
@@ -11958,8 +12349,9 @@
       <c r="A472" t="s">
         <v>816</v>
       </c>
-      <c r="B472">
+      <c r="B472" t="str">
         <f t="shared" si="7"/>
+        <v>PAIPOTE</v>
       </c>
       <c r="C472" t="s">
         <v>852</v>
@@ -11969,8 +12361,9 @@
       <c r="A473" t="s">
         <v>817</v>
       </c>
-      <c r="B473">
+      <c r="B473" t="str">
         <f t="shared" si="7"/>
+        <v>PALENA</v>
       </c>
       <c r="C473" t="s">
         <v>853</v>
@@ -11980,8 +12373,9 @@
       <c r="A474" t="s">
         <v>818</v>
       </c>
-      <c r="B474">
+      <c r="B474" t="str">
         <f t="shared" si="7"/>
+        <v>PALMILLA SAN FERNANDO</v>
       </c>
       <c r="C474" t="s">
         <v>854</v>
@@ -11991,8 +12385,9 @@
       <c r="A475" t="s">
         <v>819</v>
       </c>
-      <c r="B475">
+      <c r="B475" t="str">
         <f t="shared" si="7"/>
+        <v>PALOMAR</v>
       </c>
       <c r="C475" t="s">
         <v>855</v>
@@ -12002,8 +12397,9 @@
       <c r="A476" t="s">
         <v>820</v>
       </c>
-      <c r="B476">
+      <c r="B476" t="str">
         <f t="shared" si="7"/>
+        <v>PALQUIAL</v>
       </c>
       <c r="C476" t="s">
         <v>856</v>
@@ -12013,8 +12409,9 @@
       <c r="A477" t="s">
         <v>821</v>
       </c>
-      <c r="B477">
+      <c r="B477" t="str">
         <f t="shared" si="7"/>
+        <v>PAN DE AZUCAR</v>
       </c>
       <c r="C477" t="s">
         <v>857</v>
@@ -12024,8 +12421,9 @@
       <c r="A478" t="s">
         <v>822</v>
       </c>
-      <c r="B478">
+      <c r="B478" t="str">
         <f t="shared" si="7"/>
+        <v>PANGAL</v>
       </c>
       <c r="C478" t="s">
         <v>858</v>
@@ -12035,8 +12433,9 @@
       <c r="A479" t="s">
         <v>324</v>
       </c>
-      <c r="B479">
+      <c r="B479" t="str">
         <f t="shared" si="7"/>
+        <v>PANGUIPULLI</v>
       </c>
       <c r="C479" t="s">
         <v>859</v>
@@ -12046,8 +12445,9 @@
       <c r="A480" t="s">
         <v>824</v>
       </c>
-      <c r="B480">
+      <c r="B480" t="str">
         <f t="shared" si="7"/>
+        <v>PANIMAVIDA</v>
       </c>
       <c r="C480" t="s">
         <v>336</v>
@@ -12057,8 +12457,9 @@
       <c r="A481" t="s">
         <v>825</v>
       </c>
-      <c r="B481">
+      <c r="B481" t="str">
         <f t="shared" si="7"/>
+        <v>PANQUEHUE</v>
       </c>
       <c r="C481" t="s">
         <v>860</v>
@@ -12068,8 +12469,9 @@
       <c r="A482" t="s">
         <v>826</v>
       </c>
-      <c r="B482">
+      <c r="B482" t="str">
         <f t="shared" si="7"/>
+        <v>PAPOSO</v>
       </c>
       <c r="C482" t="s">
         <v>861</v>
@@ -12079,8 +12481,9 @@
       <c r="A483" t="s">
         <v>325</v>
       </c>
-      <c r="B483">
+      <c r="B483" t="str">
         <f t="shared" si="7"/>
+        <v>PAPUDO</v>
       </c>
       <c r="C483" t="s">
         <v>862</v>
@@ -12090,8 +12493,9 @@
       <c r="A484" t="s">
         <v>827</v>
       </c>
-      <c r="B484">
+      <c r="B484" t="str">
         <f t="shared" si="7"/>
+        <v>PARCELA EL CARMEN</v>
       </c>
       <c r="C484" t="s">
         <v>863</v>
@@ -12101,8 +12505,9 @@
       <c r="A485" t="s">
         <v>828</v>
       </c>
-      <c r="B485">
+      <c r="B485" t="str">
         <f t="shared" si="7"/>
+        <v>PAREDONES</v>
       </c>
       <c r="C485" t="s">
         <v>864</v>
@@ -12112,8 +12517,9 @@
       <c r="A486" t="s">
         <v>829</v>
       </c>
-      <c r="B486">
+      <c r="B486" t="str">
         <f t="shared" si="7"/>
+        <v>PARGUA</v>
       </c>
       <c r="C486" t="s">
         <v>865</v>
@@ -12123,8 +12529,9 @@
       <c r="A487" t="s">
         <v>830</v>
       </c>
-      <c r="B487">
+      <c r="B487" t="str">
         <f t="shared" si="7"/>
+        <v>PARRAL</v>
       </c>
       <c r="C487" t="s">
         <v>866</v>
@@ -12134,8 +12541,9 @@
       <c r="A488" t="s">
         <v>831</v>
       </c>
-      <c r="B488">
+      <c r="B488" t="str">
         <f t="shared" si="7"/>
+        <v>PAULDEO</v>
       </c>
       <c r="C488" t="s">
         <v>867</v>
@@ -12145,8 +12553,9 @@
       <c r="A489" t="s">
         <v>832</v>
       </c>
-      <c r="B489">
+      <c r="B489" t="str">
         <f t="shared" si="7"/>
+        <v>PEDREGAL</v>
       </c>
       <c r="C489" t="s">
         <v>868</v>
@@ -12156,8 +12565,9 @@
       <c r="A490" t="s">
         <v>181</v>
       </c>
-      <c r="B490">
+      <c r="B490" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C490" t="s">
         <v>869</v>
@@ -12167,8 +12577,9 @@
       <c r="A491" t="s">
         <v>833</v>
       </c>
-      <c r="B491">
+      <c r="B491" t="str">
         <f t="shared" si="7"/>
+        <v>PELARCO</v>
       </c>
       <c r="C491" t="s">
         <v>870</v>
@@ -12178,8 +12589,9 @@
       <c r="A492" t="s">
         <v>834</v>
       </c>
-      <c r="B492">
+      <c r="B492" t="str">
         <f t="shared" si="7"/>
+        <v>PELEQUEN</v>
       </c>
       <c r="C492" t="s">
         <v>871</v>
@@ -12189,8 +12601,9 @@
       <c r="A493" t="s">
         <v>835</v>
       </c>
-      <c r="B493">
+      <c r="B493" t="str">
         <f t="shared" si="7"/>
+        <v>PELLUHUE</v>
       </c>
       <c r="C493" t="s">
         <v>339</v>
@@ -12200,8 +12613,9 @@
       <c r="A494" t="s">
         <v>836</v>
       </c>
-      <c r="B494">
+      <c r="B494" t="str">
         <f t="shared" si="7"/>
+        <v>PEMUCO</v>
       </c>
       <c r="C494" t="s">
         <v>872</v>
@@ -12211,8 +12625,9 @@
       <c r="A495" t="s">
         <v>837</v>
       </c>
-      <c r="B495">
+      <c r="B495" t="str">
         <f t="shared" si="7"/>
+        <v>PENABLANCA</v>
       </c>
       <c r="C495" t="s">
         <v>873</v>
@@ -12222,8 +12637,9 @@
       <c r="A496" t="s">
         <v>838</v>
       </c>
-      <c r="B496">
+      <c r="B496" t="str">
         <f t="shared" si="7"/>
+        <v>PENAFLOR</v>
       </c>
       <c r="C496" t="s">
         <v>874</v>
@@ -12233,8 +12649,9 @@
       <c r="A497" t="s">
         <v>183</v>
       </c>
-      <c r="B497">
+      <c r="B497" t="e">
         <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="C497" t="s">
         <v>875</v>
@@ -12244,8 +12661,9 @@
       <c r="A498" t="s">
         <v>839</v>
       </c>
-      <c r="B498">
+      <c r="B498" t="str">
         <f t="shared" si="7"/>
+        <v>PENCAHUE</v>
       </c>
       <c r="C498" t="s">
         <v>876</v>
@@ -12255,8 +12673,9 @@
       <c r="A499" t="s">
         <v>331</v>
       </c>
-      <c r="B499">
+      <c r="B499" t="str">
         <f t="shared" si="7"/>
+        <v>PENCO</v>
       </c>
       <c r="C499" t="s">
         <v>877</v>
@@ -12266,8 +12685,9 @@
       <c r="A500" t="s">
         <v>840</v>
       </c>
-      <c r="B500">
+      <c r="B500" t="str">
         <f t="shared" si="7"/>
+        <v>PERALES</v>
       </c>
       <c r="C500" t="s">
         <v>878</v>
@@ -12277,8 +12697,9 @@
       <c r="A501" t="s">
         <v>841</v>
       </c>
-      <c r="B501">
+      <c r="B501" t="str">
         <f t="shared" si="7"/>
+        <v>PERALILLO</v>
       </c>
       <c r="C501" t="s">
         <v>879</v>
@@ -12288,8 +12709,9 @@
       <c r="A502" t="s">
         <v>842</v>
       </c>
-      <c r="B502">
+      <c r="B502" t="str">
         <f t="shared" si="7"/>
+        <v>PERQUENCO</v>
       </c>
       <c r="C502" t="s">
         <v>880</v>
@@ -12299,8 +12721,9 @@
       <c r="A503" t="s">
         <v>334</v>
       </c>
-      <c r="B503">
+      <c r="B503" t="str">
         <f t="shared" si="7"/>
+        <v>PETORCA</v>
       </c>
       <c r="C503" t="s">
         <v>881</v>
@@ -12310,8 +12733,9 @@
       <c r="A504" t="s">
         <v>843</v>
       </c>
-      <c r="B504">
+      <c r="B504" t="str">
         <f t="shared" si="7"/>
+        <v>PETROHUE</v>
       </c>
       <c r="C504" t="s">
         <v>882</v>
@@ -12321,8 +12745,9 @@
       <c r="A505" t="s">
         <v>844</v>
       </c>
-      <c r="B505">
+      <c r="B505" t="str">
         <f t="shared" si="7"/>
+        <v>PEULLA</v>
       </c>
       <c r="C505" t="s">
         <v>883</v>
@@ -12332,8 +12757,9 @@
       <c r="A506" t="s">
         <v>845</v>
       </c>
-      <c r="B506">
+      <c r="B506" t="str">
         <f t="shared" si="7"/>
+        <v>PEUMO</v>
       </c>
       <c r="C506" t="s">
         <v>344</v>
@@ -12343,8 +12769,9 @@
       <c r="A507" t="s">
         <v>846</v>
       </c>
-      <c r="B507">
+      <c r="B507" t="str">
         <f t="shared" si="7"/>
+        <v>PICA</v>
       </c>
       <c r="C507" t="s">
         <v>884</v>
@@ -12354,8 +12781,9 @@
       <c r="A508" t="s">
         <v>847</v>
       </c>
-      <c r="B508">
+      <c r="B508" t="str">
         <f t="shared" si="7"/>
+        <v>PICHASCA</v>
       </c>
       <c r="C508" t="s">
         <v>885</v>
@@ -12365,8 +12793,9 @@
       <c r="A509" t="s">
         <v>848</v>
       </c>
-      <c r="B509">
+      <c r="B509" t="str">
         <f t="shared" si="7"/>
+        <v>PICHI PELLUCO</v>
       </c>
       <c r="C509" t="s">
         <v>886</v>
@@ -12376,8 +12805,9 @@
       <c r="A510" t="s">
         <v>849</v>
       </c>
-      <c r="B510">
+      <c r="B510" t="str">
         <f t="shared" si="7"/>
+        <v>PICHICUY</v>
       </c>
       <c r="C510" t="s">
         <v>887</v>
@@ -12387,8 +12817,9 @@
       <c r="A511" t="s">
         <v>850</v>
       </c>
-      <c r="B511">
+      <c r="B511" t="str">
         <f t="shared" si="7"/>
+        <v>PICHIDANGUI</v>
       </c>
       <c r="C511" t="s">
         <v>888</v>
@@ -12398,8 +12829,9 @@
       <c r="A512" t="s">
         <v>851</v>
       </c>
-      <c r="B512">
+      <c r="B512" t="str">
         <f t="shared" si="7"/>
+        <v>PICHIDEGUA</v>
       </c>
       <c r="C512" t="s">
         <v>889</v>
@@ -12409,8 +12841,9 @@
       <c r="A513" t="s">
         <v>852</v>
       </c>
-      <c r="B513">
+      <c r="B513" t="str">
         <f t="shared" si="7"/>
+        <v>PICHILEMU</v>
       </c>
       <c r="C513" t="s">
         <v>890</v>
@@ -12420,8 +12853,9 @@
       <c r="A514" t="s">
         <v>853</v>
       </c>
-      <c r="B514">
+      <c r="B514" t="str">
         <f t="shared" si="7"/>
+        <v>PIEDRA AZUL</v>
       </c>
       <c r="C514" t="s">
         <v>890</v>
@@ -12431,8 +12865,9 @@
       <c r="A515" t="s">
         <v>854</v>
       </c>
-      <c r="B515">
+      <c r="B515" t="str">
         <f t="shared" ref="B515:B578" si="8">VLOOKUP(A515,$C$2:$C$711,1,FALSE)</f>
+        <v>PILLANLELBUN</v>
       </c>
       <c r="C515" t="s">
         <v>891</v>
@@ -12442,8 +12877,9 @@
       <c r="A516" t="s">
         <v>855</v>
       </c>
-      <c r="B516">
+      <c r="B516" t="str">
         <f t="shared" si="8"/>
+        <v>PINGUERAL</v>
       </c>
       <c r="C516" t="s">
         <v>349</v>
@@ -12453,8 +12889,9 @@
       <c r="A517" t="s">
         <v>856</v>
       </c>
-      <c r="B517">
+      <c r="B517" t="str">
         <f t="shared" si="8"/>
+        <v>PINTO</v>
       </c>
       <c r="C517" t="s">
         <v>892</v>
@@ -12464,8 +12901,9 @@
       <c r="A518" t="s">
         <v>857</v>
       </c>
-      <c r="B518">
+      <c r="B518" t="str">
         <f t="shared" si="8"/>
+        <v>PIRQUE</v>
       </c>
       <c r="C518" t="s">
         <v>893</v>
@@ -12475,8 +12913,9 @@
       <c r="A519" t="s">
         <v>858</v>
       </c>
-      <c r="B519">
+      <c r="B519" t="str">
         <f t="shared" si="8"/>
+        <v>PISAGUA</v>
       </c>
       <c r="C519" t="s">
         <v>894</v>
@@ -12486,8 +12925,9 @@
       <c r="A520" t="s">
         <v>859</v>
       </c>
-      <c r="B520">
+      <c r="B520" t="str">
         <f t="shared" si="8"/>
+        <v>PISCO ELQUI</v>
       </c>
       <c r="C520" t="s">
         <v>895</v>
@@ -12497,8 +12937,9 @@
       <c r="A521" t="s">
         <v>336</v>
       </c>
-      <c r="B521">
+      <c r="B521" t="str">
         <f t="shared" si="8"/>
+        <v>PITRUFQUEN</v>
       </c>
       <c r="C521" t="s">
         <v>896</v>
@@ -12508,8 +12949,9 @@
       <c r="A522" t="s">
         <v>860</v>
       </c>
-      <c r="B522">
+      <c r="B522" t="str">
         <f t="shared" si="8"/>
+        <v>PLACILLA (SAN FERNANDO)</v>
       </c>
       <c r="C522" t="s">
         <v>897</v>
@@ -12519,8 +12961,9 @@
       <c r="A523" t="s">
         <v>861</v>
       </c>
-      <c r="B523">
+      <c r="B523" t="str">
         <f t="shared" si="8"/>
+        <v>PLACILLA (VINA DEL MAR)</v>
       </c>
       <c r="C523" t="s">
         <v>898</v>
@@ -12530,8 +12973,9 @@
       <c r="A524" t="s">
         <v>862</v>
       </c>
-      <c r="B524">
+      <c r="B524" t="str">
         <f t="shared" si="8"/>
+        <v>PLAYA ANCHA</v>
       </c>
       <c r="C524" t="s">
         <v>899</v>
@@ -12541,8 +12985,9 @@
       <c r="A525" t="s">
         <v>864</v>
       </c>
-      <c r="B525">
+      <c r="B525" t="str">
         <f t="shared" si="8"/>
+        <v>POCONCHILE</v>
       </c>
       <c r="C525" t="s">
         <v>900</v>
@@ -12552,8 +12997,9 @@
       <c r="A526" t="s">
         <v>865</v>
       </c>
-      <c r="B526">
+      <c r="B526" t="str">
         <f t="shared" si="8"/>
+        <v>POLCURA</v>
       </c>
       <c r="C526" t="s">
         <v>901</v>
@@ -12563,8 +13009,9 @@
       <c r="A527" t="s">
         <v>866</v>
       </c>
-      <c r="B527">
+      <c r="B527" t="str">
         <f t="shared" si="8"/>
+        <v>POLPAICO</v>
       </c>
       <c r="C527" t="s">
         <v>902</v>
@@ -12574,8 +13021,9 @@
       <c r="A528" t="s">
         <v>867</v>
       </c>
-      <c r="B528">
+      <c r="B528" t="str">
         <f t="shared" si="8"/>
+        <v>POMAIRE</v>
       </c>
       <c r="C528" t="s">
         <v>903</v>
@@ -12585,8 +13033,9 @@
       <c r="A529" t="s">
         <v>868</v>
       </c>
-      <c r="B529">
+      <c r="B529" t="str">
         <f t="shared" si="8"/>
+        <v>POPETA</v>
       </c>
       <c r="C529" t="s">
         <v>904</v>
@@ -12596,8 +13045,9 @@
       <c r="A530" t="s">
         <v>869</v>
       </c>
-      <c r="B530">
+      <c r="B530" t="str">
         <f t="shared" si="8"/>
+        <v>PORMA</v>
       </c>
       <c r="C530" t="s">
         <v>905</v>
@@ -12607,8 +13057,9 @@
       <c r="A531" t="s">
         <v>870</v>
       </c>
-      <c r="B531">
+      <c r="B531" t="str">
         <f t="shared" si="8"/>
+        <v>PORTEZUELO</v>
       </c>
       <c r="C531" t="s">
         <v>906</v>
@@ -12618,8 +13069,9 @@
       <c r="A532" t="s">
         <v>871</v>
       </c>
-      <c r="B532">
+      <c r="B532" t="str">
         <f t="shared" si="8"/>
+        <v>PORTILLO</v>
       </c>
       <c r="C532" t="s">
         <v>907</v>
@@ -12629,8 +13081,9 @@
       <c r="A533" t="s">
         <v>339</v>
       </c>
-      <c r="B533">
+      <c r="B533" t="str">
         <f t="shared" si="8"/>
+        <v>PORVENIR</v>
       </c>
       <c r="C533" t="s">
         <v>352</v>
@@ -12640,8 +13093,9 @@
       <c r="A534" t="s">
         <v>872</v>
       </c>
-      <c r="B534">
+      <c r="B534" t="str">
         <f t="shared" si="8"/>
+        <v>POZO ALMONTE</v>
       </c>
       <c r="C534" t="s">
         <v>353</v>
@@ -12651,8 +13105,9 @@
       <c r="A535" t="s">
         <v>873</v>
       </c>
-      <c r="B535">
+      <c r="B535" t="str">
         <f t="shared" si="8"/>
+        <v>PRIMAVERA</v>
       </c>
       <c r="C535" t="s">
         <v>908</v>
@@ -12662,8 +13117,9 @@
       <c r="A536" t="s">
         <v>185</v>
       </c>
-      <c r="B536">
+      <c r="B536" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C536" t="s">
         <v>909</v>
@@ -12673,8 +13129,9 @@
       <c r="A537" t="s">
         <v>874</v>
       </c>
-      <c r="B537">
+      <c r="B537" t="str">
         <f t="shared" si="8"/>
+        <v>PUAUCHO</v>
       </c>
       <c r="C537" t="s">
         <v>910</v>
@@ -12684,8 +13141,9 @@
       <c r="A538" t="s">
         <v>875</v>
       </c>
-      <c r="B538">
+      <c r="B538" t="str">
         <f t="shared" si="8"/>
+        <v>PUCATRIHUE</v>
       </c>
       <c r="C538" t="s">
         <v>911</v>
@@ -12695,8 +13153,9 @@
       <c r="A539" t="s">
         <v>876</v>
       </c>
-      <c r="B539">
+      <c r="B539" t="str">
         <f t="shared" si="8"/>
+        <v>PUCHUNCAVI</v>
       </c>
       <c r="C539" t="s">
         <v>912</v>
@@ -12706,8 +13165,9 @@
       <c r="A540" t="s">
         <v>187</v>
       </c>
-      <c r="B540">
+      <c r="B540" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C540" t="s">
         <v>913</v>
@@ -12717,8 +13177,9 @@
       <c r="A541" t="s">
         <v>189</v>
       </c>
-      <c r="B541">
+      <c r="B541" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C541" t="s">
         <v>914</v>
@@ -12728,8 +13189,9 @@
       <c r="A542" t="s">
         <v>877</v>
       </c>
-      <c r="B542">
+      <c r="B542" t="str">
         <f t="shared" si="8"/>
+        <v>PUEBLO SECO</v>
       </c>
       <c r="C542" t="s">
         <v>354</v>
@@ -12739,8 +13201,9 @@
       <c r="A543" t="s">
         <v>878</v>
       </c>
-      <c r="B543">
+      <c r="B543" t="str">
         <f t="shared" si="8"/>
+        <v>PUELO</v>
       </c>
       <c r="C543" t="s">
         <v>915</v>
@@ -12750,8 +13213,9 @@
       <c r="A544" t="s">
         <v>191</v>
       </c>
-      <c r="B544">
+      <c r="B544" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C544" t="s">
         <v>916</v>
@@ -12761,8 +13225,9 @@
       <c r="A545" t="s">
         <v>879</v>
       </c>
-      <c r="B545">
+      <c r="B545" t="str">
         <f t="shared" si="8"/>
+        <v>PUENTE NEGRO</v>
       </c>
       <c r="C545" t="s">
         <v>917</v>
@@ -12772,8 +13237,9 @@
       <c r="A546" t="s">
         <v>880</v>
       </c>
-      <c r="B546">
+      <c r="B546" t="str">
         <f t="shared" si="8"/>
+        <v>PUENTE QUILO</v>
       </c>
       <c r="C546" t="s">
         <v>918</v>
@@ -12783,8 +13249,9 @@
       <c r="A547" t="s">
         <v>881</v>
       </c>
-      <c r="B547">
+      <c r="B547" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTECILLO</v>
       </c>
       <c r="C547" t="s">
         <v>919</v>
@@ -12794,8 +13261,9 @@
       <c r="A548" t="s">
         <v>882</v>
       </c>
-      <c r="B548">
+      <c r="B548" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO AGUIRRE</v>
       </c>
       <c r="C548" t="s">
         <v>920</v>
@@ -12805,8 +13273,9 @@
       <c r="A549" t="s">
         <v>883</v>
       </c>
-      <c r="B549">
+      <c r="B549" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO ALDEA</v>
       </c>
       <c r="C549" t="s">
         <v>921</v>
@@ -12816,8 +13285,9 @@
       <c r="A550" t="s">
         <v>344</v>
       </c>
-      <c r="B550">
+      <c r="B550" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO AYSEN</v>
       </c>
       <c r="C550" t="s">
         <v>922</v>
@@ -12827,8 +13297,9 @@
       <c r="A551" t="s">
         <v>884</v>
       </c>
-      <c r="B551">
+      <c r="B551" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO BERTRAND</v>
       </c>
       <c r="C551" t="s">
         <v>923</v>
@@ -12838,8 +13309,9 @@
       <c r="A552" t="s">
         <v>885</v>
       </c>
-      <c r="B552">
+      <c r="B552" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO BORIES</v>
       </c>
       <c r="C552" t="s">
         <v>924</v>
@@ -12849,8 +13321,9 @@
       <c r="A553" t="s">
         <v>886</v>
       </c>
-      <c r="B553">
+      <c r="B553" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO CHACABUCO</v>
       </c>
       <c r="C553" t="s">
         <v>925</v>
@@ -12860,8 +13333,9 @@
       <c r="A554" t="s">
         <v>887</v>
       </c>
-      <c r="B554">
+      <c r="B554" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO CISNES</v>
       </c>
       <c r="C554" t="s">
         <v>926</v>
@@ -12871,8 +13345,9 @@
       <c r="A555" t="s">
         <v>888</v>
       </c>
-      <c r="B555">
+      <c r="B555" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO DOMINGUEZ</v>
       </c>
       <c r="C555" t="s">
         <v>356</v>
@@ -12882,8 +13357,9 @@
       <c r="A556" t="s">
         <v>193</v>
       </c>
-      <c r="B556">
+      <c r="B556" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C556" t="s">
         <v>357</v>
@@ -12893,8 +13369,9 @@
       <c r="A557" t="s">
         <v>195</v>
       </c>
-      <c r="B557">
+      <c r="B557" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C557" t="s">
         <v>927</v>
@@ -12904,8 +13381,9 @@
       <c r="A558" t="s">
         <v>891</v>
       </c>
-      <c r="B558">
+      <c r="B558" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO OCTAY</v>
       </c>
       <c r="C558" t="s">
         <v>928</v>
@@ -12915,8 +13393,9 @@
       <c r="A559" t="s">
         <v>349</v>
       </c>
-      <c r="B559">
+      <c r="B559" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO SAAVEDRA</v>
       </c>
       <c r="C559" t="s">
         <v>929</v>
@@ -12926,8 +13405,9 @@
       <c r="A560" t="s">
         <v>892</v>
       </c>
-      <c r="B560">
+      <c r="B560" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO TORO</v>
       </c>
       <c r="C560" t="s">
         <v>930</v>
@@ -12937,8 +13417,9 @@
       <c r="A561" t="s">
         <v>893</v>
       </c>
-      <c r="B561">
+      <c r="B561" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO TRANQUILO</v>
       </c>
       <c r="C561" t="s">
         <v>931</v>
@@ -12948,8 +13429,9 @@
       <c r="A562" t="s">
         <v>197</v>
       </c>
-      <c r="B562">
+      <c r="B562" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C562" t="s">
         <v>932</v>
@@ -12959,8 +13441,9 @@
       <c r="A563" t="s">
         <v>894</v>
       </c>
-      <c r="B563">
+      <c r="B563" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO VELERO</v>
       </c>
       <c r="C563" t="s">
         <v>363</v>
@@ -12970,8 +13453,9 @@
       <c r="A564" t="s">
         <v>895</v>
       </c>
-      <c r="B564">
+      <c r="B564" t="str">
         <f t="shared" si="8"/>
+        <v>PUERTO WILLIAMS</v>
       </c>
       <c r="C564" t="s">
         <v>933</v>
@@ -12981,8 +13465,9 @@
       <c r="A565" t="s">
         <v>897</v>
       </c>
-      <c r="B565">
+      <c r="B565" t="str">
         <f t="shared" si="8"/>
+        <v>PUMANQUE</v>
       </c>
       <c r="C565" t="s">
         <v>934</v>
@@ -12992,8 +13477,9 @@
       <c r="A566" t="s">
         <v>899</v>
       </c>
-      <c r="B566">
+      <c r="B566" t="str">
         <f t="shared" si="8"/>
+        <v>PUNITAQUI</v>
       </c>
       <c r="C566" t="s">
         <v>935</v>
@@ -13003,8 +13489,9 @@
       <c r="A567" t="s">
         <v>199</v>
       </c>
-      <c r="B567">
+      <c r="B567" t="e">
         <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
       <c r="C567" t="s">
         <v>936</v>
@@ -13014,8 +13501,9 @@
       <c r="A568" t="s">
         <v>900</v>
       </c>
-      <c r="B568">
+      <c r="B568" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA COLORADA</v>
       </c>
       <c r="C568" t="s">
         <v>937</v>
@@ -13025,8 +13513,9 @@
       <c r="A569" t="s">
         <v>901</v>
       </c>
-      <c r="B569">
+      <c r="B569" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA CORONA</v>
       </c>
       <c r="C569" t="s">
         <v>938</v>
@@ -13036,8 +13525,9 @@
       <c r="A570" t="s">
         <v>902</v>
       </c>
-      <c r="B570">
+      <c r="B570" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA DE PARRA</v>
       </c>
       <c r="C570" t="s">
         <v>939</v>
@@ -13047,8 +13537,9 @@
       <c r="A571" t="s">
         <v>903</v>
       </c>
-      <c r="B571">
+      <c r="B571" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA DE TRALCA</v>
       </c>
       <c r="C571" t="s">
         <v>940</v>
@@ -13058,8 +13549,9 @@
       <c r="A572" t="s">
         <v>904</v>
       </c>
-      <c r="B572">
+      <c r="B572" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA DELGADA</v>
       </c>
       <c r="C572" t="s">
         <v>941</v>
@@ -13069,8 +13561,9 @@
       <c r="A573" t="s">
         <v>905</v>
       </c>
-      <c r="B573">
+      <c r="B573" t="str">
         <f t="shared" si="8"/>
+        <v>PUNTA LAVAPIE</v>
       </c>
       <c r="C573" t="s">
         <v>942</v>
@@ -13080,8 +13573,9 @@
       <c r="A574" t="s">
         <v>906</v>
       </c>
-      <c r="B574">
+      <c r="B574" t="str">
         <f t="shared" si="8"/>
+        <v>PUNUCAPA</v>
       </c>
       <c r="C574" t="s">
         <v>943</v>
@@ -13091,8 +13585,9 @@
       <c r="A575" t="s">
         <v>907</v>
       </c>
-      <c r="B575">
+      <c r="B575" t="str">
         <f t="shared" si="8"/>
+        <v>PUQUELDON</v>
       </c>
       <c r="C575" t="s">
         <v>944</v>
@@ -13102,8 +13597,9 @@
       <c r="A576" t="s">
         <v>352</v>
       </c>
-      <c r="B576">
+      <c r="B576" t="str">
         <f t="shared" si="8"/>
+        <v>PUREN</v>
       </c>
       <c r="C576" t="s">
         <v>945</v>
@@ -13113,8 +13609,9 @@
       <c r="A577" t="s">
         <v>353</v>
       </c>
-      <c r="B577">
+      <c r="B577" t="str">
         <f t="shared" si="8"/>
+        <v>PURRANQUE</v>
       </c>
       <c r="C577" t="s">
         <v>946</v>
@@ -13124,8 +13621,9 @@
       <c r="A578" t="s">
         <v>908</v>
       </c>
-      <c r="B578">
+      <c r="B578" t="str">
         <f t="shared" si="8"/>
+        <v>PUTAENDO</v>
       </c>
       <c r="C578" t="s">
         <v>368</v>
@@ -13135,8 +13633,9 @@
       <c r="A579" t="s">
         <v>909</v>
       </c>
-      <c r="B579">
+      <c r="B579" t="str">
         <f t="shared" ref="B579:B642" si="9">VLOOKUP(A579,$C$2:$C$711,1,FALSE)</f>
+        <v>PUTRE</v>
       </c>
       <c r="C579" t="s">
         <v>947</v>
@@ -13146,8 +13645,9 @@
       <c r="A580" t="s">
         <v>910</v>
       </c>
-      <c r="B580">
+      <c r="B580" t="str">
         <f t="shared" si="9"/>
+        <v>PUYEHUE</v>
       </c>
       <c r="C580" t="s">
         <v>948</v>
@@ -13157,8 +13657,9 @@
       <c r="A581" t="s">
         <v>911</v>
       </c>
-      <c r="B581">
+      <c r="B581" t="str">
         <f t="shared" si="9"/>
+        <v>PUYUHUAPI</v>
       </c>
       <c r="C581" t="s">
         <v>949</v>
@@ -13168,8 +13669,9 @@
       <c r="A582" t="s">
         <v>912</v>
       </c>
-      <c r="B582">
+      <c r="B582" t="str">
         <f t="shared" si="9"/>
+        <v>QUEBRADA DE ALVARADO</v>
       </c>
       <c r="C582" t="s">
         <v>950</v>
@@ -13179,8 +13681,9 @@
       <c r="A583" t="s">
         <v>913</v>
       </c>
-      <c r="B583">
+      <c r="B583" t="str">
         <f t="shared" si="9"/>
+        <v>QUEBRADA DE TALCA</v>
       </c>
       <c r="C583" t="s">
         <v>951</v>
@@ -13190,8 +13693,9 @@
       <c r="A584" t="s">
         <v>914</v>
       </c>
-      <c r="B584">
+      <c r="B584" t="str">
         <f t="shared" si="9"/>
+        <v>QUEILEN</v>
       </c>
       <c r="C584" t="s">
         <v>952</v>
@@ -13201,8 +13705,9 @@
       <c r="A585" t="s">
         <v>354</v>
       </c>
-      <c r="B585">
+      <c r="B585" t="str">
         <f t="shared" si="9"/>
+        <v>QUELLON</v>
       </c>
       <c r="C585" t="s">
         <v>953</v>
@@ -13212,8 +13717,9 @@
       <c r="A586" t="s">
         <v>915</v>
       </c>
-      <c r="B586">
+      <c r="B586" t="str">
         <f t="shared" si="9"/>
+        <v>QUELON</v>
       </c>
       <c r="C586" t="s">
         <v>954</v>
@@ -13223,8 +13729,9 @@
       <c r="A587" t="s">
         <v>916</v>
       </c>
-      <c r="B587">
+      <c r="B587" t="str">
         <f t="shared" si="9"/>
+        <v>QUEMCHI</v>
       </c>
       <c r="C587" t="s">
         <v>371</v>
@@ -13234,8 +13741,9 @@
       <c r="A588" t="s">
         <v>917</v>
       </c>
-      <c r="B588">
+      <c r="B588" t="str">
         <f t="shared" si="9"/>
+        <v>QUEPE</v>
       </c>
       <c r="C588" t="s">
         <v>955</v>
@@ -13245,8 +13753,9 @@
       <c r="A589" t="s">
         <v>918</v>
       </c>
-      <c r="B589">
+      <c r="B589" t="str">
         <f t="shared" si="9"/>
+        <v>QUETALMAHUE</v>
       </c>
       <c r="C589" t="s">
         <v>956</v>
@@ -13256,8 +13765,9 @@
       <c r="A590" t="s">
         <v>919</v>
       </c>
-      <c r="B590">
+      <c r="B590" t="str">
         <f t="shared" si="9"/>
+        <v>QUEULE</v>
       </c>
       <c r="C590" t="s">
         <v>957</v>
@@ -13267,8 +13777,9 @@
       <c r="A591" t="s">
         <v>200</v>
       </c>
-      <c r="B591">
+      <c r="B591" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C591" t="s">
         <v>958</v>
@@ -13278,8 +13789,9 @@
       <c r="A592" t="s">
         <v>920</v>
       </c>
-      <c r="B592">
+      <c r="B592" t="str">
         <f t="shared" si="9"/>
+        <v>QUILACO</v>
       </c>
       <c r="C592" t="s">
         <v>959</v>
@@ -13289,8 +13801,9 @@
       <c r="A593" t="s">
         <v>921</v>
       </c>
-      <c r="B593">
+      <c r="B593" t="str">
         <f t="shared" si="9"/>
+        <v>QUILCHE</v>
       </c>
       <c r="C593" t="s">
         <v>960</v>
@@ -13300,8 +13813,9 @@
       <c r="A594" t="s">
         <v>202</v>
       </c>
-      <c r="B594">
+      <c r="B594" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C594" t="s">
         <v>961</v>
@@ -13311,8 +13825,9 @@
       <c r="A595" t="s">
         <v>922</v>
       </c>
-      <c r="B595">
+      <c r="B595" t="str">
         <f t="shared" si="9"/>
+        <v>QUILIMARI</v>
       </c>
       <c r="C595" t="s">
         <v>962</v>
@@ -13322,8 +13837,9 @@
       <c r="A596" t="s">
         <v>923</v>
       </c>
-      <c r="B596">
+      <c r="B596" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLAGUA</v>
       </c>
       <c r="C596" t="s">
         <v>963</v>
@@ -13333,8 +13849,9 @@
       <c r="A597" t="s">
         <v>924</v>
       </c>
-      <c r="B597">
+      <c r="B597" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLAIPE</v>
       </c>
       <c r="C597" t="s">
         <v>964</v>
@@ -13344,8 +13861,9 @@
       <c r="A598" t="s">
         <v>925</v>
       </c>
-      <c r="B598">
+      <c r="B598" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLAITUN</v>
       </c>
       <c r="C598" t="s">
         <v>965</v>
@@ -13355,8 +13873,9 @@
       <c r="A599" t="s">
         <v>926</v>
       </c>
-      <c r="B599">
+      <c r="B599" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLECO</v>
       </c>
       <c r="C599" t="s">
         <v>966</v>
@@ -13366,8 +13885,9 @@
       <c r="A600" t="s">
         <v>356</v>
       </c>
-      <c r="B600">
+      <c r="B600" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLON</v>
       </c>
       <c r="C600" t="s">
         <v>967</v>
@@ -13377,8 +13897,9 @@
       <c r="A601" t="s">
         <v>357</v>
       </c>
-      <c r="B601">
+      <c r="B601" t="str">
         <f t="shared" si="9"/>
+        <v>QUILLOTA</v>
       </c>
       <c r="C601" t="s">
         <v>968</v>
@@ -13388,8 +13909,9 @@
       <c r="A602" t="s">
         <v>927</v>
       </c>
-      <c r="B602">
+      <c r="B602" t="str">
         <f t="shared" si="9"/>
+        <v>QUILPUE</v>
       </c>
       <c r="C602" t="s">
         <v>969</v>
@@ -13399,8 +13921,9 @@
       <c r="A603" t="s">
         <v>928</v>
       </c>
-      <c r="B603">
+      <c r="B603" t="str">
         <f t="shared" si="9"/>
+        <v>QUINCHAMALI</v>
       </c>
       <c r="C603" t="s">
         <v>376</v>
@@ -13410,8 +13933,9 @@
       <c r="A604" t="s">
         <v>929</v>
       </c>
-      <c r="B604">
+      <c r="B604" t="str">
         <f t="shared" si="9"/>
+        <v>QUINCHAO</v>
       </c>
       <c r="C604" t="s">
         <v>970</v>
@@ -13421,8 +13945,9 @@
       <c r="A605" t="s">
         <v>930</v>
       </c>
-      <c r="B605">
+      <c r="B605" t="str">
         <f t="shared" si="9"/>
+        <v>QUINTA DE TILCOCO</v>
       </c>
       <c r="C605" t="s">
         <v>378</v>
@@ -13432,8 +13957,9 @@
       <c r="A606" t="s">
         <v>204</v>
       </c>
-      <c r="B606">
+      <c r="B606" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C606" t="s">
         <v>971</v>
@@ -13443,8 +13969,9 @@
       <c r="A607" t="s">
         <v>931</v>
       </c>
-      <c r="B607">
+      <c r="B607" t="str">
         <f t="shared" si="9"/>
+        <v>QUINTAY</v>
       </c>
       <c r="C607" t="s">
         <v>972</v>
@@ -13454,8 +13981,9 @@
       <c r="A608" t="s">
         <v>932</v>
       </c>
-      <c r="B608">
+      <c r="B608" t="str">
         <f t="shared" si="9"/>
+        <v>QUINTERO</v>
       </c>
       <c r="C608" t="s">
         <v>973</v>
@@ -13465,8 +13993,9 @@
       <c r="A609" t="s">
         <v>363</v>
       </c>
-      <c r="B609">
+      <c r="B609" t="str">
         <f t="shared" si="9"/>
+        <v>QUIRIHUE</v>
       </c>
       <c r="C609" t="s">
         <v>974</v>
@@ -13476,8 +14005,9 @@
       <c r="A610" t="s">
         <v>933</v>
       </c>
-      <c r="B610">
+      <c r="B610" t="str">
         <f t="shared" si="9"/>
+        <v>QUIRIQUINA</v>
       </c>
       <c r="C610" t="s">
         <v>975</v>
@@ -13487,8 +14017,9 @@
       <c r="A611" t="s">
         <v>934</v>
       </c>
-      <c r="B611">
+      <c r="B611" t="str">
         <f t="shared" si="9"/>
+        <v>RADAL</v>
       </c>
       <c r="C611" t="s">
         <v>976</v>
@@ -13498,8 +14029,9 @@
       <c r="A612" t="s">
         <v>935</v>
       </c>
-      <c r="B612">
+      <c r="B612" t="str">
         <f t="shared" si="9"/>
+        <v>RAFAEL</v>
       </c>
       <c r="C612" t="s">
         <v>977</v>
@@ -13509,8 +14041,9 @@
       <c r="A613" t="s">
         <v>936</v>
       </c>
-      <c r="B613">
+      <c r="B613" t="str">
         <f t="shared" si="9"/>
+        <v>RAMADILLAS</v>
       </c>
       <c r="C613" t="s">
         <v>978</v>
@@ -13520,8 +14053,9 @@
       <c r="A614" t="s">
         <v>206</v>
       </c>
-      <c r="B614">
+      <c r="B614" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C614" t="s">
         <v>979</v>
@@ -13531,8 +14065,9 @@
       <c r="A615" t="s">
         <v>937</v>
       </c>
-      <c r="B615">
+      <c r="B615" t="str">
         <f t="shared" si="9"/>
+        <v>RANGUELMO</v>
       </c>
       <c r="C615" t="s">
         <v>980</v>
@@ -13542,8 +14077,9 @@
       <c r="A616" t="s">
         <v>938</v>
       </c>
-      <c r="B616">
+      <c r="B616" t="str">
         <f t="shared" si="9"/>
+        <v>RANQUIL</v>
       </c>
       <c r="C616" t="s">
         <v>981</v>
@@ -13553,8 +14089,9 @@
       <c r="A617" t="s">
         <v>939</v>
       </c>
-      <c r="B617">
+      <c r="B617" t="str">
         <f t="shared" si="9"/>
+        <v>RAPEL</v>
       </c>
       <c r="C617" t="s">
         <v>982</v>
@@ -13564,8 +14101,9 @@
       <c r="A618" t="s">
         <v>940</v>
       </c>
-      <c r="B618">
+      <c r="B618" t="str">
         <f t="shared" si="9"/>
+        <v>RAUCO</v>
       </c>
       <c r="C618" t="s">
         <v>983</v>
@@ -13575,8 +14113,9 @@
       <c r="A619" t="s">
         <v>941</v>
       </c>
-      <c r="B619">
+      <c r="B619" t="str">
         <f t="shared" si="9"/>
+        <v>RAUQUEN</v>
       </c>
       <c r="C619" t="s">
         <v>984</v>
@@ -13586,8 +14125,9 @@
       <c r="A620" t="s">
         <v>942</v>
       </c>
-      <c r="B620">
+      <c r="B620" t="str">
         <f t="shared" si="9"/>
+        <v>RAYENCURA</v>
       </c>
       <c r="C620" t="s">
         <v>985</v>
@@ -13597,8 +14137,9 @@
       <c r="A621" t="s">
         <v>208</v>
       </c>
-      <c r="B621">
+      <c r="B621" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C621" t="s">
         <v>986</v>
@@ -13608,8 +14149,9 @@
       <c r="A622" t="s">
         <v>943</v>
       </c>
-      <c r="B622">
+      <c r="B622" t="str">
         <f t="shared" si="9"/>
+        <v>RECOLETA IV</v>
       </c>
       <c r="C622" t="s">
         <v>987</v>
@@ -13619,8 +14161,9 @@
       <c r="A623" t="s">
         <v>945</v>
       </c>
-      <c r="B623">
+      <c r="B623" t="str">
         <f t="shared" si="9"/>
+        <v>RENACA</v>
       </c>
       <c r="C623" t="s">
         <v>386</v>
@@ -13630,8 +14173,9 @@
       <c r="A624" t="s">
         <v>946</v>
       </c>
-      <c r="B624">
+      <c r="B624" t="str">
         <f t="shared" si="9"/>
+        <v>RENAICO</v>
       </c>
       <c r="C624" t="s">
         <v>988</v>
@@ -13641,8 +14185,9 @@
       <c r="A625" t="s">
         <v>210</v>
       </c>
-      <c r="B625">
+      <c r="B625" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C625" t="s">
         <v>989</v>
@@ -13652,8 +14197,9 @@
       <c r="A626" t="s">
         <v>368</v>
       </c>
-      <c r="B626">
+      <c r="B626" t="str">
         <f t="shared" si="9"/>
+        <v>RENGO</v>
       </c>
       <c r="C626" t="s">
         <v>990</v>
@@ -13663,8 +14209,9 @@
       <c r="A627" t="s">
         <v>947</v>
       </c>
-      <c r="B627">
+      <c r="B627" t="str">
         <f t="shared" si="9"/>
+        <v>REQUINOA</v>
       </c>
       <c r="C627" t="s">
         <v>991</v>
@@ -13674,8 +14221,9 @@
       <c r="A628" t="s">
         <v>948</v>
       </c>
-      <c r="B628">
+      <c r="B628" t="str">
         <f t="shared" si="9"/>
+        <v>RETIRO</v>
       </c>
       <c r="C628" t="s">
         <v>992</v>
@@ -13685,8 +14233,9 @@
       <c r="A629" t="s">
         <v>212</v>
       </c>
-      <c r="B629">
+      <c r="B629" t="e">
         <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="C629" t="s">
         <v>993</v>
@@ -13696,8 +14245,9 @@
       <c r="A630" t="s">
         <v>949</v>
       </c>
-      <c r="B630">
+      <c r="B630" t="str">
         <f t="shared" si="9"/>
+        <v>RIHUE</v>
       </c>
       <c r="C630" t="s">
         <v>994</v>
@@ -13707,8 +14257,9 @@
       <c r="A631" t="s">
         <v>950</v>
       </c>
-      <c r="B631">
+      <c r="B631" t="str">
         <f t="shared" si="9"/>
+        <v>RINCONADA</v>
       </c>
       <c r="C631" t="s">
         <v>995</v>
@@ -13718,8 +14269,9 @@
       <c r="A632" t="s">
         <v>951</v>
       </c>
-      <c r="B632">
+      <c r="B632" t="str">
         <f t="shared" si="9"/>
+        <v>RINCONADA DE GUZMAN</v>
       </c>
       <c r="C632" t="s">
         <v>389</v>
@@ -13729,8 +14281,9 @@
       <c r="A633" t="s">
         <v>952</v>
       </c>
-      <c r="B633">
+      <c r="B633" t="str">
         <f t="shared" si="9"/>
+        <v>RINCONADA DE SILVA</v>
       </c>
       <c r="C633" t="s">
         <v>996</v>
@@ -13740,8 +14293,9 @@
       <c r="A634" t="s">
         <v>953</v>
       </c>
-      <c r="B634">
+      <c r="B634" t="str">
         <f t="shared" si="9"/>
+        <v>RINIHUE</v>
       </c>
       <c r="C634" t="s">
         <v>390</v>
@@ -13751,8 +14305,9 @@
       <c r="A635" t="s">
         <v>954</v>
       </c>
-      <c r="B635">
+      <c r="B635" t="str">
         <f t="shared" si="9"/>
+        <v>RININAHUE</v>
       </c>
       <c r="C635" t="s">
         <v>997</v>
@@ -13762,8 +14317,9 @@
       <c r="A636" t="s">
         <v>371</v>
       </c>
-      <c r="B636">
+      <c r="B636" t="str">
         <f t="shared" si="9"/>
+        <v>RIO BUENO</v>
       </c>
       <c r="C636" t="s">
         <v>998</v>
@@ -13773,8 +14329,9 @@
       <c r="A637" t="s">
         <v>955</v>
       </c>
-      <c r="B637">
+      <c r="B637" t="str">
         <f t="shared" si="9"/>
+        <v>RIO CLARO</v>
       </c>
       <c r="C637" t="s">
         <v>999</v>
@@ -13784,8 +14341,9 @@
       <c r="A638" t="s">
         <v>956</v>
       </c>
-      <c r="B638">
+      <c r="B638" t="str">
         <f t="shared" si="9"/>
+        <v>RIO HURTADO</v>
       </c>
       <c r="C638" t="s">
         <v>1000</v>
@@ -13795,8 +14353,9 @@
       <c r="A639" t="s">
         <v>957</v>
       </c>
-      <c r="B639">
+      <c r="B639" t="str">
         <f t="shared" si="9"/>
+        <v>RIO IBANEZ</v>
       </c>
       <c r="C639" t="s">
         <v>1001</v>
@@ -13806,8 +14365,9 @@
       <c r="A640" t="s">
         <v>958</v>
       </c>
-      <c r="B640">
+      <c r="B640" t="str">
         <f t="shared" si="9"/>
+        <v>RIO NEGRO</v>
       </c>
       <c r="C640" t="s">
         <v>393</v>
@@ -13817,8 +14377,9 @@
       <c r="A641" t="s">
         <v>960</v>
       </c>
-      <c r="B641">
+      <c r="B641" t="str">
         <f t="shared" si="9"/>
+        <v>RIO VERDE</v>
       </c>
       <c r="C641" t="s">
         <v>1002</v>
@@ -13828,8 +14389,9 @@
       <c r="A642" t="s">
         <v>961</v>
       </c>
-      <c r="B642">
+      <c r="B642" t="str">
         <f t="shared" si="9"/>
+        <v>ROBLE HUACHO</v>
       </c>
       <c r="C642" t="s">
         <v>1003</v>
@@ -13839,8 +14401,9 @@
       <c r="A643" t="s">
         <v>962</v>
       </c>
-      <c r="B643">
+      <c r="B643" t="str">
         <f t="shared" ref="B643:B706" si="10">VLOOKUP(A643,$C$2:$C$711,1,FALSE)</f>
+        <v>ROCAS DE SANTO DOMINGO</v>
       </c>
       <c r="C643" t="s">
         <v>1004</v>
@@ -13850,8 +14413,9 @@
       <c r="A644" t="s">
         <v>963</v>
       </c>
-      <c r="B644">
+      <c r="B644" t="str">
         <f t="shared" si="10"/>
+        <v>ROMERAL</v>
       </c>
       <c r="C644" t="s">
         <v>1005</v>
@@ -13861,8 +14425,9 @@
       <c r="A645" t="s">
         <v>964</v>
       </c>
-      <c r="B645">
+      <c r="B645" t="str">
         <f t="shared" si="10"/>
+        <v>ROSARIO</v>
       </c>
       <c r="C645" t="s">
         <v>1006</v>
@@ -13872,8 +14437,9 @@
       <c r="A646" t="s">
         <v>965</v>
       </c>
-      <c r="B646">
+      <c r="B646" t="str">
         <f t="shared" si="10"/>
+        <v>RUCA RAQUI</v>
       </c>
       <c r="C646" t="s">
         <v>1007</v>
@@ -13883,8 +14449,9 @@
       <c r="A647" t="s">
         <v>966</v>
       </c>
-      <c r="B647">
+      <c r="B647" t="str">
         <f t="shared" si="10"/>
+        <v>RUCAPEQUEN</v>
       </c>
       <c r="C647" t="s">
         <v>1008</v>
@@ -13894,8 +14461,9 @@
       <c r="A648" t="s">
         <v>967</v>
       </c>
-      <c r="B648">
+      <c r="B648" t="str">
         <f t="shared" si="10"/>
+        <v>RUNGUE</v>
       </c>
       <c r="C648" t="s">
         <v>395</v>
@@ -13905,8 +14473,9 @@
       <c r="A649" t="s">
         <v>968</v>
       </c>
-      <c r="B649">
+      <c r="B649" t="str">
         <f t="shared" si="10"/>
+        <v>SAGRADA FAMILIA</v>
       </c>
       <c r="C649" t="s">
         <v>1009</v>
@@ -13916,8 +14485,9 @@
       <c r="A650" t="s">
         <v>969</v>
       </c>
-      <c r="B650">
+      <c r="B650" t="str">
         <f t="shared" si="10"/>
+        <v>SALADILLO</v>
       </c>
       <c r="C650" t="s">
         <v>1010</v>
@@ -13927,8 +14497,9 @@
       <c r="A651" t="s">
         <v>376</v>
       </c>
-      <c r="B651">
+      <c r="B651" t="str">
         <f t="shared" si="10"/>
+        <v>SALAMANCA</v>
       </c>
       <c r="C651" t="s">
         <v>1011</v>
@@ -13938,8 +14509,9 @@
       <c r="A652" t="s">
         <v>970</v>
       </c>
-      <c r="B652">
+      <c r="B652" t="str">
         <f t="shared" si="10"/>
+        <v>SAN ALFONSO</v>
       </c>
       <c r="C652" t="s">
         <v>1012</v>
@@ -13949,8 +14521,9 @@
       <c r="A653" t="s">
         <v>214</v>
       </c>
-      <c r="B653">
+      <c r="B653" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C653" t="s">
         <v>1013</v>
@@ -13960,8 +14533,9 @@
       <c r="A654" t="s">
         <v>216</v>
       </c>
-      <c r="B654">
+      <c r="B654" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C654" t="s">
         <v>1014</v>
@@ -13971,8 +14545,9 @@
       <c r="A655" t="s">
         <v>378</v>
       </c>
-      <c r="B655">
+      <c r="B655" t="str">
         <f t="shared" si="10"/>
+        <v>SAN CARLOS</v>
       </c>
       <c r="C655" t="s">
         <v>1015</v>
@@ -13982,8 +14557,9 @@
       <c r="A656" t="s">
         <v>971</v>
       </c>
-      <c r="B656">
+      <c r="B656" t="str">
         <f t="shared" si="10"/>
+        <v>SAN CLEMENTE</v>
       </c>
       <c r="C656" t="s">
         <v>1016</v>
@@ -13993,8 +14569,9 @@
       <c r="A657" t="s">
         <v>972</v>
       </c>
-      <c r="B657">
+      <c r="B657" t="str">
         <f t="shared" si="10"/>
+        <v>SAN ESTEBAN</v>
       </c>
       <c r="C657" t="s">
         <v>1017</v>
@@ -14004,8 +14581,9 @@
       <c r="A658" t="s">
         <v>973</v>
       </c>
-      <c r="B658">
+      <c r="B658" t="str">
         <f t="shared" si="10"/>
+        <v>SAN FABIAN DE ALICO</v>
       </c>
       <c r="C658" t="s">
         <v>1018</v>
@@ -14015,8 +14593,9 @@
       <c r="A659" t="s">
         <v>217</v>
       </c>
-      <c r="B659">
+      <c r="B659" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C659" t="s">
         <v>1019</v>
@@ -14026,8 +14605,9 @@
       <c r="A660" t="s">
         <v>219</v>
       </c>
-      <c r="B660">
+      <c r="B660" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C660" t="s">
         <v>411</v>
@@ -14037,8 +14617,9 @@
       <c r="A661" t="s">
         <v>974</v>
       </c>
-      <c r="B661">
+      <c r="B661" t="str">
         <f t="shared" si="10"/>
+        <v>SAN FRANCISCO DE MOSTAZAL</v>
       </c>
       <c r="C661" t="s">
         <v>412</v>
@@ -14048,8 +14629,9 @@
       <c r="A662" t="s">
         <v>975</v>
       </c>
-      <c r="B662">
+      <c r="B662" t="str">
         <f t="shared" si="10"/>
+        <v>SAN GABRIEL</v>
       </c>
       <c r="C662" t="s">
         <v>1020</v>
@@ -14059,8 +14641,9 @@
       <c r="A663" t="s">
         <v>976</v>
       </c>
-      <c r="B663">
+      <c r="B663" t="str">
         <f t="shared" si="10"/>
+        <v>SAN GREGORIO</v>
       </c>
       <c r="C663" t="s">
         <v>1021</v>
@@ -14070,8 +14653,9 @@
       <c r="A664" t="s">
         <v>977</v>
       </c>
-      <c r="B664">
+      <c r="B664" t="str">
         <f t="shared" si="10"/>
+        <v>SAN IGNACIO</v>
       </c>
       <c r="C664" t="s">
         <v>1022</v>
@@ -14081,8 +14665,9 @@
       <c r="A665" t="s">
         <v>978</v>
       </c>
-      <c r="B665">
+      <c r="B665" t="str">
         <f t="shared" si="10"/>
+        <v>SAN ISIDRO DE QUILLOTA</v>
       </c>
       <c r="C665" t="s">
         <v>1023</v>
@@ -14092,8 +14677,9 @@
       <c r="A666" t="s">
         <v>979</v>
       </c>
-      <c r="B666">
+      <c r="B666" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JAVIER</v>
       </c>
       <c r="C666" t="s">
         <v>1024</v>
@@ -14103,8 +14689,9 @@
       <c r="A667" t="s">
         <v>220</v>
       </c>
-      <c r="B667">
+      <c r="B667" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C667" t="s">
         <v>1025</v>
@@ -14114,8 +14701,9 @@
       <c r="A668" t="s">
         <v>980</v>
       </c>
-      <c r="B668">
+      <c r="B668" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JOSE DE LA MARIQUINA</v>
       </c>
       <c r="C668" t="s">
         <v>413</v>
@@ -14125,8 +14713,9 @@
       <c r="A669" t="s">
         <v>981</v>
       </c>
-      <c r="B669">
+      <c r="B669" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JOSE DE MAIPO</v>
       </c>
       <c r="C669" t="s">
         <v>1026</v>
@@ -14136,8 +14725,9 @@
       <c r="A670" t="s">
         <v>982</v>
       </c>
-      <c r="B670">
+      <c r="B670" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JUAN</v>
       </c>
       <c r="C670" t="s">
         <v>1027</v>
@@ -14147,8 +14737,9 @@
       <c r="A671" t="s">
         <v>983</v>
       </c>
-      <c r="B671">
+      <c r="B671" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JUAN DE LA COSTA</v>
       </c>
       <c r="C671" t="s">
         <v>1028</v>
@@ -14158,8 +14749,9 @@
       <c r="A672" t="s">
         <v>984</v>
       </c>
-      <c r="B672">
+      <c r="B672" t="str">
         <f t="shared" si="10"/>
+        <v>SAN JULIAN</v>
       </c>
       <c r="C672" t="s">
         <v>1029</v>
@@ -14169,8 +14761,9 @@
       <c r="A673" t="s">
         <v>985</v>
       </c>
-      <c r="B673">
+      <c r="B673" t="str">
         <f t="shared" si="10"/>
+        <v>SAN MANUEL</v>
       </c>
       <c r="C673" t="s">
         <v>1030</v>
@@ -14180,8 +14773,9 @@
       <c r="A674" t="s">
         <v>986</v>
       </c>
-      <c r="B674">
+      <c r="B674" t="str">
         <f t="shared" si="10"/>
+        <v>SAN MARCOS</v>
       </c>
       <c r="C674" t="s">
         <v>1031</v>
@@ -14191,8 +14785,9 @@
       <c r="A675" t="s">
         <v>222</v>
       </c>
-      <c r="B675">
+      <c r="B675" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C675" t="s">
         <v>1032</v>
@@ -14202,8 +14797,9 @@
       <c r="A676" t="s">
         <v>987</v>
       </c>
-      <c r="B676">
+      <c r="B676" t="str">
         <f t="shared" si="10"/>
+        <v>SAN NICOLAS</v>
       </c>
       <c r="C676" t="s">
         <v>1033</v>
@@ -14213,8 +14809,9 @@
       <c r="A677" t="s">
         <v>386</v>
       </c>
-      <c r="B677">
+      <c r="B677" t="str">
         <f t="shared" si="10"/>
+        <v>SAN PABLO</v>
       </c>
       <c r="C677" t="s">
         <v>1034</v>
@@ -14224,8 +14821,9 @@
       <c r="A678" t="s">
         <v>988</v>
       </c>
-      <c r="B678">
+      <c r="B678" t="str">
         <f t="shared" si="10"/>
+        <v>SAN PATRICIO</v>
       </c>
       <c r="C678" t="s">
         <v>1035</v>
@@ -14235,8 +14833,9 @@
       <c r="A679" t="s">
         <v>223</v>
       </c>
-      <c r="B679">
+      <c r="B679" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C679" t="s">
         <v>1036</v>
@@ -14246,8 +14845,9 @@
       <c r="A680" t="s">
         <v>989</v>
       </c>
-      <c r="B680">
+      <c r="B680" t="str">
         <f t="shared" si="10"/>
+        <v>SAN PEDRO DE ALCANTARA</v>
       </c>
       <c r="C680" t="s">
         <v>1037</v>
@@ -14257,8 +14857,9 @@
       <c r="A681" t="s">
         <v>225</v>
       </c>
-      <c r="B681">
+      <c r="B681" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C681" t="s">
         <v>1038</v>
@@ -14268,8 +14869,9 @@
       <c r="A682" t="s">
         <v>227</v>
       </c>
-      <c r="B682">
+      <c r="B682" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C682" t="s">
         <v>1039</v>
@@ -14279,8 +14881,9 @@
       <c r="A683" t="s">
         <v>990</v>
       </c>
-      <c r="B683">
+      <c r="B683" t="str">
         <f t="shared" si="10"/>
+        <v>SAN PEDRO DE MELIPILLA</v>
       </c>
       <c r="C683" t="s">
         <v>1040</v>
@@ -14290,8 +14893,9 @@
       <c r="A684" t="s">
         <v>991</v>
       </c>
-      <c r="B684">
+      <c r="B684" t="str">
         <f t="shared" si="10"/>
+        <v>SAN PEDRO DE QUILLOTA</v>
       </c>
       <c r="C684" t="s">
         <v>1041</v>
@@ -14301,8 +14905,9 @@
       <c r="A685" t="s">
         <v>992</v>
       </c>
-      <c r="B685">
+      <c r="B685" t="str">
         <f t="shared" si="10"/>
+        <v>SAN RAFAEL</v>
       </c>
       <c r="C685" t="s">
         <v>1042</v>
@@ -14312,8 +14917,9 @@
       <c r="A686" t="s">
         <v>229</v>
       </c>
-      <c r="B686">
+      <c r="B686" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C686" t="s">
         <v>422</v>
@@ -14323,8 +14929,9 @@
       <c r="A687" t="s">
         <v>993</v>
       </c>
-      <c r="B687">
+      <c r="B687" t="str">
         <f t="shared" si="10"/>
+        <v>SAN ROSENDO</v>
       </c>
       <c r="C687" t="s">
         <v>1043</v>
@@ -14334,8 +14941,9 @@
       <c r="A688" t="s">
         <v>994</v>
       </c>
-      <c r="B688">
+      <c r="B688" t="str">
         <f t="shared" si="10"/>
+        <v>SAN SEBASTIAN</v>
       </c>
       <c r="C688" t="s">
         <v>1044</v>
@@ -14345,8 +14953,9 @@
       <c r="A689" t="s">
         <v>995</v>
       </c>
-      <c r="B689">
+      <c r="B689" t="str">
         <f t="shared" si="10"/>
+        <v>SAN VICENTE DE TAGUATAGUA</v>
       </c>
       <c r="C689" t="s">
         <v>1045</v>
@@ -14356,8 +14965,9 @@
       <c r="A690" t="s">
         <v>389</v>
       </c>
-      <c r="B690">
+      <c r="B690" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA BARBARA</v>
       </c>
       <c r="C690" t="s">
         <v>1046</v>
@@ -14367,8 +14977,9 @@
       <c r="A691" t="s">
         <v>996</v>
       </c>
-      <c r="B691">
+      <c r="B691" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA CLARA</v>
       </c>
       <c r="C691" t="s">
         <v>1047</v>
@@ -14378,8 +14989,9 @@
       <c r="A692" t="s">
         <v>390</v>
       </c>
-      <c r="B692">
+      <c r="B692" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA CRUZ</v>
       </c>
       <c r="C692" t="s">
         <v>1048</v>
@@ -14389,8 +15001,9 @@
       <c r="A693" t="s">
         <v>997</v>
       </c>
-      <c r="B693">
+      <c r="B693" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA JUANA</v>
       </c>
       <c r="C693" t="s">
         <v>1049</v>
@@ -14400,8 +15013,9 @@
       <c r="A694" t="s">
         <v>998</v>
       </c>
-      <c r="B694">
+      <c r="B694" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA MARIA</v>
       </c>
       <c r="C694" t="s">
         <v>1050</v>
@@ -14411,8 +15025,9 @@
       <c r="A695" t="s">
         <v>999</v>
       </c>
-      <c r="B695">
+      <c r="B695" t="str">
         <f t="shared" si="10"/>
+        <v>SANTA ROSA DE CHENA</v>
       </c>
       <c r="C695" t="s">
         <v>1051</v>
@@ -14422,8 +15037,9 @@
       <c r="A696" t="s">
         <v>231</v>
       </c>
-      <c r="B696">
+      <c r="B696" t="e">
         <f t="shared" si="10"/>
+        <v>#N/A</v>
       </c>
       <c r="C696" t="s">
         <v>1052</v>
@@ -14433,8 +15049,9 @@
       <c r="A697" t="s">
         <v>1000</v>
       </c>
-      <c r="B697">
+      <c r="B697" t="str">
         <f t="shared" si="10"/>
+        <v>SECTOR LA PEÑA</v>
       </c>
       <c r="C697" t="s">
         <v>1053</v>
@@ -14444,8 +15061,9 @@
       <c r="A698" t="s">
         <v>1001</v>
       </c>
-      <c r="B698">
+      <c r="B698" t="str">
         <f t="shared" si="10"/>
+        <v>SEWELL</v>
       </c>
       <c r="C698" t="s">
         <v>1054</v>
@@ -14455,8 +15073,9 @@
       <c r="A699" t="s">
         <v>393</v>
       </c>
-      <c r="B699">
+      <c r="B699" t="str">
         <f t="shared" si="10"/>
+        <v>SIERRA GORDA</v>
       </c>
       <c r="C699" t="s">
         <v>1055</v>
@@ -14466,8 +15085,9 @@
       <c r="A700" t="s">
         <v>1002</v>
       </c>
-      <c r="B700">
+      <c r="B700" t="str">
         <f t="shared" si="10"/>
+        <v>SOCAIRE</v>
       </c>
       <c r="C700" t="s">
         <v>1056</v>
@@ -14477,8 +15097,9 @@
       <c r="A701" t="s">
         <v>1003</v>
       </c>
-      <c r="B701">
+      <c r="B701" t="str">
         <f t="shared" si="10"/>
+        <v>SOCOROMA</v>
       </c>
       <c r="C701" t="s">
         <v>1057</v>
@@ -14488,8 +15109,9 @@
       <c r="A702" t="s">
         <v>1004</v>
       </c>
-      <c r="B702">
+      <c r="B702" t="str">
         <f t="shared" si="10"/>
+        <v>SOCOS</v>
       </c>
       <c r="C702" t="s">
         <v>1058</v>
@@ -14499,8 +15121,9 @@
       <c r="A703" t="s">
         <v>1005</v>
       </c>
-      <c r="B703">
+      <c r="B703" t="str">
         <f t="shared" si="10"/>
+        <v>SORA</v>
       </c>
       <c r="C703" t="s">
         <v>1059</v>
@@ -14510,8 +15133,9 @@
       <c r="A704" t="s">
         <v>1006</v>
       </c>
-      <c r="B704">
+      <c r="B704" t="str">
         <f t="shared" si="10"/>
+        <v>SOTAQUI</v>
       </c>
       <c r="C704" t="s">
         <v>1060</v>
@@ -14521,8 +15145,9 @@
       <c r="A705" t="s">
         <v>1007</v>
       </c>
-      <c r="B705">
+      <c r="B705" t="str">
         <f t="shared" si="10"/>
+        <v>SOTOCA</v>
       </c>
       <c r="C705" t="s">
         <v>1061</v>
@@ -14532,8 +15157,9 @@
       <c r="A706" t="s">
         <v>1008</v>
       </c>
-      <c r="B706">
+      <c r="B706" t="str">
         <f t="shared" si="10"/>
+        <v>TABOLANGO</v>
       </c>
       <c r="C706" t="s">
         <v>1062</v>
@@ -14543,8 +15169,9 @@
       <c r="A707" t="s">
         <v>395</v>
       </c>
-      <c r="B707">
+      <c r="B707" t="str">
         <f t="shared" ref="B707:B770" si="11">VLOOKUP(A707,$C$2:$C$711,1,FALSE)</f>
+        <v>TALAGANTE</v>
       </c>
       <c r="C707" t="s">
         <v>432</v>
@@ -14554,8 +15181,9 @@
       <c r="A708" t="s">
         <v>233</v>
       </c>
-      <c r="B708">
+      <c r="B708" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
       <c r="C708" t="s">
         <v>433</v>
@@ -14565,8 +15193,9 @@
       <c r="A709" t="s">
         <v>1009</v>
       </c>
-      <c r="B709">
+      <c r="B709" t="str">
         <f t="shared" si="11"/>
+        <v>TALCAHUANO</v>
       </c>
       <c r="C709" t="s">
         <v>1063</v>
@@ -14576,8 +15205,9 @@
       <c r="A710" t="s">
         <v>235</v>
       </c>
-      <c r="B710">
+      <c r="B710" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
       <c r="C710" t="s">
         <v>434</v>
@@ -14587,8 +15217,9 @@
       <c r="A711" t="s">
         <v>1010</v>
       </c>
-      <c r="B711">
+      <c r="B711" t="str">
         <f t="shared" si="11"/>
+        <v>TAMBILLO</v>
       </c>
       <c r="C711" t="s">
         <v>1064</v>
@@ -14598,536 +15229,603 @@
       <c r="A712" t="s">
         <v>1011</v>
       </c>
-      <c r="B712">
+      <c r="B712" t="str">
         <f t="shared" si="11"/>
+        <v>TANILVORO</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>236</v>
       </c>
-      <c r="B713">
+      <c r="B713" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1012</v>
       </c>
-      <c r="B714">
+      <c r="B714" t="str">
         <f t="shared" si="11"/>
+        <v>TENO</v>
       </c>
     </row>
     <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1013</v>
       </c>
-      <c r="B715">
+      <c r="B715" t="str">
         <f t="shared" si="11"/>
+        <v>TEODORO SCHMIDT</v>
       </c>
     </row>
     <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1014</v>
       </c>
-      <c r="B716">
+      <c r="B716" t="str">
         <f t="shared" si="11"/>
+        <v>TIERRA AMARILLA</v>
       </c>
     </row>
     <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1015</v>
       </c>
-      <c r="B717">
+      <c r="B717" t="str">
         <f t="shared" si="11"/>
+        <v>TIERRAS BLANCAS</v>
       </c>
     </row>
     <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1016</v>
       </c>
-      <c r="B718">
+      <c r="B718" t="str">
         <f t="shared" si="11"/>
+        <v>TIGNAMAR</v>
       </c>
     </row>
     <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1017</v>
       </c>
-      <c r="B719">
+      <c r="B719" t="str">
         <f t="shared" si="11"/>
+        <v>TILTIL</v>
       </c>
     </row>
     <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1018</v>
       </c>
-      <c r="B720">
+      <c r="B720" t="str">
         <f t="shared" si="11"/>
+        <v>TIMAUKEL</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>238</v>
       </c>
-      <c r="B721">
+      <c r="B721" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1019</v>
       </c>
-      <c r="B722">
+      <c r="B722" t="str">
         <f t="shared" si="11"/>
+        <v>TOCONAO</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>240</v>
       </c>
-      <c r="B723">
+      <c r="B723" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>411</v>
       </c>
-      <c r="B724">
+      <c r="B724" t="str">
         <f t="shared" si="11"/>
+        <v>TOLTEN</v>
       </c>
     </row>
     <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>412</v>
       </c>
-      <c r="B725">
+      <c r="B725" t="str">
         <f t="shared" si="11"/>
+        <v>TOME</v>
       </c>
     </row>
     <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1020</v>
       </c>
-      <c r="B726">
+      <c r="B726" t="str">
         <f t="shared" si="11"/>
+        <v>TONGOY</v>
       </c>
     </row>
     <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1021</v>
       </c>
-      <c r="B727">
+      <c r="B727" t="str">
         <f t="shared" si="11"/>
+        <v>TOPOCALMA</v>
       </c>
     </row>
     <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1022</v>
       </c>
-      <c r="B728">
+      <c r="B728" t="str">
         <f t="shared" si="11"/>
+        <v>TOROICO</v>
       </c>
     </row>
     <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1023</v>
       </c>
-      <c r="B729">
+      <c r="B729" t="str">
         <f t="shared" si="11"/>
+        <v>TORRES DEL PAINE</v>
       </c>
     </row>
     <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1024</v>
       </c>
-      <c r="B730">
+      <c r="B730" t="str">
         <f t="shared" si="11"/>
+        <v>TORTEL</v>
       </c>
     </row>
     <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1025</v>
       </c>
-      <c r="B731">
+      <c r="B731" t="str">
         <f t="shared" si="11"/>
+        <v>TOTORALILLO</v>
       </c>
     </row>
     <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>413</v>
       </c>
-      <c r="B732">
+      <c r="B732" t="str">
         <f t="shared" si="11"/>
+        <v>TRAIGUEN</v>
       </c>
     </row>
     <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1027</v>
       </c>
-      <c r="B733">
+      <c r="B733" t="str">
         <f t="shared" si="11"/>
+        <v>TREGUALEMU</v>
       </c>
     </row>
     <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1028</v>
       </c>
-      <c r="B734">
+      <c r="B734" t="str">
         <f t="shared" si="11"/>
+        <v>TREHUACO</v>
       </c>
     </row>
     <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1029</v>
       </c>
-      <c r="B735">
+      <c r="B735" t="str">
         <f t="shared" si="11"/>
+        <v>TRES PINOS</v>
       </c>
     </row>
     <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1030</v>
       </c>
-      <c r="B736">
+      <c r="B736" t="str">
         <f t="shared" si="11"/>
+        <v>TROVOLHUE</v>
       </c>
     </row>
     <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1031</v>
       </c>
-      <c r="B737">
+      <c r="B737" t="str">
         <f t="shared" si="11"/>
+        <v>TRUMAO</v>
       </c>
     </row>
     <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1032</v>
       </c>
-      <c r="B738">
+      <c r="B738" t="str">
         <f t="shared" si="11"/>
+        <v>TRUPAN</v>
       </c>
     </row>
     <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1033</v>
       </c>
-      <c r="B739">
+      <c r="B739" t="str">
         <f t="shared" si="11"/>
+        <v>TUBUL</v>
       </c>
     </row>
     <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1034</v>
       </c>
-      <c r="B740">
+      <c r="B740" t="str">
         <f t="shared" si="11"/>
+        <v>TUCAPEL</v>
       </c>
     </row>
     <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1035</v>
       </c>
-      <c r="B741">
+      <c r="B741" t="str">
         <f t="shared" si="11"/>
+        <v>TULAHUEN</v>
       </c>
     </row>
     <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1036</v>
       </c>
-      <c r="B742">
+      <c r="B742" t="str">
         <f t="shared" si="11"/>
+        <v>TUNQUEN</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>242</v>
       </c>
-      <c r="B743">
+      <c r="B743" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1037</v>
       </c>
-      <c r="B744">
+      <c r="B744" t="str">
         <f t="shared" si="11"/>
+        <v>VALDIVIA DE PAINE</v>
       </c>
     </row>
     <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1038</v>
       </c>
-      <c r="B745">
+      <c r="B745" t="str">
         <f t="shared" si="11"/>
+        <v>VALLE NEVADO</v>
       </c>
     </row>
     <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1039</v>
       </c>
-      <c r="B746">
+      <c r="B746" t="str">
         <f t="shared" si="11"/>
+        <v>VALLE SIMPSON</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>244</v>
       </c>
-      <c r="B747">
+      <c r="B747" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1040</v>
       </c>
-      <c r="B748">
+      <c r="B748" t="str">
         <f t="shared" si="11"/>
+        <v>VALPARAISO</v>
       </c>
     </row>
     <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1041</v>
       </c>
-      <c r="B749">
+      <c r="B749" t="str">
         <f t="shared" si="11"/>
+        <v>VEGAS DE ITATA</v>
       </c>
     </row>
     <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1042</v>
       </c>
-      <c r="B750">
+      <c r="B750" t="str">
         <f t="shared" si="11"/>
+        <v>VICHUQUEN</v>
       </c>
     </row>
     <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>422</v>
       </c>
-      <c r="B751">
+      <c r="B751" t="str">
         <f t="shared" si="11"/>
+        <v>VICTORIA</v>
       </c>
     </row>
     <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1043</v>
       </c>
-      <c r="B752">
+      <c r="B752" t="str">
         <f t="shared" si="11"/>
+        <v>VICUNA</v>
       </c>
     </row>
     <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1044</v>
       </c>
-      <c r="B753">
+      <c r="B753" t="str">
         <f t="shared" si="11"/>
+        <v>VILCUN</v>
       </c>
     </row>
     <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1045</v>
       </c>
-      <c r="B754">
+      <c r="B754" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA ALEGRE</v>
       </c>
     </row>
     <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1046</v>
       </c>
-      <c r="B755">
+      <c r="B755" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA ALEMANA</v>
       </c>
     </row>
     <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1047</v>
       </c>
-      <c r="B756">
+      <c r="B756" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA ALHUE</v>
       </c>
     </row>
     <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1048</v>
       </c>
-      <c r="B757">
+      <c r="B757" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA AMENGUAL</v>
       </c>
     </row>
     <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1049</v>
       </c>
-      <c r="B758">
+      <c r="B758" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA BOLDO</v>
       </c>
     </row>
     <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1050</v>
       </c>
-      <c r="B759">
+      <c r="B759" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA CERRO CASTILLO</v>
       </c>
     </row>
     <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1051</v>
       </c>
-      <c r="B760">
+      <c r="B760" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA LOS RIOS</v>
       </c>
     </row>
     <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1052</v>
       </c>
-      <c r="B761">
+      <c r="B761" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA MANIHUALES</v>
       </c>
     </row>
     <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1053</v>
       </c>
-      <c r="B762">
+      <c r="B762" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA MERCEDES</v>
       </c>
     </row>
     <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1054</v>
       </c>
-      <c r="B763">
+      <c r="B763" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA OHIGGINS</v>
       </c>
     </row>
     <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1055</v>
       </c>
-      <c r="B764">
+      <c r="B764" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA ORTEGA</v>
       </c>
     </row>
     <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1056</v>
       </c>
-      <c r="B765">
+      <c r="B765" t="str">
         <f t="shared" si="11"/>
+        <v>VILLA PRAT</v>
       </c>
     </row>
     <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1057</v>
       </c>
-      <c r="B766">
+      <c r="B766" t="str">
         <f>VLOOKUP(A766,$C$2:$C$711,1,FALSE)</f>
+        <v>VILLA SANTA LUCIA</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>246</v>
       </c>
-      <c r="B767">
+      <c r="B767" t="e">
         <f t="shared" si="11"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1058</v>
       </c>
-      <c r="B768">
+      <c r="B768" t="str">
         <f t="shared" si="11"/>
+        <v>VILLUCO</v>
       </c>
     </row>
     <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1059</v>
       </c>
-      <c r="B769">
+      <c r="B769" t="str">
         <f t="shared" si="11"/>
+        <v>VINA DEL MAR</v>
       </c>
     </row>
     <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1060</v>
       </c>
-      <c r="B770">
+      <c r="B770" t="str">
         <f t="shared" si="11"/>
+        <v>VISVIRI</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>248</v>
       </c>
-      <c r="B771">
+      <c r="B771" t="e">
         <f t="shared" ref="B771:B778" si="12">VLOOKUP(A771,$C$2:$C$711,1,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1061</v>
       </c>
-      <c r="B772">
+      <c r="B772" t="str">
         <f t="shared" si="12"/>
+        <v>YAPE</v>
       </c>
     </row>
     <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1062</v>
       </c>
-      <c r="B773">
+      <c r="B773" t="str">
         <f t="shared" si="12"/>
+        <v>YERBAS BUENAS</v>
       </c>
     </row>
     <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>432</v>
       </c>
-      <c r="B774">
+      <c r="B774" t="str">
         <f t="shared" si="12"/>
+        <v>YUMBEL</v>
       </c>
     </row>
     <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>433</v>
       </c>
-      <c r="B775">
+      <c r="B775" t="str">
         <f t="shared" si="12"/>
+        <v>YUNGAY</v>
       </c>
     </row>
     <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1063</v>
       </c>
-      <c r="B776">
+      <c r="B776" t="str">
         <f t="shared" si="12"/>
+        <v>YUSTE</v>
       </c>
     </row>
     <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>434</v>
       </c>
-      <c r="B777">
+      <c r="B777" t="str">
         <f t="shared" si="12"/>
+        <v>ZAPALLAR</v>
       </c>
     </row>
     <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1064</v>
       </c>
-      <c r="B778">
+      <c r="B778" t="str">
         <f t="shared" si="12"/>
+        <v>ZEMITA</v>
       </c>
     </row>
   </sheetData>

--- a/public/plantilla-emision-masiva_v2.xlsx
+++ b/public/plantilla-emision-masiva_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bendise\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD26324-3E05-40EB-85A1-A3F78F03099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB2855-A92F-470B-A126-122E4B0C752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Hoja3" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">masiva_online!$D$7:$D$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">masiva_online!$D$7:$D$169</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -4310,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,17 +4449,17 @@
     <mergeCell ref="D6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A8:T255">
+  <conditionalFormatting sqref="A8:T239">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>EXACT($A8,"EMISION")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1312" yWindow="583" count="20">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato rut " error="El formato  de rut debe ser así: _x000a_11.111.111-1" promptTitle="Formato" prompt="el formato de rut es: 11.111.111-1" sqref="D186:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Fila" prompt="Se debe escoger si la fila que estoy ingresando es una EMISION con todos sus datos o una fila para agregar BULTOS" sqref="A186:A1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato rut " error="El formato  de rut debe ser así: _x000a_11.111.111-1" promptTitle="Formato" prompt="el formato de rut es: 11.111.111-1" sqref="D170:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Fila" prompt="Se debe escoger si la fila que estoy ingresando es una EMISION con todos sus datos o una fila para agregar BULTOS" sqref="A170:A1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"EMISION, BULTO"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato rut " error="El formato  de rut debe ser así: _x000a_11.111.111-1" prompt="El rut debe ser ingresado con puntos y guión" sqref="D8:D185" xr:uid="{00000000-0002-0000-0000-000013000000}">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato rut " error="El formato  de rut debe ser así: _x000a_11.111.111-1" prompt="El rut debe ser ingresado con puntos y guión" sqref="D8:D169" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>0</formula1>
       <formula2>12</formula2>
     </dataValidation>
@@ -4492,7 +4492,7 @@
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge si la fila que vas a completar es una EMISION con todos los datos necesarios o una fila para agregar BULTOS en donde solo debes agregar medidas y peso" sqref="A8:A185" xr:uid="{00000000-0002-0000-0000-00001F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge si la fila que vas a completar es una EMISION con todos los datos necesarios o una fila para agregar BULTOS en donde solo debes agregar medidas y peso" sqref="A8:A169" xr:uid="{00000000-0002-0000-0000-00001F000000}">
       <formula1>"EMISION, BULTO"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Debes ingresar el teléfono del destinatario 9 dígitos" sqref="F8:F1048576" xr:uid="{0A81580A-1FF0-E34B-8D2B-13D1BB0FDA23}">
